--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="1607" documentId="{80E89BF1-14FE-454B-9995-8692AB30F332}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="{304A662A-9121-427F-B70B-87D92418AD88}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="76">
   <si>
     <t>xy</t>
   </si>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC333"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD160" sqref="AD160"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BG155" sqref="BG155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="{304A662A-9121-427F-B70B-87D92418AD88}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="{304A662A-9121-427F-B70B-87D92418AD88}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="83">
   <si>
     <t>xy</t>
   </si>
@@ -244,6 +244,27 @@
   <si>
     <t>Nota: Al finalizar este ciclo: resetear el input, dibujar el frame anterior, limpiar los resultados y luego hacer focus en el input.</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>í</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,6 +556,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC333"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BG155" sqref="BG155"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y178" sqref="Y178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -22949,43 +22976,3725 @@
       </c>
     </row>
     <row r="171" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="6">
+        <v>1</v>
+      </c>
+      <c r="C172" s="6">
+        <v>2</v>
+      </c>
+      <c r="D172" s="6">
+        <v>3</v>
+      </c>
+      <c r="E172" s="6">
+        <v>4</v>
+      </c>
+      <c r="F172" s="6">
+        <v>5</v>
+      </c>
+      <c r="G172" s="6">
+        <v>6</v>
+      </c>
+      <c r="H172" s="6">
+        <v>7</v>
+      </c>
+      <c r="I172" s="6">
+        <v>8</v>
+      </c>
+      <c r="J172" s="6">
+        <v>9</v>
+      </c>
+      <c r="K172" s="6">
+        <v>10</v>
+      </c>
+      <c r="L172" s="6">
+        <v>11</v>
+      </c>
+      <c r="M172" s="6">
+        <v>12</v>
+      </c>
+      <c r="N172" s="6">
+        <v>13</v>
+      </c>
+      <c r="O172" s="6">
+        <v>14</v>
+      </c>
+      <c r="P172" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q172" s="6">
+        <v>16</v>
+      </c>
+      <c r="R172" s="6">
+        <v>17</v>
+      </c>
+      <c r="S172" s="6">
+        <v>18</v>
+      </c>
+      <c r="T172" s="6">
+        <v>19</v>
+      </c>
+      <c r="U172" s="6">
+        <v>20</v>
+      </c>
+      <c r="V172" s="6">
+        <v>21</v>
+      </c>
+      <c r="W172" s="6">
+        <v>22</v>
+      </c>
+      <c r="X172" s="6">
+        <v>23</v>
+      </c>
+      <c r="Y172" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z172" s="6">
+        <v>25</v>
+      </c>
+      <c r="AA172" s="6">
+        <v>26</v>
+      </c>
+      <c r="AB172" s="6">
+        <v>27</v>
+      </c>
+      <c r="AC172" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD172" s="6">
+        <v>29</v>
+      </c>
+      <c r="AE172" s="6">
+        <v>30</v>
+      </c>
+      <c r="AF172" s="6">
+        <v>31</v>
+      </c>
+      <c r="AG172" s="6">
+        <v>32</v>
+      </c>
+      <c r="AH172" s="6">
+        <v>33</v>
+      </c>
+      <c r="AI172" s="6">
+        <v>34</v>
+      </c>
+      <c r="AJ172" s="6">
+        <v>35</v>
+      </c>
+      <c r="AK172" s="6">
+        <v>36</v>
+      </c>
+      <c r="AL172" s="6">
+        <v>37</v>
+      </c>
+      <c r="AM172" s="6">
+        <v>38</v>
+      </c>
+      <c r="AN172" s="6">
+        <v>39</v>
+      </c>
+      <c r="AO172" s="6">
+        <v>40</v>
+      </c>
+      <c r="AP172" s="6">
+        <v>41</v>
+      </c>
+      <c r="AQ172" s="6">
+        <v>42</v>
+      </c>
+      <c r="AR172" s="6">
+        <v>43</v>
+      </c>
+      <c r="AS172" s="6">
+        <v>44</v>
+      </c>
+      <c r="AT172" s="6">
+        <v>45</v>
+      </c>
+      <c r="AU172" s="6">
+        <v>46</v>
+      </c>
+      <c r="AV172" s="6">
+        <v>47</v>
+      </c>
+      <c r="AW172" s="6">
+        <v>48</v>
+      </c>
+      <c r="AX172" s="6">
+        <v>49</v>
+      </c>
+      <c r="AY172" s="6">
+        <v>50</v>
+      </c>
+      <c r="AZ172" s="6">
+        <v>51</v>
+      </c>
+      <c r="BA172" s="6">
+        <v>52</v>
+      </c>
+      <c r="BB172" s="6">
+        <v>53</v>
+      </c>
+      <c r="BC172" s="6">
+        <v>54</v>
+      </c>
+      <c r="BD172" s="6">
+        <v>55</v>
+      </c>
+      <c r="BE172" s="6">
+        <v>56</v>
+      </c>
+      <c r="BF172" s="6">
+        <v>57</v>
+      </c>
+      <c r="BG172" s="6">
+        <v>58</v>
+      </c>
+      <c r="BH172" s="6">
+        <v>59</v>
+      </c>
+      <c r="BI172" s="6">
+        <v>60</v>
+      </c>
+      <c r="BJ172" s="6">
+        <v>61</v>
+      </c>
+      <c r="BK172" s="6">
+        <v>62</v>
+      </c>
+      <c r="BL172" s="6">
+        <v>63</v>
+      </c>
+      <c r="BM172" s="6">
+        <v>64</v>
+      </c>
+      <c r="BN172" s="6">
+        <v>65</v>
+      </c>
+      <c r="BO172" s="6">
+        <v>66</v>
+      </c>
+      <c r="BP172" s="6">
+        <v>67</v>
+      </c>
+      <c r="BQ172" s="6">
+        <v>68</v>
+      </c>
+      <c r="BR172" s="6">
+        <v>69</v>
+      </c>
+      <c r="BS172" s="6">
+        <v>70</v>
+      </c>
+      <c r="BT172" s="6">
+        <v>71</v>
+      </c>
+      <c r="BU172" s="6">
+        <v>72</v>
+      </c>
+      <c r="BV172" s="6">
+        <v>73</v>
+      </c>
+      <c r="BW172" s="6">
+        <v>74</v>
+      </c>
+      <c r="BX172" s="6">
+        <v>75</v>
+      </c>
+      <c r="BY172" s="6">
+        <v>76</v>
+      </c>
+      <c r="BZ172" s="6">
+        <v>77</v>
+      </c>
+      <c r="CA172" s="6">
+        <v>78</v>
+      </c>
+      <c r="CB172" s="6">
+        <v>79</v>
+      </c>
+      <c r="CC172" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="5">
+        <v>1</v>
+      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA173" s="7"/>
+      <c r="CB173" s="7"/>
+      <c r="CC173" s="7"/>
+    </row>
+    <row r="174" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="5">
+        <v>2</v>
+      </c>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="7"/>
+      <c r="T174" s="7"/>
+      <c r="U174" s="7"/>
+      <c r="V174" s="7"/>
+      <c r="W174" s="7"/>
+      <c r="X174" s="7"/>
+      <c r="Y174" s="7"/>
+      <c r="Z174" s="7"/>
+      <c r="AA174" s="7"/>
+      <c r="AB174" s="7"/>
+      <c r="AC174" s="7"/>
+      <c r="AD174" s="7"/>
+      <c r="AE174" s="7"/>
+      <c r="AF174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG174" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI174" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ174" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK174" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL174" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM174" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN174" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO174" s="7"/>
+      <c r="AP174" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ174" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR174" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS174" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT174" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU174" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV174" s="7"/>
+      <c r="AW174" s="7"/>
+      <c r="AX174" s="7"/>
+      <c r="AY174" s="7"/>
+      <c r="AZ174" s="7"/>
+      <c r="BA174" s="7"/>
+      <c r="BB174" s="7"/>
+      <c r="BC174" s="7"/>
+      <c r="BD174" s="7"/>
+      <c r="BE174" s="7"/>
+      <c r="BF174" s="7"/>
+      <c r="BG174" s="7"/>
+      <c r="BH174" s="7"/>
+      <c r="BI174" s="7"/>
+      <c r="BJ174" s="7"/>
+      <c r="BK174" s="7"/>
+      <c r="BL174" s="7"/>
+      <c r="BM174" s="7"/>
+      <c r="BN174" s="7"/>
+      <c r="BO174" s="7"/>
+      <c r="BP174" s="7"/>
+      <c r="BQ174" s="7"/>
+      <c r="BR174" s="7"/>
+      <c r="BS174" s="7"/>
+      <c r="BT174" s="7"/>
+      <c r="BU174" s="7"/>
+      <c r="BV174" s="7"/>
+      <c r="BW174" s="7"/>
+      <c r="BX174" s="7"/>
+      <c r="BY174" s="7"/>
+      <c r="BZ174" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA174" s="7"/>
+      <c r="CB174" s="7"/>
+      <c r="CC174" s="7"/>
+    </row>
+    <row r="175" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="5">
+        <v>3</v>
+      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ175" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA175" s="7"/>
+      <c r="CB175" s="7"/>
+      <c r="CC175" s="7"/>
+    </row>
+    <row r="176" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="5">
+        <v>4</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K176" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L176" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M176" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N176" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O176" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q176" s="13"/>
+      <c r="R176" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S176" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T176" s="13"/>
+      <c r="U176" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W176" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X176" s="13"/>
+      <c r="Y176" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z176" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB176" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC176" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD176" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE176" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF176" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG176" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH176" s="13"/>
+      <c r="AI176" s="13"/>
+      <c r="AJ176" s="13"/>
+      <c r="AK176" s="13"/>
+      <c r="AL176" s="13"/>
+      <c r="AM176" s="13"/>
+      <c r="AN176" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO176" s="7"/>
+      <c r="AP176" s="13"/>
+      <c r="AQ176" s="13"/>
+      <c r="AR176" s="13"/>
+      <c r="AS176" s="13"/>
+      <c r="AT176" s="13"/>
+      <c r="AU176" s="13"/>
+      <c r="AV176" s="13"/>
+      <c r="AW176" s="13"/>
+      <c r="AX176" s="13"/>
+      <c r="AY176" s="13"/>
+      <c r="AZ176" s="13"/>
+      <c r="BA176" s="13"/>
+      <c r="BB176" s="13"/>
+      <c r="BC176" s="13"/>
+      <c r="BD176" s="13"/>
+      <c r="BE176" s="13"/>
+      <c r="BF176" s="13"/>
+      <c r="BG176" s="13"/>
+      <c r="BH176" s="13"/>
+      <c r="BI176" s="13"/>
+      <c r="BJ176" s="13"/>
+      <c r="BK176" s="13"/>
+      <c r="BL176" s="13"/>
+      <c r="BM176" s="13"/>
+      <c r="BN176" s="13"/>
+      <c r="BO176" s="13"/>
+      <c r="BP176" s="13"/>
+      <c r="BQ176" s="13"/>
+      <c r="BR176" s="13"/>
+      <c r="BS176" s="13"/>
+      <c r="BT176" s="13"/>
+      <c r="BU176" s="13"/>
+      <c r="BV176" s="13"/>
+      <c r="BW176" s="13"/>
+      <c r="BX176" s="13"/>
+      <c r="BY176" s="13"/>
+      <c r="BZ176" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA176" s="7"/>
+      <c r="CB176" s="7"/>
+      <c r="CC176" s="7"/>
+    </row>
+    <row r="177" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="5">
+        <v>5</v>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J177" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K177" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N177" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O177" s="13"/>
+      <c r="P177" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q177" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R177" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S177" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T177" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U177" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V177" s="13"/>
+      <c r="W177" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X177" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y177" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z177" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA177" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB177" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC177" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD177" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE177" s="13"/>
+      <c r="AF177" s="13"/>
+      <c r="AG177" s="13"/>
+      <c r="AH177" s="13"/>
+      <c r="AI177" s="13"/>
+      <c r="AJ177" s="13"/>
+      <c r="AK177" s="13"/>
+      <c r="AL177" s="13"/>
+      <c r="AM177" s="13"/>
+      <c r="AN177" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO177" s="7"/>
+      <c r="AP177" s="13"/>
+      <c r="AQ177" s="13"/>
+      <c r="AR177" s="13"/>
+      <c r="AS177" s="13"/>
+      <c r="AT177" s="13"/>
+      <c r="AU177" s="13"/>
+      <c r="AV177" s="13"/>
+      <c r="AW177" s="13"/>
+      <c r="AX177" s="13"/>
+      <c r="AY177" s="13"/>
+      <c r="AZ177" s="13"/>
+      <c r="BA177" s="13"/>
+      <c r="BB177" s="13"/>
+      <c r="BC177" s="13"/>
+      <c r="BD177" s="13"/>
+      <c r="BE177" s="13"/>
+      <c r="BF177" s="13"/>
+      <c r="BG177" s="13"/>
+      <c r="BH177" s="13"/>
+      <c r="BI177" s="13"/>
+      <c r="BJ177" s="13"/>
+      <c r="BK177" s="13"/>
+      <c r="BL177" s="13"/>
+      <c r="BM177" s="13"/>
+      <c r="BN177" s="13"/>
+      <c r="BO177" s="13"/>
+      <c r="BP177" s="13"/>
+      <c r="BQ177" s="13"/>
+      <c r="BR177" s="13"/>
+      <c r="BS177" s="13"/>
+      <c r="BT177" s="13"/>
+      <c r="BU177" s="13"/>
+      <c r="BV177" s="13"/>
+      <c r="BW177" s="13"/>
+      <c r="BX177" s="13"/>
+      <c r="BY177" s="13"/>
+      <c r="BZ177" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA177" s="7"/>
+      <c r="CB177" s="7"/>
+      <c r="CC177" s="7"/>
+    </row>
+    <row r="178" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="5">
+        <v>6</v>
+      </c>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E178" s="7"/>
+      <c r="F178" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L178" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M178" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N178" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O178" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P178" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R178" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S178" s="13"/>
+      <c r="T178" s="13"/>
+      <c r="U178" s="13"/>
+      <c r="V178" s="13"/>
+      <c r="W178" s="13"/>
+      <c r="X178" s="13"/>
+      <c r="Y178" s="13"/>
+      <c r="Z178" s="13"/>
+      <c r="AA178" s="13"/>
+      <c r="AB178" s="13"/>
+      <c r="AC178" s="13"/>
+      <c r="AD178" s="13"/>
+      <c r="AE178" s="13"/>
+      <c r="AF178" s="13"/>
+      <c r="AG178" s="13"/>
+      <c r="AH178" s="13"/>
+      <c r="AI178" s="13"/>
+      <c r="AJ178" s="13"/>
+      <c r="AK178" s="13"/>
+      <c r="AL178" s="13"/>
+      <c r="AM178" s="13"/>
+      <c r="AN178" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO178" s="11"/>
+      <c r="AP178" s="13"/>
+      <c r="AQ178" s="13"/>
+      <c r="AR178" s="13"/>
+      <c r="AS178" s="13"/>
+      <c r="AT178" s="13"/>
+      <c r="AU178" s="13"/>
+      <c r="AV178" s="13"/>
+      <c r="AW178" s="13"/>
+      <c r="AX178" s="13"/>
+      <c r="AY178" s="13"/>
+      <c r="AZ178" s="13"/>
+      <c r="BA178" s="13"/>
+      <c r="BB178" s="13"/>
+      <c r="BC178" s="13"/>
+      <c r="BD178" s="13"/>
+      <c r="BE178" s="13"/>
+      <c r="BF178" s="13"/>
+      <c r="BG178" s="13"/>
+      <c r="BH178" s="13"/>
+      <c r="BI178" s="13"/>
+      <c r="BJ178" s="13"/>
+      <c r="BK178" s="13"/>
+      <c r="BL178" s="13"/>
+      <c r="BM178" s="13"/>
+      <c r="BN178" s="13"/>
+      <c r="BO178" s="13"/>
+      <c r="BP178" s="13"/>
+      <c r="BQ178" s="13"/>
+      <c r="BR178" s="13"/>
+      <c r="BS178" s="13"/>
+      <c r="BT178" s="13"/>
+      <c r="BU178" s="13"/>
+      <c r="BV178" s="13"/>
+      <c r="BW178" s="13"/>
+      <c r="BX178" s="13"/>
+      <c r="BY178" s="13"/>
+      <c r="BZ178" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA178" s="7"/>
+      <c r="CB178" s="7"/>
+      <c r="CC178" s="7"/>
+    </row>
+    <row r="179" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="5">
+        <v>7</v>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
+      <c r="L179" s="13"/>
+      <c r="M179" s="13"/>
+      <c r="N179" s="13"/>
+      <c r="O179" s="13"/>
+      <c r="P179" s="13"/>
+      <c r="Q179" s="13"/>
+      <c r="R179" s="13"/>
+      <c r="S179" s="13"/>
+      <c r="T179" s="13"/>
+      <c r="U179" s="13"/>
+      <c r="V179" s="13"/>
+      <c r="W179" s="13"/>
+      <c r="X179" s="13"/>
+      <c r="Y179" s="13"/>
+      <c r="Z179" s="13"/>
+      <c r="AA179" s="13"/>
+      <c r="AB179" s="13"/>
+      <c r="AC179" s="13"/>
+      <c r="AD179" s="13"/>
+      <c r="AE179" s="13"/>
+      <c r="AF179" s="13"/>
+      <c r="AG179" s="13"/>
+      <c r="AH179" s="13"/>
+      <c r="AI179" s="13"/>
+      <c r="AJ179" s="13"/>
+      <c r="AK179" s="13"/>
+      <c r="AL179" s="13"/>
+      <c r="AM179" s="13"/>
+      <c r="AN179" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO179" s="7"/>
+      <c r="AP179" s="13"/>
+      <c r="AQ179" s="13"/>
+      <c r="AR179" s="13"/>
+      <c r="AS179" s="13"/>
+      <c r="AT179" s="13"/>
+      <c r="AU179" s="13"/>
+      <c r="AV179" s="13"/>
+      <c r="AW179" s="13"/>
+      <c r="AX179" s="13"/>
+      <c r="AY179" s="13"/>
+      <c r="AZ179" s="13"/>
+      <c r="BA179" s="13"/>
+      <c r="BB179" s="13"/>
+      <c r="BC179" s="13"/>
+      <c r="BD179" s="13"/>
+      <c r="BE179" s="13"/>
+      <c r="BF179" s="13"/>
+      <c r="BG179" s="13"/>
+      <c r="BH179" s="13"/>
+      <c r="BI179" s="13"/>
+      <c r="BJ179" s="13"/>
+      <c r="BK179" s="13"/>
+      <c r="BL179" s="13"/>
+      <c r="BM179" s="13"/>
+      <c r="BN179" s="13"/>
+      <c r="BO179" s="13"/>
+      <c r="BP179" s="13"/>
+      <c r="BQ179" s="13"/>
+      <c r="BR179" s="13"/>
+      <c r="BS179" s="13"/>
+      <c r="BT179" s="13"/>
+      <c r="BU179" s="13"/>
+      <c r="BV179" s="13"/>
+      <c r="BW179" s="13"/>
+      <c r="BX179" s="13"/>
+      <c r="BY179" s="13"/>
+      <c r="BZ179" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA179" s="7"/>
+      <c r="CB179" s="7"/>
+      <c r="CC179" s="7"/>
+    </row>
+    <row r="180" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="5">
+        <v>8</v>
+      </c>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E180" s="7"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="13"/>
+      <c r="M180" s="13"/>
+      <c r="N180" s="13"/>
+      <c r="O180" s="13"/>
+      <c r="P180" s="13"/>
+      <c r="Q180" s="13"/>
+      <c r="R180" s="13"/>
+      <c r="S180" s="13"/>
+      <c r="T180" s="13"/>
+      <c r="U180" s="13"/>
+      <c r="V180" s="13"/>
+      <c r="W180" s="13"/>
+      <c r="X180" s="13"/>
+      <c r="Y180" s="13"/>
+      <c r="Z180" s="13"/>
+      <c r="AA180" s="13"/>
+      <c r="AB180" s="13"/>
+      <c r="AC180" s="13"/>
+      <c r="AD180" s="13"/>
+      <c r="AE180" s="13"/>
+      <c r="AF180" s="13"/>
+      <c r="AG180" s="13"/>
+      <c r="AH180" s="13"/>
+      <c r="AI180" s="13"/>
+      <c r="AJ180" s="13"/>
+      <c r="AK180" s="13"/>
+      <c r="AL180" s="13"/>
+      <c r="AM180" s="13"/>
+      <c r="AN180" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO180" s="7"/>
+      <c r="AP180" s="13"/>
+      <c r="AQ180" s="13"/>
+      <c r="AR180" s="13"/>
+      <c r="AS180" s="13"/>
+      <c r="AT180" s="13"/>
+      <c r="AU180" s="13"/>
+      <c r="AV180" s="13"/>
+      <c r="AW180" s="13"/>
+      <c r="AX180" s="13"/>
+      <c r="AY180" s="13"/>
+      <c r="AZ180" s="13"/>
+      <c r="BA180" s="13"/>
+      <c r="BB180" s="13"/>
+      <c r="BC180" s="13"/>
+      <c r="BD180" s="13"/>
+      <c r="BE180" s="13"/>
+      <c r="BF180" s="13"/>
+      <c r="BG180" s="13"/>
+      <c r="BH180" s="13"/>
+      <c r="BI180" s="13"/>
+      <c r="BJ180" s="13"/>
+      <c r="BK180" s="13"/>
+      <c r="BL180" s="13"/>
+      <c r="BM180" s="13"/>
+      <c r="BN180" s="13"/>
+      <c r="BO180" s="13"/>
+      <c r="BP180" s="13"/>
+      <c r="BQ180" s="13"/>
+      <c r="BR180" s="13"/>
+      <c r="BS180" s="13"/>
+      <c r="BT180" s="13"/>
+      <c r="BU180" s="13"/>
+      <c r="BV180" s="13"/>
+      <c r="BW180" s="13"/>
+      <c r="BX180" s="13"/>
+      <c r="BY180" s="13"/>
+      <c r="BZ180" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA180" s="7"/>
+      <c r="CB180" s="7"/>
+      <c r="CC180" s="7"/>
+    </row>
+    <row r="181" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="5">
+        <v>9</v>
+      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
+      <c r="L181" s="13"/>
+      <c r="M181" s="13"/>
+      <c r="N181" s="13"/>
+      <c r="O181" s="13"/>
+      <c r="P181" s="13"/>
+      <c r="Q181" s="13"/>
+      <c r="R181" s="13"/>
+      <c r="S181" s="13"/>
+      <c r="T181" s="13"/>
+      <c r="U181" s="13"/>
+      <c r="V181" s="13"/>
+      <c r="W181" s="13"/>
+      <c r="X181" s="13"/>
+      <c r="Y181" s="13"/>
+      <c r="Z181" s="13"/>
+      <c r="AA181" s="13"/>
+      <c r="AB181" s="13"/>
+      <c r="AC181" s="13"/>
+      <c r="AD181" s="13"/>
+      <c r="AE181" s="13"/>
+      <c r="AF181" s="13"/>
+      <c r="AG181" s="13"/>
+      <c r="AH181" s="13"/>
+      <c r="AI181" s="13"/>
+      <c r="AJ181" s="13"/>
+      <c r="AK181" s="13"/>
+      <c r="AL181" s="13"/>
+      <c r="AM181" s="13"/>
+      <c r="AN181" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO181" s="7"/>
+      <c r="AP181" s="13"/>
+      <c r="AQ181" s="13"/>
+      <c r="AR181" s="13"/>
+      <c r="AS181" s="13"/>
+      <c r="AT181" s="13"/>
+      <c r="AU181" s="13"/>
+      <c r="AV181" s="13"/>
+      <c r="AW181" s="13"/>
+      <c r="AX181" s="13"/>
+      <c r="AY181" s="13"/>
+      <c r="AZ181" s="13"/>
+      <c r="BA181" s="13"/>
+      <c r="BB181" s="13"/>
+      <c r="BC181" s="13"/>
+      <c r="BD181" s="13"/>
+      <c r="BE181" s="13"/>
+      <c r="BF181" s="13"/>
+      <c r="BG181" s="13"/>
+      <c r="BH181" s="13"/>
+      <c r="BI181" s="13"/>
+      <c r="BJ181" s="13"/>
+      <c r="BK181" s="13"/>
+      <c r="BL181" s="13"/>
+      <c r="BM181" s="13"/>
+      <c r="BN181" s="13"/>
+      <c r="BO181" s="13"/>
+      <c r="BP181" s="13"/>
+      <c r="BQ181" s="13"/>
+      <c r="BR181" s="13"/>
+      <c r="BS181" s="13"/>
+      <c r="BT181" s="13"/>
+      <c r="BU181" s="13"/>
+      <c r="BV181" s="13"/>
+      <c r="BW181" s="13"/>
+      <c r="BX181" s="13"/>
+      <c r="BY181" s="13"/>
+      <c r="BZ181" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA181" s="7"/>
+      <c r="CB181" s="7"/>
+      <c r="CC181" s="7"/>
+    </row>
+    <row r="182" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="5">
+        <v>10</v>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="13"/>
+      <c r="L182" s="13"/>
+      <c r="M182" s="13"/>
+      <c r="N182" s="13"/>
+      <c r="O182" s="13"/>
+      <c r="P182" s="13"/>
+      <c r="Q182" s="13"/>
+      <c r="R182" s="13"/>
+      <c r="S182" s="13"/>
+      <c r="T182" s="13"/>
+      <c r="U182" s="13"/>
+      <c r="V182" s="13"/>
+      <c r="W182" s="13"/>
+      <c r="X182" s="13"/>
+      <c r="Y182" s="13"/>
+      <c r="Z182" s="13"/>
+      <c r="AA182" s="13"/>
+      <c r="AB182" s="13"/>
+      <c r="AC182" s="13"/>
+      <c r="AD182" s="13"/>
+      <c r="AE182" s="13"/>
+      <c r="AF182" s="13"/>
+      <c r="AG182" s="13"/>
+      <c r="AH182" s="13"/>
+      <c r="AI182" s="13"/>
+      <c r="AJ182" s="13"/>
+      <c r="AK182" s="13"/>
+      <c r="AL182" s="13"/>
+      <c r="AM182" s="13"/>
+      <c r="AN182" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO182" s="7"/>
+      <c r="AP182" s="13"/>
+      <c r="AQ182" s="13"/>
+      <c r="AR182" s="13"/>
+      <c r="AS182" s="13"/>
+      <c r="AT182" s="13"/>
+      <c r="AU182" s="13"/>
+      <c r="AV182" s="13"/>
+      <c r="AW182" s="13"/>
+      <c r="AX182" s="13"/>
+      <c r="AY182" s="13"/>
+      <c r="AZ182" s="13"/>
+      <c r="BA182" s="13"/>
+      <c r="BB182" s="13"/>
+      <c r="BC182" s="13"/>
+      <c r="BD182" s="13"/>
+      <c r="BE182" s="13"/>
+      <c r="BF182" s="13"/>
+      <c r="BG182" s="13"/>
+      <c r="BH182" s="13"/>
+      <c r="BI182" s="13"/>
+      <c r="BJ182" s="13"/>
+      <c r="BK182" s="13"/>
+      <c r="BL182" s="13"/>
+      <c r="BM182" s="13"/>
+      <c r="BN182" s="13"/>
+      <c r="BO182" s="13"/>
+      <c r="BP182" s="13"/>
+      <c r="BQ182" s="13"/>
+      <c r="BR182" s="13"/>
+      <c r="BS182" s="13"/>
+      <c r="BT182" s="13"/>
+      <c r="BU182" s="13"/>
+      <c r="BV182" s="13"/>
+      <c r="BW182" s="13"/>
+      <c r="BX182" s="13"/>
+      <c r="BY182" s="13"/>
+      <c r="BZ182" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA182" s="7"/>
+      <c r="CB182" s="7"/>
+      <c r="CC182" s="7"/>
+    </row>
+    <row r="183" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="5">
+        <v>11</v>
+      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E183" s="11"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="13"/>
+      <c r="L183" s="13"/>
+      <c r="M183" s="13"/>
+      <c r="N183" s="13"/>
+      <c r="O183" s="13"/>
+      <c r="P183" s="13"/>
+      <c r="Q183" s="13"/>
+      <c r="R183" s="13"/>
+      <c r="S183" s="13"/>
+      <c r="T183" s="13"/>
+      <c r="U183" s="13"/>
+      <c r="V183" s="13"/>
+      <c r="W183" s="13"/>
+      <c r="X183" s="13"/>
+      <c r="Y183" s="13"/>
+      <c r="Z183" s="13"/>
+      <c r="AA183" s="13"/>
+      <c r="AB183" s="13"/>
+      <c r="AC183" s="13"/>
+      <c r="AD183" s="13"/>
+      <c r="AE183" s="13"/>
+      <c r="AF183" s="13"/>
+      <c r="AG183" s="13"/>
+      <c r="AH183" s="13"/>
+      <c r="AI183" s="13"/>
+      <c r="AJ183" s="13"/>
+      <c r="AK183" s="13"/>
+      <c r="AL183" s="13"/>
+      <c r="AM183" s="13"/>
+      <c r="AN183" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO183" s="11"/>
+      <c r="AP183" s="13"/>
+      <c r="AQ183" s="13"/>
+      <c r="AR183" s="13"/>
+      <c r="AS183" s="13"/>
+      <c r="AT183" s="13"/>
+      <c r="AU183" s="13"/>
+      <c r="AV183" s="13"/>
+      <c r="AW183" s="13"/>
+      <c r="AX183" s="13"/>
+      <c r="AY183" s="13"/>
+      <c r="AZ183" s="13"/>
+      <c r="BA183" s="13"/>
+      <c r="BB183" s="13"/>
+      <c r="BC183" s="13"/>
+      <c r="BD183" s="13"/>
+      <c r="BE183" s="13"/>
+      <c r="BF183" s="13"/>
+      <c r="BG183" s="13"/>
+      <c r="BH183" s="13"/>
+      <c r="BI183" s="13"/>
+      <c r="BJ183" s="13"/>
+      <c r="BK183" s="13"/>
+      <c r="BL183" s="13"/>
+      <c r="BM183" s="13"/>
+      <c r="BN183" s="13"/>
+      <c r="BO183" s="13"/>
+      <c r="BP183" s="13"/>
+      <c r="BQ183" s="13"/>
+      <c r="BR183" s="13"/>
+      <c r="BS183" s="13"/>
+      <c r="BT183" s="13"/>
+      <c r="BU183" s="13"/>
+      <c r="BV183" s="13"/>
+      <c r="BW183" s="13"/>
+      <c r="BX183" s="13"/>
+      <c r="BY183" s="13"/>
+      <c r="BZ183" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA183" s="7"/>
+      <c r="CB183" s="7"/>
+      <c r="CC183" s="7"/>
+    </row>
+    <row r="184" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="5">
+        <v>12</v>
+      </c>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E184" s="11"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
+      <c r="K184" s="13"/>
+      <c r="L184" s="13"/>
+      <c r="M184" s="13"/>
+      <c r="N184" s="13"/>
+      <c r="O184" s="13"/>
+      <c r="P184" s="13"/>
+      <c r="Q184" s="13"/>
+      <c r="R184" s="13"/>
+      <c r="S184" s="13"/>
+      <c r="T184" s="13"/>
+      <c r="U184" s="13"/>
+      <c r="V184" s="13"/>
+      <c r="W184" s="13"/>
+      <c r="X184" s="13"/>
+      <c r="Y184" s="13"/>
+      <c r="Z184" s="13"/>
+      <c r="AA184" s="13"/>
+      <c r="AB184" s="13"/>
+      <c r="AC184" s="13"/>
+      <c r="AD184" s="13"/>
+      <c r="AE184" s="13"/>
+      <c r="AF184" s="13"/>
+      <c r="AG184" s="13"/>
+      <c r="AH184" s="13"/>
+      <c r="AI184" s="13"/>
+      <c r="AJ184" s="13"/>
+      <c r="AK184" s="13"/>
+      <c r="AL184" s="13"/>
+      <c r="AM184" s="13"/>
+      <c r="AN184" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO184" s="11"/>
+      <c r="AP184" s="13"/>
+      <c r="AQ184" s="13"/>
+      <c r="AR184" s="13"/>
+      <c r="AS184" s="13"/>
+      <c r="AT184" s="13"/>
+      <c r="AU184" s="13"/>
+      <c r="AV184" s="13"/>
+      <c r="AW184" s="13"/>
+      <c r="AX184" s="13"/>
+      <c r="AY184" s="13"/>
+      <c r="AZ184" s="13"/>
+      <c r="BA184" s="13"/>
+      <c r="BB184" s="13"/>
+      <c r="BC184" s="13"/>
+      <c r="BD184" s="13"/>
+      <c r="BE184" s="13"/>
+      <c r="BF184" s="13"/>
+      <c r="BG184" s="13"/>
+      <c r="BH184" s="13"/>
+      <c r="BI184" s="13"/>
+      <c r="BJ184" s="13"/>
+      <c r="BK184" s="13"/>
+      <c r="BL184" s="13"/>
+      <c r="BM184" s="13"/>
+      <c r="BN184" s="13"/>
+      <c r="BO184" s="13"/>
+      <c r="BP184" s="13"/>
+      <c r="BQ184" s="13"/>
+      <c r="BR184" s="13"/>
+      <c r="BS184" s="13"/>
+      <c r="BT184" s="13"/>
+      <c r="BU184" s="13"/>
+      <c r="BV184" s="13"/>
+      <c r="BW184" s="13"/>
+      <c r="BX184" s="13"/>
+      <c r="BY184" s="13"/>
+      <c r="BZ184" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA184" s="7"/>
+      <c r="CB184" s="7"/>
+      <c r="CC184" s="7"/>
+    </row>
+    <row r="185" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="5">
+        <v>13</v>
+      </c>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN185" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY185" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ185" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA185" s="7"/>
+      <c r="CB185" s="7"/>
+      <c r="CC185" s="7"/>
+    </row>
+    <row r="186" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="5">
+        <v>14</v>
+      </c>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I186" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K186" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L186" s="11"/>
+      <c r="M186" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N186" s="13">
+        <v>3</v>
+      </c>
+      <c r="O186" s="13">
+        <v>4</v>
+      </c>
+      <c r="P186" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q186" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R186" s="13">
+        <v>6</v>
+      </c>
+      <c r="S186" s="7"/>
+      <c r="T186" s="7"/>
+      <c r="U186" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V186" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W186" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X186" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y186" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z186" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA186" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB186" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC186" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD186" s="7"/>
+      <c r="AE186" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF186" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG186" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH186" s="13"/>
+      <c r="AI186" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ186" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK186" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL186" s="7"/>
+      <c r="AM186" s="7"/>
+      <c r="AN186" s="7"/>
+      <c r="AO186" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP186" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ186" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR186" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS186" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT186" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU186" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV186" s="7"/>
+      <c r="AW186" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX186" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY186" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ186" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA186" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB186" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC186" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD186" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE186" s="7"/>
+      <c r="BF186" s="7"/>
+      <c r="BG186" s="7"/>
+      <c r="BH186" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI186" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ186" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK186" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL186" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM186" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN186" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO186" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP186" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ186" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR186" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS186" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT186" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU186" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV186" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW186" s="7"/>
+      <c r="BX186" s="13">
+        <v>6</v>
+      </c>
+      <c r="BY186" s="13">
+        <v>7</v>
+      </c>
+      <c r="BZ186" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA186" s="7"/>
+      <c r="CB186" s="7"/>
+      <c r="CC186" s="7"/>
+    </row>
+    <row r="187" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="5">
+        <v>15</v>
+      </c>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z187" s="7"/>
+      <c r="AA187" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB187" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC187" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD187" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE187" s="7"/>
+      <c r="AF187" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG187" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH187" s="13">
+        <v>8</v>
+      </c>
+      <c r="AI187" s="13">
+        <v>5</v>
+      </c>
+      <c r="AJ187" s="7"/>
+      <c r="AK187" s="7"/>
+      <c r="AL187" s="7"/>
+      <c r="AM187" s="7"/>
+      <c r="AN187" s="7"/>
+      <c r="AO187" s="7"/>
+      <c r="AP187" s="7"/>
+      <c r="AQ187" s="7"/>
+      <c r="AR187" s="7"/>
+      <c r="AS187" s="7"/>
+      <c r="AT187" s="7"/>
+      <c r="AU187" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV187" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW187" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX187" s="11"/>
+      <c r="AY187" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ187" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA187" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB187" s="7"/>
+      <c r="BC187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ187" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA187" s="7"/>
+      <c r="CB187" s="7"/>
+      <c r="CC187" s="7"/>
+    </row>
+    <row r="188" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="5">
+        <v>16</v>
+      </c>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H188" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J188" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="13"/>
+      <c r="M188" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N188" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O188" s="13"/>
+      <c r="P188" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q188" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R188" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S188" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="U188" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V188" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X188" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z188" s="13"/>
+      <c r="AA188" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB188" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC188" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD188" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF188" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG188" s="13"/>
+      <c r="AH188" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ188" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK188" s="13"/>
+      <c r="AL188" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM188" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN188" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO188" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ188" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS188" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT188" s="13"/>
+      <c r="AU188" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW188" s="13"/>
+      <c r="AX188" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY188" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ188" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA188" s="13"/>
+      <c r="BB188" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD188" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE188" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF188" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG188" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI188" s="13"/>
+      <c r="BJ188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK188" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL188" s="13"/>
+      <c r="BM188" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN188" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO188" s="13"/>
+      <c r="BP188" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR188" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS188" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT188" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU188" s="13"/>
+      <c r="BV188" s="13"/>
+      <c r="BW188" s="13"/>
+      <c r="BX188" s="13"/>
+      <c r="BY188" s="13"/>
+      <c r="BZ188" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA188" s="7"/>
+      <c r="CB188" s="7"/>
+      <c r="CC188" s="7"/>
+    </row>
+    <row r="189" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="5">
+        <v>17</v>
+      </c>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J189" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K189" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L189" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N189" s="13"/>
+      <c r="O189" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P189" s="13"/>
+      <c r="Q189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R189" s="13"/>
+      <c r="S189" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U189" s="13"/>
+      <c r="V189" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W189" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X189" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y189" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z189" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB189" s="13"/>
+      <c r="AC189" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD189" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE189" s="13"/>
+      <c r="AF189" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG189" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH189" s="13"/>
+      <c r="AI189" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ189" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK189" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM189" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN189" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP189" s="13"/>
+      <c r="AQ189" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR189" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS189" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT189" s="13"/>
+      <c r="AU189" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW189" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX189" s="13"/>
+      <c r="AY189" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ189" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA189" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB189" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD189" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE189" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF189" s="13"/>
+      <c r="BG189" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH189" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI189" s="13"/>
+      <c r="BJ189" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK189" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL189" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM189" s="13"/>
+      <c r="BN189" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO189" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP189" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ189" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR189" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS189" s="13"/>
+      <c r="BT189" s="13"/>
+      <c r="BU189" s="13"/>
+      <c r="BV189" s="13"/>
+      <c r="BW189" s="13"/>
+      <c r="BX189" s="13"/>
+      <c r="BY189" s="13"/>
+      <c r="BZ189" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA189" s="7"/>
+      <c r="CB189" s="7"/>
+      <c r="CC189" s="7"/>
+    </row>
+    <row r="190" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="5">
+        <v>18</v>
+      </c>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H190" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J190" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K190" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L190" s="13"/>
+      <c r="M190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N190" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O190" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q190" s="13"/>
+      <c r="R190" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S190" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U190" s="13"/>
+      <c r="V190" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W190" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y190" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA190" s="13"/>
+      <c r="AB190" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD190" s="13"/>
+      <c r="AE190" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG190" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH190" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI190" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK190" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM190" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN190" s="13"/>
+      <c r="AO190" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP190" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR190" s="13"/>
+      <c r="AS190" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT190" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU190" s="13"/>
+      <c r="AV190" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX190" s="13"/>
+      <c r="AY190" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA190" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC190" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD190" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG190" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH190" s="13"/>
+      <c r="BI190" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK190" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL190" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN190" s="13"/>
+      <c r="BO190" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP190" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BQ190" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR190" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT190" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU190" s="13"/>
+      <c r="BV190" s="13"/>
+      <c r="BW190" s="13"/>
+      <c r="BX190" s="13"/>
+      <c r="BY190" s="13"/>
+      <c r="BZ190" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA190" s="7"/>
+      <c r="CB190" s="7"/>
+      <c r="CC190" s="7"/>
+    </row>
+    <row r="191" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="5">
+        <v>19</v>
+      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
+      <c r="K191" s="13"/>
+      <c r="L191" s="13"/>
+      <c r="M191" s="13"/>
+      <c r="N191" s="13"/>
+      <c r="O191" s="13"/>
+      <c r="P191" s="13"/>
+      <c r="Q191" s="13"/>
+      <c r="R191" s="13"/>
+      <c r="S191" s="13"/>
+      <c r="T191" s="13"/>
+      <c r="U191" s="13"/>
+      <c r="V191" s="13"/>
+      <c r="W191" s="13"/>
+      <c r="X191" s="13"/>
+      <c r="Y191" s="13"/>
+      <c r="Z191" s="13"/>
+      <c r="AA191" s="13"/>
+      <c r="AB191" s="13"/>
+      <c r="AC191" s="13"/>
+      <c r="AD191" s="13"/>
+      <c r="AE191" s="13"/>
+      <c r="AF191" s="13"/>
+      <c r="AG191" s="13"/>
+      <c r="AH191" s="13"/>
+      <c r="AI191" s="13"/>
+      <c r="AJ191" s="13"/>
+      <c r="AK191" s="13"/>
+      <c r="AL191" s="13"/>
+      <c r="AM191" s="13"/>
+      <c r="AN191" s="13"/>
+      <c r="AO191" s="13"/>
+      <c r="AP191" s="13"/>
+      <c r="AQ191" s="13"/>
+      <c r="AR191" s="13"/>
+      <c r="AS191" s="13"/>
+      <c r="AT191" s="13"/>
+      <c r="AU191" s="13"/>
+      <c r="AV191" s="13"/>
+      <c r="AW191" s="13"/>
+      <c r="AX191" s="13"/>
+      <c r="AY191" s="13"/>
+      <c r="AZ191" s="13"/>
+      <c r="BA191" s="13"/>
+      <c r="BB191" s="13"/>
+      <c r="BC191" s="13"/>
+      <c r="BD191" s="13"/>
+      <c r="BE191" s="13"/>
+      <c r="BF191" s="13"/>
+      <c r="BG191" s="13"/>
+      <c r="BH191" s="13"/>
+      <c r="BI191" s="13"/>
+      <c r="BJ191" s="13"/>
+      <c r="BK191" s="13"/>
+      <c r="BL191" s="13"/>
+      <c r="BM191" s="13"/>
+      <c r="BN191" s="13"/>
+      <c r="BO191" s="13"/>
+      <c r="BP191" s="13"/>
+      <c r="BQ191" s="13"/>
+      <c r="BR191" s="13"/>
+      <c r="BS191" s="13"/>
+      <c r="BT191" s="13"/>
+      <c r="BU191" s="13"/>
+      <c r="BV191" s="13"/>
+      <c r="BW191" s="13"/>
+      <c r="BX191" s="13"/>
+      <c r="BY191" s="13"/>
+      <c r="BZ191" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA191" s="7"/>
+      <c r="CB191" s="7"/>
+      <c r="CC191" s="7"/>
+    </row>
+    <row r="192" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="5">
+        <v>20</v>
+      </c>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E192" s="13"/>
+      <c r="F192" s="30"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="13"/>
+      <c r="L192" s="13"/>
+      <c r="M192" s="13"/>
+      <c r="N192" s="13"/>
+      <c r="O192" s="13"/>
+      <c r="P192" s="13"/>
+      <c r="Q192" s="13"/>
+      <c r="R192" s="13"/>
+      <c r="S192" s="13"/>
+      <c r="T192" s="13"/>
+      <c r="U192" s="13"/>
+      <c r="V192" s="13"/>
+      <c r="W192" s="13"/>
+      <c r="X192" s="13"/>
+      <c r="Y192" s="13"/>
+      <c r="Z192" s="13"/>
+      <c r="AA192" s="13"/>
+      <c r="AB192" s="13"/>
+      <c r="AC192" s="13"/>
+      <c r="AD192" s="13"/>
+      <c r="AE192" s="13"/>
+      <c r="AF192" s="13"/>
+      <c r="AG192" s="13"/>
+      <c r="AH192" s="13"/>
+      <c r="AI192" s="13"/>
+      <c r="AJ192" s="13"/>
+      <c r="AK192" s="13"/>
+      <c r="AL192" s="13"/>
+      <c r="AM192" s="13"/>
+      <c r="AN192" s="13"/>
+      <c r="AO192" s="13"/>
+      <c r="AP192" s="13"/>
+      <c r="AQ192" s="13"/>
+      <c r="AR192" s="13"/>
+      <c r="AS192" s="13"/>
+      <c r="AT192" s="13"/>
+      <c r="AU192" s="13"/>
+      <c r="AV192" s="13"/>
+      <c r="AW192" s="13"/>
+      <c r="AX192" s="13"/>
+      <c r="AY192" s="13"/>
+      <c r="AZ192" s="13"/>
+      <c r="BA192" s="13"/>
+      <c r="BB192" s="13"/>
+      <c r="BC192" s="13"/>
+      <c r="BD192" s="13"/>
+      <c r="BE192" s="13"/>
+      <c r="BF192" s="13"/>
+      <c r="BG192" s="13"/>
+      <c r="BH192" s="13"/>
+      <c r="BI192" s="13"/>
+      <c r="BJ192" s="13"/>
+      <c r="BK192" s="13"/>
+      <c r="BL192" s="13"/>
+      <c r="BM192" s="13"/>
+      <c r="BN192" s="13"/>
+      <c r="BO192" s="13"/>
+      <c r="BP192" s="13"/>
+      <c r="BQ192" s="13"/>
+      <c r="BR192" s="13"/>
+      <c r="BS192" s="13"/>
+      <c r="BT192" s="13"/>
+      <c r="BU192" s="13"/>
+      <c r="BV192" s="13"/>
+      <c r="BW192" s="13"/>
+      <c r="BX192" s="13"/>
+      <c r="BY192" s="13"/>
+      <c r="BZ192" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA192" s="7"/>
+      <c r="CB192" s="7"/>
+      <c r="CC192" s="7"/>
+    </row>
+    <row r="193" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="5">
+        <v>21</v>
+      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="13"/>
+      <c r="O193" s="13"/>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="13"/>
+      <c r="R193" s="13"/>
+      <c r="S193" s="13"/>
+      <c r="T193" s="13"/>
+      <c r="U193" s="13"/>
+      <c r="V193" s="13"/>
+      <c r="W193" s="13"/>
+      <c r="X193" s="13"/>
+      <c r="Y193" s="13"/>
+      <c r="Z193" s="13"/>
+      <c r="AA193" s="13"/>
+      <c r="AB193" s="13"/>
+      <c r="AC193" s="13"/>
+      <c r="AD193" s="13"/>
+      <c r="AE193" s="13"/>
+      <c r="AF193" s="13"/>
+      <c r="AG193" s="13"/>
+      <c r="AH193" s="13"/>
+      <c r="AI193" s="13"/>
+      <c r="AJ193" s="13"/>
+      <c r="AK193" s="13"/>
+      <c r="AL193" s="13"/>
+      <c r="AM193" s="13"/>
+      <c r="AN193" s="13"/>
+      <c r="AO193" s="13"/>
+      <c r="AP193" s="13"/>
+      <c r="AQ193" s="13"/>
+      <c r="AR193" s="13"/>
+      <c r="AS193" s="13"/>
+      <c r="AT193" s="13"/>
+      <c r="AU193" s="13"/>
+      <c r="AV193" s="13"/>
+      <c r="AW193" s="13"/>
+      <c r="AX193" s="13"/>
+      <c r="AY193" s="13"/>
+      <c r="AZ193" s="13"/>
+      <c r="BA193" s="13"/>
+      <c r="BB193" s="13"/>
+      <c r="BC193" s="13"/>
+      <c r="BD193" s="13"/>
+      <c r="BE193" s="13"/>
+      <c r="BF193" s="13"/>
+      <c r="BG193" s="13"/>
+      <c r="BH193" s="13"/>
+      <c r="BI193" s="13"/>
+      <c r="BJ193" s="13"/>
+      <c r="BK193" s="13"/>
+      <c r="BL193" s="13"/>
+      <c r="BM193" s="13"/>
+      <c r="BN193" s="13"/>
+      <c r="BO193" s="13"/>
+      <c r="BP193" s="13"/>
+      <c r="BQ193" s="13"/>
+      <c r="BR193" s="13"/>
+      <c r="BS193" s="13"/>
+      <c r="BT193" s="13"/>
+      <c r="BU193" s="13"/>
+      <c r="BV193" s="13"/>
+      <c r="BW193" s="13"/>
+      <c r="BX193" s="13"/>
+      <c r="BY193" s="13"/>
+      <c r="BZ193" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA193" s="7"/>
+      <c r="CB193" s="7"/>
+      <c r="CC193" s="7"/>
+    </row>
+    <row r="194" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="5">
+        <v>22</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY194" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ194" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA194" s="7"/>
+      <c r="CB194" s="7"/>
+      <c r="CC194" s="7"/>
+    </row>
+    <row r="195" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="5">
+        <v>23</v>
+      </c>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I195" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J195" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L195" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M195" s="7"/>
+      <c r="N195" s="10"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="7"/>
+      <c r="R195" s="7"/>
+      <c r="S195" s="7"/>
+      <c r="T195" s="7"/>
+      <c r="U195" s="7"/>
+      <c r="V195" s="7"/>
+      <c r="W195" s="7"/>
+      <c r="X195" s="7"/>
+      <c r="Y195" s="7"/>
+      <c r="Z195" s="7"/>
+      <c r="AA195" s="7"/>
+      <c r="AB195" s="7"/>
+      <c r="AC195" s="7"/>
+      <c r="AD195" s="7"/>
+      <c r="AE195" s="7"/>
+      <c r="AF195" s="7"/>
+      <c r="AG195" s="7"/>
+      <c r="AH195" s="7"/>
+      <c r="AI195" s="7"/>
+      <c r="AJ195" s="7"/>
+      <c r="AK195" s="7"/>
+      <c r="AL195" s="7"/>
+      <c r="AM195" s="7"/>
+      <c r="AN195" s="7"/>
+      <c r="AO195" s="7"/>
+      <c r="AP195" s="7"/>
+      <c r="AQ195" s="7"/>
+      <c r="AR195" s="7"/>
+      <c r="AS195" s="7"/>
+      <c r="AT195" s="7"/>
+      <c r="AU195" s="7"/>
+      <c r="AV195" s="7"/>
+      <c r="AW195" s="7"/>
+      <c r="AX195" s="7"/>
+      <c r="AY195" s="7"/>
+      <c r="AZ195" s="7"/>
+      <c r="BA195" s="7"/>
+      <c r="BB195" s="7"/>
+      <c r="BC195" s="7"/>
+      <c r="BD195" s="7"/>
+      <c r="BE195" s="7"/>
+      <c r="BF195" s="7"/>
+      <c r="BG195" s="7"/>
+      <c r="BH195" s="7"/>
+      <c r="BI195" s="7"/>
+      <c r="BJ195" s="7"/>
+      <c r="BK195" s="7"/>
+      <c r="BL195" s="7"/>
+      <c r="BM195" s="7"/>
+      <c r="BN195" s="7"/>
+      <c r="BO195" s="7"/>
+      <c r="BP195" s="7"/>
+      <c r="BQ195" s="7"/>
+      <c r="BR195" s="7"/>
+      <c r="BS195" s="7"/>
+      <c r="BT195" s="7"/>
+      <c r="BU195" s="7"/>
+      <c r="BV195" s="7"/>
+      <c r="BW195" s="7"/>
+      <c r="BX195" s="7"/>
+      <c r="BY195" s="7"/>
+      <c r="BZ195" s="7"/>
+      <c r="CA195" s="7"/>
+      <c r="CB195" s="7"/>
+      <c r="CC195" s="7"/>
+    </row>
+    <row r="196" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="5">
+        <v>24</v>
+      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
+      <c r="R196" s="7"/>
+      <c r="S196" s="7"/>
+      <c r="T196" s="7"/>
+      <c r="U196" s="7"/>
+      <c r="V196" s="7"/>
+      <c r="W196" s="7"/>
+      <c r="X196" s="7"/>
+      <c r="Y196" s="7"/>
+      <c r="Z196" s="7"/>
+      <c r="AA196" s="7"/>
+      <c r="AB196" s="7"/>
+      <c r="AC196" s="7"/>
+      <c r="AD196" s="7"/>
+      <c r="AE196" s="7"/>
+      <c r="AF196" s="7"/>
+      <c r="AG196" s="7"/>
+      <c r="AH196" s="7"/>
+      <c r="AI196" s="7"/>
+      <c r="AJ196" s="7"/>
+      <c r="AK196" s="7"/>
+      <c r="AL196" s="7"/>
+      <c r="AM196" s="7"/>
+      <c r="AN196" s="7"/>
+      <c r="AO196" s="7"/>
+      <c r="AP196" s="7"/>
+      <c r="AQ196" s="7"/>
+      <c r="AR196" s="7"/>
+      <c r="AS196" s="7"/>
+      <c r="AT196" s="7"/>
+      <c r="AU196" s="7"/>
+      <c r="AV196" s="7"/>
+      <c r="AW196" s="7"/>
+      <c r="AX196" s="7"/>
+      <c r="AY196" s="7"/>
+      <c r="AZ196" s="7"/>
+      <c r="BA196" s="7"/>
+      <c r="BB196" s="7"/>
+      <c r="BC196" s="7"/>
+      <c r="BD196" s="7"/>
+      <c r="BE196" s="7"/>
+      <c r="BF196" s="7"/>
+      <c r="BG196" s="7"/>
+      <c r="BH196" s="7"/>
+      <c r="BI196" s="7"/>
+      <c r="BJ196" s="7"/>
+      <c r="BK196" s="7"/>
+      <c r="BL196" s="7"/>
+      <c r="BM196" s="7"/>
+      <c r="BN196" s="7"/>
+      <c r="BO196" s="7"/>
+      <c r="BP196" s="7"/>
+      <c r="BQ196" s="7"/>
+      <c r="BR196" s="7"/>
+      <c r="BS196" s="7"/>
+      <c r="BT196" s="7"/>
+      <c r="BU196" s="7"/>
+      <c r="BV196" s="7"/>
+      <c r="BW196" s="7"/>
+      <c r="BX196" s="7"/>
+      <c r="BY196" s="7"/>
+      <c r="BZ196" s="7"/>
+      <c r="CA196" s="7"/>
+      <c r="CB196" s="7"/>
+      <c r="CC196" s="7"/>
+    </row>
+    <row r="197" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="210" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="1558" documentId="{304A662A-9121-427F-B70B-87D92418AD88}"/>
+  <xr:revisionPtr revIDLastSave="1563" documentId="{304A662A-9121-427F-B70B-87D92418AD88}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A218" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS243" sqref="AS243"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -28464,7 +28464,7 @@
         <v>24</v>
       </c>
       <c r="AQ208" s="11" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="AR208" s="11" t="s">
         <v>46</v>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="1563" documentId="{304A662A-9121-427F-B70B-87D92418AD88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ105" sqref="AQ105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6592" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6586" uniqueCount="100">
   <si>
     <t>xy</t>
   </si>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ105" sqref="AQ105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6856,97 +6856,81 @@
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="26"/>
-      <c r="W50" s="7" t="s">
+      <c r="AA50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X50" s="7" t="s">
+      <c r="AB50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y50" s="7" t="s">
+      <c r="AC50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z50" s="7" t="s">
+      <c r="AD50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA50" s="7" t="s">
+      <c r="AE50" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB50" s="7" t="s">
+      <c r="AF50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC50" s="7" t="s">
+      <c r="AG50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AD50" s="7" t="s">
+      <c r="AH50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7" t="s">
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AG50" s="7" t="s">
+      <c r="AK50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AH50" s="7" t="s">
+      <c r="AL50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI50" s="7" t="s">
+      <c r="AM50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AJ50" s="7" t="s">
+      <c r="AN50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7" t="s">
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AM50" s="7" t="s">
+      <c r="AQ50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AN50" s="7" t="s">
+      <c r="AR50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AO50" s="7" t="s">
+      <c r="AS50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR50" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS50" s="7" t="s">
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AT50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV50" s="7" t="s">
+      <c r="AX50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AW50" s="7"/>
-      <c r="AX50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY50" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="AZ50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA50" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB50" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC50" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+      <c r="BC50" s="7"/>
       <c r="BD50" s="26"/>
       <c r="BE50" s="26"/>
       <c r="BF50" s="26"/>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6586" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6633" uniqueCount="100">
   <si>
     <t>xy</t>
   </si>
@@ -321,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +376,11 @@
       <u/>
       <sz val="6"/>
       <color theme="1"/>
+      <name val="Lucida Console"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Lucida Console"/>
     </font>
   </fonts>
@@ -537,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -634,6 +639,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2130,11 +2139,21 @@
         <v>42</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2153,54 +2172,54 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="7"/>
-      <c r="BO10" s="7"/>
-      <c r="BP10" s="7"/>
-      <c r="BQ10" s="7"/>
-      <c r="BR10" s="7"/>
-      <c r="BS10" s="7"/>
-      <c r="BT10" s="7"/>
-      <c r="BU10" s="7"/>
-      <c r="BV10" s="7"/>
-      <c r="BW10" s="7"/>
-      <c r="BX10" s="7"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="13"/>
+      <c r="BX10" s="13"/>
       <c r="BY10" s="7"/>
       <c r="BZ10" s="7" t="s">
         <v>42</v>
@@ -2242,54 +2261,54 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-      <c r="BM11" s="7"/>
-      <c r="BN11" s="7"/>
-      <c r="BO11" s="7"/>
-      <c r="BP11" s="7"/>
-      <c r="BQ11" s="7"/>
-      <c r="BR11" s="7"/>
-      <c r="BS11" s="7"/>
-      <c r="BT11" s="7"/>
-      <c r="BU11" s="7"/>
-      <c r="BV11" s="7"/>
-      <c r="BW11" s="7"/>
-      <c r="BX11" s="7"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="13"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="13"/>
+      <c r="BX11" s="13"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7" t="s">
         <v>42</v>
@@ -2308,87 +2327,113 @@
         <v>42</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
-        <v>36</v>
+      <c r="F12" s="9">
+        <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
-      <c r="BN12" s="7"/>
-      <c r="BO12" s="7"/>
-      <c r="BP12" s="7"/>
-      <c r="BQ12" s="7"/>
-      <c r="BR12" s="7"/>
-      <c r="BS12" s="7"/>
-      <c r="BT12" s="7"/>
-      <c r="BU12" s="7"/>
-      <c r="BV12" s="7"/>
-      <c r="BW12" s="7"/>
-      <c r="BX12" s="7"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="13"/>
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="13"/>
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="13"/>
+      <c r="BW12" s="13"/>
+      <c r="BX12" s="13"/>
       <c r="BY12" s="7"/>
       <c r="BZ12" s="7" t="s">
         <v>42</v>
@@ -2430,54 +2475,54 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
-      <c r="BH13" s="7"/>
-      <c r="BI13" s="7"/>
-      <c r="BJ13" s="7"/>
-      <c r="BK13" s="7"/>
-      <c r="BL13" s="7"/>
-      <c r="BM13" s="7"/>
-      <c r="BN13" s="7"/>
-      <c r="BO13" s="7"/>
-      <c r="BP13" s="7"/>
-      <c r="BQ13" s="7"/>
-      <c r="BR13" s="7"/>
-      <c r="BS13" s="7"/>
-      <c r="BT13" s="7"/>
-      <c r="BU13" s="7"/>
-      <c r="BV13" s="7"/>
-      <c r="BW13" s="7"/>
-      <c r="BX13" s="7"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13"/>
+      <c r="BL13" s="13"/>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="13"/>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="13"/>
+      <c r="BR13" s="13"/>
+      <c r="BS13" s="13"/>
+      <c r="BT13" s="13"/>
+      <c r="BU13" s="13"/>
+      <c r="BV13" s="13"/>
+      <c r="BW13" s="13"/>
+      <c r="BX13" s="13"/>
       <c r="BY13" s="7"/>
       <c r="BZ13" s="7" t="s">
         <v>42</v>
@@ -2496,77 +2541,113 @@
         <v>42</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
+      <c r="R14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="7"/>
-      <c r="AY14" s="7"/>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
-      <c r="BE14" s="7"/>
-      <c r="BF14" s="7"/>
-      <c r="BG14" s="7"/>
-      <c r="BH14" s="7"/>
-      <c r="BI14" s="7"/>
-      <c r="BJ14" s="7"/>
-      <c r="BK14" s="7"/>
-      <c r="BL14" s="7"/>
-      <c r="BM14" s="7"/>
-      <c r="BN14" s="7"/>
-      <c r="BO14" s="7"/>
-      <c r="BP14" s="7"/>
-      <c r="BQ14" s="7"/>
-      <c r="BR14" s="7"/>
-      <c r="BS14" s="7"/>
-      <c r="BT14" s="7"/>
-      <c r="BU14" s="7"/>
-      <c r="BV14" s="7"/>
-      <c r="BW14" s="7"/>
-      <c r="BX14" s="7"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="13"/>
+      <c r="BH14" s="13"/>
+      <c r="BI14" s="13"/>
+      <c r="BJ14" s="13"/>
+      <c r="BK14" s="13"/>
+      <c r="BL14" s="13"/>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="13"/>
+      <c r="BR14" s="13"/>
+      <c r="BS14" s="13"/>
+      <c r="BT14" s="13"/>
+      <c r="BU14" s="13"/>
+      <c r="BV14" s="13"/>
+      <c r="BW14" s="13"/>
+      <c r="BX14" s="13"/>
       <c r="BY14" s="7"/>
       <c r="BZ14" s="7" t="s">
         <v>42</v>
@@ -2585,113 +2666,77 @@
         <v>42</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AX15" s="7"/>
-      <c r="AY15" s="7"/>
-      <c r="AZ15" s="7"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7"/>
-      <c r="BH15" s="7"/>
-      <c r="BI15" s="7"/>
-      <c r="BJ15" s="7"/>
-      <c r="BK15" s="7"/>
-      <c r="BL15" s="7"/>
-      <c r="BM15" s="7"/>
-      <c r="BN15" s="7"/>
-      <c r="BO15" s="7"/>
-      <c r="BP15" s="7"/>
-      <c r="BQ15" s="7"/>
-      <c r="BR15" s="7"/>
-      <c r="BS15" s="7"/>
-      <c r="BT15" s="7"/>
-      <c r="BU15" s="7"/>
-      <c r="BV15" s="7"/>
-      <c r="BW15" s="7"/>
-      <c r="BX15" s="7"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="13"/>
+      <c r="BH15" s="13"/>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="13"/>
+      <c r="BO15" s="13"/>
+      <c r="BP15" s="13"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="13"/>
+      <c r="BT15" s="13"/>
+      <c r="BU15" s="13"/>
+      <c r="BV15" s="13"/>
+      <c r="BW15" s="13"/>
+      <c r="BX15" s="13"/>
       <c r="BY15" s="7"/>
       <c r="BZ15" s="7" t="s">
         <v>42</v>
@@ -2710,20 +2755,46 @@
         <v>42</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="9">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -2733,54 +2804,54 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="7"/>
-      <c r="AX16" s="7"/>
-      <c r="AY16" s="7"/>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="7"/>
-      <c r="BC16" s="7"/>
-      <c r="BD16" s="7"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="7"/>
-      <c r="BH16" s="7"/>
-      <c r="BI16" s="7"/>
-      <c r="BJ16" s="7"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="7"/>
-      <c r="BM16" s="7"/>
-      <c r="BN16" s="7"/>
-      <c r="BO16" s="7"/>
-      <c r="BP16" s="7"/>
-      <c r="BQ16" s="7"/>
-      <c r="BR16" s="7"/>
-      <c r="BS16" s="7"/>
-      <c r="BT16" s="7"/>
-      <c r="BU16" s="7"/>
-      <c r="BV16" s="7"/>
-      <c r="BW16" s="7"/>
-      <c r="BX16" s="7"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
+      <c r="BM16" s="13"/>
+      <c r="BN16" s="13"/>
+      <c r="BO16" s="13"/>
+      <c r="BP16" s="13"/>
+      <c r="BQ16" s="13"/>
+      <c r="BR16" s="13"/>
+      <c r="BS16" s="13"/>
+      <c r="BT16" s="13"/>
+      <c r="BU16" s="13"/>
+      <c r="BV16" s="13"/>
+      <c r="BW16" s="13"/>
+      <c r="BX16" s="13"/>
       <c r="BY16" s="7"/>
       <c r="BZ16" s="7" t="s">
         <v>42</v>
@@ -2799,115 +2870,97 @@
         <v>42</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="8">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="7"/>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="7"/>
-      <c r="AX17" s="7"/>
-      <c r="AY17" s="7"/>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
-      <c r="BC17" s="7"/>
-      <c r="BD17" s="7"/>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="7"/>
-      <c r="BG17" s="7"/>
-      <c r="BH17" s="7"/>
-      <c r="BI17" s="7"/>
-      <c r="BJ17" s="7"/>
-      <c r="BK17" s="7"/>
-      <c r="BL17" s="7"/>
-      <c r="BM17" s="7"/>
-      <c r="BN17" s="7"/>
-      <c r="BO17" s="7"/>
-      <c r="BP17" s="7"/>
-      <c r="BQ17" s="7"/>
-      <c r="BR17" s="7"/>
-      <c r="BS17" s="7"/>
-      <c r="BT17" s="7"/>
-      <c r="BU17" s="7"/>
-      <c r="BV17" s="7"/>
-      <c r="BW17" s="7"/>
-      <c r="BX17" s="7"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG17" s="13"/>
+      <c r="BH17" s="13"/>
+      <c r="BI17" s="13"/>
+      <c r="BJ17" s="13"/>
+      <c r="BK17" s="13"/>
+      <c r="BL17" s="13"/>
+      <c r="BM17" s="13"/>
+      <c r="BN17" s="13"/>
+      <c r="BO17" s="13"/>
+      <c r="BP17" s="13"/>
+      <c r="BQ17" s="13"/>
+      <c r="BR17" s="13"/>
+      <c r="BS17" s="13"/>
+      <c r="BT17" s="13"/>
+      <c r="BU17" s="13"/>
+      <c r="BV17" s="13"/>
+      <c r="BW17" s="13"/>
+      <c r="BX17" s="13"/>
       <c r="BY17" s="7"/>
       <c r="BZ17" s="7" t="s">
         <v>42</v>
@@ -2926,18 +2979,40 @@
         <v>42</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="9">
+        <v>4</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -2949,54 +3024,54 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="7"/>
-      <c r="AU18" s="7"/>
-      <c r="AV18" s="7"/>
-      <c r="AW18" s="7"/>
-      <c r="AX18" s="7"/>
-      <c r="AY18" s="7"/>
-      <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
-      <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="7"/>
-      <c r="BH18" s="7"/>
-      <c r="BI18" s="7"/>
-      <c r="BJ18" s="7"/>
-      <c r="BK18" s="7"/>
-      <c r="BL18" s="7"/>
-      <c r="BM18" s="7"/>
-      <c r="BN18" s="7"/>
-      <c r="BO18" s="7"/>
-      <c r="BP18" s="7"/>
-      <c r="BQ18" s="7"/>
-      <c r="BR18" s="7"/>
-      <c r="BS18" s="7"/>
-      <c r="BT18" s="7"/>
-      <c r="BU18" s="7"/>
-      <c r="BV18" s="7"/>
-      <c r="BW18" s="7"/>
-      <c r="BX18" s="7"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="13"/>
+      <c r="BM18" s="13"/>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="13"/>
+      <c r="BP18" s="13"/>
+      <c r="BQ18" s="13"/>
+      <c r="BR18" s="13"/>
+      <c r="BS18" s="13"/>
+      <c r="BT18" s="13"/>
+      <c r="BU18" s="13"/>
+      <c r="BV18" s="13"/>
+      <c r="BW18" s="13"/>
+      <c r="BX18" s="13"/>
       <c r="BY18" s="7"/>
       <c r="BZ18" s="7" t="s">
         <v>42</v>
@@ -3015,46 +3090,20 @@
         <v>42</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -3064,54 +3113,54 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
-      <c r="BG19" s="7"/>
-      <c r="BH19" s="7"/>
-      <c r="BI19" s="7"/>
-      <c r="BJ19" s="7"/>
-      <c r="BK19" s="7"/>
-      <c r="BL19" s="7"/>
-      <c r="BM19" s="7"/>
-      <c r="BN19" s="7"/>
-      <c r="BO19" s="7"/>
-      <c r="BP19" s="7"/>
-      <c r="BQ19" s="7"/>
-      <c r="BR19" s="7"/>
-      <c r="BS19" s="7"/>
-      <c r="BT19" s="7"/>
-      <c r="BU19" s="7"/>
-      <c r="BV19" s="7"/>
-      <c r="BW19" s="7"/>
-      <c r="BX19" s="7"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13"/>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="13"/>
+      <c r="BO19" s="13"/>
+      <c r="BP19" s="13"/>
+      <c r="BQ19" s="13"/>
+      <c r="BR19" s="13"/>
+      <c r="BS19" s="13"/>
+      <c r="BT19" s="13"/>
+      <c r="BU19" s="13"/>
+      <c r="BV19" s="13"/>
+      <c r="BW19" s="13"/>
+      <c r="BX19" s="13"/>
       <c r="BY19" s="7"/>
       <c r="BZ19" s="7" t="s">
         <v>42</v>
@@ -3130,17 +3179,37 @@
         <v>42</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="J20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -3153,54 +3222,54 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="7"/>
-      <c r="AU20" s="7"/>
-      <c r="AV20" s="7"/>
-      <c r="AW20" s="7"/>
-      <c r="AX20" s="7"/>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="7"/>
-      <c r="BC20" s="7"/>
-      <c r="BD20" s="7"/>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="7"/>
-      <c r="BH20" s="7"/>
-      <c r="BI20" s="7"/>
-      <c r="BJ20" s="7"/>
-      <c r="BK20" s="7"/>
-      <c r="BL20" s="7"/>
-      <c r="BM20" s="7"/>
-      <c r="BN20" s="7"/>
-      <c r="BO20" s="7"/>
-      <c r="BP20" s="7"/>
-      <c r="BQ20" s="7"/>
-      <c r="BR20" s="7"/>
-      <c r="BS20" s="7"/>
-      <c r="BT20" s="7"/>
-      <c r="BU20" s="7"/>
-      <c r="BV20" s="7"/>
-      <c r="BW20" s="7"/>
-      <c r="BX20" s="7"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="13"/>
+      <c r="BE20" s="13"/>
+      <c r="BF20" s="13"/>
+      <c r="BG20" s="13"/>
+      <c r="BH20" s="13"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="13"/>
+      <c r="BL20" s="13"/>
+      <c r="BM20" s="13"/>
+      <c r="BN20" s="13"/>
+      <c r="BO20" s="13"/>
+      <c r="BP20" s="13"/>
+      <c r="BQ20" s="13"/>
+      <c r="BR20" s="13"/>
+      <c r="BS20" s="13"/>
+      <c r="BT20" s="13"/>
+      <c r="BU20" s="13"/>
+      <c r="BV20" s="13"/>
+      <c r="BW20" s="13"/>
+      <c r="BX20" s="13"/>
       <c r="BY20" s="7"/>
       <c r="BZ20" s="7" t="s">
         <v>42</v>
@@ -3219,40 +3288,18 @@
         <v>42</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="8">
-        <v>4</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -3264,54 +3311,54 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
-      <c r="BD21" s="7"/>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="7"/>
-      <c r="BG21" s="7"/>
-      <c r="BH21" s="7"/>
-      <c r="BI21" s="7"/>
-      <c r="BJ21" s="7"/>
-      <c r="BK21" s="7"/>
-      <c r="BL21" s="7"/>
-      <c r="BM21" s="7"/>
-      <c r="BN21" s="7"/>
-      <c r="BO21" s="7"/>
-      <c r="BP21" s="7"/>
-      <c r="BQ21" s="7"/>
-      <c r="BR21" s="7"/>
-      <c r="BS21" s="7"/>
-      <c r="BT21" s="7"/>
-      <c r="BU21" s="7"/>
-      <c r="BV21" s="7"/>
-      <c r="BW21" s="7"/>
-      <c r="BX21" s="7"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="13"/>
+      <c r="BL21" s="13"/>
+      <c r="BM21" s="13"/>
+      <c r="BN21" s="13"/>
+      <c r="BO21" s="13"/>
+      <c r="BP21" s="13"/>
+      <c r="BQ21" s="13"/>
+      <c r="BR21" s="13"/>
+      <c r="BS21" s="13"/>
+      <c r="BT21" s="13"/>
+      <c r="BU21" s="13"/>
+      <c r="BV21" s="13"/>
+      <c r="BW21" s="13"/>
+      <c r="BX21" s="13"/>
       <c r="BY21" s="7"/>
       <c r="BZ21" s="7" t="s">
         <v>42</v>
@@ -3330,15 +3377,31 @@
         <v>42</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="7">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -3353,54 +3416,54 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="7"/>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7"/>
-      <c r="AW22" s="7"/>
-      <c r="AX22" s="7"/>
-      <c r="AY22" s="7"/>
-      <c r="AZ22" s="7"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="7"/>
-      <c r="BC22" s="7"/>
-      <c r="BD22" s="7"/>
-      <c r="BE22" s="7"/>
-      <c r="BF22" s="7"/>
-      <c r="BG22" s="7"/>
-      <c r="BH22" s="7"/>
-      <c r="BI22" s="7"/>
-      <c r="BJ22" s="7"/>
-      <c r="BK22" s="7"/>
-      <c r="BL22" s="7"/>
-      <c r="BM22" s="7"/>
-      <c r="BN22" s="7"/>
-      <c r="BO22" s="7"/>
-      <c r="BP22" s="7"/>
-      <c r="BQ22" s="7"/>
-      <c r="BR22" s="7"/>
-      <c r="BS22" s="7"/>
-      <c r="BT22" s="7"/>
-      <c r="BU22" s="7"/>
-      <c r="BV22" s="7"/>
-      <c r="BW22" s="7"/>
-      <c r="BX22" s="7"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="13"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BL22" s="13"/>
+      <c r="BM22" s="13"/>
+      <c r="BN22" s="13"/>
+      <c r="BO22" s="13"/>
+      <c r="BP22" s="13"/>
+      <c r="BQ22" s="13"/>
+      <c r="BR22" s="13"/>
+      <c r="BS22" s="13"/>
+      <c r="BT22" s="13"/>
+      <c r="BU22" s="13"/>
+      <c r="BV22" s="13"/>
+      <c r="BW22" s="13"/>
+      <c r="BX22" s="13"/>
       <c r="BY22" s="7"/>
       <c r="BZ22" s="7" t="s">
         <v>42</v>
@@ -3419,31 +3482,15 @@
         <v>42</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
       <c r="O23" s="32"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -3458,54 +3505,54 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="7"/>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
-      <c r="BC23" s="7"/>
-      <c r="BD23" s="7"/>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7"/>
-      <c r="BH23" s="7"/>
-      <c r="BI23" s="7"/>
-      <c r="BJ23" s="7"/>
-      <c r="BK23" s="7"/>
-      <c r="BL23" s="7"/>
-      <c r="BM23" s="7"/>
-      <c r="BN23" s="7"/>
-      <c r="BO23" s="7"/>
-      <c r="BP23" s="7"/>
-      <c r="BQ23" s="7"/>
-      <c r="BR23" s="7"/>
-      <c r="BS23" s="7"/>
-      <c r="BT23" s="7"/>
-      <c r="BU23" s="7"/>
-      <c r="BV23" s="7"/>
-      <c r="BW23" s="7"/>
-      <c r="BX23" s="7"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="13"/>
+      <c r="BL23" s="13"/>
+      <c r="BM23" s="13"/>
+      <c r="BN23" s="13"/>
+      <c r="BO23" s="13"/>
+      <c r="BP23" s="13"/>
+      <c r="BQ23" s="13"/>
+      <c r="BR23" s="13"/>
+      <c r="BS23" s="13"/>
+      <c r="BT23" s="13"/>
+      <c r="BU23" s="13"/>
+      <c r="BV23" s="13"/>
+      <c r="BW23" s="13"/>
+      <c r="BX23" s="13"/>
       <c r="BY23" s="7"/>
       <c r="BZ23" s="7" t="s">
         <v>42</v>
@@ -3547,54 +3594,54 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-      <c r="AT24" s="7"/>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="7"/>
-      <c r="AX24" s="7"/>
-      <c r="AY24" s="7"/>
-      <c r="AZ24" s="7"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
-      <c r="BC24" s="7"/>
-      <c r="BD24" s="7"/>
-      <c r="BE24" s="7"/>
-      <c r="BF24" s="7"/>
-      <c r="BG24" s="7"/>
-      <c r="BH24" s="7"/>
-      <c r="BI24" s="7"/>
-      <c r="BJ24" s="7"/>
-      <c r="BK24" s="7"/>
-      <c r="BL24" s="7"/>
-      <c r="BM24" s="7"/>
-      <c r="BN24" s="7"/>
-      <c r="BO24" s="7"/>
-      <c r="BP24" s="7"/>
-      <c r="BQ24" s="7"/>
-      <c r="BR24" s="7"/>
-      <c r="BS24" s="7"/>
-      <c r="BT24" s="7"/>
-      <c r="BU24" s="7"/>
-      <c r="BV24" s="7"/>
-      <c r="BW24" s="7"/>
-      <c r="BX24" s="7"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="13"/>
+      <c r="BL24" s="13"/>
+      <c r="BM24" s="13"/>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="13"/>
+      <c r="BP24" s="13"/>
+      <c r="BQ24" s="13"/>
+      <c r="BR24" s="13"/>
+      <c r="BS24" s="13"/>
+      <c r="BT24" s="13"/>
+      <c r="BU24" s="13"/>
+      <c r="BV24" s="13"/>
+      <c r="BW24" s="13"/>
+      <c r="BX24" s="13"/>
       <c r="BY24" s="7"/>
       <c r="BZ24" s="7" t="s">
         <v>42</v>
@@ -3868,43 +3915,105 @@
         <v>13</v>
       </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="7"/>
+      <c r="N26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13">
+        <v>6</v>
+      </c>
+      <c r="AX26" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="7"/>
       <c r="BA26" s="7"/>
@@ -9952,7 +10061,9 @@
       </c>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
-      <c r="X72" s="10"/>
+      <c r="X72" s="10">
+        <v>0</v>
+      </c>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
@@ -9979,7 +10090,9 @@
       <c r="AV72" s="7"/>
       <c r="AW72" s="7"/>
       <c r="AX72" s="7"/>
-      <c r="AY72" s="10"/>
+      <c r="AY72" s="10">
+        <v>2</v>
+      </c>
       <c r="AZ72" s="7"/>
       <c r="BA72" s="7"/>
       <c r="BB72" s="7"/>
@@ -10384,7 +10497,7 @@
       <c r="BB75" s="7"/>
       <c r="BC75" s="7"/>
       <c r="BD75" s="7"/>
-      <c r="BE75" s="7"/>
+      <c r="BE75" s="37"/>
       <c r="BF75" s="7"/>
       <c r="BG75" s="7"/>
       <c r="BH75" s="7"/>
@@ -10525,7 +10638,9 @@
       <c r="BB76" s="7"/>
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
-      <c r="BE76" s="7"/>
+      <c r="BE76" s="36">
+        <v>3</v>
+      </c>
       <c r="BF76" s="10" t="s">
         <v>38</v>
       </c>
@@ -10627,7 +10742,9 @@
       </c>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
-      <c r="X77" s="10"/>
+      <c r="X77" s="10">
+        <v>1</v>
+      </c>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
       <c r="AA77" s="7"/>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="92" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A190" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ205" sqref="AJ205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -28965,7 +28965,9 @@
       <c r="D211" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E211" s="11"/>
+      <c r="E211" s="26">
+        <v>0</v>
+      </c>
       <c r="F211" s="23"/>
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
@@ -28979,7 +28981,9 @@
       <c r="P211" s="11"/>
       <c r="Q211" s="11"/>
       <c r="R211" s="11"/>
-      <c r="S211" s="11"/>
+      <c r="S211" s="26">
+        <v>1</v>
+      </c>
       <c r="T211" s="11"/>
       <c r="U211" s="11"/>
       <c r="V211" s="11"/>
@@ -28993,7 +28997,9 @@
       <c r="AD211" s="11"/>
       <c r="AE211" s="11"/>
       <c r="AF211" s="11"/>
-      <c r="AG211" s="11"/>
+      <c r="AG211" s="26">
+        <v>2</v>
+      </c>
       <c r="AH211" s="11"/>
       <c r="AI211" s="11"/>
       <c r="AJ211" s="11"/>
@@ -29006,7 +29012,9 @@
       <c r="AQ211" s="11"/>
       <c r="AR211" s="11"/>
       <c r="AS211" s="11"/>
-      <c r="AT211" s="11"/>
+      <c r="AT211" s="26">
+        <v>3</v>
+      </c>
       <c r="AU211" s="11"/>
       <c r="AV211" s="11"/>
       <c r="AW211" s="11"/>
@@ -29022,7 +29030,9 @@
       <c r="BG211" s="11"/>
       <c r="BH211" s="11"/>
       <c r="BI211" s="11"/>
-      <c r="BJ211" s="11"/>
+      <c r="BJ211" s="26">
+        <v>4</v>
+      </c>
       <c r="BK211" s="11"/>
       <c r="BL211" s="11"/>
       <c r="BM211" s="11"/>
@@ -29655,7 +29665,9 @@
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
-      <c r="I215" s="11"/>
+      <c r="I215" s="26">
+        <v>5</v>
+      </c>
       <c r="J215" s="11"/>
       <c r="K215" s="11"/>
       <c r="L215" s="11"/>
@@ -29671,7 +29683,9 @@
       <c r="V215" s="11"/>
       <c r="W215" s="11"/>
       <c r="X215" s="11"/>
-      <c r="Y215" s="11"/>
+      <c r="Y215" s="26">
+        <v>6</v>
+      </c>
       <c r="Z215" s="11"/>
       <c r="AA215" s="11"/>
       <c r="AB215" s="11"/>
@@ -29686,7 +29700,9 @@
       <c r="AK215" s="11"/>
       <c r="AL215" s="11"/>
       <c r="AM215" s="11"/>
-      <c r="AN215" s="11"/>
+      <c r="AN215" s="26">
+        <v>7</v>
+      </c>
       <c r="AO215" s="11"/>
       <c r="AP215" s="11"/>
       <c r="AQ215" s="11"/>
@@ -29701,7 +29717,9 @@
       <c r="AZ215" s="11"/>
       <c r="BA215" s="11"/>
       <c r="BB215" s="11"/>
-      <c r="BC215" s="11"/>
+      <c r="BC215" s="26">
+        <v>8</v>
+      </c>
       <c r="BD215" s="11"/>
       <c r="BE215" s="11"/>
       <c r="BF215" s="11"/>
@@ -30329,7 +30347,9 @@
       <c r="V219" s="11"/>
       <c r="W219" s="11"/>
       <c r="X219" s="11"/>
-      <c r="Y219" s="11"/>
+      <c r="Y219" s="26">
+        <v>9</v>
+      </c>
       <c r="Z219" s="11"/>
       <c r="AA219" s="11"/>
       <c r="AB219" s="11"/>
@@ -30345,8 +30365,12 @@
       <c r="AL219" s="11"/>
       <c r="AM219" s="11"/>
       <c r="AN219" s="11"/>
-      <c r="AO219" s="11"/>
-      <c r="AP219" s="11"/>
+      <c r="AO219" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP219" s="26">
+        <v>0</v>
+      </c>
       <c r="AQ219" s="11"/>
       <c r="AR219" s="11"/>
       <c r="AS219" s="11"/>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="117" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
+  <xr:revisionPtr revIDLastSave="617" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6633" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="107">
   <si>
     <t>xy</t>
   </si>
@@ -316,6 +316,24 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>2.5 - Crédito</t>
+  </si>
+  <si>
+    <t>2.5_credito</t>
+  </si>
+  <si>
+    <t>É</t>
+  </si>
+  <si>
+    <t>2.5 - Crédito - Abonar dinero</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>2.5_credito_f2</t>
+  </si>
 </sst>
 </file>
 
@@ -384,7 +402,7 @@
       <name val="Lucida Console"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -643,6 +667,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A190" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ205" sqref="AJ205"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A261" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BG273" sqref="BG273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -34965,72 +35004,7506 @@
       <c r="CB254" s="7"/>
       <c r="CC254" s="7"/>
     </row>
-    <row r="255" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:81" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:81" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE256" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="257" spans="1:81" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="6">
+        <v>1</v>
+      </c>
+      <c r="C258" s="6">
+        <v>2</v>
+      </c>
+      <c r="D258" s="6">
+        <v>3</v>
+      </c>
+      <c r="E258" s="6">
+        <v>4</v>
+      </c>
+      <c r="F258" s="6">
+        <v>5</v>
+      </c>
+      <c r="G258" s="6">
+        <v>6</v>
+      </c>
+      <c r="H258" s="6">
+        <v>7</v>
+      </c>
+      <c r="I258" s="6">
+        <v>8</v>
+      </c>
+      <c r="J258" s="6">
+        <v>9</v>
+      </c>
+      <c r="K258" s="6">
+        <v>10</v>
+      </c>
+      <c r="L258" s="6">
+        <v>11</v>
+      </c>
+      <c r="M258" s="6">
+        <v>12</v>
+      </c>
+      <c r="N258" s="6">
+        <v>13</v>
+      </c>
+      <c r="O258" s="6">
+        <v>14</v>
+      </c>
+      <c r="P258" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q258" s="6">
+        <v>16</v>
+      </c>
+      <c r="R258" s="6">
+        <v>17</v>
+      </c>
+      <c r="S258" s="6">
+        <v>18</v>
+      </c>
+      <c r="T258" s="6">
+        <v>19</v>
+      </c>
+      <c r="U258" s="6">
+        <v>20</v>
+      </c>
+      <c r="V258" s="6">
+        <v>21</v>
+      </c>
+      <c r="W258" s="6">
+        <v>22</v>
+      </c>
+      <c r="X258" s="6">
+        <v>23</v>
+      </c>
+      <c r="Y258" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z258" s="6">
+        <v>25</v>
+      </c>
+      <c r="AA258" s="6">
+        <v>26</v>
+      </c>
+      <c r="AB258" s="6">
+        <v>27</v>
+      </c>
+      <c r="AC258" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD258" s="6">
+        <v>29</v>
+      </c>
+      <c r="AE258" s="6">
+        <v>30</v>
+      </c>
+      <c r="AF258" s="6">
+        <v>31</v>
+      </c>
+      <c r="AG258" s="6">
+        <v>32</v>
+      </c>
+      <c r="AH258" s="6">
+        <v>33</v>
+      </c>
+      <c r="AI258" s="6">
+        <v>34</v>
+      </c>
+      <c r="AJ258" s="6">
+        <v>35</v>
+      </c>
+      <c r="AK258" s="6">
+        <v>36</v>
+      </c>
+      <c r="AL258" s="6">
+        <v>37</v>
+      </c>
+      <c r="AM258" s="6">
+        <v>38</v>
+      </c>
+      <c r="AN258" s="6">
+        <v>39</v>
+      </c>
+      <c r="AO258" s="6">
+        <v>40</v>
+      </c>
+      <c r="AP258" s="6">
+        <v>41</v>
+      </c>
+      <c r="AQ258" s="6">
+        <v>42</v>
+      </c>
+      <c r="AR258" s="6">
+        <v>43</v>
+      </c>
+      <c r="AS258" s="6">
+        <v>44</v>
+      </c>
+      <c r="AT258" s="6">
+        <v>45</v>
+      </c>
+      <c r="AU258" s="6">
+        <v>46</v>
+      </c>
+      <c r="AV258" s="6">
+        <v>47</v>
+      </c>
+      <c r="AW258" s="6">
+        <v>48</v>
+      </c>
+      <c r="AX258" s="6">
+        <v>49</v>
+      </c>
+      <c r="AY258" s="6">
+        <v>50</v>
+      </c>
+      <c r="AZ258" s="6">
+        <v>51</v>
+      </c>
+      <c r="BA258" s="6">
+        <v>52</v>
+      </c>
+      <c r="BB258" s="6">
+        <v>53</v>
+      </c>
+      <c r="BC258" s="6">
+        <v>54</v>
+      </c>
+      <c r="BD258" s="6">
+        <v>55</v>
+      </c>
+      <c r="BE258" s="6">
+        <v>56</v>
+      </c>
+      <c r="BF258" s="6">
+        <v>57</v>
+      </c>
+      <c r="BG258" s="6">
+        <v>58</v>
+      </c>
+      <c r="BH258" s="6">
+        <v>59</v>
+      </c>
+      <c r="BI258" s="6">
+        <v>60</v>
+      </c>
+      <c r="BJ258" s="6">
+        <v>61</v>
+      </c>
+      <c r="BK258" s="6">
+        <v>62</v>
+      </c>
+      <c r="BL258" s="6">
+        <v>63</v>
+      </c>
+      <c r="BM258" s="6">
+        <v>64</v>
+      </c>
+      <c r="BN258" s="6">
+        <v>65</v>
+      </c>
+      <c r="BO258" s="6">
+        <v>66</v>
+      </c>
+      <c r="BP258" s="6">
+        <v>67</v>
+      </c>
+      <c r="BQ258" s="6">
+        <v>68</v>
+      </c>
+      <c r="BR258" s="6">
+        <v>69</v>
+      </c>
+      <c r="BS258" s="6">
+        <v>70</v>
+      </c>
+      <c r="BT258" s="6">
+        <v>71</v>
+      </c>
+      <c r="BU258" s="6">
+        <v>72</v>
+      </c>
+      <c r="BV258" s="6">
+        <v>73</v>
+      </c>
+      <c r="BW258" s="6">
+        <v>74</v>
+      </c>
+      <c r="BX258" s="6">
+        <v>75</v>
+      </c>
+      <c r="BY258" s="6">
+        <v>76</v>
+      </c>
+      <c r="BZ258" s="6">
+        <v>77</v>
+      </c>
+      <c r="CA258" s="6">
+        <v>78</v>
+      </c>
+      <c r="CB258" s="6">
+        <v>79</v>
+      </c>
+      <c r="CC258" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="259" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="5">
+        <v>1</v>
+      </c>
+      <c r="B259" s="7"/>
+      <c r="C259" s="7"/>
+      <c r="D259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA259" s="7"/>
+      <c r="CB259" s="7"/>
+      <c r="CC259" s="7"/>
+    </row>
+    <row r="260" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="5">
+        <v>2</v>
+      </c>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="7"/>
+      <c r="H260" s="7"/>
+      <c r="I260" s="7"/>
+      <c r="J260" s="7"/>
+      <c r="K260" s="7"/>
+      <c r="L260" s="7"/>
+      <c r="M260" s="7"/>
+      <c r="N260" s="7"/>
+      <c r="O260" s="7"/>
+      <c r="P260" s="7"/>
+      <c r="Q260" s="7"/>
+      <c r="R260" s="7"/>
+      <c r="S260" s="7"/>
+      <c r="T260" s="7"/>
+      <c r="U260" s="7"/>
+      <c r="V260" s="7"/>
+      <c r="W260" s="7"/>
+      <c r="X260" s="7"/>
+      <c r="Y260" s="7"/>
+      <c r="Z260" s="7"/>
+      <c r="AA260" s="7"/>
+      <c r="AB260" s="7"/>
+      <c r="AC260" s="7"/>
+      <c r="AD260" s="7"/>
+      <c r="AE260" s="7"/>
+      <c r="AF260" s="7"/>
+      <c r="AG260" s="7"/>
+      <c r="AH260" s="7"/>
+      <c r="AI260" s="7"/>
+      <c r="AJ260" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK260" s="7"/>
+      <c r="AL260" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM260" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN260" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO260" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP260" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ260" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR260" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS260" s="7"/>
+      <c r="AT260" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU260" s="7"/>
+      <c r="AV260" s="7"/>
+      <c r="AW260" s="7"/>
+      <c r="AX260" s="7"/>
+      <c r="AY260" s="7"/>
+      <c r="AZ260" s="7"/>
+      <c r="BA260" s="7"/>
+      <c r="BB260" s="7"/>
+      <c r="BC260" s="7"/>
+      <c r="BD260" s="7"/>
+      <c r="BE260" s="7"/>
+      <c r="BF260" s="7"/>
+      <c r="BG260" s="7"/>
+      <c r="BH260" s="7"/>
+      <c r="BI260" s="7"/>
+      <c r="BJ260" s="7"/>
+      <c r="BK260" s="7"/>
+      <c r="BL260" s="7"/>
+      <c r="BM260" s="7"/>
+      <c r="BN260" s="7"/>
+      <c r="BO260" s="7"/>
+      <c r="BP260" s="7"/>
+      <c r="BQ260" s="7"/>
+      <c r="BR260" s="7"/>
+      <c r="BS260" s="7"/>
+      <c r="BT260" s="7"/>
+      <c r="BU260" s="7"/>
+      <c r="BV260" s="7"/>
+      <c r="BW260" s="7"/>
+      <c r="BX260" s="7"/>
+      <c r="BY260" s="7"/>
+      <c r="BZ260" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA260" s="7"/>
+      <c r="CB260" s="7"/>
+      <c r="CC260" s="7"/>
+    </row>
+    <row r="261" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="5">
+        <v>3</v>
+      </c>
+      <c r="B261" s="7"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ261" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA261" s="7"/>
+      <c r="CB261" s="7"/>
+      <c r="CC261" s="7"/>
+    </row>
+    <row r="262" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="5">
+        <v>4</v>
+      </c>
+      <c r="B262" s="7"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="11"/>
+      <c r="N262" s="11"/>
+      <c r="O262" s="11"/>
+      <c r="P262" s="11"/>
+      <c r="Q262" s="11"/>
+      <c r="R262" s="11"/>
+      <c r="S262" s="11"/>
+      <c r="T262" s="11"/>
+      <c r="U262" s="11"/>
+      <c r="V262" s="11"/>
+      <c r="W262" s="11"/>
+      <c r="X262" s="11"/>
+      <c r="Y262" s="11"/>
+      <c r="Z262" s="11"/>
+      <c r="AA262" s="11"/>
+      <c r="AB262" s="11"/>
+      <c r="AC262" s="22"/>
+      <c r="AD262" s="11"/>
+      <c r="AE262" s="11"/>
+      <c r="AF262" s="11"/>
+      <c r="AG262" s="11"/>
+      <c r="AH262" s="11"/>
+      <c r="AI262" s="11"/>
+      <c r="AJ262" s="11"/>
+      <c r="AK262" s="11"/>
+      <c r="AL262" s="11"/>
+      <c r="AM262" s="11"/>
+      <c r="AN262" s="11"/>
+      <c r="AO262" s="11"/>
+      <c r="AP262" s="11"/>
+      <c r="AQ262" s="11"/>
+      <c r="AR262" s="11"/>
+      <c r="AS262" s="11"/>
+      <c r="AT262" s="11"/>
+      <c r="AU262" s="11"/>
+      <c r="AV262" s="11"/>
+      <c r="AW262" s="11"/>
+      <c r="AX262" s="11"/>
+      <c r="AY262" s="11"/>
+      <c r="AZ262" s="11"/>
+      <c r="BA262" s="11"/>
+      <c r="BB262" s="11"/>
+      <c r="BC262" s="11"/>
+      <c r="BD262" s="11"/>
+      <c r="BE262" s="11"/>
+      <c r="BF262" s="11"/>
+      <c r="BG262" s="22"/>
+      <c r="BH262" s="11"/>
+      <c r="BI262" s="11"/>
+      <c r="BJ262" s="11"/>
+      <c r="BK262" s="11"/>
+      <c r="BL262" s="11"/>
+      <c r="BM262" s="11"/>
+      <c r="BN262" s="11"/>
+      <c r="BO262" s="11"/>
+      <c r="BP262" s="11"/>
+      <c r="BQ262" s="11"/>
+      <c r="BR262" s="11"/>
+      <c r="BS262" s="11"/>
+      <c r="BT262" s="11"/>
+      <c r="BU262" s="11"/>
+      <c r="BV262" s="11"/>
+      <c r="BW262" s="11"/>
+      <c r="BX262" s="11"/>
+      <c r="BY262" s="11"/>
+      <c r="BZ262" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA262" s="7"/>
+      <c r="CB262" s="7"/>
+      <c r="CC262" s="7"/>
+    </row>
+    <row r="263" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="5">
+        <v>5</v>
+      </c>
+      <c r="B263" s="7"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G263" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H263" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I263" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J263" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M263" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N263" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O263" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P263" s="11"/>
+      <c r="Q263" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R263" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S263" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T263" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U263" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V263" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W263" s="11"/>
+      <c r="X263" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y263" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z263" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA263" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB263" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC263" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD263" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE263" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF263" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG263" s="11"/>
+      <c r="AH263" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI263" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ263" s="11"/>
+      <c r="AK263" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL263" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM263" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN263" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO263" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP263" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ263" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR263" s="11"/>
+      <c r="AS263" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT263" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU263" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV263" s="11"/>
+      <c r="AW263" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX263" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY263" s="11"/>
+      <c r="AZ263" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA263" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB263" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC263" s="11"/>
+      <c r="BD263" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE263" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF263" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG263" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH263" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI263" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ263" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK263" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL263" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM263" s="11"/>
+      <c r="BN263" s="11"/>
+      <c r="BO263" s="11"/>
+      <c r="BP263" s="11"/>
+      <c r="BQ263" s="11"/>
+      <c r="BR263" s="11"/>
+      <c r="BS263" s="11"/>
+      <c r="BT263" s="11"/>
+      <c r="BU263" s="11"/>
+      <c r="BV263" s="11"/>
+      <c r="BW263" s="11"/>
+      <c r="BX263" s="11"/>
+      <c r="BY263" s="11"/>
+      <c r="BZ263" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA263" s="7"/>
+      <c r="CB263" s="7"/>
+      <c r="CC263" s="7"/>
+    </row>
+    <row r="264" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="5">
+        <v>6</v>
+      </c>
+      <c r="B264" s="7"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G264" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J264" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M264" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N264" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O264" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P264" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q264" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R264" s="11"/>
+      <c r="S264" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T264" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U264" s="11"/>
+      <c r="V264" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W264" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X264" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y264" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z264" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA264" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB264" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC264" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD264" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE264" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF264" s="11"/>
+      <c r="AG264" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH264" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI264" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ264" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK264" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL264" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM264" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN264" s="11"/>
+      <c r="AO264" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP264" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ264" s="11"/>
+      <c r="AR264" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS264" s="11"/>
+      <c r="AT264" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU264" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV264" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW264" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX264" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY264" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ264" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA264" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB264" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC264" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD264" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE264" s="11"/>
+      <c r="BF264" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG264" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH264" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI264" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ264" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK264" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL264" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM264" s="11"/>
+      <c r="BN264" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO264" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP264" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ264" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR264" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS264" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BT264" s="11"/>
+      <c r="BU264" s="11"/>
+      <c r="BV264" s="11"/>
+      <c r="BW264" s="11"/>
+      <c r="BX264" s="11"/>
+      <c r="BY264" s="11"/>
+      <c r="BZ264" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA264" s="7"/>
+      <c r="CB264" s="7"/>
+      <c r="CC264" s="7"/>
+    </row>
+    <row r="265" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="5">
+        <v>7</v>
+      </c>
+      <c r="B265" s="7"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I265" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M265" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N265" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O265" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P265" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q265" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R265" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S265" s="11"/>
+      <c r="T265" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U265" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V265" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W265" s="11"/>
+      <c r="X265" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y265" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z265" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA265" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB265" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC265" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD265" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE265" s="11"/>
+      <c r="AF265" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG265" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH265" s="11"/>
+      <c r="AI265" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ265" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK265" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL265" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM265" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN265" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO265" s="11"/>
+      <c r="AP265" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ265" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR265" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS265" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT265" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU265" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV265" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW265" s="11"/>
+      <c r="AX265" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY265" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ265" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA265" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB265" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC265" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD265" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE265" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF265" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG265" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH265" s="11"/>
+      <c r="BI265" s="11"/>
+      <c r="BJ265" s="11"/>
+      <c r="BK265" s="11"/>
+      <c r="BL265" s="11"/>
+      <c r="BM265" s="11"/>
+      <c r="BN265" s="11"/>
+      <c r="BO265" s="11"/>
+      <c r="BP265" s="11"/>
+      <c r="BQ265" s="11"/>
+      <c r="BR265" s="11"/>
+      <c r="BS265" s="11"/>
+      <c r="BT265" s="11"/>
+      <c r="BU265" s="11"/>
+      <c r="BV265" s="11"/>
+      <c r="BW265" s="11"/>
+      <c r="BX265" s="11"/>
+      <c r="BY265" s="11"/>
+      <c r="BZ265" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA265" s="7"/>
+      <c r="CB265" s="7"/>
+      <c r="CC265" s="7"/>
+    </row>
+    <row r="266" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="5">
+        <v>8</v>
+      </c>
+      <c r="B266" s="7"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="11"/>
+      <c r="R266" s="11"/>
+      <c r="S266" s="11"/>
+      <c r="T266" s="11"/>
+      <c r="U266" s="11"/>
+      <c r="V266" s="11"/>
+      <c r="W266" s="11"/>
+      <c r="X266" s="11"/>
+      <c r="Y266" s="11"/>
+      <c r="Z266" s="11"/>
+      <c r="AA266" s="11"/>
+      <c r="AB266" s="11"/>
+      <c r="AC266" s="11"/>
+      <c r="AD266" s="35"/>
+      <c r="AE266" s="11"/>
+      <c r="AF266" s="11"/>
+      <c r="AG266" s="11"/>
+      <c r="AH266" s="11"/>
+      <c r="AI266" s="11"/>
+      <c r="AJ266" s="11"/>
+      <c r="AK266" s="11"/>
+      <c r="AL266" s="11"/>
+      <c r="AM266" s="11"/>
+      <c r="AN266" s="11"/>
+      <c r="AO266" s="11"/>
+      <c r="AP266" s="11"/>
+      <c r="AQ266" s="11"/>
+      <c r="AR266" s="11"/>
+      <c r="AS266" s="11"/>
+      <c r="AT266" s="11"/>
+      <c r="AU266" s="11"/>
+      <c r="AV266" s="11"/>
+      <c r="AW266" s="11"/>
+      <c r="AX266" s="11"/>
+      <c r="AY266" s="11"/>
+      <c r="AZ266" s="11"/>
+      <c r="BA266" s="11"/>
+      <c r="BB266" s="11"/>
+      <c r="BC266" s="11"/>
+      <c r="BD266" s="11"/>
+      <c r="BE266" s="11"/>
+      <c r="BF266" s="11"/>
+      <c r="BG266" s="11"/>
+      <c r="BH266" s="11"/>
+      <c r="BI266" s="11"/>
+      <c r="BJ266" s="11"/>
+      <c r="BK266" s="11"/>
+      <c r="BL266" s="11"/>
+      <c r="BM266" s="11"/>
+      <c r="BN266" s="11"/>
+      <c r="BO266" s="11"/>
+      <c r="BP266" s="11"/>
+      <c r="BQ266" s="11"/>
+      <c r="BR266" s="11"/>
+      <c r="BS266" s="11"/>
+      <c r="BT266" s="11"/>
+      <c r="BU266" s="11"/>
+      <c r="BV266" s="11"/>
+      <c r="BW266" s="11"/>
+      <c r="BX266" s="11"/>
+      <c r="BY266" s="11"/>
+      <c r="BZ266" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA266" s="7"/>
+      <c r="CB266" s="7"/>
+      <c r="CC266" s="7"/>
+    </row>
+    <row r="267" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="5">
+        <v>9</v>
+      </c>
+      <c r="B267" s="7"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G267" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H267" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I267" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J267" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K267" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L267" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M267" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
+      <c r="T267" s="11"/>
+      <c r="U267" s="11"/>
+      <c r="V267" s="11"/>
+      <c r="W267" s="11"/>
+      <c r="X267" s="11"/>
+      <c r="Y267" s="11"/>
+      <c r="Z267" s="11"/>
+      <c r="AA267" s="11"/>
+      <c r="AB267" s="11"/>
+      <c r="AC267" s="11"/>
+      <c r="AD267" s="11"/>
+      <c r="AE267" s="11"/>
+      <c r="AF267" s="11"/>
+      <c r="AG267" s="11"/>
+      <c r="AH267" s="11"/>
+      <c r="AI267" s="11"/>
+      <c r="AJ267" s="11"/>
+      <c r="AK267" s="11"/>
+      <c r="AL267" s="11"/>
+      <c r="AM267" s="11"/>
+      <c r="AN267" s="11"/>
+      <c r="AO267" s="11"/>
+      <c r="AP267" s="11"/>
+      <c r="AQ267" s="11"/>
+      <c r="AR267" s="11"/>
+      <c r="AS267" s="11"/>
+      <c r="AT267" s="11"/>
+      <c r="AU267" s="11"/>
+      <c r="AV267" s="11"/>
+      <c r="AW267" s="11"/>
+      <c r="AX267" s="11"/>
+      <c r="AY267" s="11"/>
+      <c r="AZ267" s="11"/>
+      <c r="BA267" s="11"/>
+      <c r="BB267" s="11"/>
+      <c r="BC267" s="11"/>
+      <c r="BD267" s="11"/>
+      <c r="BE267" s="11"/>
+      <c r="BF267" s="11"/>
+      <c r="BG267" s="11"/>
+      <c r="BH267" s="11"/>
+      <c r="BI267" s="11"/>
+      <c r="BJ267" s="11"/>
+      <c r="BK267" s="11"/>
+      <c r="BL267" s="11"/>
+      <c r="BM267" s="11"/>
+      <c r="BN267" s="11"/>
+      <c r="BO267" s="11"/>
+      <c r="BP267" s="11"/>
+      <c r="BQ267" s="11"/>
+      <c r="BR267" s="11"/>
+      <c r="BS267" s="11"/>
+      <c r="BT267" s="11"/>
+      <c r="BU267" s="11"/>
+      <c r="BV267" s="11"/>
+      <c r="BW267" s="11"/>
+      <c r="BX267" s="11"/>
+      <c r="BY267" s="11"/>
+      <c r="BZ267" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA267" s="7"/>
+      <c r="CB267" s="7"/>
+      <c r="CC267" s="7"/>
+    </row>
+    <row r="268" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="5">
+        <v>10</v>
+      </c>
+      <c r="B268" s="7"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y268" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z268" s="11"/>
+      <c r="AA268" s="11"/>
+      <c r="AB268" s="11"/>
+      <c r="AC268" s="11"/>
+      <c r="AD268" s="11"/>
+      <c r="AE268" s="11"/>
+      <c r="AF268" s="11"/>
+      <c r="AG268" s="11"/>
+      <c r="AH268" s="11"/>
+      <c r="AI268" s="11"/>
+      <c r="AJ268" s="11"/>
+      <c r="AK268" s="11"/>
+      <c r="AL268" s="11"/>
+      <c r="AM268" s="11"/>
+      <c r="AN268" s="11"/>
+      <c r="AO268" s="11"/>
+      <c r="AP268" s="11"/>
+      <c r="AQ268" s="11"/>
+      <c r="AR268" s="11"/>
+      <c r="AS268" s="11"/>
+      <c r="AT268" s="11"/>
+      <c r="AU268" s="11"/>
+      <c r="AV268" s="11"/>
+      <c r="AW268" s="11"/>
+      <c r="AX268" s="11"/>
+      <c r="AY268" s="11"/>
+      <c r="AZ268" s="11"/>
+      <c r="BA268" s="11"/>
+      <c r="BB268" s="11"/>
+      <c r="BC268" s="11"/>
+      <c r="BD268" s="11"/>
+      <c r="BE268" s="11"/>
+      <c r="BF268" s="11"/>
+      <c r="BG268" s="11"/>
+      <c r="BH268" s="11"/>
+      <c r="BI268" s="11"/>
+      <c r="BJ268" s="11"/>
+      <c r="BK268" s="11"/>
+      <c r="BL268" s="11"/>
+      <c r="BM268" s="11"/>
+      <c r="BN268" s="11"/>
+      <c r="BO268" s="11"/>
+      <c r="BP268" s="11"/>
+      <c r="BQ268" s="11"/>
+      <c r="BR268" s="11"/>
+      <c r="BS268" s="11"/>
+      <c r="BT268" s="11"/>
+      <c r="BU268" s="11"/>
+      <c r="BV268" s="11"/>
+      <c r="BW268" s="11"/>
+      <c r="BX268" s="11"/>
+      <c r="BY268" s="11"/>
+      <c r="BZ268" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA268" s="7"/>
+      <c r="CB268" s="7"/>
+      <c r="CC268" s="7"/>
+    </row>
+    <row r="269" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="5">
+        <v>11</v>
+      </c>
+      <c r="B269" s="7"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E269" s="11"/>
+      <c r="F269" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G269" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H269" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I269" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J269" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K269" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L269" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M269" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N269" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O269" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P269" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q269" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R269" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S269" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T269" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U269" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V269" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W269" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X269" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y269" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z269" s="11"/>
+      <c r="AA269" s="11"/>
+      <c r="AB269" s="11"/>
+      <c r="AC269" s="11"/>
+      <c r="AD269" s="11"/>
+      <c r="AE269" s="11"/>
+      <c r="AF269" s="11"/>
+      <c r="AG269" s="11"/>
+      <c r="AH269" s="11"/>
+      <c r="AI269" s="11"/>
+      <c r="AJ269" s="11"/>
+      <c r="AK269" s="11"/>
+      <c r="AL269" s="11"/>
+      <c r="AM269" s="11"/>
+      <c r="AN269" s="11"/>
+      <c r="AO269" s="11"/>
+      <c r="AP269" s="11"/>
+      <c r="AQ269" s="11"/>
+      <c r="AR269" s="11"/>
+      <c r="AS269" s="11"/>
+      <c r="AT269" s="11"/>
+      <c r="AU269" s="11"/>
+      <c r="AV269" s="11"/>
+      <c r="AW269" s="11"/>
+      <c r="AX269" s="11"/>
+      <c r="AY269" s="11"/>
+      <c r="AZ269" s="11"/>
+      <c r="BA269" s="11"/>
+      <c r="BB269" s="11"/>
+      <c r="BC269" s="11"/>
+      <c r="BD269" s="11"/>
+      <c r="BE269" s="11"/>
+      <c r="BF269" s="11"/>
+      <c r="BG269" s="11"/>
+      <c r="BH269" s="11"/>
+      <c r="BI269" s="11"/>
+      <c r="BJ269" s="11"/>
+      <c r="BK269" s="11"/>
+      <c r="BL269" s="11"/>
+      <c r="BM269" s="11"/>
+      <c r="BN269" s="11"/>
+      <c r="BO269" s="11"/>
+      <c r="BP269" s="11"/>
+      <c r="BQ269" s="11"/>
+      <c r="BR269" s="11"/>
+      <c r="BS269" s="11"/>
+      <c r="BT269" s="11"/>
+      <c r="BU269" s="11"/>
+      <c r="BV269" s="11"/>
+      <c r="BW269" s="11"/>
+      <c r="BX269" s="11"/>
+      <c r="BY269" s="11"/>
+      <c r="BZ269" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA269" s="7"/>
+      <c r="CB269" s="7"/>
+      <c r="CC269" s="7"/>
+    </row>
+    <row r="270" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="5">
+        <v>12</v>
+      </c>
+      <c r="B270" s="7"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E270" s="11"/>
+      <c r="F270" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X270" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y270" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z270" s="11"/>
+      <c r="AA270" s="11"/>
+      <c r="AB270" s="11"/>
+      <c r="AC270" s="11"/>
+      <c r="AD270" s="11"/>
+      <c r="AE270" s="11"/>
+      <c r="AF270" s="11"/>
+      <c r="AG270" s="11"/>
+      <c r="AH270" s="11"/>
+      <c r="AI270" s="11"/>
+      <c r="AJ270" s="11"/>
+      <c r="AK270" s="11"/>
+      <c r="AL270" s="11"/>
+      <c r="AM270" s="11"/>
+      <c r="AN270" s="11"/>
+      <c r="AO270" s="11"/>
+      <c r="AP270" s="11"/>
+      <c r="AQ270" s="11"/>
+      <c r="AR270" s="11"/>
+      <c r="AS270" s="11"/>
+      <c r="AT270" s="11"/>
+      <c r="AU270" s="11"/>
+      <c r="AV270" s="11"/>
+      <c r="AW270" s="11"/>
+      <c r="AX270" s="11"/>
+      <c r="AY270" s="11"/>
+      <c r="AZ270" s="11"/>
+      <c r="BA270" s="11"/>
+      <c r="BB270" s="11"/>
+      <c r="BC270" s="11"/>
+      <c r="BD270" s="11"/>
+      <c r="BE270" s="11"/>
+      <c r="BF270" s="11"/>
+      <c r="BG270" s="11"/>
+      <c r="BH270" s="11"/>
+      <c r="BI270" s="11"/>
+      <c r="BJ270" s="11"/>
+      <c r="BK270" s="11"/>
+      <c r="BL270" s="11"/>
+      <c r="BM270" s="11"/>
+      <c r="BN270" s="11"/>
+      <c r="BO270" s="11"/>
+      <c r="BP270" s="11"/>
+      <c r="BQ270" s="11"/>
+      <c r="BR270" s="11"/>
+      <c r="BS270" s="11"/>
+      <c r="BT270" s="11"/>
+      <c r="BU270" s="11"/>
+      <c r="BV270" s="11"/>
+      <c r="BW270" s="11"/>
+      <c r="BX270" s="11"/>
+      <c r="BY270" s="11"/>
+      <c r="BZ270" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA270" s="7"/>
+      <c r="CB270" s="7"/>
+      <c r="CC270" s="7"/>
+    </row>
+    <row r="271" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="5">
+        <v>13</v>
+      </c>
+      <c r="B271" s="7"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+      <c r="P271" s="11"/>
+      <c r="Q271" s="11"/>
+      <c r="R271" s="11"/>
+      <c r="S271" s="11"/>
+      <c r="T271" s="11"/>
+      <c r="U271" s="11"/>
+      <c r="V271" s="11"/>
+      <c r="W271" s="11"/>
+      <c r="X271" s="11"/>
+      <c r="Y271" s="11"/>
+      <c r="Z271" s="11"/>
+      <c r="AA271" s="11"/>
+      <c r="AB271" s="11"/>
+      <c r="AC271" s="11"/>
+      <c r="AD271" s="11"/>
+      <c r="AE271" s="11"/>
+      <c r="AF271" s="11"/>
+      <c r="AG271" s="11"/>
+      <c r="AH271" s="11"/>
+      <c r="AI271" s="11"/>
+      <c r="AJ271" s="11"/>
+      <c r="AK271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV271" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW271" s="11"/>
+      <c r="AX271" s="11"/>
+      <c r="AY271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO271" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP271" s="11"/>
+      <c r="BQ271" s="11"/>
+      <c r="BR271" s="11"/>
+      <c r="BS271" s="11"/>
+      <c r="BT271" s="11"/>
+      <c r="BU271" s="11"/>
+      <c r="BV271" s="11"/>
+      <c r="BW271" s="11"/>
+      <c r="BX271" s="11"/>
+      <c r="BY271" s="11"/>
+      <c r="BZ271" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA271" s="7"/>
+      <c r="CB271" s="7"/>
+      <c r="CC271" s="7"/>
+    </row>
+    <row r="272" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="5">
+        <v>14</v>
+      </c>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G272" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H272" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I272" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J272" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K272" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L272" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M272" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N272" s="11"/>
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="11"/>
+      <c r="R272" s="11"/>
+      <c r="S272" s="11"/>
+      <c r="T272" s="11"/>
+      <c r="U272" s="11"/>
+      <c r="V272" s="11"/>
+      <c r="W272" s="11"/>
+      <c r="X272" s="11"/>
+      <c r="Y272" s="11"/>
+      <c r="Z272" s="11"/>
+      <c r="AA272" s="11"/>
+      <c r="AB272" s="11"/>
+      <c r="AC272" s="11"/>
+      <c r="AD272" s="11"/>
+      <c r="AE272" s="11"/>
+      <c r="AF272" s="11"/>
+      <c r="AG272" s="11"/>
+      <c r="AH272" s="11"/>
+      <c r="AI272" s="11"/>
+      <c r="AJ272" s="11"/>
+      <c r="AK272" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL272" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM272" s="10"/>
+      <c r="AN272" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO272" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP272" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ272" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR272" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS272" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT272" s="10"/>
+      <c r="AU272" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV272" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW272" s="11"/>
+      <c r="AX272" s="11"/>
+      <c r="AY272" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ272" s="10"/>
+      <c r="BA272" s="10"/>
+      <c r="BB272" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC272" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD272" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE272" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF272" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG272" s="10"/>
+      <c r="BH272" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI272" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ272" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK272" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL272" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM272" s="10"/>
+      <c r="BN272" s="10"/>
+      <c r="BO272" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP272" s="11"/>
+      <c r="BQ272" s="11"/>
+      <c r="BR272" s="11"/>
+      <c r="BS272" s="11"/>
+      <c r="BT272" s="11"/>
+      <c r="BU272" s="11"/>
+      <c r="BV272" s="11"/>
+      <c r="BW272" s="11"/>
+      <c r="BX272" s="11"/>
+      <c r="BY272" s="11"/>
+      <c r="BZ272" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA272" s="7"/>
+      <c r="CB272" s="7"/>
+      <c r="CC272" s="7"/>
+    </row>
+    <row r="273" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="5">
+        <v>15</v>
+      </c>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S273" s="11"/>
+      <c r="T273" s="11"/>
+      <c r="U273" s="11"/>
+      <c r="V273" s="11"/>
+      <c r="W273" s="11"/>
+      <c r="X273" s="11"/>
+      <c r="Y273" s="11"/>
+      <c r="Z273" s="11"/>
+      <c r="AA273" s="11"/>
+      <c r="AB273" s="11"/>
+      <c r="AC273" s="11"/>
+      <c r="AD273" s="11"/>
+      <c r="AE273" s="11"/>
+      <c r="AF273" s="11"/>
+      <c r="AG273" s="11"/>
+      <c r="AH273" s="11"/>
+      <c r="AI273" s="11"/>
+      <c r="AJ273" s="11"/>
+      <c r="AK273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW273" s="11"/>
+      <c r="AX273" s="11"/>
+      <c r="AY273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO273" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP273" s="11"/>
+      <c r="BQ273" s="11"/>
+      <c r="BR273" s="11"/>
+      <c r="BS273" s="11"/>
+      <c r="BT273" s="11"/>
+      <c r="BU273" s="11"/>
+      <c r="BV273" s="11"/>
+      <c r="BW273" s="11"/>
+      <c r="BX273" s="11"/>
+      <c r="BY273" s="11"/>
+      <c r="BZ273" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA273" s="7"/>
+      <c r="CB273" s="7"/>
+      <c r="CC273" s="7"/>
+    </row>
+    <row r="274" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="5">
+        <v>16</v>
+      </c>
+      <c r="B274" s="7"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G274" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H274" s="13">
+        <v>9</v>
+      </c>
+      <c r="I274" s="13">
+        <v>9</v>
+      </c>
+      <c r="J274" s="13">
+        <v>9</v>
+      </c>
+      <c r="K274" s="13">
+        <v>9</v>
+      </c>
+      <c r="L274" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M274" s="13">
+        <v>9</v>
+      </c>
+      <c r="N274" s="13">
+        <v>9</v>
+      </c>
+      <c r="O274" s="13">
+        <v>9</v>
+      </c>
+      <c r="P274" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q274" s="13">
+        <v>9</v>
+      </c>
+      <c r="R274" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S274" s="11"/>
+      <c r="T274" s="11"/>
+      <c r="U274" s="11"/>
+      <c r="V274" s="11"/>
+      <c r="W274" s="11"/>
+      <c r="X274" s="11"/>
+      <c r="Y274" s="11"/>
+      <c r="Z274" s="11"/>
+      <c r="AA274" s="11"/>
+      <c r="AB274" s="11"/>
+      <c r="AC274" s="11"/>
+      <c r="AD274" s="11"/>
+      <c r="AE274" s="11"/>
+      <c r="AF274" s="11"/>
+      <c r="AG274" s="11"/>
+      <c r="AH274" s="20"/>
+      <c r="AI274" s="20"/>
+      <c r="AJ274" s="20"/>
+      <c r="AK274" s="11"/>
+      <c r="AL274" s="11"/>
+      <c r="AM274" s="11"/>
+      <c r="AN274" s="11"/>
+      <c r="AO274" s="11"/>
+      <c r="AP274" s="11"/>
+      <c r="AQ274" s="11"/>
+      <c r="AR274" s="11"/>
+      <c r="AS274" s="11"/>
+      <c r="AT274" s="11"/>
+      <c r="AU274" s="11"/>
+      <c r="AV274" s="11"/>
+      <c r="AW274" s="11"/>
+      <c r="AX274" s="11"/>
+      <c r="AY274" s="11"/>
+      <c r="AZ274" s="11"/>
+      <c r="BA274" s="11"/>
+      <c r="BB274" s="11"/>
+      <c r="BC274" s="11"/>
+      <c r="BD274" s="11"/>
+      <c r="BE274" s="11"/>
+      <c r="BF274" s="11"/>
+      <c r="BG274" s="11"/>
+      <c r="BH274" s="11"/>
+      <c r="BI274" s="11"/>
+      <c r="BJ274" s="11"/>
+      <c r="BK274" s="11"/>
+      <c r="BL274" s="11"/>
+      <c r="BM274" s="11"/>
+      <c r="BN274" s="11"/>
+      <c r="BO274" s="11"/>
+      <c r="BP274" s="11"/>
+      <c r="BQ274" s="11"/>
+      <c r="BR274" s="11"/>
+      <c r="BS274" s="11"/>
+      <c r="BT274" s="11"/>
+      <c r="BU274" s="11"/>
+      <c r="BV274" s="11"/>
+      <c r="BW274" s="11"/>
+      <c r="BX274" s="11"/>
+      <c r="BY274" s="11"/>
+      <c r="BZ274" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA274" s="7"/>
+      <c r="CB274" s="7"/>
+      <c r="CC274" s="7"/>
+    </row>
+    <row r="275" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="5">
+        <v>17</v>
+      </c>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E275" s="11"/>
+      <c r="F275" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="O275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q275" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R275" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S275" s="39"/>
+      <c r="T275" s="39"/>
+      <c r="U275" s="11"/>
+      <c r="V275" s="11"/>
+      <c r="W275" s="11"/>
+      <c r="X275" s="11"/>
+      <c r="Y275" s="11"/>
+      <c r="Z275" s="11"/>
+      <c r="AA275" s="11"/>
+      <c r="AB275" s="11"/>
+      <c r="AC275" s="11"/>
+      <c r="AD275" s="11"/>
+      <c r="AE275" s="11"/>
+      <c r="AF275" s="11"/>
+      <c r="AG275" s="11"/>
+      <c r="AH275" s="11"/>
+      <c r="AI275" s="11"/>
+      <c r="AJ275" s="11"/>
+      <c r="AK275" s="11"/>
+      <c r="AL275" s="11"/>
+      <c r="AM275" s="11"/>
+      <c r="AN275" s="11"/>
+      <c r="AO275" s="11"/>
+      <c r="AP275" s="11"/>
+      <c r="AQ275" s="11"/>
+      <c r="AR275" s="11"/>
+      <c r="AS275" s="11"/>
+      <c r="AT275" s="11"/>
+      <c r="AU275" s="11"/>
+      <c r="AV275" s="11"/>
+      <c r="AW275" s="11"/>
+      <c r="AX275" s="11"/>
+      <c r="AY275" s="11"/>
+      <c r="AZ275" s="11"/>
+      <c r="BA275" s="11"/>
+      <c r="BB275" s="11"/>
+      <c r="BC275" s="11"/>
+      <c r="BD275" s="11"/>
+      <c r="BE275" s="11"/>
+      <c r="BF275" s="11"/>
+      <c r="BG275" s="11"/>
+      <c r="BH275" s="11"/>
+      <c r="BI275" s="11"/>
+      <c r="BJ275" s="11"/>
+      <c r="BK275" s="11"/>
+      <c r="BL275" s="11"/>
+      <c r="BM275" s="11"/>
+      <c r="BN275" s="11"/>
+      <c r="BO275" s="11"/>
+      <c r="BP275" s="11"/>
+      <c r="BQ275" s="11"/>
+      <c r="BR275" s="11"/>
+      <c r="BS275" s="11"/>
+      <c r="BT275" s="11"/>
+      <c r="BU275" s="11"/>
+      <c r="BV275" s="11"/>
+      <c r="BW275" s="11"/>
+      <c r="BX275" s="11"/>
+      <c r="BY275" s="11"/>
+      <c r="BZ275" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA275" s="7"/>
+      <c r="CB275" s="7"/>
+      <c r="CC275" s="7"/>
+    </row>
+    <row r="276" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="5">
+        <v>18</v>
+      </c>
+      <c r="B276" s="7"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E276" s="40"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="11"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="11"/>
+      <c r="M276" s="11"/>
+      <c r="N276" s="11"/>
+      <c r="O276" s="11"/>
+      <c r="P276" s="11"/>
+      <c r="Q276" s="11"/>
+      <c r="R276" s="11"/>
+      <c r="S276" s="11"/>
+      <c r="T276" s="11"/>
+      <c r="U276" s="41"/>
+      <c r="V276" s="11"/>
+      <c r="W276" s="11"/>
+      <c r="X276" s="11"/>
+      <c r="Y276" s="11"/>
+      <c r="Z276" s="11"/>
+      <c r="AA276" s="11"/>
+      <c r="AB276" s="11"/>
+      <c r="AC276" s="11"/>
+      <c r="AD276" s="11"/>
+      <c r="AE276" s="11"/>
+      <c r="AF276" s="11"/>
+      <c r="AG276" s="11"/>
+      <c r="AH276" s="11"/>
+      <c r="AI276" s="11"/>
+      <c r="AJ276" s="11"/>
+      <c r="AK276" s="11"/>
+      <c r="AL276" s="11"/>
+      <c r="AM276" s="11"/>
+      <c r="AN276" s="11"/>
+      <c r="AO276" s="11"/>
+      <c r="AP276" s="11"/>
+      <c r="AQ276" s="11"/>
+      <c r="AR276" s="11"/>
+      <c r="AS276" s="11"/>
+      <c r="AT276" s="11"/>
+      <c r="AU276" s="11"/>
+      <c r="AV276" s="11"/>
+      <c r="AW276" s="11"/>
+      <c r="AX276" s="11"/>
+      <c r="AY276" s="11"/>
+      <c r="AZ276" s="11"/>
+      <c r="BA276" s="11"/>
+      <c r="BB276" s="11"/>
+      <c r="BC276" s="11"/>
+      <c r="BD276" s="11"/>
+      <c r="BE276" s="11"/>
+      <c r="BF276" s="11"/>
+      <c r="BG276" s="11"/>
+      <c r="BH276" s="11"/>
+      <c r="BI276" s="11"/>
+      <c r="BJ276" s="11"/>
+      <c r="BK276" s="11"/>
+      <c r="BL276" s="11"/>
+      <c r="BM276" s="11"/>
+      <c r="BN276" s="11"/>
+      <c r="BO276" s="11"/>
+      <c r="BP276" s="11"/>
+      <c r="BQ276" s="11"/>
+      <c r="BR276" s="11"/>
+      <c r="BS276" s="11"/>
+      <c r="BT276" s="11"/>
+      <c r="BU276" s="11"/>
+      <c r="BV276" s="11"/>
+      <c r="BW276" s="11"/>
+      <c r="BX276" s="11"/>
+      <c r="BY276" s="11"/>
+      <c r="BZ276" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA276" s="7"/>
+      <c r="CB276" s="7"/>
+      <c r="CC276" s="7"/>
+    </row>
+    <row r="277" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="5">
+        <v>19</v>
+      </c>
+      <c r="B277" s="7"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E277" s="40"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="11"/>
+      <c r="M277" s="11"/>
+      <c r="N277" s="11"/>
+      <c r="O277" s="11"/>
+      <c r="P277" s="11"/>
+      <c r="Q277" s="11"/>
+      <c r="R277" s="11"/>
+      <c r="S277" s="11"/>
+      <c r="T277" s="11"/>
+      <c r="U277" s="41"/>
+      <c r="V277" s="11"/>
+      <c r="W277" s="11"/>
+      <c r="X277" s="11"/>
+      <c r="Y277" s="11"/>
+      <c r="Z277" s="11"/>
+      <c r="AA277" s="11"/>
+      <c r="AB277" s="11"/>
+      <c r="AC277" s="11"/>
+      <c r="AD277" s="11"/>
+      <c r="AE277" s="11"/>
+      <c r="AF277" s="11"/>
+      <c r="AG277" s="11"/>
+      <c r="AH277" s="11"/>
+      <c r="AI277" s="11"/>
+      <c r="AJ277" s="11"/>
+      <c r="AK277" s="11"/>
+      <c r="AL277" s="11"/>
+      <c r="AM277" s="11"/>
+      <c r="AN277" s="11"/>
+      <c r="AO277" s="11"/>
+      <c r="AP277" s="11"/>
+      <c r="AQ277" s="11"/>
+      <c r="AR277" s="11"/>
+      <c r="AS277" s="11"/>
+      <c r="AT277" s="11"/>
+      <c r="AU277" s="11"/>
+      <c r="AV277" s="11"/>
+      <c r="AW277" s="11"/>
+      <c r="AX277" s="11"/>
+      <c r="AY277" s="11"/>
+      <c r="AZ277" s="11"/>
+      <c r="BA277" s="11"/>
+      <c r="BB277" s="11"/>
+      <c r="BC277" s="11"/>
+      <c r="BD277" s="11"/>
+      <c r="BE277" s="11"/>
+      <c r="BF277" s="11"/>
+      <c r="BG277" s="11"/>
+      <c r="BH277" s="11"/>
+      <c r="BI277" s="11"/>
+      <c r="BJ277" s="11"/>
+      <c r="BK277" s="11"/>
+      <c r="BL277" s="11"/>
+      <c r="BM277" s="11"/>
+      <c r="BN277" s="11"/>
+      <c r="BO277" s="11"/>
+      <c r="BP277" s="11"/>
+      <c r="BQ277" s="11"/>
+      <c r="BR277" s="11"/>
+      <c r="BS277" s="11"/>
+      <c r="BT277" s="11"/>
+      <c r="BU277" s="11"/>
+      <c r="BV277" s="11"/>
+      <c r="BW277" s="11"/>
+      <c r="BX277" s="11"/>
+      <c r="BY277" s="11"/>
+      <c r="BZ277" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA277" s="7"/>
+      <c r="CB277" s="7"/>
+      <c r="CC277" s="7"/>
+    </row>
+    <row r="278" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="5">
+        <v>20</v>
+      </c>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E278" s="40"/>
+      <c r="F278" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G278" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H278" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I278" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J278" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K278" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L278" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M278" s="11"/>
+      <c r="N278" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O278" s="11">
+        <v>9</v>
+      </c>
+      <c r="P278" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q278" s="11">
+        <v>9</v>
+      </c>
+      <c r="R278" s="11">
+        <v>9</v>
+      </c>
+      <c r="S278" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T278" s="41">
+        <v>0</v>
+      </c>
+      <c r="U278" s="41"/>
+      <c r="V278" s="11"/>
+      <c r="W278" s="11"/>
+      <c r="X278" s="11"/>
+      <c r="Y278" s="11"/>
+      <c r="Z278" s="11"/>
+      <c r="AA278" s="11"/>
+      <c r="AB278" s="11"/>
+      <c r="AC278" s="11"/>
+      <c r="AD278" s="11"/>
+      <c r="AE278" s="11"/>
+      <c r="AF278" s="11"/>
+      <c r="AG278" s="11"/>
+      <c r="AH278" s="11"/>
+      <c r="AI278" s="11"/>
+      <c r="AJ278" s="11"/>
+      <c r="AK278" s="11"/>
+      <c r="AL278" s="11"/>
+      <c r="AM278" s="11"/>
+      <c r="AN278" s="11"/>
+      <c r="AO278" s="11"/>
+      <c r="AP278" s="11"/>
+      <c r="AQ278" s="11"/>
+      <c r="AR278" s="11"/>
+      <c r="AS278" s="11"/>
+      <c r="AT278" s="11"/>
+      <c r="AU278" s="11"/>
+      <c r="AV278" s="11"/>
+      <c r="AW278" s="11"/>
+      <c r="AX278" s="11"/>
+      <c r="AY278" s="11"/>
+      <c r="AZ278" s="11"/>
+      <c r="BA278" s="11"/>
+      <c r="BB278" s="11"/>
+      <c r="BC278" s="11"/>
+      <c r="BD278" s="11"/>
+      <c r="BE278" s="11"/>
+      <c r="BF278" s="11"/>
+      <c r="BG278" s="11"/>
+      <c r="BH278" s="11"/>
+      <c r="BI278" s="11"/>
+      <c r="BJ278" s="11"/>
+      <c r="BK278" s="11"/>
+      <c r="BL278" s="11"/>
+      <c r="BM278" s="11"/>
+      <c r="BN278" s="11"/>
+      <c r="BO278" s="11"/>
+      <c r="BP278" s="11"/>
+      <c r="BQ278" s="11"/>
+      <c r="BR278" s="11"/>
+      <c r="BS278" s="11"/>
+      <c r="BT278" s="11"/>
+      <c r="BU278" s="11"/>
+      <c r="BV278" s="11"/>
+      <c r="BW278" s="11"/>
+      <c r="BX278" s="11"/>
+      <c r="BY278" s="11"/>
+      <c r="BZ278" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA278" s="7"/>
+      <c r="CB278" s="7"/>
+      <c r="CC278" s="7"/>
+    </row>
+    <row r="279" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="5">
+        <v>21</v>
+      </c>
+      <c r="B279" s="7"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E279" s="11"/>
+      <c r="F279" s="38"/>
+      <c r="G279" s="38"/>
+      <c r="H279" s="38"/>
+      <c r="I279" s="38"/>
+      <c r="J279" s="38"/>
+      <c r="K279" s="38"/>
+      <c r="L279" s="38"/>
+      <c r="M279" s="38"/>
+      <c r="N279" s="38"/>
+      <c r="O279" s="38"/>
+      <c r="P279" s="38"/>
+      <c r="Q279" s="38"/>
+      <c r="R279" s="38"/>
+      <c r="S279" s="38"/>
+      <c r="T279" s="38"/>
+      <c r="U279" s="11"/>
+      <c r="V279" s="11"/>
+      <c r="W279" s="11"/>
+      <c r="X279" s="11"/>
+      <c r="Y279" s="11"/>
+      <c r="Z279" s="11"/>
+      <c r="AA279" s="11"/>
+      <c r="AB279" s="11"/>
+      <c r="AC279" s="11"/>
+      <c r="AD279" s="11"/>
+      <c r="AE279" s="11"/>
+      <c r="AF279" s="11"/>
+      <c r="AG279" s="11"/>
+      <c r="AH279" s="11"/>
+      <c r="AI279" s="11"/>
+      <c r="AJ279" s="11"/>
+      <c r="AK279" s="11"/>
+      <c r="AL279" s="11"/>
+      <c r="AM279" s="11"/>
+      <c r="AN279" s="11"/>
+      <c r="AO279" s="11"/>
+      <c r="AP279" s="11"/>
+      <c r="AQ279" s="11"/>
+      <c r="AR279" s="11"/>
+      <c r="AS279" s="11"/>
+      <c r="AT279" s="11"/>
+      <c r="AU279" s="11"/>
+      <c r="AV279" s="11"/>
+      <c r="AW279" s="11"/>
+      <c r="AX279" s="11"/>
+      <c r="AY279" s="11"/>
+      <c r="AZ279" s="11"/>
+      <c r="BA279" s="11"/>
+      <c r="BB279" s="11"/>
+      <c r="BC279" s="11"/>
+      <c r="BD279" s="11"/>
+      <c r="BE279" s="11"/>
+      <c r="BF279" s="11"/>
+      <c r="BG279" s="11"/>
+      <c r="BH279" s="11"/>
+      <c r="BI279" s="11"/>
+      <c r="BJ279" s="11"/>
+      <c r="BK279" s="11"/>
+      <c r="BL279" s="11"/>
+      <c r="BM279" s="11"/>
+      <c r="BN279" s="11"/>
+      <c r="BO279" s="11"/>
+      <c r="BP279" s="11"/>
+      <c r="BQ279" s="11"/>
+      <c r="BR279" s="11"/>
+      <c r="BS279" s="11"/>
+      <c r="BT279" s="11"/>
+      <c r="BU279" s="11"/>
+      <c r="BV279" s="11"/>
+      <c r="BW279" s="11"/>
+      <c r="BX279" s="11"/>
+      <c r="BY279" s="11"/>
+      <c r="BZ279" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA279" s="7"/>
+      <c r="CB279" s="7"/>
+      <c r="CC279" s="7"/>
+    </row>
+    <row r="280" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="5">
+        <v>22</v>
+      </c>
+      <c r="B280" s="7"/>
+      <c r="C280" s="7"/>
+      <c r="D280" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB280" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY280" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ280" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA280" s="7"/>
+      <c r="CB280" s="7"/>
+      <c r="CC280" s="7"/>
+    </row>
+    <row r="281" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="5">
+        <v>23</v>
+      </c>
+      <c r="B281" s="7"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H281" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I281" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J281" s="7"/>
+      <c r="K281" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L281" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M281" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N281" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O281" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P281" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q281" s="7"/>
+      <c r="R281" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S281" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T281" s="7"/>
+      <c r="U281" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V281" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W281" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X281" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y281" s="7"/>
+      <c r="Z281" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA281" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB281" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC281" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD281" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE281" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF281" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG281" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH281" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI281" s="7"/>
+      <c r="AJ281" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK281" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL281" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM281" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN281" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO281" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP281" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ281" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR281" s="7"/>
+      <c r="AS281" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT281" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU281" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV281" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW281" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX281" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY281" s="7"/>
+      <c r="AZ281" s="7"/>
+      <c r="BA281" s="7"/>
+      <c r="BB281" s="7"/>
+      <c r="BC281" s="7"/>
+      <c r="BD281" s="7"/>
+      <c r="BE281" s="7"/>
+      <c r="BF281" s="7"/>
+      <c r="BG281" s="7"/>
+      <c r="BH281" s="7"/>
+      <c r="BI281" s="7"/>
+      <c r="BJ281" s="7"/>
+      <c r="BK281" s="7"/>
+      <c r="BL281" s="7"/>
+      <c r="BM281" s="7"/>
+      <c r="BN281" s="7"/>
+      <c r="BO281" s="7"/>
+      <c r="BP281" s="7"/>
+      <c r="BQ281" s="7"/>
+      <c r="BR281" s="7"/>
+      <c r="BS281" s="7"/>
+      <c r="BT281" s="7"/>
+      <c r="BU281" s="7"/>
+      <c r="BV281" s="7"/>
+      <c r="BW281" s="7"/>
+      <c r="BX281" s="7"/>
+      <c r="BY281" s="7"/>
+      <c r="BZ281" s="7"/>
+      <c r="CA281" s="7"/>
+      <c r="CB281" s="7"/>
+      <c r="CC281" s="7"/>
+    </row>
+    <row r="282" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="5">
+        <v>24</v>
+      </c>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="7"/>
+      <c r="I282" s="7"/>
+      <c r="J282" s="7"/>
+      <c r="K282" s="7"/>
+      <c r="L282" s="7"/>
+      <c r="M282" s="7"/>
+      <c r="N282" s="7"/>
+      <c r="O282" s="7"/>
+      <c r="P282" s="7"/>
+      <c r="Q282" s="7"/>
+      <c r="R282" s="7"/>
+      <c r="S282" s="7"/>
+      <c r="T282" s="7"/>
+      <c r="U282" s="7"/>
+      <c r="V282" s="7"/>
+      <c r="W282" s="7"/>
+      <c r="X282" s="7"/>
+      <c r="Y282" s="7"/>
+      <c r="Z282" s="7"/>
+      <c r="AA282" s="7"/>
+      <c r="AB282" s="7"/>
+      <c r="AC282" s="7"/>
+      <c r="AD282" s="7"/>
+      <c r="AE282" s="7"/>
+      <c r="AF282" s="7"/>
+      <c r="AG282" s="7"/>
+      <c r="AH282" s="7"/>
+      <c r="AI282" s="7"/>
+      <c r="AJ282" s="7"/>
+      <c r="AK282" s="7"/>
+      <c r="AL282" s="7"/>
+      <c r="AM282" s="7"/>
+      <c r="AN282" s="7"/>
+      <c r="AO282" s="7"/>
+      <c r="AP282" s="7"/>
+      <c r="AQ282" s="7"/>
+      <c r="AR282" s="7"/>
+      <c r="AS282" s="7"/>
+      <c r="AT282" s="7"/>
+      <c r="AU282" s="7"/>
+      <c r="AV282" s="7"/>
+      <c r="AW282" s="7"/>
+      <c r="AX282" s="7"/>
+      <c r="AY282" s="7"/>
+      <c r="AZ282" s="7"/>
+      <c r="BA282" s="7"/>
+      <c r="BB282" s="7"/>
+      <c r="BC282" s="7"/>
+      <c r="BD282" s="7"/>
+      <c r="BE282" s="7"/>
+      <c r="BF282" s="7"/>
+      <c r="BG282" s="7"/>
+      <c r="BH282" s="7"/>
+      <c r="BI282" s="7"/>
+      <c r="BJ282" s="7"/>
+      <c r="BK282" s="7"/>
+      <c r="BL282" s="7"/>
+      <c r="BM282" s="7"/>
+      <c r="BN282" s="7"/>
+      <c r="BO282" s="7"/>
+      <c r="BP282" s="7"/>
+      <c r="BQ282" s="7"/>
+      <c r="BR282" s="7"/>
+      <c r="BS282" s="7"/>
+      <c r="BT282" s="7"/>
+      <c r="BU282" s="7"/>
+      <c r="BV282" s="7"/>
+      <c r="BW282" s="7"/>
+      <c r="BX282" s="7"/>
+      <c r="BY282" s="7"/>
+      <c r="BZ282" s="7"/>
+      <c r="CA282" s="7"/>
+      <c r="CB282" s="7"/>
+      <c r="CC282" s="7"/>
+    </row>
+    <row r="283" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" spans="1:81" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE284" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="285" spans="1:81" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" s="6">
+        <v>1</v>
+      </c>
+      <c r="C286" s="6">
+        <v>2</v>
+      </c>
+      <c r="D286" s="6">
+        <v>3</v>
+      </c>
+      <c r="E286" s="6">
+        <v>4</v>
+      </c>
+      <c r="F286" s="6">
+        <v>5</v>
+      </c>
+      <c r="G286" s="6">
+        <v>6</v>
+      </c>
+      <c r="H286" s="6">
+        <v>7</v>
+      </c>
+      <c r="I286" s="6">
+        <v>8</v>
+      </c>
+      <c r="J286" s="6">
+        <v>9</v>
+      </c>
+      <c r="K286" s="6">
+        <v>10</v>
+      </c>
+      <c r="L286" s="6">
+        <v>11</v>
+      </c>
+      <c r="M286" s="6">
+        <v>12</v>
+      </c>
+      <c r="N286" s="6">
+        <v>13</v>
+      </c>
+      <c r="O286" s="6">
+        <v>14</v>
+      </c>
+      <c r="P286" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q286" s="6">
+        <v>16</v>
+      </c>
+      <c r="R286" s="6">
+        <v>17</v>
+      </c>
+      <c r="S286" s="6">
+        <v>18</v>
+      </c>
+      <c r="T286" s="6">
+        <v>19</v>
+      </c>
+      <c r="U286" s="6">
+        <v>20</v>
+      </c>
+      <c r="V286" s="6">
+        <v>21</v>
+      </c>
+      <c r="W286" s="6">
+        <v>22</v>
+      </c>
+      <c r="X286" s="6">
+        <v>23</v>
+      </c>
+      <c r="Y286" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z286" s="6">
+        <v>25</v>
+      </c>
+      <c r="AA286" s="6">
+        <v>26</v>
+      </c>
+      <c r="AB286" s="6">
+        <v>27</v>
+      </c>
+      <c r="AC286" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD286" s="6">
+        <v>29</v>
+      </c>
+      <c r="AE286" s="6">
+        <v>30</v>
+      </c>
+      <c r="AF286" s="6">
+        <v>31</v>
+      </c>
+      <c r="AG286" s="6">
+        <v>32</v>
+      </c>
+      <c r="AH286" s="6">
+        <v>33</v>
+      </c>
+      <c r="AI286" s="6">
+        <v>34</v>
+      </c>
+      <c r="AJ286" s="6">
+        <v>35</v>
+      </c>
+      <c r="AK286" s="6">
+        <v>36</v>
+      </c>
+      <c r="AL286" s="6">
+        <v>37</v>
+      </c>
+      <c r="AM286" s="6">
+        <v>38</v>
+      </c>
+      <c r="AN286" s="6">
+        <v>39</v>
+      </c>
+      <c r="AO286" s="6">
+        <v>40</v>
+      </c>
+      <c r="AP286" s="6">
+        <v>41</v>
+      </c>
+      <c r="AQ286" s="6">
+        <v>42</v>
+      </c>
+      <c r="AR286" s="6">
+        <v>43</v>
+      </c>
+      <c r="AS286" s="6">
+        <v>44</v>
+      </c>
+      <c r="AT286" s="6">
+        <v>45</v>
+      </c>
+      <c r="AU286" s="6">
+        <v>46</v>
+      </c>
+      <c r="AV286" s="6">
+        <v>47</v>
+      </c>
+      <c r="AW286" s="6">
+        <v>48</v>
+      </c>
+      <c r="AX286" s="6">
+        <v>49</v>
+      </c>
+      <c r="AY286" s="6">
+        <v>50</v>
+      </c>
+      <c r="AZ286" s="6">
+        <v>51</v>
+      </c>
+      <c r="BA286" s="6">
+        <v>52</v>
+      </c>
+      <c r="BB286" s="6">
+        <v>53</v>
+      </c>
+      <c r="BC286" s="6">
+        <v>54</v>
+      </c>
+      <c r="BD286" s="6">
+        <v>55</v>
+      </c>
+      <c r="BE286" s="6">
+        <v>56</v>
+      </c>
+      <c r="BF286" s="6">
+        <v>57</v>
+      </c>
+      <c r="BG286" s="6">
+        <v>58</v>
+      </c>
+      <c r="BH286" s="6">
+        <v>59</v>
+      </c>
+      <c r="BI286" s="6">
+        <v>60</v>
+      </c>
+      <c r="BJ286" s="6">
+        <v>61</v>
+      </c>
+      <c r="BK286" s="6">
+        <v>62</v>
+      </c>
+      <c r="BL286" s="6">
+        <v>63</v>
+      </c>
+      <c r="BM286" s="6">
+        <v>64</v>
+      </c>
+      <c r="BN286" s="6">
+        <v>65</v>
+      </c>
+      <c r="BO286" s="6">
+        <v>66</v>
+      </c>
+      <c r="BP286" s="6">
+        <v>67</v>
+      </c>
+      <c r="BQ286" s="6">
+        <v>68</v>
+      </c>
+      <c r="BR286" s="6">
+        <v>69</v>
+      </c>
+      <c r="BS286" s="6">
+        <v>70</v>
+      </c>
+      <c r="BT286" s="6">
+        <v>71</v>
+      </c>
+      <c r="BU286" s="6">
+        <v>72</v>
+      </c>
+      <c r="BV286" s="6">
+        <v>73</v>
+      </c>
+      <c r="BW286" s="6">
+        <v>74</v>
+      </c>
+      <c r="BX286" s="6">
+        <v>75</v>
+      </c>
+      <c r="BY286" s="6">
+        <v>76</v>
+      </c>
+      <c r="BZ286" s="6">
+        <v>77</v>
+      </c>
+      <c r="CA286" s="6">
+        <v>78</v>
+      </c>
+      <c r="CB286" s="6">
+        <v>79</v>
+      </c>
+      <c r="CC286" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="287" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="5">
+        <v>1</v>
+      </c>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ287" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA287" s="7"/>
+      <c r="CB287" s="7"/>
+      <c r="CC287" s="7"/>
+    </row>
+    <row r="288" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="5">
+        <v>2</v>
+      </c>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" s="7"/>
+      <c r="H288" s="7"/>
+      <c r="I288" s="7"/>
+      <c r="J288" s="7"/>
+      <c r="K288" s="7"/>
+      <c r="L288" s="7"/>
+      <c r="M288" s="7"/>
+      <c r="N288" s="7"/>
+      <c r="O288" s="7"/>
+      <c r="P288" s="7"/>
+      <c r="Q288" s="7"/>
+      <c r="R288" s="7"/>
+      <c r="S288" s="7"/>
+      <c r="T288" s="7"/>
+      <c r="U288" s="7"/>
+      <c r="V288" s="7"/>
+      <c r="W288" s="7"/>
+      <c r="X288" s="7"/>
+      <c r="Y288" s="7"/>
+      <c r="Z288" s="7"/>
+      <c r="AA288" s="7"/>
+      <c r="AB288" s="7"/>
+      <c r="AC288" s="7"/>
+      <c r="AD288" s="7"/>
+      <c r="AE288" s="7"/>
+      <c r="AF288" s="7"/>
+      <c r="AG288" s="7"/>
+      <c r="AH288" s="7"/>
+      <c r="AI288" s="7"/>
+      <c r="AJ288" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK288" s="7"/>
+      <c r="AL288" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM288" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN288" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO288" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP288" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ288" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR288" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS288" s="7"/>
+      <c r="AT288" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU288" s="7"/>
+      <c r="AV288" s="7"/>
+      <c r="AW288" s="7"/>
+      <c r="AX288" s="7"/>
+      <c r="AY288" s="7"/>
+      <c r="AZ288" s="7"/>
+      <c r="BA288" s="7"/>
+      <c r="BB288" s="7"/>
+      <c r="BC288" s="7"/>
+      <c r="BD288" s="7"/>
+      <c r="BE288" s="7"/>
+      <c r="BF288" s="7"/>
+      <c r="BG288" s="7"/>
+      <c r="BH288" s="7"/>
+      <c r="BI288" s="7"/>
+      <c r="BJ288" s="7"/>
+      <c r="BK288" s="7"/>
+      <c r="BL288" s="7"/>
+      <c r="BM288" s="7"/>
+      <c r="BN288" s="7"/>
+      <c r="BO288" s="7"/>
+      <c r="BP288" s="7"/>
+      <c r="BQ288" s="7"/>
+      <c r="BR288" s="7"/>
+      <c r="BS288" s="7"/>
+      <c r="BT288" s="7"/>
+      <c r="BU288" s="7"/>
+      <c r="BV288" s="7"/>
+      <c r="BW288" s="7"/>
+      <c r="BX288" s="7"/>
+      <c r="BY288" s="7"/>
+      <c r="BZ288" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA288" s="7"/>
+      <c r="CB288" s="7"/>
+      <c r="CC288" s="7"/>
+    </row>
+    <row r="289" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="5">
+        <v>3</v>
+      </c>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ289" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA289" s="7"/>
+      <c r="CB289" s="7"/>
+      <c r="CC289" s="7"/>
+    </row>
+    <row r="290" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="5">
+        <v>4</v>
+      </c>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11"/>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="11"/>
+      <c r="S290" s="11"/>
+      <c r="T290" s="11"/>
+      <c r="U290" s="11"/>
+      <c r="V290" s="11"/>
+      <c r="W290" s="11"/>
+      <c r="X290" s="11"/>
+      <c r="Y290" s="11"/>
+      <c r="Z290" s="11"/>
+      <c r="AA290" s="11"/>
+      <c r="AB290" s="11"/>
+      <c r="AC290" s="22"/>
+      <c r="AD290" s="11"/>
+      <c r="AE290" s="11"/>
+      <c r="AF290" s="11"/>
+      <c r="AG290" s="11"/>
+      <c r="AH290" s="11"/>
+      <c r="AI290" s="11"/>
+      <c r="AJ290" s="11"/>
+      <c r="AK290" s="11"/>
+      <c r="AL290" s="11"/>
+      <c r="AM290" s="11"/>
+      <c r="AN290" s="11"/>
+      <c r="AO290" s="11"/>
+      <c r="AP290" s="11"/>
+      <c r="AQ290" s="11"/>
+      <c r="AR290" s="11"/>
+      <c r="AS290" s="11"/>
+      <c r="AT290" s="11"/>
+      <c r="AU290" s="11"/>
+      <c r="AV290" s="11"/>
+      <c r="AW290" s="11"/>
+      <c r="AX290" s="11"/>
+      <c r="AY290" s="11"/>
+      <c r="AZ290" s="11"/>
+      <c r="BA290" s="11"/>
+      <c r="BB290" s="11"/>
+      <c r="BC290" s="11"/>
+      <c r="BD290" s="11"/>
+      <c r="BE290" s="11"/>
+      <c r="BF290" s="11"/>
+      <c r="BG290" s="22"/>
+      <c r="BH290" s="11"/>
+      <c r="BI290" s="11"/>
+      <c r="BJ290" s="11"/>
+      <c r="BK290" s="11"/>
+      <c r="BL290" s="11"/>
+      <c r="BM290" s="11"/>
+      <c r="BN290" s="11"/>
+      <c r="BO290" s="11"/>
+      <c r="BP290" s="11"/>
+      <c r="BQ290" s="11"/>
+      <c r="BR290" s="11"/>
+      <c r="BS290" s="11"/>
+      <c r="BT290" s="11"/>
+      <c r="BU290" s="11"/>
+      <c r="BV290" s="11"/>
+      <c r="BW290" s="11"/>
+      <c r="BX290" s="11"/>
+      <c r="BY290" s="11"/>
+      <c r="BZ290" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA290" s="7"/>
+      <c r="CB290" s="7"/>
+      <c r="CC290" s="7"/>
+    </row>
+    <row r="291" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="5">
+        <v>5</v>
+      </c>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I291" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M291" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N291" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O291" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P291" s="11"/>
+      <c r="Q291" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R291" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S291" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T291" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U291" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W291" s="11"/>
+      <c r="X291" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y291" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z291" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB291" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC291" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD291" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE291" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF291" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG291" s="11"/>
+      <c r="AH291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI291" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ291" s="11"/>
+      <c r="AK291" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL291" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN291" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO291" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP291" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ291" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR291" s="11"/>
+      <c r="AS291" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT291" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU291" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV291" s="11"/>
+      <c r="AW291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX291" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY291" s="11"/>
+      <c r="AZ291" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA291" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC291" s="11"/>
+      <c r="BD291" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE291" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG291" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH291" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI291" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL291" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM291" s="11"/>
+      <c r="BN291" s="11"/>
+      <c r="BO291" s="11"/>
+      <c r="BP291" s="11"/>
+      <c r="BQ291" s="11"/>
+      <c r="BR291" s="11"/>
+      <c r="BS291" s="11"/>
+      <c r="BT291" s="11"/>
+      <c r="BU291" s="11"/>
+      <c r="BV291" s="11"/>
+      <c r="BW291" s="11"/>
+      <c r="BX291" s="11"/>
+      <c r="BY291" s="11"/>
+      <c r="BZ291" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA291" s="7"/>
+      <c r="CB291" s="7"/>
+      <c r="CC291" s="7"/>
+    </row>
+    <row r="292" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="5">
+        <v>6</v>
+      </c>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H292" s="11"/>
+      <c r="I292" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K292" s="11"/>
+      <c r="L292" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M292" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N292" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O292" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P292" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q292" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R292" s="11"/>
+      <c r="S292" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U292" s="11"/>
+      <c r="V292" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X292" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y292" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z292" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA292" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB292" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC292" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD292" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE292" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF292" s="11"/>
+      <c r="AG292" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI292" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ292" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK292" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL292" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM292" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN292" s="11"/>
+      <c r="AO292" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP292" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ292" s="11"/>
+      <c r="AR292" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS292" s="11"/>
+      <c r="AT292" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV292" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX292" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY292" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ292" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA292" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB292" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC292" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD292" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE292" s="11"/>
+      <c r="BF292" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG292" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH292" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ292" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK292" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL292" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM292" s="11"/>
+      <c r="BN292" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO292" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP292" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR292" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS292" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BT292" s="11"/>
+      <c r="BU292" s="11"/>
+      <c r="BV292" s="11"/>
+      <c r="BW292" s="11"/>
+      <c r="BX292" s="11"/>
+      <c r="BY292" s="11"/>
+      <c r="BZ292" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA292" s="7"/>
+      <c r="CB292" s="7"/>
+      <c r="CC292" s="7"/>
+    </row>
+    <row r="293" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="5">
+        <v>7</v>
+      </c>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" s="11"/>
+      <c r="H293" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I293" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J293" s="11"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M293" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N293" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O293" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P293" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q293" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R293" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S293" s="11"/>
+      <c r="T293" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U293" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V293" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W293" s="11"/>
+      <c r="X293" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y293" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z293" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA293" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB293" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC293" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD293" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE293" s="11"/>
+      <c r="AF293" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG293" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH293" s="11"/>
+      <c r="AI293" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ293" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK293" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL293" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM293" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN293" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO293" s="11"/>
+      <c r="AP293" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ293" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR293" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS293" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT293" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU293" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV293" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW293" s="11"/>
+      <c r="AX293" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY293" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ293" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA293" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB293" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC293" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD293" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE293" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF293" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG293" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH293" s="11"/>
+      <c r="BI293" s="11"/>
+      <c r="BJ293" s="11"/>
+      <c r="BK293" s="11"/>
+      <c r="BL293" s="11"/>
+      <c r="BM293" s="11"/>
+      <c r="BN293" s="11"/>
+      <c r="BO293" s="11"/>
+      <c r="BP293" s="11"/>
+      <c r="BQ293" s="11"/>
+      <c r="BR293" s="11"/>
+      <c r="BS293" s="11"/>
+      <c r="BT293" s="11"/>
+      <c r="BU293" s="11"/>
+      <c r="BV293" s="11"/>
+      <c r="BW293" s="11"/>
+      <c r="BX293" s="11"/>
+      <c r="BY293" s="11"/>
+      <c r="BZ293" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA293" s="7"/>
+      <c r="CB293" s="7"/>
+      <c r="CC293" s="7"/>
+    </row>
+    <row r="294" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="5">
+        <v>8</v>
+      </c>
+      <c r="B294" s="7"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="11"/>
+      <c r="I294" s="11"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="11"/>
+      <c r="L294" s="11"/>
+      <c r="M294" s="11"/>
+      <c r="N294" s="11"/>
+      <c r="O294" s="11"/>
+      <c r="P294" s="11"/>
+      <c r="Q294" s="11"/>
+      <c r="R294" s="11"/>
+      <c r="S294" s="11"/>
+      <c r="T294" s="11"/>
+      <c r="U294" s="11"/>
+      <c r="V294" s="11"/>
+      <c r="W294" s="11"/>
+      <c r="X294" s="11"/>
+      <c r="Y294" s="11"/>
+      <c r="Z294" s="11"/>
+      <c r="AA294" s="11"/>
+      <c r="AB294" s="11"/>
+      <c r="AC294" s="11"/>
+      <c r="AD294" s="35"/>
+      <c r="AE294" s="11"/>
+      <c r="AF294" s="11"/>
+      <c r="AG294" s="11"/>
+      <c r="AH294" s="11"/>
+      <c r="AI294" s="11"/>
+      <c r="AJ294" s="11"/>
+      <c r="AK294" s="11"/>
+      <c r="AL294" s="11"/>
+      <c r="AM294" s="11"/>
+      <c r="AN294" s="11"/>
+      <c r="AO294" s="11"/>
+      <c r="AP294" s="11"/>
+      <c r="AQ294" s="11"/>
+      <c r="AR294" s="11"/>
+      <c r="AS294" s="11"/>
+      <c r="AT294" s="11"/>
+      <c r="AU294" s="11"/>
+      <c r="AV294" s="11"/>
+      <c r="AW294" s="11"/>
+      <c r="AX294" s="11"/>
+      <c r="AY294" s="11"/>
+      <c r="AZ294" s="11"/>
+      <c r="BA294" s="11"/>
+      <c r="BB294" s="11"/>
+      <c r="BC294" s="11"/>
+      <c r="BD294" s="11"/>
+      <c r="BE294" s="11"/>
+      <c r="BF294" s="11"/>
+      <c r="BG294" s="11"/>
+      <c r="BH294" s="11"/>
+      <c r="BI294" s="11"/>
+      <c r="BJ294" s="11"/>
+      <c r="BK294" s="11"/>
+      <c r="BL294" s="11"/>
+      <c r="BM294" s="11"/>
+      <c r="BN294" s="11"/>
+      <c r="BO294" s="11"/>
+      <c r="BP294" s="11"/>
+      <c r="BQ294" s="11"/>
+      <c r="BR294" s="11"/>
+      <c r="BS294" s="11"/>
+      <c r="BT294" s="11"/>
+      <c r="BU294" s="11"/>
+      <c r="BV294" s="11"/>
+      <c r="BW294" s="11"/>
+      <c r="BX294" s="11"/>
+      <c r="BY294" s="11"/>
+      <c r="BZ294" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA294" s="7"/>
+      <c r="CB294" s="7"/>
+      <c r="CC294" s="7"/>
+    </row>
+    <row r="295" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="5">
+        <v>9</v>
+      </c>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G295" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H295" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I295" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J295" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K295" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L295" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M295" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N295" s="11"/>
+      <c r="O295" s="11"/>
+      <c r="P295" s="11"/>
+      <c r="Q295" s="11"/>
+      <c r="R295" s="11"/>
+      <c r="S295" s="11"/>
+      <c r="T295" s="11"/>
+      <c r="U295" s="11"/>
+      <c r="V295" s="11"/>
+      <c r="W295" s="11"/>
+      <c r="X295" s="11"/>
+      <c r="Y295" s="11"/>
+      <c r="Z295" s="11"/>
+      <c r="AA295" s="11"/>
+      <c r="AB295" s="11"/>
+      <c r="AC295" s="11"/>
+      <c r="AD295" s="11"/>
+      <c r="AE295" s="11"/>
+      <c r="AF295" s="11"/>
+      <c r="AG295" s="11"/>
+      <c r="AH295" s="11"/>
+      <c r="AI295" s="11"/>
+      <c r="AJ295" s="11"/>
+      <c r="AK295" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL295" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM295" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN295" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO295" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP295" s="11"/>
+      <c r="AQ295" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR295" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS295" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT295" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU295" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV295" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW295" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX295" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY295" s="11"/>
+      <c r="AZ295" s="11"/>
+      <c r="BA295" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB295" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC295" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD295" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE295" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF295" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG295" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH295" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI295" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ295" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK295" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL295" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM295" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN295" s="13"/>
+      <c r="BO295" s="13"/>
+      <c r="BP295" s="13"/>
+      <c r="BQ295" s="13"/>
+      <c r="BR295" s="13"/>
+      <c r="BS295" s="11"/>
+      <c r="BT295" s="11"/>
+      <c r="BU295" s="11"/>
+      <c r="BV295" s="11"/>
+      <c r="BW295" s="11"/>
+      <c r="BX295" s="11"/>
+      <c r="BY295" s="11"/>
+      <c r="BZ295" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA295" s="7"/>
+      <c r="CB295" s="7"/>
+      <c r="CC295" s="7"/>
+    </row>
+    <row r="296" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="5">
+        <v>10</v>
+      </c>
+      <c r="B296" s="7"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z296" s="11"/>
+      <c r="AA296" s="11"/>
+      <c r="AB296" s="11"/>
+      <c r="AC296" s="11"/>
+      <c r="AD296" s="11"/>
+      <c r="AE296" s="11"/>
+      <c r="AF296" s="11"/>
+      <c r="AG296" s="11"/>
+      <c r="AH296" s="11"/>
+      <c r="AI296" s="11"/>
+      <c r="AJ296" s="11"/>
+      <c r="AK296" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL296" s="13">
+        <v>9</v>
+      </c>
+      <c r="AM296" s="13">
+        <v>9</v>
+      </c>
+      <c r="AN296" s="13">
+        <v>9</v>
+      </c>
+      <c r="AO296" s="13">
+        <v>9</v>
+      </c>
+      <c r="AP296" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ296" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR296" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS296" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT296" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU296" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV296" s="11"/>
+      <c r="AW296" s="11"/>
+      <c r="AX296" s="11"/>
+      <c r="AY296" s="11"/>
+      <c r="AZ296" s="11"/>
+      <c r="BA296" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB296" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC296" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD296" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE296" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF296" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG296" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH296" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI296" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ296" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK296" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL296" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM296" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN296" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO296" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP296" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="BQ296" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR296" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS296" s="11"/>
+      <c r="BT296" s="11"/>
+      <c r="BU296" s="11"/>
+      <c r="BV296" s="11"/>
+      <c r="BW296" s="11"/>
+      <c r="BX296" s="11"/>
+      <c r="BY296" s="11"/>
+      <c r="BZ296" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA296" s="7"/>
+      <c r="CB296" s="7"/>
+      <c r="CC296" s="7"/>
+    </row>
+    <row r="297" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="5">
+        <v>11</v>
+      </c>
+      <c r="B297" s="7"/>
+      <c r="C297" s="7"/>
+      <c r="D297" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E297" s="11"/>
+      <c r="F297" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G297" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H297" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J297" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K297" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L297" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M297" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N297" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O297" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q297" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R297" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T297" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U297" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V297" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W297" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X297" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y297" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z297" s="11"/>
+      <c r="AA297" s="11"/>
+      <c r="AB297" s="11"/>
+      <c r="AC297" s="11"/>
+      <c r="AD297" s="11"/>
+      <c r="AE297" s="11"/>
+      <c r="AF297" s="11"/>
+      <c r="AG297" s="11"/>
+      <c r="AH297" s="11"/>
+      <c r="AI297" s="11"/>
+      <c r="AJ297" s="11"/>
+      <c r="AK297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX297" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY297" s="11"/>
+      <c r="AZ297" s="11"/>
+      <c r="BA297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR297" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS297" s="11"/>
+      <c r="BT297" s="11"/>
+      <c r="BU297" s="11"/>
+      <c r="BV297" s="11"/>
+      <c r="BW297" s="11"/>
+      <c r="BX297" s="11"/>
+      <c r="BY297" s="11"/>
+      <c r="BZ297" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA297" s="7"/>
+      <c r="CB297" s="7"/>
+      <c r="CC297" s="7"/>
+    </row>
+    <row r="298" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="5">
+        <v>12</v>
+      </c>
+      <c r="B298" s="7"/>
+      <c r="C298" s="7"/>
+      <c r="D298" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E298" s="11"/>
+      <c r="F298" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X298" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y298" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z298" s="11"/>
+      <c r="AA298" s="11"/>
+      <c r="AB298" s="11"/>
+      <c r="AC298" s="11"/>
+      <c r="AD298" s="11"/>
+      <c r="AE298" s="11"/>
+      <c r="AF298" s="11"/>
+      <c r="AG298" s="11"/>
+      <c r="AH298" s="11"/>
+      <c r="AI298" s="11"/>
+      <c r="AJ298" s="11"/>
+      <c r="AK298" s="11"/>
+      <c r="AL298" s="11"/>
+      <c r="AM298" s="11"/>
+      <c r="AN298" s="11"/>
+      <c r="AO298" s="11"/>
+      <c r="AP298" s="11"/>
+      <c r="AQ298" s="11"/>
+      <c r="AR298" s="11"/>
+      <c r="AS298" s="11"/>
+      <c r="AT298" s="11"/>
+      <c r="AU298" s="11"/>
+      <c r="AV298" s="11"/>
+      <c r="AW298" s="11"/>
+      <c r="AX298" s="11"/>
+      <c r="AY298" s="11"/>
+      <c r="AZ298" s="11"/>
+      <c r="BA298" s="11"/>
+      <c r="BB298" s="11"/>
+      <c r="BC298" s="11"/>
+      <c r="BD298" s="11"/>
+      <c r="BE298" s="11"/>
+      <c r="BF298" s="11"/>
+      <c r="BG298" s="11"/>
+      <c r="BH298" s="11"/>
+      <c r="BI298" s="11"/>
+      <c r="BJ298" s="11"/>
+      <c r="BK298" s="11"/>
+      <c r="BL298" s="11"/>
+      <c r="BM298" s="11"/>
+      <c r="BN298" s="11"/>
+      <c r="BO298" s="11"/>
+      <c r="BP298" s="11"/>
+      <c r="BQ298" s="11"/>
+      <c r="BR298" s="11"/>
+      <c r="BS298" s="11"/>
+      <c r="BT298" s="11"/>
+      <c r="BU298" s="11"/>
+      <c r="BV298" s="11"/>
+      <c r="BW298" s="11"/>
+      <c r="BX298" s="11"/>
+      <c r="BY298" s="11"/>
+      <c r="BZ298" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA298" s="7"/>
+      <c r="CB298" s="7"/>
+      <c r="CC298" s="7"/>
+    </row>
+    <row r="299" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="5">
+        <v>13</v>
+      </c>
+      <c r="B299" s="7"/>
+      <c r="C299" s="7"/>
+      <c r="D299" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
+      <c r="H299" s="11"/>
+      <c r="I299" s="11"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="11"/>
+      <c r="L299" s="11"/>
+      <c r="M299" s="11"/>
+      <c r="N299" s="11"/>
+      <c r="O299" s="11"/>
+      <c r="P299" s="11"/>
+      <c r="Q299" s="11"/>
+      <c r="R299" s="11"/>
+      <c r="S299" s="11"/>
+      <c r="T299" s="11"/>
+      <c r="U299" s="11"/>
+      <c r="V299" s="11"/>
+      <c r="W299" s="11"/>
+      <c r="X299" s="11"/>
+      <c r="Y299" s="11"/>
+      <c r="Z299" s="11"/>
+      <c r="AA299" s="11"/>
+      <c r="AB299" s="11"/>
+      <c r="AC299" s="11"/>
+      <c r="AD299" s="11"/>
+      <c r="AE299" s="11"/>
+      <c r="AF299" s="11"/>
+      <c r="AG299" s="11"/>
+      <c r="AH299" s="11"/>
+      <c r="AI299" s="11"/>
+      <c r="AJ299" s="11"/>
+      <c r="AK299" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL299" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM299" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN299" s="11"/>
+      <c r="AO299" s="11"/>
+      <c r="AP299" s="11"/>
+      <c r="AQ299" s="11"/>
+      <c r="AR299" s="11"/>
+      <c r="AS299" s="11"/>
+      <c r="AT299" s="11"/>
+      <c r="AU299" s="11"/>
+      <c r="AV299" s="11"/>
+      <c r="AW299" s="11"/>
+      <c r="AX299" s="11"/>
+      <c r="AY299" s="11"/>
+      <c r="AZ299" s="11"/>
+      <c r="BA299" s="11"/>
+      <c r="BB299" s="11"/>
+      <c r="BC299" s="11"/>
+      <c r="BD299" s="11"/>
+      <c r="BE299" s="11"/>
+      <c r="BF299" s="11"/>
+      <c r="BG299" s="11"/>
+      <c r="BH299" s="11"/>
+      <c r="BI299" s="11"/>
+      <c r="BJ299" s="11"/>
+      <c r="BK299" s="11"/>
+      <c r="BL299" s="11"/>
+      <c r="BM299" s="11"/>
+      <c r="BN299" s="11"/>
+      <c r="BO299" s="11"/>
+      <c r="BP299" s="11"/>
+      <c r="BQ299" s="11"/>
+      <c r="BR299" s="11"/>
+      <c r="BS299" s="11"/>
+      <c r="BT299" s="11"/>
+      <c r="BU299" s="11"/>
+      <c r="BV299" s="11"/>
+      <c r="BW299" s="11"/>
+      <c r="BX299" s="11"/>
+      <c r="BY299" s="11"/>
+      <c r="BZ299" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA299" s="7"/>
+      <c r="CB299" s="7"/>
+      <c r="CC299" s="7"/>
+    </row>
+    <row r="300" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="5">
+        <v>14</v>
+      </c>
+      <c r="B300" s="7"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G300" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H300" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I300" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J300" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K300" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L300" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M300" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="11"/>
+      <c r="R300" s="11"/>
+      <c r="S300" s="11"/>
+      <c r="T300" s="11"/>
+      <c r="U300" s="11"/>
+      <c r="V300" s="11"/>
+      <c r="W300" s="11"/>
+      <c r="X300" s="11"/>
+      <c r="Y300" s="11"/>
+      <c r="Z300" s="11"/>
+      <c r="AA300" s="11"/>
+      <c r="AB300" s="11"/>
+      <c r="AC300" s="11"/>
+      <c r="AD300" s="11"/>
+      <c r="AE300" s="11"/>
+      <c r="AF300" s="11"/>
+      <c r="AG300" s="11"/>
+      <c r="AH300" s="11"/>
+      <c r="AI300" s="11"/>
+      <c r="AJ300" s="11"/>
+      <c r="AK300" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL300" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM300" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN300" s="11"/>
+      <c r="AO300" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP300" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ300" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR300" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS300" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT300" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU300" s="11"/>
+      <c r="AV300" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW300" s="11"/>
+      <c r="AX300" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY300" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ300" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA300" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB300" s="11"/>
+      <c r="BC300" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD300" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE300" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF300" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG300" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH300" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI300" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ300" s="11"/>
+      <c r="BK300" s="11"/>
+      <c r="BL300" s="11"/>
+      <c r="BM300" s="11"/>
+      <c r="BN300" s="11"/>
+      <c r="BO300" s="11"/>
+      <c r="BP300" s="11"/>
+      <c r="BQ300" s="11"/>
+      <c r="BR300" s="11"/>
+      <c r="BS300" s="11"/>
+      <c r="BT300" s="11"/>
+      <c r="BU300" s="11"/>
+      <c r="BV300" s="11"/>
+      <c r="BW300" s="11"/>
+      <c r="BX300" s="11"/>
+      <c r="BY300" s="11"/>
+      <c r="BZ300" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA300" s="7"/>
+      <c r="CB300" s="7"/>
+      <c r="CC300" s="7"/>
+    </row>
+    <row r="301" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="5">
+        <v>15</v>
+      </c>
+      <c r="B301" s="7"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R301" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S301" s="11"/>
+      <c r="T301" s="11"/>
+      <c r="U301" s="11"/>
+      <c r="V301" s="11"/>
+      <c r="W301" s="11"/>
+      <c r="X301" s="11"/>
+      <c r="Y301" s="11"/>
+      <c r="Z301" s="11"/>
+      <c r="AA301" s="11"/>
+      <c r="AB301" s="11"/>
+      <c r="AC301" s="11"/>
+      <c r="AD301" s="11"/>
+      <c r="AE301" s="11"/>
+      <c r="AF301" s="11"/>
+      <c r="AG301" s="11"/>
+      <c r="AH301" s="11"/>
+      <c r="AI301" s="11"/>
+      <c r="AJ301" s="11"/>
+      <c r="AK301" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL301" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM301" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN301" s="11"/>
+      <c r="AO301" s="11"/>
+      <c r="AP301" s="11"/>
+      <c r="AQ301" s="11"/>
+      <c r="AR301" s="11"/>
+      <c r="AS301" s="11"/>
+      <c r="AT301" s="11"/>
+      <c r="AU301" s="11"/>
+      <c r="AV301" s="11"/>
+      <c r="AW301" s="11"/>
+      <c r="AX301" s="11"/>
+      <c r="AY301" s="11"/>
+      <c r="AZ301" s="11"/>
+      <c r="BA301" s="11"/>
+      <c r="BB301" s="11"/>
+      <c r="BC301" s="11"/>
+      <c r="BD301" s="11"/>
+      <c r="BE301" s="11"/>
+      <c r="BF301" s="11"/>
+      <c r="BG301" s="11"/>
+      <c r="BH301" s="11"/>
+      <c r="BI301" s="11"/>
+      <c r="BJ301" s="11"/>
+      <c r="BK301" s="11"/>
+      <c r="BL301" s="11"/>
+      <c r="BM301" s="11"/>
+      <c r="BN301" s="11"/>
+      <c r="BO301" s="11"/>
+      <c r="BP301" s="11"/>
+      <c r="BQ301" s="11"/>
+      <c r="BR301" s="11"/>
+      <c r="BS301" s="11"/>
+      <c r="BT301" s="11"/>
+      <c r="BU301" s="11"/>
+      <c r="BV301" s="11"/>
+      <c r="BW301" s="11"/>
+      <c r="BX301" s="11"/>
+      <c r="BY301" s="11"/>
+      <c r="BZ301" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA301" s="7"/>
+      <c r="CB301" s="7"/>
+      <c r="CC301" s="7"/>
+    </row>
+    <row r="302" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="5">
+        <v>16</v>
+      </c>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G302" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H302" s="13">
+        <v>9</v>
+      </c>
+      <c r="I302" s="13">
+        <v>9</v>
+      </c>
+      <c r="J302" s="13">
+        <v>9</v>
+      </c>
+      <c r="K302" s="13">
+        <v>9</v>
+      </c>
+      <c r="L302" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M302" s="13">
+        <v>9</v>
+      </c>
+      <c r="N302" s="13">
+        <v>9</v>
+      </c>
+      <c r="O302" s="13">
+        <v>9</v>
+      </c>
+      <c r="P302" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q302" s="13">
+        <v>9</v>
+      </c>
+      <c r="R302" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S302" s="11"/>
+      <c r="T302" s="11"/>
+      <c r="U302" s="11"/>
+      <c r="V302" s="11"/>
+      <c r="W302" s="11"/>
+      <c r="X302" s="11"/>
+      <c r="Y302" s="11"/>
+      <c r="Z302" s="11"/>
+      <c r="AA302" s="11"/>
+      <c r="AB302" s="11"/>
+      <c r="AC302" s="11"/>
+      <c r="AD302" s="11"/>
+      <c r="AE302" s="11"/>
+      <c r="AF302" s="11"/>
+      <c r="AG302" s="11"/>
+      <c r="AH302" s="20"/>
+      <c r="AI302" s="20"/>
+      <c r="AJ302" s="20"/>
+      <c r="AK302" s="11"/>
+      <c r="AL302" s="11"/>
+      <c r="AM302" s="11"/>
+      <c r="AN302" s="11"/>
+      <c r="AO302" s="11"/>
+      <c r="AP302" s="11"/>
+      <c r="AQ302" s="11"/>
+      <c r="AR302" s="11"/>
+      <c r="AS302" s="11"/>
+      <c r="AT302" s="11"/>
+      <c r="AU302" s="11"/>
+      <c r="AV302" s="11"/>
+      <c r="AW302" s="11"/>
+      <c r="AX302" s="11"/>
+      <c r="AY302" s="11"/>
+      <c r="AZ302" s="11"/>
+      <c r="BA302" s="11"/>
+      <c r="BB302" s="11"/>
+      <c r="BC302" s="11"/>
+      <c r="BD302" s="11"/>
+      <c r="BE302" s="11"/>
+      <c r="BF302" s="11"/>
+      <c r="BG302" s="11"/>
+      <c r="BH302" s="11"/>
+      <c r="BI302" s="11"/>
+      <c r="BJ302" s="11"/>
+      <c r="BK302" s="11"/>
+      <c r="BL302" s="11"/>
+      <c r="BM302" s="11"/>
+      <c r="BN302" s="11"/>
+      <c r="BO302" s="11"/>
+      <c r="BP302" s="11"/>
+      <c r="BQ302" s="11"/>
+      <c r="BR302" s="11"/>
+      <c r="BS302" s="11"/>
+      <c r="BT302" s="11"/>
+      <c r="BU302" s="11"/>
+      <c r="BV302" s="11"/>
+      <c r="BW302" s="11"/>
+      <c r="BX302" s="11"/>
+      <c r="BY302" s="11"/>
+      <c r="BZ302" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA302" s="7"/>
+      <c r="CB302" s="7"/>
+      <c r="CC302" s="7"/>
+    </row>
+    <row r="303" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="5">
+        <v>17</v>
+      </c>
+      <c r="B303" s="7"/>
+      <c r="C303" s="7"/>
+      <c r="D303" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E303" s="11"/>
+      <c r="F303" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="O303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q303" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R303" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S303" s="39"/>
+      <c r="T303" s="39"/>
+      <c r="U303" s="11"/>
+      <c r="V303" s="11"/>
+      <c r="W303" s="11"/>
+      <c r="X303" s="11"/>
+      <c r="Y303" s="11"/>
+      <c r="Z303" s="11"/>
+      <c r="AA303" s="11"/>
+      <c r="AB303" s="11"/>
+      <c r="AC303" s="11"/>
+      <c r="AD303" s="11"/>
+      <c r="AE303" s="11"/>
+      <c r="AF303" s="11"/>
+      <c r="AG303" s="11"/>
+      <c r="AH303" s="11"/>
+      <c r="AI303" s="11"/>
+      <c r="AJ303" s="11"/>
+      <c r="AK303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW303" s="11"/>
+      <c r="AX303" s="11"/>
+      <c r="AY303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL303" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM303" s="11"/>
+      <c r="BN303" s="11"/>
+      <c r="BO303" s="11"/>
+      <c r="BP303" s="11"/>
+      <c r="BQ303" s="11"/>
+      <c r="BR303" s="11"/>
+      <c r="BS303" s="11"/>
+      <c r="BT303" s="11"/>
+      <c r="BU303" s="11"/>
+      <c r="BV303" s="11"/>
+      <c r="BW303" s="11"/>
+      <c r="BX303" s="11"/>
+      <c r="BY303" s="11"/>
+      <c r="BZ303" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA303" s="7"/>
+      <c r="CB303" s="7"/>
+      <c r="CC303" s="7"/>
+    </row>
+    <row r="304" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="5">
+        <v>18</v>
+      </c>
+      <c r="B304" s="7"/>
+      <c r="C304" s="7"/>
+      <c r="D304" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E304" s="40"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="11"/>
+      <c r="L304" s="11"/>
+      <c r="M304" s="11"/>
+      <c r="N304" s="11"/>
+      <c r="O304" s="11"/>
+      <c r="P304" s="11"/>
+      <c r="Q304" s="11"/>
+      <c r="R304" s="11"/>
+      <c r="S304" s="11"/>
+      <c r="T304" s="11"/>
+      <c r="U304" s="41"/>
+      <c r="V304" s="11"/>
+      <c r="W304" s="11"/>
+      <c r="X304" s="11"/>
+      <c r="Y304" s="11"/>
+      <c r="Z304" s="11"/>
+      <c r="AA304" s="11"/>
+      <c r="AB304" s="11"/>
+      <c r="AC304" s="11"/>
+      <c r="AD304" s="11"/>
+      <c r="AE304" s="11"/>
+      <c r="AF304" s="11"/>
+      <c r="AG304" s="11"/>
+      <c r="AH304" s="11"/>
+      <c r="AI304" s="11"/>
+      <c r="AJ304" s="11"/>
+      <c r="AK304" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL304" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM304" s="10"/>
+      <c r="AN304" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO304" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP304" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ304" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR304" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS304" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT304" s="10"/>
+      <c r="AU304" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV304" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW304" s="11"/>
+      <c r="AX304" s="11"/>
+      <c r="AY304" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ304" s="10"/>
+      <c r="BA304" s="10"/>
+      <c r="BB304" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC304" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD304" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE304" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF304" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG304" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH304" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI304" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ304" s="10"/>
+      <c r="BK304" s="10"/>
+      <c r="BL304" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM304" s="11"/>
+      <c r="BN304" s="11"/>
+      <c r="BO304" s="11"/>
+      <c r="BP304" s="11"/>
+      <c r="BQ304" s="11"/>
+      <c r="BR304" s="11"/>
+      <c r="BS304" s="11"/>
+      <c r="BT304" s="11"/>
+      <c r="BU304" s="11"/>
+      <c r="BV304" s="11"/>
+      <c r="BW304" s="11"/>
+      <c r="BX304" s="11"/>
+      <c r="BY304" s="11"/>
+      <c r="BZ304" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA304" s="7"/>
+      <c r="CB304" s="7"/>
+      <c r="CC304" s="7"/>
+    </row>
+    <row r="305" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="5">
+        <v>19</v>
+      </c>
+      <c r="B305" s="7"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E305" s="40"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+      <c r="H305" s="11"/>
+      <c r="I305" s="11"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="11"/>
+      <c r="L305" s="11"/>
+      <c r="M305" s="11"/>
+      <c r="N305" s="11"/>
+      <c r="O305" s="11"/>
+      <c r="P305" s="11"/>
+      <c r="Q305" s="11"/>
+      <c r="R305" s="11"/>
+      <c r="S305" s="11"/>
+      <c r="T305" s="11"/>
+      <c r="U305" s="41"/>
+      <c r="V305" s="11"/>
+      <c r="W305" s="11"/>
+      <c r="X305" s="11"/>
+      <c r="Y305" s="11"/>
+      <c r="Z305" s="11"/>
+      <c r="AA305" s="11"/>
+      <c r="AB305" s="11"/>
+      <c r="AC305" s="11"/>
+      <c r="AD305" s="11"/>
+      <c r="AE305" s="11"/>
+      <c r="AF305" s="11"/>
+      <c r="AG305" s="11"/>
+      <c r="AH305" s="11"/>
+      <c r="AI305" s="11"/>
+      <c r="AJ305" s="11"/>
+      <c r="AK305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW305" s="11"/>
+      <c r="AX305" s="11"/>
+      <c r="AY305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL305" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM305" s="11"/>
+      <c r="BN305" s="11"/>
+      <c r="BO305" s="11"/>
+      <c r="BP305" s="11"/>
+      <c r="BQ305" s="11"/>
+      <c r="BR305" s="11"/>
+      <c r="BS305" s="11"/>
+      <c r="BT305" s="11"/>
+      <c r="BU305" s="11"/>
+      <c r="BV305" s="11"/>
+      <c r="BW305" s="11"/>
+      <c r="BX305" s="11"/>
+      <c r="BY305" s="11"/>
+      <c r="BZ305" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA305" s="7"/>
+      <c r="CB305" s="7"/>
+      <c r="CC305" s="7"/>
+    </row>
+    <row r="306" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="5">
+        <v>20</v>
+      </c>
+      <c r="B306" s="7"/>
+      <c r="C306" s="7"/>
+      <c r="D306" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E306" s="40"/>
+      <c r="F306" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G306" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H306" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I306" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J306" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K306" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L306" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M306" s="11"/>
+      <c r="N306" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O306" s="11">
+        <v>9</v>
+      </c>
+      <c r="P306" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q306" s="11">
+        <v>9</v>
+      </c>
+      <c r="R306" s="11">
+        <v>9</v>
+      </c>
+      <c r="S306" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T306" s="41">
+        <v>0</v>
+      </c>
+      <c r="U306" s="41"/>
+      <c r="V306" s="11"/>
+      <c r="W306" s="11"/>
+      <c r="X306" s="11"/>
+      <c r="Y306" s="11"/>
+      <c r="Z306" s="11"/>
+      <c r="AA306" s="11"/>
+      <c r="AB306" s="11"/>
+      <c r="AC306" s="11"/>
+      <c r="AD306" s="11"/>
+      <c r="AE306" s="11"/>
+      <c r="AF306" s="11"/>
+      <c r="AG306" s="11"/>
+      <c r="AH306" s="11"/>
+      <c r="AI306" s="11"/>
+      <c r="AJ306" s="11"/>
+      <c r="AK306" s="11"/>
+      <c r="AL306" s="11"/>
+      <c r="AM306" s="11"/>
+      <c r="AN306" s="11"/>
+      <c r="AO306" s="11"/>
+      <c r="AP306" s="11"/>
+      <c r="AQ306" s="11"/>
+      <c r="AR306" s="11"/>
+      <c r="AS306" s="11"/>
+      <c r="AT306" s="11"/>
+      <c r="AU306" s="11"/>
+      <c r="AV306" s="11"/>
+      <c r="AW306" s="11"/>
+      <c r="AX306" s="11"/>
+      <c r="AY306" s="11"/>
+      <c r="AZ306" s="11"/>
+      <c r="BA306" s="11"/>
+      <c r="BB306" s="11"/>
+      <c r="BC306" s="11"/>
+      <c r="BD306" s="11"/>
+      <c r="BE306" s="11"/>
+      <c r="BF306" s="11"/>
+      <c r="BG306" s="11"/>
+      <c r="BH306" s="11"/>
+      <c r="BI306" s="11"/>
+      <c r="BJ306" s="11"/>
+      <c r="BK306" s="11"/>
+      <c r="BL306" s="11"/>
+      <c r="BM306" s="11"/>
+      <c r="BN306" s="11"/>
+      <c r="BO306" s="11"/>
+      <c r="BP306" s="11"/>
+      <c r="BQ306" s="11"/>
+      <c r="BR306" s="11"/>
+      <c r="BS306" s="11"/>
+      <c r="BT306" s="11"/>
+      <c r="BU306" s="11"/>
+      <c r="BV306" s="11"/>
+      <c r="BW306" s="11"/>
+      <c r="BX306" s="11"/>
+      <c r="BY306" s="11"/>
+      <c r="BZ306" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA306" s="7"/>
+      <c r="CB306" s="7"/>
+      <c r="CC306" s="7"/>
+    </row>
+    <row r="307" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="5">
+        <v>21</v>
+      </c>
+      <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E307" s="11"/>
+      <c r="F307" s="38"/>
+      <c r="G307" s="38"/>
+      <c r="H307" s="38"/>
+      <c r="I307" s="38"/>
+      <c r="J307" s="38"/>
+      <c r="K307" s="38"/>
+      <c r="L307" s="38"/>
+      <c r="M307" s="38"/>
+      <c r="N307" s="38"/>
+      <c r="O307" s="38"/>
+      <c r="P307" s="38"/>
+      <c r="Q307" s="38"/>
+      <c r="R307" s="38"/>
+      <c r="S307" s="38"/>
+      <c r="T307" s="38"/>
+      <c r="U307" s="11"/>
+      <c r="V307" s="11"/>
+      <c r="W307" s="11"/>
+      <c r="X307" s="11"/>
+      <c r="Y307" s="11"/>
+      <c r="Z307" s="11"/>
+      <c r="AA307" s="11"/>
+      <c r="AB307" s="11"/>
+      <c r="AC307" s="11"/>
+      <c r="AD307" s="11"/>
+      <c r="AE307" s="11"/>
+      <c r="AF307" s="11"/>
+      <c r="AG307" s="11"/>
+      <c r="AH307" s="11"/>
+      <c r="AI307" s="11"/>
+      <c r="AJ307" s="11"/>
+      <c r="AK307" s="11"/>
+      <c r="AL307" s="11"/>
+      <c r="AM307" s="11"/>
+      <c r="AN307" s="11"/>
+      <c r="AO307" s="11"/>
+      <c r="AP307" s="11"/>
+      <c r="AQ307" s="11"/>
+      <c r="AR307" s="11"/>
+      <c r="AS307" s="11"/>
+      <c r="AT307" s="11"/>
+      <c r="AU307" s="11"/>
+      <c r="AV307" s="11"/>
+      <c r="AW307" s="11"/>
+      <c r="AX307" s="11"/>
+      <c r="AY307" s="11"/>
+      <c r="AZ307" s="11"/>
+      <c r="BA307" s="11"/>
+      <c r="BB307" s="11"/>
+      <c r="BC307" s="11"/>
+      <c r="BD307" s="11"/>
+      <c r="BE307" s="11"/>
+      <c r="BF307" s="11"/>
+      <c r="BG307" s="11"/>
+      <c r="BH307" s="11"/>
+      <c r="BI307" s="11"/>
+      <c r="BJ307" s="11"/>
+      <c r="BK307" s="11"/>
+      <c r="BL307" s="11"/>
+      <c r="BM307" s="11"/>
+      <c r="BN307" s="11"/>
+      <c r="BO307" s="11"/>
+      <c r="BP307" s="11"/>
+      <c r="BQ307" s="11"/>
+      <c r="BR307" s="11"/>
+      <c r="BS307" s="11"/>
+      <c r="BT307" s="11"/>
+      <c r="BU307" s="11"/>
+      <c r="BV307" s="11"/>
+      <c r="BW307" s="11"/>
+      <c r="BX307" s="11"/>
+      <c r="BY307" s="11"/>
+      <c r="BZ307" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA307" s="7"/>
+      <c r="CB307" s="7"/>
+      <c r="CC307" s="7"/>
+    </row>
+    <row r="308" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="5">
+        <v>22</v>
+      </c>
+      <c r="B308" s="7"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB308" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ308" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA308" s="7"/>
+      <c r="CB308" s="7"/>
+      <c r="CC308" s="7"/>
+    </row>
+    <row r="309" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="5">
+        <v>23</v>
+      </c>
+      <c r="B309" s="7"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G309" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H309" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I309" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J309" s="7"/>
+      <c r="K309" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L309" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M309" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N309" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O309" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P309" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q309" s="7"/>
+      <c r="R309" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S309" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T309" s="7"/>
+      <c r="U309" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V309" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W309" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X309" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y309" s="7"/>
+      <c r="Z309" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA309" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB309" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC309" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD309" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE309" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF309" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG309" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH309" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI309" s="7"/>
+      <c r="AJ309" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK309" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL309" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM309" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN309" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO309" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP309" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ309" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR309" s="7"/>
+      <c r="AS309" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT309" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU309" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV309" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW309" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX309" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY309" s="7"/>
+      <c r="AZ309" s="7"/>
+      <c r="BA309" s="7"/>
+      <c r="BB309" s="7"/>
+      <c r="BC309" s="7"/>
+      <c r="BD309" s="7"/>
+      <c r="BE309" s="7"/>
+      <c r="BF309" s="7"/>
+      <c r="BG309" s="7"/>
+      <c r="BH309" s="7"/>
+      <c r="BI309" s="7"/>
+      <c r="BJ309" s="7"/>
+      <c r="BK309" s="7"/>
+      <c r="BL309" s="7"/>
+      <c r="BM309" s="7"/>
+      <c r="BN309" s="7"/>
+      <c r="BO309" s="7"/>
+      <c r="BP309" s="7"/>
+      <c r="BQ309" s="7"/>
+      <c r="BR309" s="7"/>
+      <c r="BS309" s="7"/>
+      <c r="BT309" s="7"/>
+      <c r="BU309" s="7"/>
+      <c r="BV309" s="7"/>
+      <c r="BW309" s="7"/>
+      <c r="BX309" s="7"/>
+      <c r="BY309" s="7"/>
+      <c r="BZ309" s="7"/>
+      <c r="CA309" s="7"/>
+      <c r="CB309" s="7"/>
+      <c r="CC309" s="7"/>
+    </row>
+    <row r="310" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="5">
+        <v>24</v>
+      </c>
+      <c r="B310" s="7"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7"/>
+      <c r="I310" s="7"/>
+      <c r="J310" s="7"/>
+      <c r="K310" s="7"/>
+      <c r="L310" s="7"/>
+      <c r="M310" s="7"/>
+      <c r="N310" s="7"/>
+      <c r="O310" s="7"/>
+      <c r="P310" s="7"/>
+      <c r="Q310" s="7"/>
+      <c r="R310" s="7"/>
+      <c r="S310" s="7"/>
+      <c r="T310" s="7"/>
+      <c r="U310" s="7"/>
+      <c r="V310" s="7"/>
+      <c r="W310" s="7"/>
+      <c r="X310" s="7"/>
+      <c r="Y310" s="7"/>
+      <c r="Z310" s="7"/>
+      <c r="AA310" s="7"/>
+      <c r="AB310" s="7"/>
+      <c r="AC310" s="7"/>
+      <c r="AD310" s="7"/>
+      <c r="AE310" s="7"/>
+      <c r="AF310" s="7"/>
+      <c r="AG310" s="7"/>
+      <c r="AH310" s="7"/>
+      <c r="AI310" s="7"/>
+      <c r="AJ310" s="7"/>
+      <c r="AK310" s="7"/>
+      <c r="AL310" s="7"/>
+      <c r="AM310" s="7"/>
+      <c r="AN310" s="7"/>
+      <c r="AO310" s="7"/>
+      <c r="AP310" s="7"/>
+      <c r="AQ310" s="7"/>
+      <c r="AR310" s="7"/>
+      <c r="AS310" s="7"/>
+      <c r="AT310" s="7"/>
+      <c r="AU310" s="7"/>
+      <c r="AV310" s="7"/>
+      <c r="AW310" s="7"/>
+      <c r="AX310" s="7"/>
+      <c r="AY310" s="7"/>
+      <c r="AZ310" s="7"/>
+      <c r="BA310" s="7"/>
+      <c r="BB310" s="7"/>
+      <c r="BC310" s="7"/>
+      <c r="BD310" s="7"/>
+      <c r="BE310" s="7"/>
+      <c r="BF310" s="7"/>
+      <c r="BG310" s="7"/>
+      <c r="BH310" s="7"/>
+      <c r="BI310" s="7"/>
+      <c r="BJ310" s="7"/>
+      <c r="BK310" s="7"/>
+      <c r="BL310" s="7"/>
+      <c r="BM310" s="7"/>
+      <c r="BN310" s="7"/>
+      <c r="BO310" s="7"/>
+      <c r="BP310" s="7"/>
+      <c r="BQ310" s="7"/>
+      <c r="BR310" s="7"/>
+      <c r="BS310" s="7"/>
+      <c r="BT310" s="7"/>
+      <c r="BU310" s="7"/>
+      <c r="BV310" s="7"/>
+      <c r="BW310" s="7"/>
+      <c r="BX310" s="7"/>
+      <c r="BY310" s="7"/>
+      <c r="BZ310" s="7"/>
+      <c r="CA310" s="7"/>
+      <c r="CB310" s="7"/>
+      <c r="CC310" s="7"/>
+    </row>
+    <row r="311" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="321" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="322" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="323" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="617" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="106">
   <si>
     <t>xy</t>
   </si>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A261" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BG273" sqref="BG273"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1890,54 +1890,54 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
-      <c r="BM7" s="7"/>
-      <c r="BN7" s="7"/>
-      <c r="BO7" s="7"/>
-      <c r="BP7" s="7"/>
-      <c r="BQ7" s="7"/>
-      <c r="BR7" s="7"/>
-      <c r="BS7" s="7"/>
-      <c r="BT7" s="7"/>
-      <c r="BU7" s="7"/>
-      <c r="BV7" s="7"/>
-      <c r="BW7" s="7"/>
-      <c r="BX7" s="7"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="11"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
+      <c r="BM7" s="11"/>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="11"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="11"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="11"/>
+      <c r="BU7" s="11"/>
+      <c r="BV7" s="11"/>
+      <c r="BW7" s="11"/>
+      <c r="BX7" s="11"/>
       <c r="BY7" s="7"/>
       <c r="BZ7" s="7" t="s">
         <v>42</v>
@@ -1956,121 +1956,121 @@
         <v>42</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="T8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8" t="s">
-        <v>20</v>
+      <c r="AA8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE8" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="AF8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BC8" s="7"/>
-      <c r="BD8" s="7"/>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="7"/>
-      <c r="BG8" s="7"/>
-      <c r="BH8" s="7"/>
-      <c r="BI8" s="7"/>
-      <c r="BJ8" s="7"/>
-      <c r="BK8" s="7"/>
-      <c r="BL8" s="7"/>
-      <c r="BM8" s="7"/>
-      <c r="BN8" s="7"/>
-      <c r="BO8" s="7"/>
-      <c r="BP8" s="7"/>
-      <c r="BQ8" s="7"/>
-      <c r="BR8" s="7"/>
-      <c r="BS8" s="7"/>
-      <c r="BT8" s="7"/>
-      <c r="BU8" s="7"/>
-      <c r="BV8" s="7"/>
-      <c r="BW8" s="7"/>
-      <c r="BX8" s="7"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="13"/>
+      <c r="BQ8" s="13"/>
+      <c r="BR8" s="13"/>
+      <c r="BS8" s="13"/>
+      <c r="BT8" s="13"/>
+      <c r="BU8" s="13"/>
+      <c r="BV8" s="13"/>
+      <c r="BW8" s="13"/>
+      <c r="BX8" s="13"/>
       <c r="BY8" s="7"/>
       <c r="BZ8" s="7" t="s">
         <v>42</v>
@@ -2112,54 +2112,54 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-      <c r="BM9" s="7"/>
-      <c r="BN9" s="7"/>
-      <c r="BO9" s="7"/>
-      <c r="BP9" s="7"/>
-      <c r="BQ9" s="7"/>
-      <c r="BR9" s="7"/>
-      <c r="BS9" s="7"/>
-      <c r="BT9" s="7"/>
-      <c r="BU9" s="7"/>
-      <c r="BV9" s="7"/>
-      <c r="BW9" s="7"/>
-      <c r="BX9" s="7"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13"/>
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="13"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13"/>
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13"/>
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="13"/>
       <c r="BY9" s="7"/>
       <c r="BZ9" s="7" t="s">
         <v>42</v>
@@ -3085,11 +3085,21 @@
       <c r="AV18" s="13"/>
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="13"/>
+      <c r="AY18" s="13">
+        <v>4</v>
+      </c>
+      <c r="AZ18" s="13">
+        <v>8</v>
+      </c>
+      <c r="BA18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB18" s="13">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="13">
+        <v>7</v>
+      </c>
       <c r="BD18" s="13"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
@@ -32885,7 +32895,7 @@
       <c r="AK238" s="11"/>
       <c r="AL238" s="11"/>
       <c r="AM238" s="11"/>
-      <c r="AN238" s="13"/>
+      <c r="AN238" s="11"/>
       <c r="AO238" s="13"/>
       <c r="AP238" s="13"/>
       <c r="AQ238" s="13"/>
@@ -33026,7 +33036,7 @@
       <c r="AK239" s="11"/>
       <c r="AL239" s="11"/>
       <c r="AM239" s="11"/>
-      <c r="AN239" s="13"/>
+      <c r="AN239" s="11"/>
       <c r="AO239" s="13"/>
       <c r="AP239" s="13"/>
       <c r="AQ239" s="13"/>
@@ -33153,7 +33163,7 @@
       <c r="AK240" s="11"/>
       <c r="AL240" s="11"/>
       <c r="AM240" s="11"/>
-      <c r="AN240" s="13"/>
+      <c r="AN240" s="11"/>
       <c r="AO240" s="13"/>
       <c r="AP240" s="13"/>
       <c r="AQ240" s="13"/>
@@ -33242,7 +33252,7 @@
       <c r="AK241" s="11"/>
       <c r="AL241" s="11"/>
       <c r="AM241" s="11"/>
-      <c r="AN241" s="13"/>
+      <c r="AN241" s="11"/>
       <c r="AO241" s="13"/>
       <c r="AP241" s="13"/>
       <c r="AQ241" s="13"/>
@@ -33375,7 +33385,7 @@
       <c r="AK242" s="11"/>
       <c r="AL242" s="11"/>
       <c r="AM242" s="11"/>
-      <c r="AN242" s="13"/>
+      <c r="AN242" s="11"/>
       <c r="AO242" s="13"/>
       <c r="AP242" s="13"/>
       <c r="AQ242" s="13"/>
@@ -33502,7 +33512,7 @@
       <c r="AK243" s="11"/>
       <c r="AL243" s="11"/>
       <c r="AM243" s="11"/>
-      <c r="AN243" s="13"/>
+      <c r="AN243" s="11"/>
       <c r="AO243" s="13"/>
       <c r="AP243" s="13"/>
       <c r="AQ243" s="13"/>
@@ -33591,7 +33601,7 @@
       <c r="AK244" s="11"/>
       <c r="AL244" s="11"/>
       <c r="AM244" s="11"/>
-      <c r="AN244" s="13"/>
+      <c r="AN244" s="11"/>
       <c r="AO244" s="13"/>
       <c r="AP244" s="13"/>
       <c r="AQ244" s="13"/>
@@ -33744,7 +33754,7 @@
       <c r="AK245" s="11"/>
       <c r="AL245" s="11"/>
       <c r="AM245" s="11"/>
-      <c r="AN245" s="13"/>
+      <c r="AN245" s="11"/>
       <c r="AO245" s="13"/>
       <c r="AP245" s="13"/>
       <c r="AQ245" s="13"/>
@@ -33760,11 +33770,21 @@
       <c r="BA245" s="13"/>
       <c r="BB245" s="13"/>
       <c r="BC245" s="13"/>
-      <c r="BD245" s="13"/>
-      <c r="BE245" s="13"/>
-      <c r="BF245" s="13"/>
-      <c r="BG245" s="13"/>
-      <c r="BH245" s="13"/>
+      <c r="BD245" s="13">
+        <v>3</v>
+      </c>
+      <c r="BE245" s="13">
+        <v>6</v>
+      </c>
+      <c r="BF245" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG245" s="13">
+        <v>1</v>
+      </c>
+      <c r="BH245" s="13">
+        <v>4</v>
+      </c>
       <c r="BI245" s="13"/>
       <c r="BJ245" s="13"/>
       <c r="BK245" s="13"/>
@@ -33881,7 +33901,7 @@
       <c r="AK246" s="11"/>
       <c r="AL246" s="11"/>
       <c r="AM246" s="11"/>
-      <c r="AN246" s="13"/>
+      <c r="AN246" s="11"/>
       <c r="AO246" s="13"/>
       <c r="AP246" s="13"/>
       <c r="AQ246" s="13"/>
@@ -33970,7 +33990,7 @@
       <c r="AK247" s="11"/>
       <c r="AL247" s="11"/>
       <c r="AM247" s="11"/>
-      <c r="AN247" s="13"/>
+      <c r="AN247" s="11"/>
       <c r="AO247" s="13"/>
       <c r="AP247" s="13"/>
       <c r="AQ247" s="13"/>
@@ -34113,7 +34133,7 @@
       <c r="AK248" s="11"/>
       <c r="AL248" s="11"/>
       <c r="AM248" s="11"/>
-      <c r="AN248" s="13"/>
+      <c r="AN248" s="11"/>
       <c r="AO248" s="13"/>
       <c r="AP248" s="13"/>
       <c r="AQ248" s="13"/>
@@ -34244,7 +34264,7 @@
       <c r="AK249" s="11"/>
       <c r="AL249" s="11"/>
       <c r="AM249" s="11"/>
-      <c r="AN249" s="13"/>
+      <c r="AN249" s="11"/>
       <c r="AO249" s="13"/>
       <c r="AP249" s="13"/>
       <c r="AQ249" s="13"/>
@@ -34387,7 +34407,7 @@
       <c r="AK250" s="11"/>
       <c r="AL250" s="11"/>
       <c r="AM250" s="11"/>
-      <c r="AN250" s="13"/>
+      <c r="AN250" s="11"/>
       <c r="AO250" s="13"/>
       <c r="AP250" s="13"/>
       <c r="AQ250" s="13"/>
@@ -34476,7 +34496,7 @@
       <c r="AK251" s="11"/>
       <c r="AL251" s="11"/>
       <c r="AM251" s="11"/>
-      <c r="AN251" s="13"/>
+      <c r="AN251" s="11"/>
       <c r="AO251" s="13"/>
       <c r="AP251" s="13"/>
       <c r="AQ251" s="13"/>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="640" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
+  <xr:revisionPtr revIDLastSave="930" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8955" uniqueCount="110">
   <si>
     <t>xy</t>
   </si>
@@ -334,6 +334,18 @@
   <si>
     <t>2.5_credito_f2</t>
   </si>
+  <si>
+    <t>2.3 - Membresías [reglas]</t>
+  </si>
+  <si>
+    <t>2.3_membresias_reglas</t>
+  </si>
+  <si>
+    <t>2.3_membresias_afil</t>
+  </si>
+  <si>
+    <t>2.3 - Membresías [afiliarse]</t>
+  </si>
 </sst>
 </file>
 
@@ -446,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -562,11 +574,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,6 +712,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -962,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
-  <dimension ref="A1:CC335"/>
+  <dimension ref="A1:CC366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A294" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH348" sqref="AH348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -42515,30 +42559,6414 @@
       <c r="CC310" s="7"/>
     </row>
     <row r="311" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" spans="1:81" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE312" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="313" spans="1:81" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B314" s="6">
+        <v>1</v>
+      </c>
+      <c r="C314" s="6">
+        <v>2</v>
+      </c>
+      <c r="D314" s="6">
+        <v>3</v>
+      </c>
+      <c r="E314" s="6">
+        <v>4</v>
+      </c>
+      <c r="F314" s="6">
+        <v>5</v>
+      </c>
+      <c r="G314" s="6">
+        <v>6</v>
+      </c>
+      <c r="H314" s="6">
+        <v>7</v>
+      </c>
+      <c r="I314" s="6">
+        <v>8</v>
+      </c>
+      <c r="J314" s="6">
+        <v>9</v>
+      </c>
+      <c r="K314" s="6">
+        <v>10</v>
+      </c>
+      <c r="L314" s="6">
+        <v>11</v>
+      </c>
+      <c r="M314" s="6">
+        <v>12</v>
+      </c>
+      <c r="N314" s="6">
+        <v>13</v>
+      </c>
+      <c r="O314" s="6">
+        <v>14</v>
+      </c>
+      <c r="P314" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q314" s="6">
+        <v>16</v>
+      </c>
+      <c r="R314" s="6">
+        <v>17</v>
+      </c>
+      <c r="S314" s="6">
+        <v>18</v>
+      </c>
+      <c r="T314" s="6">
+        <v>19</v>
+      </c>
+      <c r="U314" s="6">
+        <v>20</v>
+      </c>
+      <c r="V314" s="6">
+        <v>21</v>
+      </c>
+      <c r="W314" s="6">
+        <v>22</v>
+      </c>
+      <c r="X314" s="6">
+        <v>23</v>
+      </c>
+      <c r="Y314" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z314" s="6">
+        <v>25</v>
+      </c>
+      <c r="AA314" s="6">
+        <v>26</v>
+      </c>
+      <c r="AB314" s="6">
+        <v>27</v>
+      </c>
+      <c r="AC314" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD314" s="6">
+        <v>29</v>
+      </c>
+      <c r="AE314" s="6">
+        <v>30</v>
+      </c>
+      <c r="AF314" s="6">
+        <v>31</v>
+      </c>
+      <c r="AG314" s="6">
+        <v>32</v>
+      </c>
+      <c r="AH314" s="6">
+        <v>33</v>
+      </c>
+      <c r="AI314" s="6">
+        <v>34</v>
+      </c>
+      <c r="AJ314" s="6">
+        <v>35</v>
+      </c>
+      <c r="AK314" s="6">
+        <v>36</v>
+      </c>
+      <c r="AL314" s="6">
+        <v>37</v>
+      </c>
+      <c r="AM314" s="6">
+        <v>38</v>
+      </c>
+      <c r="AN314" s="6">
+        <v>39</v>
+      </c>
+      <c r="AO314" s="6">
+        <v>40</v>
+      </c>
+      <c r="AP314" s="6">
+        <v>41</v>
+      </c>
+      <c r="AQ314" s="6">
+        <v>42</v>
+      </c>
+      <c r="AR314" s="6">
+        <v>43</v>
+      </c>
+      <c r="AS314" s="6">
+        <v>44</v>
+      </c>
+      <c r="AT314" s="6">
+        <v>45</v>
+      </c>
+      <c r="AU314" s="6">
+        <v>46</v>
+      </c>
+      <c r="AV314" s="6">
+        <v>47</v>
+      </c>
+      <c r="AW314" s="6">
+        <v>48</v>
+      </c>
+      <c r="AX314" s="6">
+        <v>49</v>
+      </c>
+      <c r="AY314" s="6">
+        <v>50</v>
+      </c>
+      <c r="AZ314" s="6">
+        <v>51</v>
+      </c>
+      <c r="BA314" s="6">
+        <v>52</v>
+      </c>
+      <c r="BB314" s="6">
+        <v>53</v>
+      </c>
+      <c r="BC314" s="6">
+        <v>54</v>
+      </c>
+      <c r="BD314" s="6">
+        <v>55</v>
+      </c>
+      <c r="BE314" s="6">
+        <v>56</v>
+      </c>
+      <c r="BF314" s="6">
+        <v>57</v>
+      </c>
+      <c r="BG314" s="6">
+        <v>58</v>
+      </c>
+      <c r="BH314" s="6">
+        <v>59</v>
+      </c>
+      <c r="BI314" s="6">
+        <v>60</v>
+      </c>
+      <c r="BJ314" s="6">
+        <v>61</v>
+      </c>
+      <c r="BK314" s="6">
+        <v>62</v>
+      </c>
+      <c r="BL314" s="6">
+        <v>63</v>
+      </c>
+      <c r="BM314" s="6">
+        <v>64</v>
+      </c>
+      <c r="BN314" s="6">
+        <v>65</v>
+      </c>
+      <c r="BO314" s="6">
+        <v>66</v>
+      </c>
+      <c r="BP314" s="6">
+        <v>67</v>
+      </c>
+      <c r="BQ314" s="6">
+        <v>68</v>
+      </c>
+      <c r="BR314" s="6">
+        <v>69</v>
+      </c>
+      <c r="BS314" s="6">
+        <v>70</v>
+      </c>
+      <c r="BT314" s="6">
+        <v>71</v>
+      </c>
+      <c r="BU314" s="6">
+        <v>72</v>
+      </c>
+      <c r="BV314" s="6">
+        <v>73</v>
+      </c>
+      <c r="BW314" s="6">
+        <v>74</v>
+      </c>
+      <c r="BX314" s="6">
+        <v>75</v>
+      </c>
+      <c r="BY314" s="6">
+        <v>76</v>
+      </c>
+      <c r="BZ314" s="6">
+        <v>77</v>
+      </c>
+      <c r="CA314" s="6">
+        <v>78</v>
+      </c>
+      <c r="CB314" s="6">
+        <v>79</v>
+      </c>
+      <c r="CC314" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="315" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="5">
+        <v>1</v>
+      </c>
+      <c r="B315" s="7"/>
+      <c r="C315" s="7"/>
+      <c r="D315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ315" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA315" s="7"/>
+      <c r="CB315" s="7"/>
+      <c r="CC315" s="7"/>
+    </row>
+    <row r="316" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="5">
+        <v>2</v>
+      </c>
+      <c r="B316" s="7"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" s="7"/>
+      <c r="H316" s="7"/>
+      <c r="I316" s="7"/>
+      <c r="J316" s="7"/>
+      <c r="K316" s="7"/>
+      <c r="L316" s="7"/>
+      <c r="M316" s="7"/>
+      <c r="N316" s="7"/>
+      <c r="O316" s="7"/>
+      <c r="P316" s="7"/>
+      <c r="Q316" s="7"/>
+      <c r="R316" s="7"/>
+      <c r="S316" s="7"/>
+      <c r="T316" s="7"/>
+      <c r="U316" s="7"/>
+      <c r="V316" s="7"/>
+      <c r="W316" s="7"/>
+      <c r="X316" s="7"/>
+      <c r="Y316" s="7"/>
+      <c r="Z316" s="7"/>
+      <c r="AA316" s="7"/>
+      <c r="AB316" s="7"/>
+      <c r="AC316" s="7"/>
+      <c r="AD316" s="7"/>
+      <c r="AE316" s="7"/>
+      <c r="AF316" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG316" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH316" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI316" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ316" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK316" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL316" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM316" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN316" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO316" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP316" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ316" s="7"/>
+      <c r="AR316" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS316" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT316" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU316" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV316" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW316" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX316" s="7"/>
+      <c r="AY316" s="7"/>
+      <c r="AZ316" s="7"/>
+      <c r="BA316" s="7"/>
+      <c r="BB316" s="7"/>
+      <c r="BC316" s="7"/>
+      <c r="BD316" s="7"/>
+      <c r="BE316" s="7"/>
+      <c r="BF316" s="7"/>
+      <c r="BG316" s="7"/>
+      <c r="BH316" s="7"/>
+      <c r="BI316" s="7"/>
+      <c r="BJ316" s="7"/>
+      <c r="BK316" s="7"/>
+      <c r="BL316" s="7"/>
+      <c r="BM316" s="7"/>
+      <c r="BN316" s="7"/>
+      <c r="BO316" s="7"/>
+      <c r="BP316" s="7"/>
+      <c r="BQ316" s="7"/>
+      <c r="BR316" s="7"/>
+      <c r="BS316" s="7"/>
+      <c r="BT316" s="7"/>
+      <c r="BU316" s="7"/>
+      <c r="BV316" s="7"/>
+      <c r="BW316" s="7"/>
+      <c r="BX316" s="7"/>
+      <c r="BY316" s="7"/>
+      <c r="BZ316" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA316" s="7"/>
+      <c r="CB316" s="7"/>
+      <c r="CC316" s="7"/>
+    </row>
+    <row r="317" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="5">
+        <v>3</v>
+      </c>
+      <c r="B317" s="7"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ317" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA317" s="7"/>
+      <c r="CB317" s="7"/>
+      <c r="CC317" s="7"/>
+    </row>
+    <row r="318" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="5">
+        <v>4</v>
+      </c>
+      <c r="B318" s="7"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E318" s="11"/>
+      <c r="F318" s="11"/>
+      <c r="G318" s="11"/>
+      <c r="H318" s="11"/>
+      <c r="I318" s="11"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="11"/>
+      <c r="L318" s="11"/>
+      <c r="M318" s="11"/>
+      <c r="N318" s="11"/>
+      <c r="O318" s="11"/>
+      <c r="P318" s="11"/>
+      <c r="Q318" s="11"/>
+      <c r="R318" s="11"/>
+      <c r="S318" s="11"/>
+      <c r="T318" s="11"/>
+      <c r="U318" s="11"/>
+      <c r="V318" s="11"/>
+      <c r="W318" s="11"/>
+      <c r="X318" s="11"/>
+      <c r="Y318" s="11"/>
+      <c r="Z318" s="11"/>
+      <c r="AA318" s="11"/>
+      <c r="AB318" s="11"/>
+      <c r="AC318" s="11"/>
+      <c r="AD318" s="11"/>
+      <c r="AE318" s="11"/>
+      <c r="AF318" s="11"/>
+      <c r="AG318" s="11"/>
+      <c r="AH318" s="11"/>
+      <c r="AI318" s="11"/>
+      <c r="AJ318" s="11"/>
+      <c r="AK318" s="11"/>
+      <c r="AL318" s="11"/>
+      <c r="AM318" s="11"/>
+      <c r="AN318" s="11"/>
+      <c r="AO318" s="13"/>
+      <c r="AP318" s="13"/>
+      <c r="AQ318" s="13"/>
+      <c r="AR318" s="13"/>
+      <c r="AS318" s="13"/>
+      <c r="AT318" s="13"/>
+      <c r="AU318" s="13"/>
+      <c r="AV318" s="13"/>
+      <c r="AW318" s="13"/>
+      <c r="AX318" s="13"/>
+      <c r="AY318" s="13"/>
+      <c r="AZ318" s="13"/>
+      <c r="BA318" s="13"/>
+      <c r="BB318" s="13"/>
+      <c r="BC318" s="13"/>
+      <c r="BD318" s="13"/>
+      <c r="BE318" s="13"/>
+      <c r="BF318" s="13"/>
+      <c r="BG318" s="29"/>
+      <c r="BH318" s="13"/>
+      <c r="BI318" s="13"/>
+      <c r="BJ318" s="13"/>
+      <c r="BK318" s="13"/>
+      <c r="BL318" s="13"/>
+      <c r="BM318" s="13"/>
+      <c r="BN318" s="13"/>
+      <c r="BO318" s="13"/>
+      <c r="BP318" s="13"/>
+      <c r="BQ318" s="13"/>
+      <c r="BR318" s="13"/>
+      <c r="BS318" s="13"/>
+      <c r="BT318" s="13"/>
+      <c r="BU318" s="13"/>
+      <c r="BV318" s="13"/>
+      <c r="BW318" s="13"/>
+      <c r="BX318" s="13"/>
+      <c r="BY318" s="11"/>
+      <c r="BZ318" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA318" s="7"/>
+      <c r="CB318" s="7"/>
+      <c r="CC318" s="7"/>
+    </row>
+    <row r="319" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="5">
+        <v>5</v>
+      </c>
+      <c r="B319" s="7"/>
+      <c r="C319" s="7"/>
+      <c r="D319" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E319" s="11"/>
+      <c r="F319" s="11">
+        <v>1</v>
+      </c>
+      <c r="G319" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H319" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I319" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J319" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K319" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L319" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M319" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N319" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O319" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P319" s="11"/>
+      <c r="Q319" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R319" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S319" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T319" s="11"/>
+      <c r="U319" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V319" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W319" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X319" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y319" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z319" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA319" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB319" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC319" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD319" s="11"/>
+      <c r="AE319" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF319" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG319" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH319" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI319" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ319" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK319" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL319" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM319" s="11"/>
+      <c r="AN319" s="11"/>
+      <c r="AO319" s="13"/>
+      <c r="AP319" s="13"/>
+      <c r="AQ319" s="13"/>
+      <c r="AR319" s="13"/>
+      <c r="AS319" s="13"/>
+      <c r="AT319" s="13"/>
+      <c r="AU319" s="13"/>
+      <c r="AV319" s="13"/>
+      <c r="AW319" s="13"/>
+      <c r="AX319" s="13"/>
+      <c r="AY319" s="13"/>
+      <c r="AZ319" s="13"/>
+      <c r="BA319" s="13"/>
+      <c r="BB319" s="13"/>
+      <c r="BC319" s="13"/>
+      <c r="BD319" s="13"/>
+      <c r="BE319" s="13"/>
+      <c r="BF319" s="13"/>
+      <c r="BG319" s="13"/>
+      <c r="BH319" s="13"/>
+      <c r="BI319" s="13"/>
+      <c r="BJ319" s="13"/>
+      <c r="BK319" s="13"/>
+      <c r="BL319" s="13"/>
+      <c r="BM319" s="13"/>
+      <c r="BN319" s="13"/>
+      <c r="BO319" s="13"/>
+      <c r="BP319" s="13"/>
+      <c r="BQ319" s="13"/>
+      <c r="BR319" s="13"/>
+      <c r="BS319" s="13"/>
+      <c r="BT319" s="13"/>
+      <c r="BU319" s="13"/>
+      <c r="BV319" s="13"/>
+      <c r="BW319" s="13"/>
+      <c r="BX319" s="13"/>
+      <c r="BY319" s="11"/>
+      <c r="BZ319" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA319" s="7"/>
+      <c r="CB319" s="7"/>
+      <c r="CC319" s="7"/>
+    </row>
+    <row r="320" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="5">
+        <v>6</v>
+      </c>
+      <c r="B320" s="7"/>
+      <c r="C320" s="7"/>
+      <c r="D320" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E320" s="11"/>
+      <c r="F320" s="11"/>
+      <c r="G320" s="11"/>
+      <c r="H320" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I320" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J320" s="11"/>
+      <c r="K320" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L320" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M320" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N320" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O320" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P320" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q320" s="11"/>
+      <c r="R320" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S320" s="11"/>
+      <c r="T320" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U320" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V320" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W320" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X320" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y320" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z320" s="11"/>
+      <c r="AA320" s="11"/>
+      <c r="AB320" s="11"/>
+      <c r="AC320" s="11"/>
+      <c r="AD320" s="11"/>
+      <c r="AE320" s="11"/>
+      <c r="AF320" s="11"/>
+      <c r="AG320" s="11"/>
+      <c r="AH320" s="11"/>
+      <c r="AI320" s="11"/>
+      <c r="AJ320" s="11"/>
+      <c r="AK320" s="11"/>
+      <c r="AL320" s="11"/>
+      <c r="AM320" s="11"/>
+      <c r="AN320" s="11"/>
+      <c r="AO320" s="13"/>
+      <c r="AP320" s="13"/>
+      <c r="AQ320" s="13"/>
+      <c r="AR320" s="13"/>
+      <c r="AS320" s="13"/>
+      <c r="AT320" s="13"/>
+      <c r="AU320" s="13"/>
+      <c r="AV320" s="13"/>
+      <c r="AW320" s="13"/>
+      <c r="AX320" s="13"/>
+      <c r="AY320" s="13"/>
+      <c r="AZ320" s="13"/>
+      <c r="BA320" s="13"/>
+      <c r="BB320" s="13"/>
+      <c r="BC320" s="13"/>
+      <c r="BD320" s="13"/>
+      <c r="BE320" s="13"/>
+      <c r="BF320" s="13"/>
+      <c r="BG320" s="13"/>
+      <c r="BH320" s="13"/>
+      <c r="BI320" s="13"/>
+      <c r="BJ320" s="13"/>
+      <c r="BK320" s="13"/>
+      <c r="BL320" s="13"/>
+      <c r="BM320" s="13"/>
+      <c r="BN320" s="13"/>
+      <c r="BO320" s="13"/>
+      <c r="BP320" s="13"/>
+      <c r="BQ320" s="13"/>
+      <c r="BR320" s="13"/>
+      <c r="BS320" s="13"/>
+      <c r="BT320" s="13"/>
+      <c r="BU320" s="13"/>
+      <c r="BV320" s="13"/>
+      <c r="BW320" s="13"/>
+      <c r="BX320" s="13"/>
+      <c r="BY320" s="11"/>
+      <c r="BZ320" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA320" s="7"/>
+      <c r="CB320" s="7"/>
+      <c r="CC320" s="7"/>
+    </row>
+    <row r="321" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="5">
+        <v>7</v>
+      </c>
+      <c r="B321" s="7"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
+      <c r="G321" s="11"/>
+      <c r="H321" s="11"/>
+      <c r="I321" s="11"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="11"/>
+      <c r="L321" s="11"/>
+      <c r="M321" s="11"/>
+      <c r="N321" s="11"/>
+      <c r="O321" s="11"/>
+      <c r="P321" s="11"/>
+      <c r="Q321" s="11"/>
+      <c r="R321" s="11"/>
+      <c r="S321" s="11"/>
+      <c r="T321" s="11"/>
+      <c r="U321" s="11"/>
+      <c r="V321" s="11"/>
+      <c r="W321" s="11"/>
+      <c r="X321" s="11"/>
+      <c r="Y321" s="11"/>
+      <c r="Z321" s="11"/>
+      <c r="AA321" s="11"/>
+      <c r="AB321" s="11"/>
+      <c r="AC321" s="11"/>
+      <c r="AD321" s="11"/>
+      <c r="AE321" s="11"/>
+      <c r="AF321" s="11"/>
+      <c r="AG321" s="11"/>
+      <c r="AH321" s="11"/>
+      <c r="AI321" s="11"/>
+      <c r="AJ321" s="11"/>
+      <c r="AK321" s="11"/>
+      <c r="AL321" s="11"/>
+      <c r="AM321" s="11"/>
+      <c r="AN321" s="11"/>
+      <c r="AO321" s="13"/>
+      <c r="AP321" s="13"/>
+      <c r="AQ321" s="13"/>
+      <c r="AR321" s="13"/>
+      <c r="AS321" s="13"/>
+      <c r="AT321" s="13"/>
+      <c r="AU321" s="13"/>
+      <c r="AV321" s="13"/>
+      <c r="AW321" s="13"/>
+      <c r="AX321" s="13"/>
+      <c r="AY321" s="13"/>
+      <c r="AZ321" s="13"/>
+      <c r="BA321" s="13"/>
+      <c r="BB321" s="13"/>
+      <c r="BC321" s="13"/>
+      <c r="BD321" s="13"/>
+      <c r="BE321" s="13"/>
+      <c r="BF321" s="13"/>
+      <c r="BG321" s="13"/>
+      <c r="BH321" s="13"/>
+      <c r="BI321" s="13"/>
+      <c r="BJ321" s="13"/>
+      <c r="BK321" s="13"/>
+      <c r="BL321" s="13"/>
+      <c r="BM321" s="13"/>
+      <c r="BN321" s="13"/>
+      <c r="BO321" s="13"/>
+      <c r="BP321" s="13"/>
+      <c r="BQ321" s="13"/>
+      <c r="BR321" s="13"/>
+      <c r="BS321" s="13"/>
+      <c r="BT321" s="13"/>
+      <c r="BU321" s="13"/>
+      <c r="BV321" s="13"/>
+      <c r="BW321" s="13"/>
+      <c r="BX321" s="13"/>
+      <c r="BY321" s="11"/>
+      <c r="BZ321" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA321" s="7"/>
+      <c r="CB321" s="7"/>
+      <c r="CC321" s="7"/>
+    </row>
+    <row r="322" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="5">
+        <v>8</v>
+      </c>
+      <c r="B322" s="7"/>
+      <c r="C322" s="7"/>
+      <c r="D322" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11">
+        <v>2</v>
+      </c>
+      <c r="G322" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H322" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I322" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J322" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K322" s="11"/>
+      <c r="L322" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M322" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N322" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O322" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P322" s="11"/>
+      <c r="Q322" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R322" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S322" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T322" s="11"/>
+      <c r="U322" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V322" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W322" s="11"/>
+      <c r="X322" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y322" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z322" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA322" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB322" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC322" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD322" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE322" s="11"/>
+      <c r="AF322" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG322" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH322" s="11"/>
+      <c r="AI322" s="11"/>
+      <c r="AJ322" s="11"/>
+      <c r="AK322" s="11"/>
+      <c r="AL322" s="11"/>
+      <c r="AM322" s="11"/>
+      <c r="AN322" s="11"/>
+      <c r="AO322" s="13"/>
+      <c r="AP322" s="13"/>
+      <c r="AQ322" s="13"/>
+      <c r="AR322" s="13"/>
+      <c r="AS322" s="13"/>
+      <c r="AT322" s="13"/>
+      <c r="AU322" s="13"/>
+      <c r="AV322" s="13"/>
+      <c r="AW322" s="13"/>
+      <c r="AX322" s="13"/>
+      <c r="AY322" s="13"/>
+      <c r="AZ322" s="13"/>
+      <c r="BA322" s="13"/>
+      <c r="BB322" s="13"/>
+      <c r="BC322" s="13"/>
+      <c r="BD322" s="13"/>
+      <c r="BE322" s="13"/>
+      <c r="BF322" s="13"/>
+      <c r="BG322" s="13"/>
+      <c r="BH322" s="13"/>
+      <c r="BI322" s="13"/>
+      <c r="BJ322" s="13"/>
+      <c r="BK322" s="13"/>
+      <c r="BL322" s="13"/>
+      <c r="BM322" s="13"/>
+      <c r="BN322" s="13"/>
+      <c r="BO322" s="13"/>
+      <c r="BP322" s="13"/>
+      <c r="BQ322" s="13"/>
+      <c r="BR322" s="13"/>
+      <c r="BS322" s="13"/>
+      <c r="BT322" s="13"/>
+      <c r="BU322" s="13"/>
+      <c r="BV322" s="13"/>
+      <c r="BW322" s="13"/>
+      <c r="BX322" s="13"/>
+      <c r="BY322" s="11"/>
+      <c r="BZ322" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA322" s="7"/>
+      <c r="CB322" s="7"/>
+      <c r="CC322" s="7"/>
+    </row>
+    <row r="323" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="5">
+        <v>9</v>
+      </c>
+      <c r="B323" s="7"/>
+      <c r="C323" s="7"/>
+      <c r="D323" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E323" s="11"/>
+      <c r="F323" s="11"/>
+      <c r="G323" s="11"/>
+      <c r="H323" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I323" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J323" s="11"/>
+      <c r="K323" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L323" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M323" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N323" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O323" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P323" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q323" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R323" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S323" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T323" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U323" s="11"/>
+      <c r="V323" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W323" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X323" s="11"/>
+      <c r="Y323" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z323" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA323" s="11"/>
+      <c r="AB323" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC323" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD323" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE323" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF323" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG323" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH323" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI323" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ323" s="11"/>
+      <c r="AK323" s="11"/>
+      <c r="AL323" s="11"/>
+      <c r="AM323" s="11"/>
+      <c r="AN323" s="11"/>
+      <c r="AO323" s="13"/>
+      <c r="AP323" s="13"/>
+      <c r="AQ323" s="13"/>
+      <c r="AR323" s="13"/>
+      <c r="AS323" s="13"/>
+      <c r="AT323" s="13"/>
+      <c r="AU323" s="13"/>
+      <c r="AV323" s="13"/>
+      <c r="AW323" s="13"/>
+      <c r="AX323" s="13"/>
+      <c r="AY323" s="13"/>
+      <c r="AZ323" s="13"/>
+      <c r="BA323" s="13"/>
+      <c r="BB323" s="13"/>
+      <c r="BC323" s="13"/>
+      <c r="BD323" s="13"/>
+      <c r="BE323" s="13"/>
+      <c r="BF323" s="13"/>
+      <c r="BG323" s="13"/>
+      <c r="BH323" s="13"/>
+      <c r="BI323" s="13"/>
+      <c r="BJ323" s="13"/>
+      <c r="BK323" s="13"/>
+      <c r="BL323" s="13"/>
+      <c r="BM323" s="13"/>
+      <c r="BN323" s="13"/>
+      <c r="BO323" s="13"/>
+      <c r="BP323" s="13"/>
+      <c r="BQ323" s="13"/>
+      <c r="BR323" s="13"/>
+      <c r="BS323" s="13"/>
+      <c r="BT323" s="13"/>
+      <c r="BU323" s="13"/>
+      <c r="BV323" s="13"/>
+      <c r="BW323" s="13"/>
+      <c r="BX323" s="13"/>
+      <c r="BY323" s="11"/>
+      <c r="BZ323" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA323" s="7"/>
+      <c r="CB323" s="7"/>
+      <c r="CC323" s="7"/>
+    </row>
+    <row r="324" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="5">
+        <v>10</v>
+      </c>
+      <c r="B324" s="7"/>
+      <c r="C324" s="7"/>
+      <c r="D324" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E324" s="11"/>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="11"/>
+      <c r="I324" s="11"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="11"/>
+      <c r="L324" s="11"/>
+      <c r="M324" s="11"/>
+      <c r="N324" s="11"/>
+      <c r="O324" s="11"/>
+      <c r="P324" s="11"/>
+      <c r="Q324" s="11"/>
+      <c r="R324" s="11"/>
+      <c r="S324" s="11"/>
+      <c r="T324" s="11"/>
+      <c r="U324" s="11"/>
+      <c r="V324" s="11"/>
+      <c r="W324" s="11"/>
+      <c r="X324" s="11"/>
+      <c r="Y324" s="11"/>
+      <c r="Z324" s="11"/>
+      <c r="AA324" s="11"/>
+      <c r="AB324" s="11"/>
+      <c r="AC324" s="11"/>
+      <c r="AD324" s="11"/>
+      <c r="AE324" s="11"/>
+      <c r="AF324" s="11"/>
+      <c r="AG324" s="11"/>
+      <c r="AH324" s="11"/>
+      <c r="AI324" s="11"/>
+      <c r="AJ324" s="11"/>
+      <c r="AK324" s="11"/>
+      <c r="AL324" s="11"/>
+      <c r="AM324" s="11"/>
+      <c r="AN324" s="11"/>
+      <c r="AO324" s="13"/>
+      <c r="AP324" s="13"/>
+      <c r="AQ324" s="13"/>
+      <c r="AR324" s="13"/>
+      <c r="AS324" s="13"/>
+      <c r="AT324" s="13"/>
+      <c r="AU324" s="13"/>
+      <c r="AV324" s="13"/>
+      <c r="AW324" s="13"/>
+      <c r="AX324" s="13"/>
+      <c r="AY324" s="13"/>
+      <c r="AZ324" s="13"/>
+      <c r="BA324" s="13"/>
+      <c r="BB324" s="13"/>
+      <c r="BC324" s="13"/>
+      <c r="BD324" s="13"/>
+      <c r="BE324" s="13"/>
+      <c r="BF324" s="13"/>
+      <c r="BG324" s="13"/>
+      <c r="BH324" s="13"/>
+      <c r="BI324" s="13"/>
+      <c r="BJ324" s="13"/>
+      <c r="BK324" s="13"/>
+      <c r="BL324" s="13"/>
+      <c r="BM324" s="13"/>
+      <c r="BN324" s="13"/>
+      <c r="BO324" s="13"/>
+      <c r="BP324" s="13"/>
+      <c r="BQ324" s="13"/>
+      <c r="BR324" s="13"/>
+      <c r="BS324" s="13"/>
+      <c r="BT324" s="13"/>
+      <c r="BU324" s="13"/>
+      <c r="BV324" s="13"/>
+      <c r="BW324" s="13"/>
+      <c r="BX324" s="13"/>
+      <c r="BY324" s="11"/>
+      <c r="BZ324" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA324" s="7"/>
+      <c r="CB324" s="7"/>
+      <c r="CC324" s="7"/>
+    </row>
+    <row r="325" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="5">
+        <v>11</v>
+      </c>
+      <c r="B325" s="7"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11">
+        <v>3</v>
+      </c>
+      <c r="G325" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H325" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I325" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J325" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K325" s="11"/>
+      <c r="L325" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M325" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N325" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O325" s="11"/>
+      <c r="P325" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q325" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R325" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S325" s="11"/>
+      <c r="T325" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U325" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V325" s="11"/>
+      <c r="W325" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X325" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y325" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z325" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA325" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB325" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC325" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD325" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE325" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF325" s="11"/>
+      <c r="AG325" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH325" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI325" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ325" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK325" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL325" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM325" s="11"/>
+      <c r="AN325" s="11"/>
+      <c r="AO325" s="13"/>
+      <c r="AP325" s="13"/>
+      <c r="AQ325" s="13"/>
+      <c r="AR325" s="13"/>
+      <c r="AS325" s="13"/>
+      <c r="AT325" s="13"/>
+      <c r="AU325" s="13"/>
+      <c r="AV325" s="13"/>
+      <c r="AW325" s="13"/>
+      <c r="AX325" s="13"/>
+      <c r="AY325" s="13"/>
+      <c r="AZ325" s="13"/>
+      <c r="BA325" s="13"/>
+      <c r="BB325" s="13"/>
+      <c r="BC325" s="13"/>
+      <c r="BD325" s="13"/>
+      <c r="BE325" s="13"/>
+      <c r="BF325" s="13"/>
+      <c r="BG325" s="13"/>
+      <c r="BH325" s="13"/>
+      <c r="BI325" s="13"/>
+      <c r="BJ325" s="13"/>
+      <c r="BK325" s="13"/>
+      <c r="BL325" s="13"/>
+      <c r="BM325" s="13"/>
+      <c r="BN325" s="13"/>
+      <c r="BO325" s="13"/>
+      <c r="BP325" s="13"/>
+      <c r="BQ325" s="13"/>
+      <c r="BR325" s="13"/>
+      <c r="BS325" s="13"/>
+      <c r="BT325" s="13"/>
+      <c r="BU325" s="13"/>
+      <c r="BV325" s="13"/>
+      <c r="BW325" s="13"/>
+      <c r="BX325" s="13"/>
+      <c r="BY325" s="11"/>
+      <c r="BZ325" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA325" s="7"/>
+      <c r="CB325" s="7"/>
+      <c r="CC325" s="7"/>
+    </row>
+    <row r="326" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="5">
+        <v>12</v>
+      </c>
+      <c r="B326" s="7"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E326" s="11"/>
+      <c r="F326" s="33"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I326" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J326" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K326" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L326" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M326" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N326" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O326" s="11"/>
+      <c r="P326" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q326" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R326" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S326" s="11"/>
+      <c r="T326" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U326" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V326" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W326" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X326" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y326" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z326" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA326" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB326" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC326" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD326" s="11"/>
+      <c r="AE326" s="11"/>
+      <c r="AF326" s="11"/>
+      <c r="AG326" s="11"/>
+      <c r="AH326" s="11"/>
+      <c r="AI326" s="11"/>
+      <c r="AJ326" s="11"/>
+      <c r="AK326" s="11"/>
+      <c r="AL326" s="11"/>
+      <c r="AM326" s="11"/>
+      <c r="AN326" s="11"/>
+      <c r="AO326" s="13"/>
+      <c r="AP326" s="13"/>
+      <c r="AQ326" s="13"/>
+      <c r="AR326" s="13"/>
+      <c r="AS326" s="13"/>
+      <c r="AT326" s="13"/>
+      <c r="AU326" s="13"/>
+      <c r="AV326" s="13"/>
+      <c r="AW326" s="13"/>
+      <c r="AX326" s="13"/>
+      <c r="AY326" s="13"/>
+      <c r="AZ326" s="13"/>
+      <c r="BA326" s="13"/>
+      <c r="BB326" s="13"/>
+      <c r="BC326" s="13"/>
+      <c r="BD326" s="13"/>
+      <c r="BE326" s="13"/>
+      <c r="BF326" s="13"/>
+      <c r="BG326" s="13"/>
+      <c r="BH326" s="13"/>
+      <c r="BI326" s="13"/>
+      <c r="BJ326" s="13"/>
+      <c r="BK326" s="13"/>
+      <c r="BL326" s="13"/>
+      <c r="BM326" s="13"/>
+      <c r="BN326" s="13"/>
+      <c r="BO326" s="13"/>
+      <c r="BP326" s="13"/>
+      <c r="BQ326" s="13"/>
+      <c r="BR326" s="13"/>
+      <c r="BS326" s="13"/>
+      <c r="BT326" s="13"/>
+      <c r="BU326" s="13"/>
+      <c r="BV326" s="13"/>
+      <c r="BW326" s="13"/>
+      <c r="BX326" s="13"/>
+      <c r="BY326" s="11"/>
+      <c r="BZ326" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA326" s="7"/>
+      <c r="CB326" s="7"/>
+      <c r="CC326" s="7"/>
+    </row>
+    <row r="327" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="5">
+        <v>13</v>
+      </c>
+      <c r="B327" s="7"/>
+      <c r="C327" s="7"/>
+      <c r="D327" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="11"/>
+      <c r="I327" s="11"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="11"/>
+      <c r="L327" s="11"/>
+      <c r="M327" s="11"/>
+      <c r="N327" s="11"/>
+      <c r="O327" s="11"/>
+      <c r="P327" s="11"/>
+      <c r="Q327" s="11"/>
+      <c r="R327" s="11"/>
+      <c r="S327" s="11"/>
+      <c r="T327" s="11"/>
+      <c r="U327" s="11"/>
+      <c r="V327" s="11"/>
+      <c r="W327" s="11"/>
+      <c r="X327" s="11"/>
+      <c r="Y327" s="11"/>
+      <c r="Z327" s="11"/>
+      <c r="AA327" s="11"/>
+      <c r="AB327" s="11"/>
+      <c r="AC327" s="11"/>
+      <c r="AD327" s="11"/>
+      <c r="AE327" s="11"/>
+      <c r="AF327" s="11"/>
+      <c r="AG327" s="11"/>
+      <c r="AH327" s="11"/>
+      <c r="AI327" s="11"/>
+      <c r="AJ327" s="11"/>
+      <c r="AK327" s="11"/>
+      <c r="AL327" s="11"/>
+      <c r="AM327" s="11"/>
+      <c r="AN327" s="11"/>
+      <c r="AO327" s="13"/>
+      <c r="AP327" s="13"/>
+      <c r="AQ327" s="13"/>
+      <c r="AR327" s="13"/>
+      <c r="AS327" s="13"/>
+      <c r="AT327" s="13"/>
+      <c r="AU327" s="13"/>
+      <c r="AV327" s="13"/>
+      <c r="AW327" s="13"/>
+      <c r="AX327" s="13"/>
+      <c r="AY327" s="13"/>
+      <c r="AZ327" s="13"/>
+      <c r="BA327" s="13"/>
+      <c r="BB327" s="13"/>
+      <c r="BC327" s="13"/>
+      <c r="BD327" s="13"/>
+      <c r="BE327" s="13"/>
+      <c r="BF327" s="13"/>
+      <c r="BG327" s="13"/>
+      <c r="BH327" s="13"/>
+      <c r="BI327" s="13"/>
+      <c r="BJ327" s="13"/>
+      <c r="BK327" s="13"/>
+      <c r="BL327" s="13"/>
+      <c r="BM327" s="13"/>
+      <c r="BN327" s="13"/>
+      <c r="BO327" s="13"/>
+      <c r="BP327" s="13"/>
+      <c r="BQ327" s="13"/>
+      <c r="BR327" s="13"/>
+      <c r="BS327" s="13"/>
+      <c r="BT327" s="13"/>
+      <c r="BU327" s="13"/>
+      <c r="BV327" s="13"/>
+      <c r="BW327" s="13"/>
+      <c r="BX327" s="13"/>
+      <c r="BY327" s="11"/>
+      <c r="BZ327" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA327" s="7"/>
+      <c r="CB327" s="7"/>
+      <c r="CC327" s="7"/>
+    </row>
+    <row r="328" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="5">
+        <v>14</v>
+      </c>
+      <c r="B328" s="7"/>
+      <c r="C328" s="7"/>
+      <c r="D328" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E328" s="11"/>
+      <c r="F328" s="11">
+        <v>4</v>
+      </c>
+      <c r="G328" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H328" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I328" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J328" s="11"/>
+      <c r="K328" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L328" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M328" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N328" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O328" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P328" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q328" s="11"/>
+      <c r="R328" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S328" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T328" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U328" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V328" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W328" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X328" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y328" s="11"/>
+      <c r="Z328" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA328" s="11"/>
+      <c r="AB328" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC328" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD328" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE328" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF328" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG328" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH328" s="11"/>
+      <c r="AI328" s="11">
+        <v>3</v>
+      </c>
+      <c r="AJ328" s="11"/>
+      <c r="AK328" s="11"/>
+      <c r="AL328" s="11"/>
+      <c r="AM328" s="11"/>
+      <c r="AN328" s="11"/>
+      <c r="AO328" s="13"/>
+      <c r="AP328" s="13"/>
+      <c r="AQ328" s="13"/>
+      <c r="AR328" s="13"/>
+      <c r="AS328" s="13"/>
+      <c r="AT328" s="13"/>
+      <c r="AU328" s="13"/>
+      <c r="AV328" s="13"/>
+      <c r="AW328" s="13"/>
+      <c r="AX328" s="13"/>
+      <c r="AY328" s="13"/>
+      <c r="AZ328" s="13"/>
+      <c r="BA328" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB328" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC328" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD328" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE328" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF328" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG328" s="13"/>
+      <c r="BH328" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI328" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ328" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK328" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL328" s="13"/>
+      <c r="BM328" s="13"/>
+      <c r="BN328" s="13"/>
+      <c r="BO328" s="13"/>
+      <c r="BP328" s="13"/>
+      <c r="BQ328" s="13"/>
+      <c r="BR328" s="13"/>
+      <c r="BS328" s="13"/>
+      <c r="BT328" s="13"/>
+      <c r="BU328" s="13"/>
+      <c r="BV328" s="13"/>
+      <c r="BW328" s="13"/>
+      <c r="BX328" s="13"/>
+      <c r="BY328" s="11"/>
+      <c r="BZ328" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA328" s="7"/>
+      <c r="CB328" s="7"/>
+      <c r="CC328" s="7"/>
+    </row>
+    <row r="329" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="5">
+        <v>15</v>
+      </c>
+      <c r="B329" s="7"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E329" s="11"/>
+      <c r="F329" s="11"/>
+      <c r="G329" s="11"/>
+      <c r="H329" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I329" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J329" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K329" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L329" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M329" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N329" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O329" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P329" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q329" s="11"/>
+      <c r="R329" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S329" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T329" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="U329" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V329" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W329" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X329" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y329" s="11"/>
+      <c r="Z329" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA329" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB329" s="11"/>
+      <c r="AC329" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD329" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE329" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF329" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG329" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH329" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI329" s="11"/>
+      <c r="AJ329" s="11"/>
+      <c r="AK329" s="11"/>
+      <c r="AL329" s="11"/>
+      <c r="AM329" s="11"/>
+      <c r="AN329" s="11"/>
+      <c r="AO329" s="13"/>
+      <c r="AP329" s="13"/>
+      <c r="AQ329" s="13"/>
+      <c r="AR329" s="13"/>
+      <c r="AS329" s="13"/>
+      <c r="AT329" s="13"/>
+      <c r="AU329" s="13"/>
+      <c r="AV329" s="13"/>
+      <c r="AW329" s="13"/>
+      <c r="AX329" s="13"/>
+      <c r="AY329" s="13"/>
+      <c r="AZ329" s="13"/>
+      <c r="BA329" s="13"/>
+      <c r="BB329" s="13"/>
+      <c r="BC329" s="13"/>
+      <c r="BD329" s="13">
+        <v>3</v>
+      </c>
+      <c r="BE329" s="13">
+        <v>6</v>
+      </c>
+      <c r="BF329" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG329" s="13">
+        <v>1</v>
+      </c>
+      <c r="BH329" s="13">
+        <v>8</v>
+      </c>
+      <c r="BI329" s="13"/>
+      <c r="BJ329" s="13"/>
+      <c r="BK329" s="13"/>
+      <c r="BL329" s="13"/>
+      <c r="BM329" s="13"/>
+      <c r="BN329" s="13"/>
+      <c r="BO329" s="13"/>
+      <c r="BP329" s="13"/>
+      <c r="BQ329" s="13"/>
+      <c r="BR329" s="13"/>
+      <c r="BS329" s="13"/>
+      <c r="BT329" s="13"/>
+      <c r="BU329" s="13"/>
+      <c r="BV329" s="13"/>
+      <c r="BW329" s="13"/>
+      <c r="BX329" s="13"/>
+      <c r="BY329" s="11"/>
+      <c r="BZ329" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA329" s="7"/>
+      <c r="CB329" s="7"/>
+      <c r="CC329" s="7"/>
+    </row>
+    <row r="330" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="5">
+        <v>16</v>
+      </c>
+      <c r="B330" s="7"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E330" s="11"/>
+      <c r="F330" s="11"/>
+      <c r="G330" s="11"/>
+      <c r="H330" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I330" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J330" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K330" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L330" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M330" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N330" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O330" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P330" s="11"/>
+      <c r="Q330" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R330" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S330" s="11"/>
+      <c r="T330" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U330" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V330" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W330" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X330" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y330" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z330" s="11"/>
+      <c r="AA330" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB330" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC330" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD330" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE330" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF330" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG330" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH330" s="20"/>
+      <c r="AI330" s="20"/>
+      <c r="AJ330" s="11"/>
+      <c r="AK330" s="11"/>
+      <c r="AL330" s="11"/>
+      <c r="AM330" s="11"/>
+      <c r="AN330" s="11"/>
+      <c r="AO330" s="13"/>
+      <c r="AP330" s="13"/>
+      <c r="AQ330" s="13"/>
+      <c r="AR330" s="13"/>
+      <c r="AS330" s="13"/>
+      <c r="AT330" s="13"/>
+      <c r="AU330" s="13"/>
+      <c r="AV330" s="13"/>
+      <c r="AW330" s="13"/>
+      <c r="AX330" s="13"/>
+      <c r="AY330" s="13"/>
+      <c r="AZ330" s="13"/>
+      <c r="BA330" s="13"/>
+      <c r="BB330" s="13"/>
+      <c r="BC330" s="13"/>
+      <c r="BD330" s="13"/>
+      <c r="BE330" s="13"/>
+      <c r="BF330" s="13"/>
+      <c r="BG330" s="13"/>
+      <c r="BH330" s="13"/>
+      <c r="BI330" s="13"/>
+      <c r="BJ330" s="13"/>
+      <c r="BK330" s="13"/>
+      <c r="BL330" s="13"/>
+      <c r="BM330" s="13"/>
+      <c r="BN330" s="13"/>
+      <c r="BO330" s="13"/>
+      <c r="BP330" s="13"/>
+      <c r="BQ330" s="13"/>
+      <c r="BR330" s="13"/>
+      <c r="BS330" s="13"/>
+      <c r="BT330" s="13"/>
+      <c r="BU330" s="13"/>
+      <c r="BV330" s="13"/>
+      <c r="BW330" s="13"/>
+      <c r="BX330" s="13"/>
+      <c r="BY330" s="11"/>
+      <c r="BZ330" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA330" s="7"/>
+      <c r="CB330" s="7"/>
+      <c r="CC330" s="7"/>
+    </row>
+    <row r="331" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="5">
+        <v>17</v>
+      </c>
+      <c r="B331" s="7"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E331" s="11"/>
+      <c r="F331" s="39"/>
+      <c r="G331" s="39"/>
+      <c r="H331" s="39"/>
+      <c r="I331" s="39"/>
+      <c r="J331" s="39"/>
+      <c r="K331" s="39"/>
+      <c r="L331" s="39"/>
+      <c r="M331" s="39"/>
+      <c r="N331" s="11"/>
+      <c r="O331" s="11"/>
+      <c r="P331" s="11"/>
+      <c r="Q331" s="11"/>
+      <c r="R331" s="11"/>
+      <c r="S331" s="11"/>
+      <c r="T331" s="11"/>
+      <c r="U331" s="11"/>
+      <c r="V331" s="11"/>
+      <c r="W331" s="11"/>
+      <c r="X331" s="11"/>
+      <c r="Y331" s="11"/>
+      <c r="Z331" s="11"/>
+      <c r="AA331" s="11"/>
+      <c r="AB331" s="11"/>
+      <c r="AC331" s="11"/>
+      <c r="AD331" s="11"/>
+      <c r="AE331" s="11"/>
+      <c r="AF331" s="11"/>
+      <c r="AG331" s="11"/>
+      <c r="AH331" s="11"/>
+      <c r="AI331" s="11"/>
+      <c r="AJ331" s="11"/>
+      <c r="AK331" s="11"/>
+      <c r="AL331" s="11"/>
+      <c r="AM331" s="11"/>
+      <c r="AN331" s="11"/>
+      <c r="AO331" s="13"/>
+      <c r="AP331" s="13"/>
+      <c r="AQ331" s="13"/>
+      <c r="AR331" s="13"/>
+      <c r="AS331" s="13"/>
+      <c r="AT331" s="13"/>
+      <c r="AU331" s="13"/>
+      <c r="AV331" s="13"/>
+      <c r="AW331" s="13"/>
+      <c r="AX331" s="13"/>
+      <c r="AY331" s="13"/>
+      <c r="AZ331" s="13"/>
+      <c r="BA331" s="13"/>
+      <c r="BB331" s="13"/>
+      <c r="BC331" s="13"/>
+      <c r="BD331" s="13"/>
+      <c r="BE331" s="13"/>
+      <c r="BF331" s="13"/>
+      <c r="BG331" s="13"/>
+      <c r="BH331" s="13"/>
+      <c r="BI331" s="13"/>
+      <c r="BJ331" s="13"/>
+      <c r="BK331" s="13"/>
+      <c r="BL331" s="13"/>
+      <c r="BM331" s="13"/>
+      <c r="BN331" s="13"/>
+      <c r="BO331" s="13"/>
+      <c r="BP331" s="13"/>
+      <c r="BQ331" s="13"/>
+      <c r="BR331" s="13"/>
+      <c r="BS331" s="13"/>
+      <c r="BT331" s="13"/>
+      <c r="BU331" s="13"/>
+      <c r="BV331" s="13"/>
+      <c r="BW331" s="13"/>
+      <c r="BX331" s="13"/>
+      <c r="BY331" s="11"/>
+      <c r="BZ331" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA331" s="7"/>
+      <c r="CB331" s="7"/>
+      <c r="CC331" s="7"/>
+    </row>
+    <row r="332" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="5">
+        <v>18</v>
+      </c>
+      <c r="B332" s="7"/>
+      <c r="C332" s="7"/>
+      <c r="D332" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E332" s="40"/>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11"/>
+      <c r="H332" s="11"/>
+      <c r="I332" s="11"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="11"/>
+      <c r="L332" s="11"/>
+      <c r="M332" s="11"/>
+      <c r="N332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="T332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="U332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="V332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="W332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB332" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC332" s="11"/>
+      <c r="AD332" s="11"/>
+      <c r="AE332" s="11"/>
+      <c r="AF332" s="11"/>
+      <c r="AG332" s="11"/>
+      <c r="AH332" s="11"/>
+      <c r="AI332" s="11"/>
+      <c r="AJ332" s="11"/>
+      <c r="AK332" s="11"/>
+      <c r="AL332" s="11"/>
+      <c r="AM332" s="11"/>
+      <c r="AN332" s="11"/>
+      <c r="AO332" s="13"/>
+      <c r="AP332" s="13"/>
+      <c r="AQ332" s="13"/>
+      <c r="AR332" s="13"/>
+      <c r="AS332" s="13"/>
+      <c r="AT332" s="13"/>
+      <c r="AU332" s="13"/>
+      <c r="AV332" s="13"/>
+      <c r="AW332" s="13"/>
+      <c r="AX332" s="13"/>
+      <c r="AY332" s="13"/>
+      <c r="AZ332" s="13"/>
+      <c r="BA332" s="13"/>
+      <c r="BB332" s="13"/>
+      <c r="BC332" s="13"/>
+      <c r="BD332" s="13"/>
+      <c r="BE332" s="13"/>
+      <c r="BF332" s="13"/>
+      <c r="BG332" s="13"/>
+      <c r="BH332" s="13"/>
+      <c r="BI332" s="13"/>
+      <c r="BJ332" s="13"/>
+      <c r="BK332" s="13"/>
+      <c r="BL332" s="13"/>
+      <c r="BM332" s="13"/>
+      <c r="BN332" s="13"/>
+      <c r="BO332" s="13"/>
+      <c r="BP332" s="13"/>
+      <c r="BQ332" s="13"/>
+      <c r="BR332" s="13"/>
+      <c r="BS332" s="13"/>
+      <c r="BT332" s="13"/>
+      <c r="BU332" s="13"/>
+      <c r="BV332" s="13"/>
+      <c r="BW332" s="13"/>
+      <c r="BX332" s="13"/>
+      <c r="BY332" s="11"/>
+      <c r="BZ332" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA332" s="7"/>
+      <c r="CB332" s="7"/>
+      <c r="CC332" s="7"/>
+    </row>
+    <row r="333" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="5">
+        <v>19</v>
+      </c>
+      <c r="B333" s="7"/>
+      <c r="C333" s="7"/>
+      <c r="D333" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E333" s="40"/>
+      <c r="F333" s="11"/>
+      <c r="G333" s="11"/>
+      <c r="H333" s="11"/>
+      <c r="I333" s="11"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="11"/>
+      <c r="L333" s="11"/>
+      <c r="M333" s="11"/>
+      <c r="N333" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="O333" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P333" s="10"/>
+      <c r="Q333" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R333" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S333" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T333" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U333" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V333" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W333" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X333" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y333" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z333" s="10"/>
+      <c r="AA333" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB333" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC333" s="11"/>
+      <c r="AD333" s="11"/>
+      <c r="AE333" s="11"/>
+      <c r="AF333" s="11"/>
+      <c r="AG333" s="11"/>
+      <c r="AH333" s="11"/>
+      <c r="AI333" s="11"/>
+      <c r="AJ333" s="11"/>
+      <c r="AK333" s="11"/>
+      <c r="AL333" s="11"/>
+      <c r="AM333" s="11"/>
+      <c r="AN333" s="11"/>
+      <c r="AO333" s="13"/>
+      <c r="AP333" s="13"/>
+      <c r="AQ333" s="13"/>
+      <c r="AR333" s="13"/>
+      <c r="AS333" s="13"/>
+      <c r="AT333" s="13"/>
+      <c r="AU333" s="13"/>
+      <c r="AV333" s="13"/>
+      <c r="AW333" s="13"/>
+      <c r="AX333" s="13"/>
+      <c r="AY333" s="13"/>
+      <c r="AZ333" s="13"/>
+      <c r="BA333" s="13"/>
+      <c r="BB333" s="13"/>
+      <c r="BC333" s="13"/>
+      <c r="BD333" s="13"/>
+      <c r="BE333" s="13"/>
+      <c r="BF333" s="13"/>
+      <c r="BG333" s="13"/>
+      <c r="BH333" s="13"/>
+      <c r="BI333" s="13"/>
+      <c r="BJ333" s="13"/>
+      <c r="BK333" s="13"/>
+      <c r="BL333" s="13"/>
+      <c r="BM333" s="13"/>
+      <c r="BN333" s="13"/>
+      <c r="BO333" s="13"/>
+      <c r="BP333" s="13"/>
+      <c r="BQ333" s="13"/>
+      <c r="BR333" s="13"/>
+      <c r="BS333" s="13"/>
+      <c r="BT333" s="13"/>
+      <c r="BU333" s="13"/>
+      <c r="BV333" s="13"/>
+      <c r="BW333" s="13"/>
+      <c r="BX333" s="13"/>
+      <c r="BY333" s="11"/>
+      <c r="BZ333" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA333" s="7"/>
+      <c r="CB333" s="7"/>
+      <c r="CC333" s="7"/>
+    </row>
+    <row r="334" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="5">
+        <v>20</v>
+      </c>
+      <c r="B334" s="7"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334" s="40"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="11"/>
+      <c r="I334" s="11"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="11"/>
+      <c r="M334" s="11"/>
+      <c r="N334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="T334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="U334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="V334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="W334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB334" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC334" s="11"/>
+      <c r="AD334" s="11"/>
+      <c r="AE334" s="11"/>
+      <c r="AF334" s="11"/>
+      <c r="AG334" s="11"/>
+      <c r="AH334" s="11"/>
+      <c r="AI334" s="11"/>
+      <c r="AJ334" s="11"/>
+      <c r="AK334" s="11"/>
+      <c r="AL334" s="11"/>
+      <c r="AM334" s="11"/>
+      <c r="AN334" s="11"/>
+      <c r="AO334" s="13"/>
+      <c r="AP334" s="13"/>
+      <c r="AQ334" s="13"/>
+      <c r="AR334" s="13"/>
+      <c r="AS334" s="13"/>
+      <c r="AT334" s="13"/>
+      <c r="AU334" s="13"/>
+      <c r="AV334" s="13"/>
+      <c r="AW334" s="13"/>
+      <c r="AX334" s="13"/>
+      <c r="AY334" s="13"/>
+      <c r="AZ334" s="13"/>
+      <c r="BA334" s="13"/>
+      <c r="BB334" s="13"/>
+      <c r="BC334" s="13"/>
+      <c r="BD334" s="13"/>
+      <c r="BE334" s="13"/>
+      <c r="BF334" s="13"/>
+      <c r="BG334" s="13"/>
+      <c r="BH334" s="13"/>
+      <c r="BI334" s="13"/>
+      <c r="BJ334" s="13"/>
+      <c r="BK334" s="13"/>
+      <c r="BL334" s="13"/>
+      <c r="BM334" s="13"/>
+      <c r="BN334" s="13"/>
+      <c r="BO334" s="13"/>
+      <c r="BP334" s="13"/>
+      <c r="BQ334" s="13"/>
+      <c r="BR334" s="13"/>
+      <c r="BS334" s="13"/>
+      <c r="BT334" s="13"/>
+      <c r="BU334" s="13"/>
+      <c r="BV334" s="13"/>
+      <c r="BW334" s="13"/>
+      <c r="BX334" s="13"/>
+      <c r="BY334" s="11"/>
+      <c r="BZ334" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA334" s="7"/>
+      <c r="CB334" s="7"/>
+      <c r="CC334" s="7"/>
+    </row>
+    <row r="335" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="5">
+        <v>21</v>
+      </c>
+      <c r="B335" s="7"/>
+      <c r="C335" s="7"/>
+      <c r="D335" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E335" s="40"/>
+      <c r="F335" s="11"/>
+      <c r="G335" s="11"/>
+      <c r="H335" s="11"/>
+      <c r="I335" s="11"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="11"/>
+      <c r="L335" s="11"/>
+      <c r="M335" s="11"/>
+      <c r="N335" s="41"/>
+      <c r="O335" s="11"/>
+      <c r="P335" s="11"/>
+      <c r="Q335" s="11"/>
+      <c r="R335" s="11"/>
+      <c r="S335" s="11"/>
+      <c r="T335" s="11"/>
+      <c r="U335" s="11"/>
+      <c r="V335" s="11"/>
+      <c r="W335" s="11"/>
+      <c r="X335" s="11"/>
+      <c r="Y335" s="11"/>
+      <c r="Z335" s="11"/>
+      <c r="AA335" s="11"/>
+      <c r="AB335" s="11"/>
+      <c r="AC335" s="11"/>
+      <c r="AD335" s="11"/>
+      <c r="AE335" s="11"/>
+      <c r="AF335" s="11"/>
+      <c r="AG335" s="11"/>
+      <c r="AH335" s="11"/>
+      <c r="AI335" s="11"/>
+      <c r="AJ335" s="11"/>
+      <c r="AK335" s="11"/>
+      <c r="AL335" s="11"/>
+      <c r="AM335" s="11"/>
+      <c r="AN335" s="11"/>
+      <c r="AO335" s="13"/>
+      <c r="AP335" s="13"/>
+      <c r="AQ335" s="13"/>
+      <c r="AR335" s="13"/>
+      <c r="AS335" s="13"/>
+      <c r="AT335" s="13"/>
+      <c r="AU335" s="13"/>
+      <c r="AV335" s="13"/>
+      <c r="AW335" s="13"/>
+      <c r="AX335" s="13"/>
+      <c r="AY335" s="13"/>
+      <c r="AZ335" s="13"/>
+      <c r="BA335" s="13"/>
+      <c r="BB335" s="13"/>
+      <c r="BC335" s="13"/>
+      <c r="BD335" s="13"/>
+      <c r="BE335" s="13"/>
+      <c r="BF335" s="13"/>
+      <c r="BG335" s="13"/>
+      <c r="BH335" s="13"/>
+      <c r="BI335" s="13"/>
+      <c r="BJ335" s="13"/>
+      <c r="BK335" s="13"/>
+      <c r="BL335" s="13"/>
+      <c r="BM335" s="13"/>
+      <c r="BN335" s="13"/>
+      <c r="BO335" s="13"/>
+      <c r="BP335" s="13"/>
+      <c r="BQ335" s="13"/>
+      <c r="BR335" s="13"/>
+      <c r="BS335" s="13"/>
+      <c r="BT335" s="13"/>
+      <c r="BU335" s="13"/>
+      <c r="BV335" s="13"/>
+      <c r="BW335" s="13"/>
+      <c r="BX335" s="13"/>
+      <c r="BY335" s="11"/>
+      <c r="BZ335" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA335" s="7"/>
+      <c r="CB335" s="7"/>
+      <c r="CC335" s="7"/>
+    </row>
+    <row r="336" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A336" s="5">
+        <v>22</v>
+      </c>
+      <c r="B336" s="7"/>
+      <c r="C336" s="7"/>
+      <c r="D336" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F336" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G336" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H336" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I336" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J336" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K336" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L336" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M336" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ336" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA336" s="7"/>
+      <c r="CB336" s="7"/>
+      <c r="CC336" s="7"/>
+    </row>
+    <row r="337" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A337" s="5">
+        <v>23</v>
+      </c>
+      <c r="B337" s="7"/>
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="7"/>
+      <c r="F337" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G337" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H337" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I337" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J337" s="7"/>
+      <c r="K337" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L337" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M337" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N337" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O337" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P337" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q337" s="7"/>
+      <c r="R337" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S337" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T337" s="7"/>
+      <c r="U337" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V337" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W337" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X337" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y337" s="7"/>
+      <c r="Z337" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA337" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB337" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC337" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD337" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE337" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF337" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG337" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH337" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI337" s="7"/>
+      <c r="AJ337" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK337" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL337" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM337" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN337" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO337" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP337" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ337" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR337" s="7"/>
+      <c r="AS337" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT337" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU337" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV337" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW337" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX337" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY337" s="7"/>
+      <c r="AZ337" s="7"/>
+      <c r="BA337" s="7"/>
+      <c r="BB337" s="7"/>
+      <c r="BC337" s="7"/>
+      <c r="BD337" s="7"/>
+      <c r="BE337" s="7"/>
+      <c r="BF337" s="7"/>
+      <c r="BG337" s="7"/>
+      <c r="BH337" s="7"/>
+      <c r="BI337" s="7"/>
+      <c r="BJ337" s="7"/>
+      <c r="BK337" s="7"/>
+      <c r="BL337" s="7"/>
+      <c r="BM337" s="7"/>
+      <c r="BN337" s="7"/>
+      <c r="BO337" s="7"/>
+      <c r="BP337" s="7"/>
+      <c r="BQ337" s="7"/>
+      <c r="BR337" s="7"/>
+      <c r="BS337" s="7"/>
+      <c r="BT337" s="7"/>
+      <c r="BU337" s="7"/>
+      <c r="BV337" s="7"/>
+      <c r="BW337" s="7"/>
+      <c r="BX337" s="7"/>
+      <c r="BY337" s="7"/>
+      <c r="BZ337" s="7"/>
+      <c r="CA337" s="7"/>
+      <c r="CB337" s="7"/>
+      <c r="CC337" s="7"/>
+    </row>
+    <row r="338" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A338" s="5">
+        <v>24</v>
+      </c>
+      <c r="B338" s="7"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="7"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="7"/>
+      <c r="G338" s="7"/>
+      <c r="H338" s="7"/>
+      <c r="I338" s="7"/>
+      <c r="J338" s="7"/>
+      <c r="K338" s="7"/>
+      <c r="L338" s="7"/>
+      <c r="M338" s="7"/>
+      <c r="N338" s="7"/>
+      <c r="O338" s="7"/>
+      <c r="P338" s="7"/>
+      <c r="Q338" s="7"/>
+      <c r="R338" s="7"/>
+      <c r="S338" s="7"/>
+      <c r="T338" s="7"/>
+      <c r="U338" s="7"/>
+      <c r="V338" s="7"/>
+      <c r="W338" s="7"/>
+      <c r="X338" s="7"/>
+      <c r="Y338" s="7"/>
+      <c r="Z338" s="7"/>
+      <c r="AA338" s="7"/>
+      <c r="AB338" s="7"/>
+      <c r="AC338" s="7"/>
+      <c r="AD338" s="7"/>
+      <c r="AE338" s="7"/>
+      <c r="AF338" s="7"/>
+      <c r="AG338" s="7"/>
+      <c r="AH338" s="7"/>
+      <c r="AI338" s="7"/>
+      <c r="AJ338" s="7"/>
+      <c r="AK338" s="7"/>
+      <c r="AL338" s="7"/>
+      <c r="AM338" s="7"/>
+      <c r="AN338" s="7"/>
+      <c r="AO338" s="7"/>
+      <c r="AP338" s="7"/>
+      <c r="AQ338" s="7"/>
+      <c r="AR338" s="7"/>
+      <c r="AS338" s="7"/>
+      <c r="AT338" s="7"/>
+      <c r="AU338" s="7"/>
+      <c r="AV338" s="7"/>
+      <c r="AW338" s="7"/>
+      <c r="AX338" s="7"/>
+      <c r="AY338" s="7"/>
+      <c r="AZ338" s="7"/>
+      <c r="BA338" s="7"/>
+      <c r="BB338" s="7"/>
+      <c r="BC338" s="7"/>
+      <c r="BD338" s="7"/>
+      <c r="BE338" s="7"/>
+      <c r="BF338" s="7"/>
+      <c r="BG338" s="7"/>
+      <c r="BH338" s="7"/>
+      <c r="BI338" s="7"/>
+      <c r="BJ338" s="7"/>
+      <c r="BK338" s="7"/>
+      <c r="BL338" s="7"/>
+      <c r="BM338" s="7"/>
+      <c r="BN338" s="7"/>
+      <c r="BO338" s="7"/>
+      <c r="BP338" s="7"/>
+      <c r="BQ338" s="7"/>
+      <c r="BR338" s="7"/>
+      <c r="BS338" s="7"/>
+      <c r="BT338" s="7"/>
+      <c r="BU338" s="7"/>
+      <c r="BV338" s="7"/>
+      <c r="BW338" s="7"/>
+      <c r="BX338" s="7"/>
+      <c r="BY338" s="7"/>
+      <c r="BZ338" s="7"/>
+      <c r="CA338" s="7"/>
+      <c r="CB338" s="7"/>
+      <c r="CC338" s="7"/>
+    </row>
+    <row r="340" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE340" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="341" spans="1:81" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A342" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B342" s="6">
+        <v>1</v>
+      </c>
+      <c r="C342" s="6">
+        <v>2</v>
+      </c>
+      <c r="D342" s="6">
+        <v>3</v>
+      </c>
+      <c r="E342" s="6">
+        <v>4</v>
+      </c>
+      <c r="F342" s="6">
+        <v>5</v>
+      </c>
+      <c r="G342" s="6">
+        <v>6</v>
+      </c>
+      <c r="H342" s="6">
+        <v>7</v>
+      </c>
+      <c r="I342" s="6">
+        <v>8</v>
+      </c>
+      <c r="J342" s="6">
+        <v>9</v>
+      </c>
+      <c r="K342" s="6">
+        <v>10</v>
+      </c>
+      <c r="L342" s="6">
+        <v>11</v>
+      </c>
+      <c r="M342" s="6">
+        <v>12</v>
+      </c>
+      <c r="N342" s="6">
+        <v>13</v>
+      </c>
+      <c r="O342" s="6">
+        <v>14</v>
+      </c>
+      <c r="P342" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q342" s="6">
+        <v>16</v>
+      </c>
+      <c r="R342" s="6">
+        <v>17</v>
+      </c>
+      <c r="S342" s="6">
+        <v>18</v>
+      </c>
+      <c r="T342" s="6">
+        <v>19</v>
+      </c>
+      <c r="U342" s="6">
+        <v>20</v>
+      </c>
+      <c r="V342" s="6">
+        <v>21</v>
+      </c>
+      <c r="W342" s="6">
+        <v>22</v>
+      </c>
+      <c r="X342" s="6">
+        <v>23</v>
+      </c>
+      <c r="Y342" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z342" s="6">
+        <v>25</v>
+      </c>
+      <c r="AA342" s="6">
+        <v>26</v>
+      </c>
+      <c r="AB342" s="6">
+        <v>27</v>
+      </c>
+      <c r="AC342" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD342" s="6">
+        <v>29</v>
+      </c>
+      <c r="AE342" s="6">
+        <v>30</v>
+      </c>
+      <c r="AF342" s="6">
+        <v>31</v>
+      </c>
+      <c r="AG342" s="6">
+        <v>32</v>
+      </c>
+      <c r="AH342" s="6">
+        <v>33</v>
+      </c>
+      <c r="AI342" s="6">
+        <v>34</v>
+      </c>
+      <c r="AJ342" s="6">
+        <v>35</v>
+      </c>
+      <c r="AK342" s="6">
+        <v>36</v>
+      </c>
+      <c r="AL342" s="6">
+        <v>37</v>
+      </c>
+      <c r="AM342" s="6">
+        <v>38</v>
+      </c>
+      <c r="AN342" s="6">
+        <v>39</v>
+      </c>
+      <c r="AO342" s="6">
+        <v>40</v>
+      </c>
+      <c r="AP342" s="6">
+        <v>41</v>
+      </c>
+      <c r="AQ342" s="6">
+        <v>42</v>
+      </c>
+      <c r="AR342" s="6">
+        <v>43</v>
+      </c>
+      <c r="AS342" s="6">
+        <v>44</v>
+      </c>
+      <c r="AT342" s="6">
+        <v>45</v>
+      </c>
+      <c r="AU342" s="6">
+        <v>46</v>
+      </c>
+      <c r="AV342" s="6">
+        <v>47</v>
+      </c>
+      <c r="AW342" s="6">
+        <v>48</v>
+      </c>
+      <c r="AX342" s="6">
+        <v>49</v>
+      </c>
+      <c r="AY342" s="6">
+        <v>50</v>
+      </c>
+      <c r="AZ342" s="6">
+        <v>51</v>
+      </c>
+      <c r="BA342" s="6">
+        <v>52</v>
+      </c>
+      <c r="BB342" s="6">
+        <v>53</v>
+      </c>
+      <c r="BC342" s="6">
+        <v>54</v>
+      </c>
+      <c r="BD342" s="6">
+        <v>55</v>
+      </c>
+      <c r="BE342" s="6">
+        <v>56</v>
+      </c>
+      <c r="BF342" s="6">
+        <v>57</v>
+      </c>
+      <c r="BG342" s="6">
+        <v>58</v>
+      </c>
+      <c r="BH342" s="6">
+        <v>59</v>
+      </c>
+      <c r="BI342" s="6">
+        <v>60</v>
+      </c>
+      <c r="BJ342" s="6">
+        <v>61</v>
+      </c>
+      <c r="BK342" s="6">
+        <v>62</v>
+      </c>
+      <c r="BL342" s="6">
+        <v>63</v>
+      </c>
+      <c r="BM342" s="6">
+        <v>64</v>
+      </c>
+      <c r="BN342" s="6">
+        <v>65</v>
+      </c>
+      <c r="BO342" s="6">
+        <v>66</v>
+      </c>
+      <c r="BP342" s="6">
+        <v>67</v>
+      </c>
+      <c r="BQ342" s="6">
+        <v>68</v>
+      </c>
+      <c r="BR342" s="6">
+        <v>69</v>
+      </c>
+      <c r="BS342" s="6">
+        <v>70</v>
+      </c>
+      <c r="BT342" s="6">
+        <v>71</v>
+      </c>
+      <c r="BU342" s="6">
+        <v>72</v>
+      </c>
+      <c r="BV342" s="6">
+        <v>73</v>
+      </c>
+      <c r="BW342" s="6">
+        <v>74</v>
+      </c>
+      <c r="BX342" s="6">
+        <v>75</v>
+      </c>
+      <c r="BY342" s="6">
+        <v>76</v>
+      </c>
+      <c r="BZ342" s="6">
+        <v>77</v>
+      </c>
+      <c r="CA342" s="6">
+        <v>78</v>
+      </c>
+      <c r="CB342" s="6">
+        <v>79</v>
+      </c>
+      <c r="CC342" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="343" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A343" s="5">
+        <v>1</v>
+      </c>
+      <c r="B343" s="7"/>
+      <c r="C343" s="7"/>
+      <c r="D343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA343" s="7"/>
+      <c r="CB343" s="7"/>
+      <c r="CC343" s="7"/>
+    </row>
+    <row r="344" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A344" s="5">
+        <v>2</v>
+      </c>
+      <c r="B344" s="7"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
+      <c r="G344" s="7"/>
+      <c r="H344" s="7"/>
+      <c r="I344" s="7"/>
+      <c r="J344" s="7"/>
+      <c r="K344" s="7"/>
+      <c r="L344" s="7"/>
+      <c r="M344" s="7"/>
+      <c r="N344" s="7"/>
+      <c r="O344" s="7"/>
+      <c r="P344" s="7"/>
+      <c r="Q344" s="7"/>
+      <c r="R344" s="7"/>
+      <c r="S344" s="7"/>
+      <c r="T344" s="7"/>
+      <c r="U344" s="7"/>
+      <c r="V344" s="7"/>
+      <c r="W344" s="7"/>
+      <c r="X344" s="7"/>
+      <c r="Y344" s="7"/>
+      <c r="Z344" s="7"/>
+      <c r="AA344" s="7"/>
+      <c r="AB344" s="7"/>
+      <c r="AC344" s="7"/>
+      <c r="AD344" s="7"/>
+      <c r="AE344" s="7"/>
+      <c r="AF344" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG344" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH344" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI344" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ344" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK344" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL344" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM344" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN344" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO344" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP344" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ344" s="7"/>
+      <c r="AR344" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS344" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT344" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU344" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV344" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW344" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX344" s="7"/>
+      <c r="AY344" s="7"/>
+      <c r="AZ344" s="7"/>
+      <c r="BA344" s="7"/>
+      <c r="BB344" s="7"/>
+      <c r="BC344" s="7"/>
+      <c r="BD344" s="7"/>
+      <c r="BE344" s="7"/>
+      <c r="BF344" s="7"/>
+      <c r="BG344" s="7"/>
+      <c r="BH344" s="7"/>
+      <c r="BI344" s="7"/>
+      <c r="BJ344" s="7"/>
+      <c r="BK344" s="7"/>
+      <c r="BL344" s="7"/>
+      <c r="BM344" s="7"/>
+      <c r="BN344" s="7"/>
+      <c r="BO344" s="7"/>
+      <c r="BP344" s="7"/>
+      <c r="BQ344" s="7"/>
+      <c r="BR344" s="7"/>
+      <c r="BS344" s="7"/>
+      <c r="BT344" s="7"/>
+      <c r="BU344" s="7"/>
+      <c r="BV344" s="7"/>
+      <c r="BW344" s="7"/>
+      <c r="BX344" s="7"/>
+      <c r="BY344" s="7"/>
+      <c r="BZ344" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA344" s="7"/>
+      <c r="CB344" s="7"/>
+      <c r="CC344" s="7"/>
+    </row>
+    <row r="345" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A345" s="5">
+        <v>3</v>
+      </c>
+      <c r="B345" s="7"/>
+      <c r="C345" s="7"/>
+      <c r="D345" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY345" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ345" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA345" s="7"/>
+      <c r="CB345" s="7"/>
+      <c r="CC345" s="7"/>
+    </row>
+    <row r="346" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A346" s="5">
+        <v>4</v>
+      </c>
+      <c r="B346" s="7"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E346" s="11"/>
+      <c r="F346" s="11"/>
+      <c r="G346" s="11"/>
+      <c r="H346" s="11"/>
+      <c r="I346" s="11"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="11"/>
+      <c r="L346" s="11"/>
+      <c r="M346" s="11"/>
+      <c r="N346" s="11"/>
+      <c r="O346" s="11"/>
+      <c r="P346" s="11"/>
+      <c r="Q346" s="11"/>
+      <c r="R346" s="11"/>
+      <c r="S346" s="11"/>
+      <c r="T346" s="11"/>
+      <c r="U346" s="11"/>
+      <c r="V346" s="11"/>
+      <c r="W346" s="11"/>
+      <c r="X346" s="11"/>
+      <c r="Y346" s="11"/>
+      <c r="Z346" s="11"/>
+      <c r="AA346" s="11"/>
+      <c r="AB346" s="11"/>
+      <c r="AC346" s="11"/>
+      <c r="AD346" s="11"/>
+      <c r="AE346" s="11"/>
+      <c r="AF346" s="11"/>
+      <c r="AG346" s="11"/>
+      <c r="AH346" s="11"/>
+      <c r="AI346" s="11"/>
+      <c r="AJ346" s="11"/>
+      <c r="AK346" s="11"/>
+      <c r="AL346" s="11"/>
+      <c r="AM346" s="11"/>
+      <c r="AN346" s="11"/>
+      <c r="AO346" s="11"/>
+      <c r="AP346" s="11"/>
+      <c r="AQ346" s="11"/>
+      <c r="AR346" s="11"/>
+      <c r="AS346" s="11"/>
+      <c r="AT346" s="11"/>
+      <c r="AU346" s="11"/>
+      <c r="AV346" s="11"/>
+      <c r="AW346" s="11"/>
+      <c r="AX346" s="11"/>
+      <c r="AY346" s="11"/>
+      <c r="AZ346" s="11"/>
+      <c r="BA346" s="11"/>
+      <c r="BB346" s="11"/>
+      <c r="BC346" s="11"/>
+      <c r="BD346" s="11"/>
+      <c r="BE346" s="11"/>
+      <c r="BF346" s="11"/>
+      <c r="BG346" s="22"/>
+      <c r="BH346" s="11"/>
+      <c r="BI346" s="11"/>
+      <c r="BJ346" s="11"/>
+      <c r="BK346" s="11"/>
+      <c r="BL346" s="11"/>
+      <c r="BM346" s="11"/>
+      <c r="BN346" s="11"/>
+      <c r="BO346" s="11"/>
+      <c r="BP346" s="11"/>
+      <c r="BQ346" s="11"/>
+      <c r="BR346" s="11"/>
+      <c r="BS346" s="11"/>
+      <c r="BT346" s="11"/>
+      <c r="BU346" s="11"/>
+      <c r="BV346" s="11"/>
+      <c r="BW346" s="11"/>
+      <c r="BX346" s="11"/>
+      <c r="BY346" s="11"/>
+      <c r="BZ346" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA346" s="7"/>
+      <c r="CB346" s="7"/>
+      <c r="CC346" s="7"/>
+    </row>
+    <row r="347" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A347" s="5">
+        <v>5</v>
+      </c>
+      <c r="B347" s="7"/>
+      <c r="C347" s="7"/>
+      <c r="D347" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E347" s="11"/>
+      <c r="F347" s="11"/>
+      <c r="G347" s="11"/>
+      <c r="H347" s="11"/>
+      <c r="I347" s="11"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="11"/>
+      <c r="L347" s="11"/>
+      <c r="M347" s="11"/>
+      <c r="N347" s="11"/>
+      <c r="O347" s="11"/>
+      <c r="P347" s="11"/>
+      <c r="Q347" s="11"/>
+      <c r="R347" s="11"/>
+      <c r="S347" s="11"/>
+      <c r="T347" s="11"/>
+      <c r="U347" s="11"/>
+      <c r="V347" s="11"/>
+      <c r="W347" s="11"/>
+      <c r="X347" s="11"/>
+      <c r="Y347" s="11"/>
+      <c r="Z347" s="11"/>
+      <c r="AA347" s="22"/>
+      <c r="AB347" s="11"/>
+      <c r="AC347" s="11"/>
+      <c r="AD347" s="11"/>
+      <c r="AE347" s="11"/>
+      <c r="AF347" s="11"/>
+      <c r="AG347" s="11"/>
+      <c r="AH347" s="11"/>
+      <c r="AI347" s="11"/>
+      <c r="AJ347" s="11"/>
+      <c r="AK347" s="11"/>
+      <c r="AL347" s="11"/>
+      <c r="AM347" s="11"/>
+      <c r="AN347" s="11"/>
+      <c r="AO347" s="11"/>
+      <c r="AP347" s="11"/>
+      <c r="AQ347" s="11"/>
+      <c r="AR347" s="11"/>
+      <c r="AS347" s="11"/>
+      <c r="AT347" s="11"/>
+      <c r="AU347" s="11"/>
+      <c r="AV347" s="11"/>
+      <c r="AW347" s="11"/>
+      <c r="AX347" s="11"/>
+      <c r="AY347" s="11"/>
+      <c r="AZ347" s="11"/>
+      <c r="BA347" s="11"/>
+      <c r="BB347" s="11"/>
+      <c r="BC347" s="11"/>
+      <c r="BD347" s="11"/>
+      <c r="BE347" s="11"/>
+      <c r="BF347" s="11"/>
+      <c r="BG347" s="11"/>
+      <c r="BH347" s="11"/>
+      <c r="BI347" s="11"/>
+      <c r="BJ347" s="11"/>
+      <c r="BK347" s="11"/>
+      <c r="BL347" s="11"/>
+      <c r="BM347" s="11"/>
+      <c r="BN347" s="11"/>
+      <c r="BO347" s="11"/>
+      <c r="BP347" s="11"/>
+      <c r="BQ347" s="11"/>
+      <c r="BR347" s="11"/>
+      <c r="BS347" s="11"/>
+      <c r="BT347" s="11"/>
+      <c r="BU347" s="11"/>
+      <c r="BV347" s="11"/>
+      <c r="BW347" s="11"/>
+      <c r="BX347" s="11"/>
+      <c r="BY347" s="11"/>
+      <c r="BZ347" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA347" s="7"/>
+      <c r="CB347" s="7"/>
+      <c r="CC347" s="7"/>
+    </row>
+    <row r="348" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A348" s="5">
+        <v>6</v>
+      </c>
+      <c r="B348" s="7"/>
+      <c r="C348" s="7"/>
+      <c r="D348" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E348" s="11"/>
+      <c r="F348" s="11"/>
+      <c r="G348" s="11"/>
+      <c r="H348" s="11"/>
+      <c r="I348" s="11"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="11"/>
+      <c r="L348" s="11"/>
+      <c r="M348" s="11"/>
+      <c r="N348" s="11"/>
+      <c r="O348" s="11"/>
+      <c r="P348" s="11"/>
+      <c r="Q348" s="11"/>
+      <c r="R348" s="11"/>
+      <c r="S348" s="11"/>
+      <c r="T348" s="11"/>
+      <c r="U348" s="11"/>
+      <c r="V348" s="11"/>
+      <c r="W348" s="11"/>
+      <c r="X348" s="11"/>
+      <c r="Y348" s="11"/>
+      <c r="Z348" s="11"/>
+      <c r="AA348" s="11"/>
+      <c r="AB348" s="11"/>
+      <c r="AC348" s="11"/>
+      <c r="AD348" s="11"/>
+      <c r="AE348" s="11"/>
+      <c r="AF348" s="11"/>
+      <c r="AG348" s="11"/>
+      <c r="AH348" s="11"/>
+      <c r="AI348" s="11"/>
+      <c r="AJ348" s="11"/>
+      <c r="AK348" s="11"/>
+      <c r="AL348" s="11"/>
+      <c r="AM348" s="11"/>
+      <c r="AN348" s="11"/>
+      <c r="AO348" s="11"/>
+      <c r="AP348" s="11"/>
+      <c r="AQ348" s="11"/>
+      <c r="AR348" s="11"/>
+      <c r="AS348" s="11"/>
+      <c r="AT348" s="11"/>
+      <c r="AU348" s="11"/>
+      <c r="AV348" s="11"/>
+      <c r="AW348" s="11"/>
+      <c r="AX348" s="11"/>
+      <c r="AY348" s="11"/>
+      <c r="AZ348" s="11"/>
+      <c r="BA348" s="11"/>
+      <c r="BB348" s="11"/>
+      <c r="BC348" s="11"/>
+      <c r="BD348" s="11"/>
+      <c r="BE348" s="11"/>
+      <c r="BF348" s="11"/>
+      <c r="BG348" s="11"/>
+      <c r="BH348" s="11"/>
+      <c r="BI348" s="11"/>
+      <c r="BJ348" s="11"/>
+      <c r="BK348" s="11"/>
+      <c r="BL348" s="11"/>
+      <c r="BM348" s="11"/>
+      <c r="BN348" s="11"/>
+      <c r="BO348" s="11"/>
+      <c r="BP348" s="11"/>
+      <c r="BQ348" s="11"/>
+      <c r="BR348" s="11"/>
+      <c r="BS348" s="11"/>
+      <c r="BT348" s="11"/>
+      <c r="BU348" s="11"/>
+      <c r="BV348" s="11"/>
+      <c r="BW348" s="11"/>
+      <c r="BX348" s="11"/>
+      <c r="BY348" s="11"/>
+      <c r="BZ348" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA348" s="7"/>
+      <c r="CB348" s="7"/>
+      <c r="CC348" s="7"/>
+    </row>
+    <row r="349" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A349" s="5">
+        <v>7</v>
+      </c>
+      <c r="B349" s="7"/>
+      <c r="C349" s="7"/>
+      <c r="D349" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E349" s="11"/>
+      <c r="F349" s="11"/>
+      <c r="G349" s="11"/>
+      <c r="H349" s="11"/>
+      <c r="I349" s="11"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="11"/>
+      <c r="L349" s="11"/>
+      <c r="M349" s="11"/>
+      <c r="N349" s="11"/>
+      <c r="O349" s="11"/>
+      <c r="P349" s="11"/>
+      <c r="Q349" s="11"/>
+      <c r="R349" s="11"/>
+      <c r="S349" s="11"/>
+      <c r="T349" s="11"/>
+      <c r="U349" s="11"/>
+      <c r="V349" s="11"/>
+      <c r="W349" s="11"/>
+      <c r="X349" s="11"/>
+      <c r="Y349" s="11"/>
+      <c r="Z349" s="11"/>
+      <c r="AA349" s="11"/>
+      <c r="AB349" s="11"/>
+      <c r="AC349" s="11"/>
+      <c r="AD349" s="11"/>
+      <c r="AE349" s="11"/>
+      <c r="AF349" s="11"/>
+      <c r="AG349" s="11"/>
+      <c r="AH349" s="11"/>
+      <c r="AI349" s="11"/>
+      <c r="AJ349" s="11"/>
+      <c r="AK349" s="11"/>
+      <c r="AL349" s="11"/>
+      <c r="AM349" s="11"/>
+      <c r="AN349" s="11"/>
+      <c r="AO349" s="11"/>
+      <c r="AP349" s="11"/>
+      <c r="AQ349" s="11"/>
+      <c r="AR349" s="11"/>
+      <c r="AS349" s="11"/>
+      <c r="AT349" s="11"/>
+      <c r="AU349" s="11"/>
+      <c r="AV349" s="11"/>
+      <c r="AW349" s="11"/>
+      <c r="AX349" s="11"/>
+      <c r="AY349" s="11"/>
+      <c r="AZ349" s="11"/>
+      <c r="BA349" s="11"/>
+      <c r="BB349" s="11"/>
+      <c r="BC349" s="11"/>
+      <c r="BD349" s="11"/>
+      <c r="BE349" s="11"/>
+      <c r="BF349" s="11"/>
+      <c r="BG349" s="11"/>
+      <c r="BH349" s="11"/>
+      <c r="BI349" s="11"/>
+      <c r="BJ349" s="11"/>
+      <c r="BK349" s="11"/>
+      <c r="BL349" s="11"/>
+      <c r="BM349" s="11"/>
+      <c r="BN349" s="11"/>
+      <c r="BO349" s="11"/>
+      <c r="BP349" s="11"/>
+      <c r="BQ349" s="11"/>
+      <c r="BR349" s="11"/>
+      <c r="BS349" s="11"/>
+      <c r="BT349" s="11"/>
+      <c r="BU349" s="11"/>
+      <c r="BV349" s="11"/>
+      <c r="BW349" s="11"/>
+      <c r="BX349" s="11"/>
+      <c r="BY349" s="11"/>
+      <c r="BZ349" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA349" s="7"/>
+      <c r="CB349" s="7"/>
+      <c r="CC349" s="7"/>
+    </row>
+    <row r="350" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A350" s="5">
+        <v>8</v>
+      </c>
+      <c r="B350" s="7"/>
+      <c r="C350" s="7"/>
+      <c r="D350" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E350" s="11"/>
+      <c r="F350" s="11"/>
+      <c r="G350" s="11"/>
+      <c r="H350" s="11"/>
+      <c r="I350" s="11"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="11"/>
+      <c r="L350" s="11"/>
+      <c r="M350" s="11"/>
+      <c r="N350" s="11"/>
+      <c r="O350" s="11"/>
+      <c r="P350" s="11"/>
+      <c r="Q350" s="11"/>
+      <c r="R350" s="11"/>
+      <c r="S350" s="11"/>
+      <c r="T350" s="11"/>
+      <c r="U350" s="11"/>
+      <c r="V350" s="11"/>
+      <c r="W350" s="11"/>
+      <c r="X350" s="11"/>
+      <c r="Y350" s="11"/>
+      <c r="Z350" s="11"/>
+      <c r="AA350" s="11"/>
+      <c r="AB350" s="11"/>
+      <c r="AC350" s="11"/>
+      <c r="AD350" s="11"/>
+      <c r="AE350" s="11"/>
+      <c r="AF350" s="11"/>
+      <c r="AG350" s="11"/>
+      <c r="AH350" s="11"/>
+      <c r="AI350" s="11"/>
+      <c r="AJ350" s="11"/>
+      <c r="AK350" s="11"/>
+      <c r="AL350" s="11"/>
+      <c r="AM350" s="11"/>
+      <c r="AN350" s="11"/>
+      <c r="AO350" s="11"/>
+      <c r="AP350" s="11"/>
+      <c r="AQ350" s="11"/>
+      <c r="AR350" s="11"/>
+      <c r="AS350" s="11"/>
+      <c r="AT350" s="11"/>
+      <c r="AU350" s="11"/>
+      <c r="AV350" s="11"/>
+      <c r="AW350" s="11"/>
+      <c r="AX350" s="11"/>
+      <c r="AY350" s="11"/>
+      <c r="AZ350" s="11"/>
+      <c r="BA350" s="11"/>
+      <c r="BB350" s="11"/>
+      <c r="BC350" s="11"/>
+      <c r="BD350" s="11"/>
+      <c r="BE350" s="11"/>
+      <c r="BF350" s="11"/>
+      <c r="BG350" s="11"/>
+      <c r="BH350" s="11"/>
+      <c r="BI350" s="11"/>
+      <c r="BJ350" s="11"/>
+      <c r="BK350" s="11"/>
+      <c r="BL350" s="11"/>
+      <c r="BM350" s="11"/>
+      <c r="BN350" s="11"/>
+      <c r="BO350" s="11"/>
+      <c r="BP350" s="11"/>
+      <c r="BQ350" s="11"/>
+      <c r="BR350" s="11"/>
+      <c r="BS350" s="11"/>
+      <c r="BT350" s="11"/>
+      <c r="BU350" s="11"/>
+      <c r="BV350" s="11"/>
+      <c r="BW350" s="11"/>
+      <c r="BX350" s="11"/>
+      <c r="BY350" s="11"/>
+      <c r="BZ350" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA350" s="7"/>
+      <c r="CB350" s="7"/>
+      <c r="CC350" s="7"/>
+    </row>
+    <row r="351" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A351" s="5">
+        <v>9</v>
+      </c>
+      <c r="B351" s="7"/>
+      <c r="C351" s="7"/>
+      <c r="D351" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E351" s="11"/>
+      <c r="F351" s="11"/>
+      <c r="G351" s="11"/>
+      <c r="H351" s="11"/>
+      <c r="I351" s="11"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="11"/>
+      <c r="L351" s="11"/>
+      <c r="M351" s="11"/>
+      <c r="N351" s="11"/>
+      <c r="O351" s="11"/>
+      <c r="P351" s="11"/>
+      <c r="Q351" s="11"/>
+      <c r="R351" s="11"/>
+      <c r="S351" s="11"/>
+      <c r="T351" s="11"/>
+      <c r="U351" s="11"/>
+      <c r="V351" s="11"/>
+      <c r="W351" s="11"/>
+      <c r="X351" s="11"/>
+      <c r="Y351" s="11"/>
+      <c r="Z351" s="11"/>
+      <c r="AA351" s="11"/>
+      <c r="AB351" s="11"/>
+      <c r="AC351" s="11"/>
+      <c r="AD351" s="11"/>
+      <c r="AE351" s="11"/>
+      <c r="AF351" s="11"/>
+      <c r="AG351" s="11"/>
+      <c r="AH351" s="11"/>
+      <c r="AI351" s="11"/>
+      <c r="AJ351" s="11"/>
+      <c r="AK351" s="11"/>
+      <c r="AL351" s="11"/>
+      <c r="AM351" s="11"/>
+      <c r="AN351" s="11"/>
+      <c r="AO351" s="11"/>
+      <c r="AP351" s="11"/>
+      <c r="AQ351" s="11"/>
+      <c r="AR351" s="11"/>
+      <c r="AS351" s="11"/>
+      <c r="AT351" s="11"/>
+      <c r="AU351" s="11"/>
+      <c r="AV351" s="11"/>
+      <c r="AW351" s="11"/>
+      <c r="AX351" s="11"/>
+      <c r="AY351" s="11"/>
+      <c r="AZ351" s="11"/>
+      <c r="BA351" s="11"/>
+      <c r="BB351" s="11"/>
+      <c r="BC351" s="11"/>
+      <c r="BD351" s="11"/>
+      <c r="BE351" s="11"/>
+      <c r="BF351" s="11"/>
+      <c r="BG351" s="11"/>
+      <c r="BH351" s="11"/>
+      <c r="BI351" s="11"/>
+      <c r="BJ351" s="11"/>
+      <c r="BK351" s="11"/>
+      <c r="BL351" s="11"/>
+      <c r="BM351" s="11"/>
+      <c r="BN351" s="11"/>
+      <c r="BO351" s="11"/>
+      <c r="BP351" s="11"/>
+      <c r="BQ351" s="11"/>
+      <c r="BR351" s="11"/>
+      <c r="BS351" s="11"/>
+      <c r="BT351" s="11"/>
+      <c r="BU351" s="11"/>
+      <c r="BV351" s="11"/>
+      <c r="BW351" s="11"/>
+      <c r="BX351" s="11"/>
+      <c r="BY351" s="11"/>
+      <c r="BZ351" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA351" s="7"/>
+      <c r="CB351" s="7"/>
+      <c r="CC351" s="7"/>
+    </row>
+    <row r="352" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A352" s="5">
+        <v>10</v>
+      </c>
+      <c r="B352" s="7"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E352" s="11"/>
+      <c r="F352" s="11"/>
+      <c r="G352" s="11"/>
+      <c r="H352" s="11"/>
+      <c r="I352" s="11"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="11"/>
+      <c r="L352" s="11"/>
+      <c r="M352" s="11"/>
+      <c r="N352" s="11"/>
+      <c r="O352" s="11"/>
+      <c r="P352" s="11"/>
+      <c r="Q352" s="11"/>
+      <c r="R352" s="11"/>
+      <c r="S352" s="11"/>
+      <c r="T352" s="11"/>
+      <c r="U352" s="11"/>
+      <c r="V352" s="11"/>
+      <c r="W352" s="11"/>
+      <c r="X352" s="11"/>
+      <c r="Y352" s="11"/>
+      <c r="Z352" s="11"/>
+      <c r="AA352" s="11"/>
+      <c r="AB352" s="11"/>
+      <c r="AC352" s="11"/>
+      <c r="AD352" s="11"/>
+      <c r="AE352" s="11"/>
+      <c r="AF352" s="11"/>
+      <c r="AG352" s="11"/>
+      <c r="AH352" s="11"/>
+      <c r="AI352" s="11"/>
+      <c r="AJ352" s="11"/>
+      <c r="AK352" s="11"/>
+      <c r="AL352" s="11"/>
+      <c r="AM352" s="11"/>
+      <c r="AN352" s="11"/>
+      <c r="AO352" s="11"/>
+      <c r="AP352" s="11"/>
+      <c r="AQ352" s="11"/>
+      <c r="AR352" s="11"/>
+      <c r="AS352" s="11"/>
+      <c r="AT352" s="11"/>
+      <c r="AU352" s="11"/>
+      <c r="AV352" s="11"/>
+      <c r="AW352" s="11"/>
+      <c r="AX352" s="11"/>
+      <c r="AY352" s="11"/>
+      <c r="AZ352" s="11"/>
+      <c r="BA352" s="11"/>
+      <c r="BB352" s="11"/>
+      <c r="BC352" s="11"/>
+      <c r="BD352" s="11"/>
+      <c r="BE352" s="11"/>
+      <c r="BF352" s="11"/>
+      <c r="BG352" s="11"/>
+      <c r="BH352" s="11"/>
+      <c r="BI352" s="11"/>
+      <c r="BJ352" s="11"/>
+      <c r="BK352" s="11"/>
+      <c r="BL352" s="11"/>
+      <c r="BM352" s="11"/>
+      <c r="BN352" s="11"/>
+      <c r="BO352" s="11"/>
+      <c r="BP352" s="11"/>
+      <c r="BQ352" s="11"/>
+      <c r="BR352" s="11"/>
+      <c r="BS352" s="11"/>
+      <c r="BT352" s="11"/>
+      <c r="BU352" s="11"/>
+      <c r="BV352" s="11"/>
+      <c r="BW352" s="11"/>
+      <c r="BX352" s="11"/>
+      <c r="BY352" s="11"/>
+      <c r="BZ352" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA352" s="7"/>
+      <c r="CB352" s="7"/>
+      <c r="CC352" s="7"/>
+    </row>
+    <row r="353" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A353" s="5">
+        <v>11</v>
+      </c>
+      <c r="B353" s="7"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="11"/>
+      <c r="I353" s="11"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="11"/>
+      <c r="L353" s="11"/>
+      <c r="M353" s="11"/>
+      <c r="N353" s="11"/>
+      <c r="O353" s="11"/>
+      <c r="P353" s="11"/>
+      <c r="Q353" s="11"/>
+      <c r="R353" s="11"/>
+      <c r="S353" s="11"/>
+      <c r="T353" s="11"/>
+      <c r="U353" s="11"/>
+      <c r="V353" s="11"/>
+      <c r="W353" s="11"/>
+      <c r="X353" s="11"/>
+      <c r="Y353" s="11"/>
+      <c r="Z353" s="11"/>
+      <c r="AA353" s="11"/>
+      <c r="AB353" s="11"/>
+      <c r="AC353" s="11"/>
+      <c r="AD353" s="11"/>
+      <c r="AE353" s="11"/>
+      <c r="AF353" s="11"/>
+      <c r="AG353" s="11"/>
+      <c r="AH353" s="11"/>
+      <c r="AI353" s="11"/>
+      <c r="AJ353" s="11"/>
+      <c r="AK353" s="11"/>
+      <c r="AL353" s="11"/>
+      <c r="AM353" s="11"/>
+      <c r="AN353" s="11"/>
+      <c r="AO353" s="11"/>
+      <c r="AP353" s="11"/>
+      <c r="AQ353" s="11"/>
+      <c r="AR353" s="11"/>
+      <c r="AS353" s="11"/>
+      <c r="AT353" s="11"/>
+      <c r="AU353" s="11"/>
+      <c r="AV353" s="11"/>
+      <c r="AW353" s="11"/>
+      <c r="AX353" s="11"/>
+      <c r="AY353" s="11"/>
+      <c r="AZ353" s="11"/>
+      <c r="BA353" s="11"/>
+      <c r="BB353" s="11"/>
+      <c r="BC353" s="11"/>
+      <c r="BD353" s="11"/>
+      <c r="BE353" s="11"/>
+      <c r="BF353" s="11"/>
+      <c r="BG353" s="11"/>
+      <c r="BH353" s="11"/>
+      <c r="BI353" s="11"/>
+      <c r="BJ353" s="11"/>
+      <c r="BK353" s="11"/>
+      <c r="BL353" s="11"/>
+      <c r="BM353" s="11"/>
+      <c r="BN353" s="11"/>
+      <c r="BO353" s="11"/>
+      <c r="BP353" s="11"/>
+      <c r="BQ353" s="11"/>
+      <c r="BR353" s="11"/>
+      <c r="BS353" s="11"/>
+      <c r="BT353" s="11"/>
+      <c r="BU353" s="11"/>
+      <c r="BV353" s="11"/>
+      <c r="BW353" s="11"/>
+      <c r="BX353" s="11"/>
+      <c r="BY353" s="11"/>
+      <c r="BZ353" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA353" s="7"/>
+      <c r="CB353" s="7"/>
+      <c r="CC353" s="7"/>
+    </row>
+    <row r="354" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A354" s="5">
+        <v>12</v>
+      </c>
+      <c r="B354" s="7"/>
+      <c r="C354" s="7"/>
+      <c r="D354" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E354" s="11"/>
+      <c r="F354" s="33"/>
+      <c r="G354" s="11"/>
+      <c r="H354" s="11"/>
+      <c r="I354" s="11"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="11"/>
+      <c r="L354" s="11"/>
+      <c r="M354" s="11"/>
+      <c r="N354" s="11"/>
+      <c r="O354" s="11"/>
+      <c r="P354" s="11"/>
+      <c r="Q354" s="11"/>
+      <c r="R354" s="11"/>
+      <c r="S354" s="11"/>
+      <c r="T354" s="11"/>
+      <c r="U354" s="11"/>
+      <c r="V354" s="11"/>
+      <c r="W354" s="11"/>
+      <c r="X354" s="11"/>
+      <c r="Y354" s="11"/>
+      <c r="Z354" s="11"/>
+      <c r="AA354" s="11"/>
+      <c r="AB354" s="11"/>
+      <c r="AC354" s="11"/>
+      <c r="AD354" s="11"/>
+      <c r="AE354" s="11"/>
+      <c r="AF354" s="11"/>
+      <c r="AG354" s="11"/>
+      <c r="AH354" s="11"/>
+      <c r="AI354" s="11"/>
+      <c r="AJ354" s="11"/>
+      <c r="AK354" s="11"/>
+      <c r="AL354" s="11"/>
+      <c r="AM354" s="11"/>
+      <c r="AN354" s="11"/>
+      <c r="AO354" s="11"/>
+      <c r="AP354" s="11"/>
+      <c r="AQ354" s="11"/>
+      <c r="AR354" s="11"/>
+      <c r="AS354" s="11"/>
+      <c r="AT354" s="11"/>
+      <c r="AU354" s="11"/>
+      <c r="AV354" s="11"/>
+      <c r="AW354" s="11"/>
+      <c r="AX354" s="11"/>
+      <c r="AY354" s="11"/>
+      <c r="AZ354" s="11"/>
+      <c r="BA354" s="11"/>
+      <c r="BB354" s="11"/>
+      <c r="BC354" s="11"/>
+      <c r="BD354" s="11"/>
+      <c r="BE354" s="11"/>
+      <c r="BF354" s="11"/>
+      <c r="BG354" s="11"/>
+      <c r="BH354" s="11"/>
+      <c r="BI354" s="11"/>
+      <c r="BJ354" s="11"/>
+      <c r="BK354" s="11"/>
+      <c r="BL354" s="11"/>
+      <c r="BM354" s="11"/>
+      <c r="BN354" s="11"/>
+      <c r="BO354" s="11"/>
+      <c r="BP354" s="11"/>
+      <c r="BQ354" s="11"/>
+      <c r="BR354" s="11"/>
+      <c r="BS354" s="11"/>
+      <c r="BT354" s="11"/>
+      <c r="BU354" s="11"/>
+      <c r="BV354" s="11"/>
+      <c r="BW354" s="11"/>
+      <c r="BX354" s="11"/>
+      <c r="BY354" s="11"/>
+      <c r="BZ354" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA354" s="7"/>
+      <c r="CB354" s="7"/>
+      <c r="CC354" s="7"/>
+    </row>
+    <row r="355" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A355" s="5">
+        <v>13</v>
+      </c>
+      <c r="B355" s="7"/>
+      <c r="C355" s="7"/>
+      <c r="D355" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E355" s="11"/>
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="11"/>
+      <c r="I355" s="11"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="11"/>
+      <c r="L355" s="11"/>
+      <c r="M355" s="11"/>
+      <c r="N355" s="11"/>
+      <c r="O355" s="11"/>
+      <c r="P355" s="11"/>
+      <c r="Q355" s="11"/>
+      <c r="R355" s="11"/>
+      <c r="S355" s="11"/>
+      <c r="T355" s="11"/>
+      <c r="U355" s="11"/>
+      <c r="V355" s="11"/>
+      <c r="W355" s="11"/>
+      <c r="X355" s="11"/>
+      <c r="Y355" s="11"/>
+      <c r="Z355" s="11"/>
+      <c r="AA355" s="11"/>
+      <c r="AB355" s="11"/>
+      <c r="AC355" s="11"/>
+      <c r="AD355" s="11"/>
+      <c r="AE355" s="11"/>
+      <c r="AF355" s="11"/>
+      <c r="AG355" s="11"/>
+      <c r="AH355" s="11"/>
+      <c r="AI355" s="11"/>
+      <c r="AJ355" s="11"/>
+      <c r="AK355" s="11"/>
+      <c r="AL355" s="11"/>
+      <c r="AM355" s="11"/>
+      <c r="AN355" s="11"/>
+      <c r="AO355" s="11"/>
+      <c r="AP355" s="11"/>
+      <c r="AQ355" s="11"/>
+      <c r="AR355" s="11"/>
+      <c r="AS355" s="11"/>
+      <c r="AT355" s="11"/>
+      <c r="AU355" s="11"/>
+      <c r="AV355" s="11"/>
+      <c r="AW355" s="11"/>
+      <c r="AX355" s="11"/>
+      <c r="AY355" s="11"/>
+      <c r="AZ355" s="11"/>
+      <c r="BA355" s="11"/>
+      <c r="BB355" s="11"/>
+      <c r="BC355" s="11"/>
+      <c r="BD355" s="11"/>
+      <c r="BE355" s="11"/>
+      <c r="BF355" s="11"/>
+      <c r="BG355" s="11"/>
+      <c r="BH355" s="11"/>
+      <c r="BI355" s="11"/>
+      <c r="BJ355" s="11"/>
+      <c r="BK355" s="11"/>
+      <c r="BL355" s="11"/>
+      <c r="BM355" s="11"/>
+      <c r="BN355" s="11"/>
+      <c r="BO355" s="11"/>
+      <c r="BP355" s="11"/>
+      <c r="BQ355" s="11"/>
+      <c r="BR355" s="11"/>
+      <c r="BS355" s="11"/>
+      <c r="BT355" s="11"/>
+      <c r="BU355" s="11"/>
+      <c r="BV355" s="11"/>
+      <c r="BW355" s="11"/>
+      <c r="BX355" s="11"/>
+      <c r="BY355" s="11"/>
+      <c r="BZ355" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA355" s="7"/>
+      <c r="CB355" s="7"/>
+      <c r="CC355" s="7"/>
+    </row>
+    <row r="356" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A356" s="5">
+        <v>14</v>
+      </c>
+      <c r="B356" s="7"/>
+      <c r="C356" s="7"/>
+      <c r="D356" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E356" s="11"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="11"/>
+      <c r="I356" s="11"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="11"/>
+      <c r="L356" s="11"/>
+      <c r="M356" s="11"/>
+      <c r="N356" s="11"/>
+      <c r="O356" s="11"/>
+      <c r="P356" s="11"/>
+      <c r="Q356" s="11"/>
+      <c r="R356" s="11"/>
+      <c r="S356" s="11"/>
+      <c r="T356" s="11"/>
+      <c r="U356" s="11"/>
+      <c r="V356" s="11"/>
+      <c r="W356" s="11"/>
+      <c r="X356" s="11"/>
+      <c r="Y356" s="11"/>
+      <c r="Z356" s="11"/>
+      <c r="AA356" s="11"/>
+      <c r="AB356" s="11"/>
+      <c r="AC356" s="11"/>
+      <c r="AD356" s="11"/>
+      <c r="AE356" s="11"/>
+      <c r="AF356" s="11"/>
+      <c r="AG356" s="11"/>
+      <c r="AH356" s="11"/>
+      <c r="AI356" s="11"/>
+      <c r="AJ356" s="11"/>
+      <c r="AK356" s="11"/>
+      <c r="AL356" s="11"/>
+      <c r="AM356" s="11"/>
+      <c r="AN356" s="11"/>
+      <c r="AO356" s="11"/>
+      <c r="AP356" s="11"/>
+      <c r="AQ356" s="11"/>
+      <c r="AR356" s="11"/>
+      <c r="AS356" s="11"/>
+      <c r="AT356" s="11"/>
+      <c r="AU356" s="11"/>
+      <c r="AV356" s="11"/>
+      <c r="AW356" s="11"/>
+      <c r="AX356" s="11"/>
+      <c r="AY356" s="11"/>
+      <c r="AZ356" s="11"/>
+      <c r="BA356" s="11"/>
+      <c r="BB356" s="11"/>
+      <c r="BC356" s="11"/>
+      <c r="BD356" s="11"/>
+      <c r="BE356" s="11"/>
+      <c r="BF356" s="11"/>
+      <c r="BG356" s="11"/>
+      <c r="BH356" s="11"/>
+      <c r="BI356" s="11"/>
+      <c r="BJ356" s="11"/>
+      <c r="BK356" s="11"/>
+      <c r="BL356" s="11"/>
+      <c r="BM356" s="11"/>
+      <c r="BN356" s="11"/>
+      <c r="BO356" s="11"/>
+      <c r="BP356" s="11"/>
+      <c r="BQ356" s="11"/>
+      <c r="BR356" s="11"/>
+      <c r="BS356" s="11"/>
+      <c r="BT356" s="11"/>
+      <c r="BU356" s="11"/>
+      <c r="BV356" s="11"/>
+      <c r="BW356" s="11"/>
+      <c r="BX356" s="11"/>
+      <c r="BY356" s="11"/>
+      <c r="BZ356" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA356" s="7"/>
+      <c r="CB356" s="7"/>
+      <c r="CC356" s="7"/>
+    </row>
+    <row r="357" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A357" s="5">
+        <v>15</v>
+      </c>
+      <c r="B357" s="7"/>
+      <c r="C357" s="7"/>
+      <c r="D357" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E357" s="11"/>
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="11"/>
+      <c r="I357" s="11"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="11"/>
+      <c r="L357" s="11"/>
+      <c r="M357" s="11"/>
+      <c r="N357" s="11"/>
+      <c r="O357" s="11"/>
+      <c r="P357" s="11"/>
+      <c r="Q357" s="11"/>
+      <c r="R357" s="11"/>
+      <c r="S357" s="11"/>
+      <c r="T357" s="11"/>
+      <c r="U357" s="11"/>
+      <c r="V357" s="11"/>
+      <c r="W357" s="11"/>
+      <c r="X357" s="11"/>
+      <c r="Y357" s="11"/>
+      <c r="Z357" s="11"/>
+      <c r="AA357" s="11"/>
+      <c r="AB357" s="11"/>
+      <c r="AC357" s="11"/>
+      <c r="AD357" s="11"/>
+      <c r="AE357" s="11"/>
+      <c r="AF357" s="11"/>
+      <c r="AG357" s="11"/>
+      <c r="AH357" s="11"/>
+      <c r="AI357" s="11"/>
+      <c r="AJ357" s="11"/>
+      <c r="AK357" s="11"/>
+      <c r="AL357" s="11"/>
+      <c r="AM357" s="11"/>
+      <c r="AN357" s="11"/>
+      <c r="AO357" s="11"/>
+      <c r="AP357" s="11"/>
+      <c r="AQ357" s="11"/>
+      <c r="AR357" s="11"/>
+      <c r="AS357" s="11"/>
+      <c r="AT357" s="11"/>
+      <c r="AU357" s="11"/>
+      <c r="AV357" s="11"/>
+      <c r="AW357" s="11"/>
+      <c r="AX357" s="11"/>
+      <c r="AY357" s="11"/>
+      <c r="AZ357" s="11"/>
+      <c r="BA357" s="11"/>
+      <c r="BB357" s="11"/>
+      <c r="BC357" s="11"/>
+      <c r="BD357" s="11"/>
+      <c r="BE357" s="11"/>
+      <c r="BF357" s="11"/>
+      <c r="BG357" s="11"/>
+      <c r="BH357" s="11"/>
+      <c r="BI357" s="11"/>
+      <c r="BJ357" s="11"/>
+      <c r="BK357" s="11"/>
+      <c r="BL357" s="11"/>
+      <c r="BM357" s="11"/>
+      <c r="BN357" s="11"/>
+      <c r="BO357" s="11"/>
+      <c r="BP357" s="11"/>
+      <c r="BQ357" s="11"/>
+      <c r="BR357" s="11"/>
+      <c r="BS357" s="11"/>
+      <c r="BT357" s="11"/>
+      <c r="BU357" s="11"/>
+      <c r="BV357" s="11"/>
+      <c r="BW357" s="11"/>
+      <c r="BX357" s="11"/>
+      <c r="BY357" s="11"/>
+      <c r="BZ357" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA357" s="7"/>
+      <c r="CB357" s="7"/>
+      <c r="CC357" s="7"/>
+    </row>
+    <row r="358" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A358" s="5">
+        <v>16</v>
+      </c>
+      <c r="B358" s="7"/>
+      <c r="C358" s="7"/>
+      <c r="D358" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E358" s="11"/>
+      <c r="F358" s="11"/>
+      <c r="G358" s="39"/>
+      <c r="H358" s="39"/>
+      <c r="I358" s="39"/>
+      <c r="J358" s="39"/>
+      <c r="K358" s="39"/>
+      <c r="L358" s="39"/>
+      <c r="M358" s="39"/>
+      <c r="N358" s="39"/>
+      <c r="O358" s="39"/>
+      <c r="P358" s="39"/>
+      <c r="Q358" s="39"/>
+      <c r="R358" s="39"/>
+      <c r="S358" s="39"/>
+      <c r="T358" s="39"/>
+      <c r="U358" s="39"/>
+      <c r="V358" s="39"/>
+      <c r="W358" s="39"/>
+      <c r="X358" s="39"/>
+      <c r="Y358" s="39"/>
+      <c r="Z358" s="39"/>
+      <c r="AA358" s="39"/>
+      <c r="AB358" s="39"/>
+      <c r="AC358" s="39"/>
+      <c r="AD358" s="39"/>
+      <c r="AE358" s="39"/>
+      <c r="AF358" s="39"/>
+      <c r="AG358" s="44"/>
+      <c r="AH358" s="20"/>
+      <c r="AI358" s="20"/>
+      <c r="AJ358" s="11"/>
+      <c r="AK358" s="11"/>
+      <c r="AL358" s="11"/>
+      <c r="AM358" s="11"/>
+      <c r="AN358" s="11"/>
+      <c r="AO358" s="11"/>
+      <c r="AP358" s="11"/>
+      <c r="AQ358" s="11"/>
+      <c r="AR358" s="11"/>
+      <c r="AS358" s="11"/>
+      <c r="AT358" s="11"/>
+      <c r="AU358" s="11"/>
+      <c r="AV358" s="11"/>
+      <c r="AW358" s="11"/>
+      <c r="AX358" s="11"/>
+      <c r="AY358" s="11"/>
+      <c r="AZ358" s="11"/>
+      <c r="BA358" s="11"/>
+      <c r="BB358" s="11"/>
+      <c r="BC358" s="11"/>
+      <c r="BD358" s="11"/>
+      <c r="BE358" s="11"/>
+      <c r="BF358" s="11"/>
+      <c r="BG358" s="11"/>
+      <c r="BH358" s="11"/>
+      <c r="BI358" s="11"/>
+      <c r="BJ358" s="11"/>
+      <c r="BK358" s="11"/>
+      <c r="BL358" s="11"/>
+      <c r="BM358" s="11"/>
+      <c r="BN358" s="11"/>
+      <c r="BO358" s="11"/>
+      <c r="BP358" s="11"/>
+      <c r="BQ358" s="11"/>
+      <c r="BR358" s="11"/>
+      <c r="BS358" s="11"/>
+      <c r="BT358" s="11"/>
+      <c r="BU358" s="11"/>
+      <c r="BV358" s="11"/>
+      <c r="BW358" s="11"/>
+      <c r="BX358" s="11"/>
+      <c r="BY358" s="11"/>
+      <c r="BZ358" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA358" s="7"/>
+      <c r="CB358" s="7"/>
+      <c r="CC358" s="7"/>
+    </row>
+    <row r="359" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A359" s="5">
+        <v>17</v>
+      </c>
+      <c r="B359" s="7"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E359" s="11"/>
+      <c r="F359" s="40"/>
+      <c r="G359" s="40"/>
+      <c r="H359" s="11"/>
+      <c r="I359" s="11"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="11"/>
+      <c r="L359" s="11"/>
+      <c r="M359" s="11"/>
+      <c r="N359" s="11"/>
+      <c r="O359" s="11"/>
+      <c r="P359" s="11"/>
+      <c r="Q359" s="11"/>
+      <c r="R359" s="11"/>
+      <c r="S359" s="11"/>
+      <c r="T359" s="11"/>
+      <c r="U359" s="11"/>
+      <c r="V359" s="11"/>
+      <c r="W359" s="11"/>
+      <c r="X359" s="11"/>
+      <c r="Y359" s="11"/>
+      <c r="Z359" s="11"/>
+      <c r="AA359" s="11"/>
+      <c r="AB359" s="11"/>
+      <c r="AC359" s="11"/>
+      <c r="AD359" s="11"/>
+      <c r="AE359" s="11"/>
+      <c r="AF359" s="11"/>
+      <c r="AG359" s="11"/>
+      <c r="AH359" s="41"/>
+      <c r="AI359" s="11"/>
+      <c r="AJ359" s="11"/>
+      <c r="AK359" s="11"/>
+      <c r="AL359" s="11"/>
+      <c r="AM359" s="11"/>
+      <c r="AN359" s="11"/>
+      <c r="AO359" s="11"/>
+      <c r="AP359" s="11"/>
+      <c r="AQ359" s="11"/>
+      <c r="AR359" s="11"/>
+      <c r="AS359" s="11"/>
+      <c r="AT359" s="11"/>
+      <c r="AU359" s="11"/>
+      <c r="AV359" s="11"/>
+      <c r="AW359" s="11"/>
+      <c r="AX359" s="11"/>
+      <c r="AY359" s="11"/>
+      <c r="AZ359" s="11"/>
+      <c r="BA359" s="11"/>
+      <c r="BB359" s="11"/>
+      <c r="BC359" s="11"/>
+      <c r="BD359" s="11"/>
+      <c r="BE359" s="11"/>
+      <c r="BF359" s="11"/>
+      <c r="BG359" s="11"/>
+      <c r="BH359" s="11"/>
+      <c r="BI359" s="11"/>
+      <c r="BJ359" s="11"/>
+      <c r="BK359" s="11"/>
+      <c r="BL359" s="11"/>
+      <c r="BM359" s="11"/>
+      <c r="BN359" s="11"/>
+      <c r="BO359" s="11"/>
+      <c r="BP359" s="11"/>
+      <c r="BQ359" s="11"/>
+      <c r="BR359" s="11"/>
+      <c r="BS359" s="11"/>
+      <c r="BT359" s="11"/>
+      <c r="BU359" s="11"/>
+      <c r="BV359" s="11"/>
+      <c r="BW359" s="11"/>
+      <c r="BX359" s="11"/>
+      <c r="BY359" s="11"/>
+      <c r="BZ359" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA359" s="7"/>
+      <c r="CB359" s="7"/>
+      <c r="CC359" s="7"/>
+    </row>
+    <row r="360" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A360" s="5">
+        <v>18</v>
+      </c>
+      <c r="B360" s="7"/>
+      <c r="C360" s="7"/>
+      <c r="D360" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E360" s="11"/>
+      <c r="F360" s="22"/>
+      <c r="G360" s="43"/>
+      <c r="H360" s="11"/>
+      <c r="I360" s="11"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="11"/>
+      <c r="L360" s="11"/>
+      <c r="M360" s="11"/>
+      <c r="N360" s="11"/>
+      <c r="O360" s="11"/>
+      <c r="P360" s="11"/>
+      <c r="Q360" s="11"/>
+      <c r="R360" s="11"/>
+      <c r="S360" s="11"/>
+      <c r="T360" s="11"/>
+      <c r="U360" s="11"/>
+      <c r="V360" s="11"/>
+      <c r="W360" s="11"/>
+      <c r="X360" s="11"/>
+      <c r="Y360" s="11"/>
+      <c r="Z360" s="11"/>
+      <c r="AA360" s="11"/>
+      <c r="AB360" s="11"/>
+      <c r="AC360" s="11"/>
+      <c r="AD360" s="11"/>
+      <c r="AE360" s="11"/>
+      <c r="AF360" s="11"/>
+      <c r="AG360" s="11"/>
+      <c r="AH360" s="41"/>
+      <c r="AI360" s="11"/>
+      <c r="AJ360" s="11"/>
+      <c r="AK360" s="11"/>
+      <c r="AL360" s="11"/>
+      <c r="AM360" s="11"/>
+      <c r="AN360" s="11"/>
+      <c r="AO360" s="11"/>
+      <c r="AP360" s="11"/>
+      <c r="AQ360" s="11"/>
+      <c r="AR360" s="11"/>
+      <c r="AS360" s="11"/>
+      <c r="AT360" s="11"/>
+      <c r="AU360" s="11"/>
+      <c r="AV360" s="11"/>
+      <c r="AW360" s="11"/>
+      <c r="AX360" s="11"/>
+      <c r="AY360" s="11"/>
+      <c r="AZ360" s="11"/>
+      <c r="BA360" s="11"/>
+      <c r="BB360" s="11"/>
+      <c r="BC360" s="11"/>
+      <c r="BD360" s="11"/>
+      <c r="BE360" s="11"/>
+      <c r="BF360" s="11"/>
+      <c r="BG360" s="11"/>
+      <c r="BH360" s="11"/>
+      <c r="BI360" s="11"/>
+      <c r="BJ360" s="11"/>
+      <c r="BK360" s="11"/>
+      <c r="BL360" s="11"/>
+      <c r="BM360" s="11"/>
+      <c r="BN360" s="11"/>
+      <c r="BO360" s="11"/>
+      <c r="BP360" s="11"/>
+      <c r="BQ360" s="11"/>
+      <c r="BR360" s="11"/>
+      <c r="BS360" s="11"/>
+      <c r="BT360" s="11"/>
+      <c r="BU360" s="11"/>
+      <c r="BV360" s="11"/>
+      <c r="BW360" s="11"/>
+      <c r="BX360" s="11"/>
+      <c r="BY360" s="11"/>
+      <c r="BZ360" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA360" s="7"/>
+      <c r="CB360" s="7"/>
+      <c r="CC360" s="7"/>
+    </row>
+    <row r="361" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A361" s="5">
+        <v>19</v>
+      </c>
+      <c r="B361" s="7"/>
+      <c r="C361" s="7"/>
+      <c r="D361" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E361" s="11"/>
+      <c r="F361" s="40"/>
+      <c r="G361" s="40"/>
+      <c r="H361" s="11"/>
+      <c r="I361" s="11"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="11"/>
+      <c r="L361" s="11"/>
+      <c r="M361" s="11"/>
+      <c r="N361" s="11"/>
+      <c r="O361" s="11"/>
+      <c r="P361" s="11"/>
+      <c r="Q361" s="11"/>
+      <c r="R361" s="11"/>
+      <c r="S361" s="11"/>
+      <c r="T361" s="11"/>
+      <c r="U361" s="11"/>
+      <c r="V361" s="11"/>
+      <c r="W361" s="11"/>
+      <c r="X361" s="11"/>
+      <c r="Y361" s="11"/>
+      <c r="Z361" s="11"/>
+      <c r="AA361" s="11"/>
+      <c r="AB361" s="11"/>
+      <c r="AC361" s="11"/>
+      <c r="AD361" s="11"/>
+      <c r="AE361" s="11"/>
+      <c r="AF361" s="11"/>
+      <c r="AG361" s="11"/>
+      <c r="AH361" s="41"/>
+      <c r="AI361" s="11"/>
+      <c r="AJ361" s="11"/>
+      <c r="AK361" s="11"/>
+      <c r="AL361" s="11"/>
+      <c r="AM361" s="11"/>
+      <c r="AN361" s="11"/>
+      <c r="AO361" s="11"/>
+      <c r="AP361" s="11"/>
+      <c r="AQ361" s="11"/>
+      <c r="AR361" s="11"/>
+      <c r="AS361" s="11"/>
+      <c r="AT361" s="11"/>
+      <c r="AU361" s="11"/>
+      <c r="AV361" s="11"/>
+      <c r="AW361" s="11"/>
+      <c r="AX361" s="11"/>
+      <c r="AY361" s="11"/>
+      <c r="AZ361" s="11"/>
+      <c r="BA361" s="11"/>
+      <c r="BB361" s="11"/>
+      <c r="BC361" s="11"/>
+      <c r="BD361" s="11"/>
+      <c r="BE361" s="11"/>
+      <c r="BF361" s="11"/>
+      <c r="BG361" s="11"/>
+      <c r="BH361" s="11"/>
+      <c r="BI361" s="11"/>
+      <c r="BJ361" s="11"/>
+      <c r="BK361" s="11"/>
+      <c r="BL361" s="11"/>
+      <c r="BM361" s="11"/>
+      <c r="BN361" s="11"/>
+      <c r="BO361" s="11"/>
+      <c r="BP361" s="11"/>
+      <c r="BQ361" s="11"/>
+      <c r="BR361" s="11"/>
+      <c r="BS361" s="11"/>
+      <c r="BT361" s="11"/>
+      <c r="BU361" s="11"/>
+      <c r="BV361" s="11"/>
+      <c r="BW361" s="11"/>
+      <c r="BX361" s="11"/>
+      <c r="BY361" s="11"/>
+      <c r="BZ361" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA361" s="7"/>
+      <c r="CB361" s="7"/>
+      <c r="CC361" s="7"/>
+    </row>
+    <row r="362" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A362" s="5">
+        <v>20</v>
+      </c>
+      <c r="B362" s="7"/>
+      <c r="C362" s="7"/>
+      <c r="D362" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E362" s="11"/>
+      <c r="F362" s="22"/>
+      <c r="G362" s="43"/>
+      <c r="H362" s="11"/>
+      <c r="I362" s="11"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="11"/>
+      <c r="L362" s="11"/>
+      <c r="M362" s="11"/>
+      <c r="N362" s="11"/>
+      <c r="O362" s="11"/>
+      <c r="P362" s="11"/>
+      <c r="Q362" s="11"/>
+      <c r="R362" s="11"/>
+      <c r="S362" s="11"/>
+      <c r="T362" s="11"/>
+      <c r="U362" s="11"/>
+      <c r="V362" s="11"/>
+      <c r="W362" s="11"/>
+      <c r="X362" s="11"/>
+      <c r="Y362" s="11"/>
+      <c r="Z362" s="11"/>
+      <c r="AA362" s="11"/>
+      <c r="AB362" s="11"/>
+      <c r="AC362" s="11"/>
+      <c r="AD362" s="11"/>
+      <c r="AE362" s="11"/>
+      <c r="AF362" s="11"/>
+      <c r="AG362" s="11"/>
+      <c r="AH362" s="41"/>
+      <c r="AI362" s="11"/>
+      <c r="AJ362" s="11"/>
+      <c r="AK362" s="11"/>
+      <c r="AL362" s="11"/>
+      <c r="AM362" s="11"/>
+      <c r="AN362" s="11"/>
+      <c r="AO362" s="11"/>
+      <c r="AP362" s="11"/>
+      <c r="AQ362" s="11"/>
+      <c r="AR362" s="11"/>
+      <c r="AS362" s="11"/>
+      <c r="AT362" s="11"/>
+      <c r="AU362" s="11"/>
+      <c r="AV362" s="11"/>
+      <c r="AW362" s="11"/>
+      <c r="AX362" s="11"/>
+      <c r="AY362" s="11"/>
+      <c r="AZ362" s="11"/>
+      <c r="BA362" s="11"/>
+      <c r="BB362" s="11"/>
+      <c r="BC362" s="11"/>
+      <c r="BD362" s="11"/>
+      <c r="BE362" s="11"/>
+      <c r="BF362" s="11"/>
+      <c r="BG362" s="11"/>
+      <c r="BH362" s="11"/>
+      <c r="BI362" s="11"/>
+      <c r="BJ362" s="11"/>
+      <c r="BK362" s="11"/>
+      <c r="BL362" s="11"/>
+      <c r="BM362" s="11"/>
+      <c r="BN362" s="11"/>
+      <c r="BO362" s="11"/>
+      <c r="BP362" s="11"/>
+      <c r="BQ362" s="11"/>
+      <c r="BR362" s="11"/>
+      <c r="BS362" s="11"/>
+      <c r="BT362" s="11"/>
+      <c r="BU362" s="11"/>
+      <c r="BV362" s="11"/>
+      <c r="BW362" s="11"/>
+      <c r="BX362" s="11"/>
+      <c r="BY362" s="11"/>
+      <c r="BZ362" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA362" s="7"/>
+      <c r="CB362" s="7"/>
+      <c r="CC362" s="7"/>
+    </row>
+    <row r="363" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A363" s="5">
+        <v>21</v>
+      </c>
+      <c r="B363" s="7"/>
+      <c r="C363" s="7"/>
+      <c r="D363" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E363" s="11"/>
+      <c r="F363" s="40"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="38"/>
+      <c r="I363" s="38"/>
+      <c r="J363" s="38"/>
+      <c r="K363" s="38"/>
+      <c r="L363" s="38"/>
+      <c r="M363" s="38"/>
+      <c r="N363" s="38"/>
+      <c r="O363" s="38"/>
+      <c r="P363" s="38"/>
+      <c r="Q363" s="38"/>
+      <c r="R363" s="38"/>
+      <c r="S363" s="38"/>
+      <c r="T363" s="38"/>
+      <c r="U363" s="38"/>
+      <c r="V363" s="38"/>
+      <c r="W363" s="38"/>
+      <c r="X363" s="38"/>
+      <c r="Y363" s="38"/>
+      <c r="Z363" s="38"/>
+      <c r="AA363" s="38"/>
+      <c r="AB363" s="38"/>
+      <c r="AC363" s="38"/>
+      <c r="AD363" s="38"/>
+      <c r="AE363" s="45"/>
+      <c r="AF363" s="38"/>
+      <c r="AG363" s="38"/>
+      <c r="AH363" s="11"/>
+      <c r="AI363" s="11"/>
+      <c r="AJ363" s="11"/>
+      <c r="AK363" s="11"/>
+      <c r="AL363" s="11"/>
+      <c r="AM363" s="11"/>
+      <c r="AN363" s="11"/>
+      <c r="AO363" s="11"/>
+      <c r="AP363" s="11"/>
+      <c r="AQ363" s="11"/>
+      <c r="AR363" s="11"/>
+      <c r="AS363" s="11"/>
+      <c r="AT363" s="11"/>
+      <c r="AU363" s="11"/>
+      <c r="AV363" s="11"/>
+      <c r="AW363" s="11"/>
+      <c r="AX363" s="11"/>
+      <c r="AY363" s="11"/>
+      <c r="AZ363" s="11"/>
+      <c r="BA363" s="11"/>
+      <c r="BB363" s="11"/>
+      <c r="BC363" s="11"/>
+      <c r="BD363" s="11"/>
+      <c r="BE363" s="11"/>
+      <c r="BF363" s="11"/>
+      <c r="BG363" s="11"/>
+      <c r="BH363" s="11"/>
+      <c r="BI363" s="11"/>
+      <c r="BJ363" s="11"/>
+      <c r="BK363" s="11"/>
+      <c r="BL363" s="11"/>
+      <c r="BM363" s="11"/>
+      <c r="BN363" s="11"/>
+      <c r="BO363" s="11"/>
+      <c r="BP363" s="11"/>
+      <c r="BQ363" s="11"/>
+      <c r="BR363" s="11"/>
+      <c r="BS363" s="11"/>
+      <c r="BT363" s="11"/>
+      <c r="BU363" s="11"/>
+      <c r="BV363" s="11"/>
+      <c r="BW363" s="11"/>
+      <c r="BX363" s="11"/>
+      <c r="BY363" s="11"/>
+      <c r="BZ363" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA363" s="7"/>
+      <c r="CB363" s="7"/>
+      <c r="CC363" s="7"/>
+    </row>
+    <row r="364" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A364" s="5">
+        <v>22</v>
+      </c>
+      <c r="B364" s="7"/>
+      <c r="C364" s="7"/>
+      <c r="D364" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD364" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ364" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA364" s="7"/>
+      <c r="CB364" s="7"/>
+      <c r="CC364" s="7"/>
+    </row>
+    <row r="365" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A365" s="5">
+        <v>23</v>
+      </c>
+      <c r="B365" s="7"/>
+      <c r="C365" s="7"/>
+      <c r="D365" s="7"/>
+      <c r="E365" s="7"/>
+      <c r="F365" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G365" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H365" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I365" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J365" s="7"/>
+      <c r="K365" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L365" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M365" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N365" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O365" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P365" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q365" s="7"/>
+      <c r="R365" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S365" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T365" s="7"/>
+      <c r="U365" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V365" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W365" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X365" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y365" s="7"/>
+      <c r="Z365" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA365" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB365" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC365" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD365" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE365" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF365" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG365" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH365" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI365" s="7"/>
+      <c r="AJ365" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK365" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL365" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM365" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN365" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO365" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP365" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ365" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR365" s="7"/>
+      <c r="AS365" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT365" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU365" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV365" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW365" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX365" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY365" s="7"/>
+      <c r="AZ365" s="7"/>
+      <c r="BA365" s="7"/>
+      <c r="BB365" s="7"/>
+      <c r="BC365" s="7"/>
+      <c r="BD365" s="7"/>
+      <c r="BE365" s="7"/>
+      <c r="BF365" s="7"/>
+      <c r="BG365" s="7"/>
+      <c r="BH365" s="7"/>
+      <c r="BI365" s="7"/>
+      <c r="BJ365" s="7"/>
+      <c r="BK365" s="7"/>
+      <c r="BL365" s="7"/>
+      <c r="BM365" s="7"/>
+      <c r="BN365" s="7"/>
+      <c r="BO365" s="7"/>
+      <c r="BP365" s="7"/>
+      <c r="BQ365" s="7"/>
+      <c r="BR365" s="7"/>
+      <c r="BS365" s="7"/>
+      <c r="BT365" s="7"/>
+      <c r="BU365" s="7"/>
+      <c r="BV365" s="7"/>
+      <c r="BW365" s="7"/>
+      <c r="BX365" s="7"/>
+      <c r="BY365" s="7"/>
+      <c r="BZ365" s="7"/>
+      <c r="CA365" s="7"/>
+      <c r="CB365" s="7"/>
+      <c r="CC365" s="7"/>
+    </row>
+    <row r="366" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A366" s="5">
+        <v>24</v>
+      </c>
+      <c r="B366" s="7"/>
+      <c r="C366" s="7"/>
+      <c r="D366" s="7"/>
+      <c r="E366" s="7"/>
+      <c r="F366" s="7"/>
+      <c r="G366" s="7"/>
+      <c r="H366" s="7"/>
+      <c r="I366" s="7"/>
+      <c r="J366" s="7"/>
+      <c r="K366" s="7"/>
+      <c r="L366" s="7"/>
+      <c r="M366" s="7"/>
+      <c r="N366" s="7"/>
+      <c r="O366" s="7"/>
+      <c r="P366" s="7"/>
+      <c r="Q366" s="7"/>
+      <c r="R366" s="7"/>
+      <c r="S366" s="7"/>
+      <c r="T366" s="7"/>
+      <c r="U366" s="7"/>
+      <c r="V366" s="7"/>
+      <c r="W366" s="7"/>
+      <c r="X366" s="7"/>
+      <c r="Y366" s="7"/>
+      <c r="Z366" s="7"/>
+      <c r="AA366" s="7"/>
+      <c r="AB366" s="7"/>
+      <c r="AC366" s="7"/>
+      <c r="AD366" s="7"/>
+      <c r="AE366" s="7"/>
+      <c r="AF366" s="7"/>
+      <c r="AG366" s="7"/>
+      <c r="AH366" s="7"/>
+      <c r="AI366" s="7"/>
+      <c r="AJ366" s="7"/>
+      <c r="AK366" s="7"/>
+      <c r="AL366" s="7"/>
+      <c r="AM366" s="7"/>
+      <c r="AN366" s="7"/>
+      <c r="AO366" s="7"/>
+      <c r="AP366" s="7"/>
+      <c r="AQ366" s="7"/>
+      <c r="AR366" s="7"/>
+      <c r="AS366" s="7"/>
+      <c r="AT366" s="7"/>
+      <c r="AU366" s="7"/>
+      <c r="AV366" s="7"/>
+      <c r="AW366" s="7"/>
+      <c r="AX366" s="7"/>
+      <c r="AY366" s="7"/>
+      <c r="AZ366" s="7"/>
+      <c r="BA366" s="7"/>
+      <c r="BB366" s="7"/>
+      <c r="BC366" s="7"/>
+      <c r="BD366" s="7"/>
+      <c r="BE366" s="7"/>
+      <c r="BF366" s="7"/>
+      <c r="BG366" s="7"/>
+      <c r="BH366" s="7"/>
+      <c r="BI366" s="7"/>
+      <c r="BJ366" s="7"/>
+      <c r="BK366" s="7"/>
+      <c r="BL366" s="7"/>
+      <c r="BM366" s="7"/>
+      <c r="BN366" s="7"/>
+      <c r="BO366" s="7"/>
+      <c r="BP366" s="7"/>
+      <c r="BQ366" s="7"/>
+      <c r="BR366" s="7"/>
+      <c r="BS366" s="7"/>
+      <c r="BT366" s="7"/>
+      <c r="BU366" s="7"/>
+      <c r="BV366" s="7"/>
+      <c r="BW366" s="7"/>
+      <c r="BX366" s="7"/>
+      <c r="BY366" s="7"/>
+      <c r="BZ366" s="7"/>
+      <c r="CA366" s="7"/>
+      <c r="CB366" s="7"/>
+      <c r="CC366" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="930" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
+  <xr:revisionPtr revIDLastSave="1630" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8955" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9650" uniqueCount="113">
   <si>
     <t>xy</t>
   </si>
@@ -346,6 +346,15 @@
   <si>
     <t>2.3 - Membresías [afiliarse]</t>
   </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Ó</t>
+  </si>
 </sst>
 </file>
 
@@ -458,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -594,11 +603,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -714,16 +784,46 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1006,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
-  <dimension ref="A1:CC366"/>
+  <dimension ref="A1:CC384"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A294" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH348" sqref="AH348"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A339" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK353" sqref="AK353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -45245,7 +45345,7 @@
       <c r="K333" s="11"/>
       <c r="L333" s="11"/>
       <c r="M333" s="11"/>
-      <c r="N333" s="46" t="s">
+      <c r="N333" s="43" t="s">
         <v>42</v>
       </c>
       <c r="O333" s="10" t="s">
@@ -45550,7 +45650,7 @@
       <c r="CB335" s="7"/>
       <c r="CC335" s="7"/>
     </row>
-    <row r="336" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="5">
         <v>22</v>
       </c>
@@ -45785,7 +45885,7 @@
       <c r="CB336" s="7"/>
       <c r="CC336" s="7"/>
     </row>
-    <row r="337" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="5">
         <v>23</v>
       </c>
@@ -45948,7 +46048,7 @@
       <c r="CB337" s="7"/>
       <c r="CC337" s="7"/>
     </row>
-    <row r="338" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="5">
         <v>24</v>
       </c>
@@ -46289,7 +46389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="343" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="5">
         <v>1</v>
       </c>
@@ -46524,7 +46624,7 @@
       <c r="CB343" s="7"/>
       <c r="CC343" s="7"/>
     </row>
-    <row r="344" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="5">
         <v>2</v>
       </c>
@@ -46595,26 +46695,32 @@
       </c>
       <c r="AQ344" s="7"/>
       <c r="AR344" s="7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AS344" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="AT344" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AU344" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AV344" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW344" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AW344" s="7" t="s">
+      <c r="AX344" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY344" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AX344" s="7"/>
-      <c r="AY344" s="7"/>
-      <c r="AZ344" s="7"/>
+      <c r="AZ344" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="BA344" s="7"/>
       <c r="BB344" s="7"/>
       <c r="BC344" s="7"/>
@@ -46647,7 +46753,7 @@
       <c r="CB344" s="7"/>
       <c r="CC344" s="7"/>
     </row>
-    <row r="345" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="5">
         <v>3</v>
       </c>
@@ -46882,7 +46988,7 @@
       <c r="CB345" s="7"/>
       <c r="CC345" s="7"/>
     </row>
-    <row r="346" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="5">
         <v>4</v>
       </c>
@@ -46971,7 +47077,7 @@
       <c r="CB346" s="7"/>
       <c r="CC346" s="7"/>
     </row>
-    <row r="347" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="5">
         <v>5</v>
       </c>
@@ -46981,59 +47087,149 @@
         <v>42</v>
       </c>
       <c r="E347" s="11"/>
-      <c r="F347" s="11"/>
-      <c r="G347" s="11"/>
+      <c r="F347" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G347" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="H347" s="11"/>
-      <c r="I347" s="11"/>
-      <c r="J347" s="11"/>
-      <c r="K347" s="11"/>
-      <c r="L347" s="11"/>
-      <c r="M347" s="11"/>
-      <c r="N347" s="11"/>
-      <c r="O347" s="11"/>
-      <c r="P347" s="11"/>
-      <c r="Q347" s="11"/>
+      <c r="I347" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J347" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K347" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L347" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M347" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N347" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O347" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P347" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q347" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="R347" s="11"/>
-      <c r="S347" s="11"/>
-      <c r="T347" s="11"/>
-      <c r="U347" s="11"/>
-      <c r="V347" s="11"/>
-      <c r="W347" s="11"/>
-      <c r="X347" s="11"/>
-      <c r="Y347" s="11"/>
-      <c r="Z347" s="11"/>
-      <c r="AA347" s="22"/>
-      <c r="AB347" s="11"/>
-      <c r="AC347" s="11"/>
+      <c r="S347" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T347" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U347" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V347" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W347" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X347" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y347" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z347" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA347" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB347" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC347" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="AD347" s="11"/>
-      <c r="AE347" s="11"/>
-      <c r="AF347" s="11"/>
-      <c r="AG347" s="11"/>
-      <c r="AH347" s="11"/>
-      <c r="AI347" s="11"/>
+      <c r="AE347" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF347" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG347" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH347" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI347" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="AJ347" s="11"/>
-      <c r="AK347" s="11"/>
-      <c r="AL347" s="11"/>
+      <c r="AK347" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL347" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="AM347" s="11"/>
-      <c r="AN347" s="11"/>
-      <c r="AO347" s="11"/>
-      <c r="AP347" s="11"/>
-      <c r="AQ347" s="11"/>
-      <c r="AR347" s="11"/>
+      <c r="AN347" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO347" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP347" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ347" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR347" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="AS347" s="11"/>
-      <c r="AT347" s="11"/>
-      <c r="AU347" s="11"/>
+      <c r="AT347" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU347" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="AV347" s="11"/>
-      <c r="AW347" s="11"/>
-      <c r="AX347" s="11"/>
-      <c r="AY347" s="11"/>
+      <c r="AW347" s="11">
+        <v>2</v>
+      </c>
+      <c r="AX347" s="11">
+        <v>5</v>
+      </c>
+      <c r="AY347" s="11">
+        <v>0</v>
+      </c>
       <c r="AZ347" s="11"/>
-      <c r="BA347" s="11"/>
-      <c r="BB347" s="11"/>
-      <c r="BC347" s="11"/>
-      <c r="BD347" s="11"/>
-      <c r="BE347" s="11"/>
-      <c r="BF347" s="11"/>
+      <c r="BA347" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB347" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC347" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD347" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE347" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF347" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="BG347" s="11"/>
       <c r="BH347" s="11"/>
       <c r="BI347" s="11"/>
@@ -47060,7 +47256,7 @@
       <c r="CB347" s="7"/>
       <c r="CC347" s="7"/>
     </row>
-    <row r="348" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="5">
         <v>6</v>
       </c>
@@ -47070,71 +47266,183 @@
         <v>42</v>
       </c>
       <c r="E348" s="11"/>
-      <c r="F348" s="11"/>
-      <c r="G348" s="11"/>
+      <c r="F348" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G348" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="H348" s="11"/>
-      <c r="I348" s="11"/>
-      <c r="J348" s="11"/>
+      <c r="I348" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J348" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="K348" s="11"/>
-      <c r="L348" s="11"/>
-      <c r="M348" s="11"/>
-      <c r="N348" s="11"/>
-      <c r="O348" s="11"/>
-      <c r="P348" s="11"/>
-      <c r="Q348" s="11"/>
+      <c r="L348" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M348" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N348" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O348" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P348" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q348" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="R348" s="11"/>
-      <c r="S348" s="11"/>
-      <c r="T348" s="11"/>
-      <c r="U348" s="11"/>
-      <c r="V348" s="11"/>
-      <c r="W348" s="11"/>
-      <c r="X348" s="11"/>
-      <c r="Y348" s="11"/>
-      <c r="Z348" s="11"/>
-      <c r="AA348" s="11"/>
-      <c r="AB348" s="11"/>
+      <c r="S348" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T348" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U348" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V348" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W348" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="X348" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y348" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z348" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA348" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB348" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="AC348" s="11"/>
-      <c r="AD348" s="11"/>
-      <c r="AE348" s="11"/>
-      <c r="AF348" s="11"/>
-      <c r="AG348" s="11"/>
-      <c r="AH348" s="11"/>
-      <c r="AI348" s="11"/>
+      <c r="AD348" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE348" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF348" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG348" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH348" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI348" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="AJ348" s="11"/>
-      <c r="AK348" s="11"/>
-      <c r="AL348" s="11"/>
+      <c r="AK348" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL348" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="AM348" s="11"/>
-      <c r="AN348" s="11"/>
-      <c r="AO348" s="11"/>
-      <c r="AP348" s="11"/>
-      <c r="AQ348" s="11"/>
-      <c r="AR348" s="11"/>
-      <c r="AS348" s="11"/>
+      <c r="AN348" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO348" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP348" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ348" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR348" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS348" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="AT348" s="11"/>
-      <c r="AU348" s="11"/>
-      <c r="AV348" s="11"/>
-      <c r="AW348" s="11"/>
-      <c r="AX348" s="11"/>
-      <c r="AY348" s="11"/>
-      <c r="AZ348" s="11"/>
-      <c r="BA348" s="11"/>
-      <c r="BB348" s="11"/>
-      <c r="BC348" s="11"/>
-      <c r="BD348" s="11"/>
+      <c r="AU348" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV348" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW348" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX348" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY348" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ348" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA348" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB348" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC348" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD348" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="BE348" s="11"/>
-      <c r="BF348" s="11"/>
-      <c r="BG348" s="11"/>
-      <c r="BH348" s="11"/>
-      <c r="BI348" s="11"/>
-      <c r="BJ348" s="11"/>
-      <c r="BK348" s="11"/>
-      <c r="BL348" s="11"/>
-      <c r="BM348" s="11"/>
-      <c r="BN348" s="11"/>
+      <c r="BF348" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG348" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH348" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI348" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ348" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK348" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL348" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM348" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN348" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="BO348" s="11"/>
-      <c r="BP348" s="11"/>
-      <c r="BQ348" s="11"/>
-      <c r="BR348" s="11"/>
+      <c r="BP348" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ348" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR348" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="BS348" s="11"/>
       <c r="BT348" s="11"/>
       <c r="BU348" s="11"/>
@@ -47149,7 +47457,7 @@
       <c r="CB348" s="7"/>
       <c r="CC348" s="7"/>
     </row>
-    <row r="349" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="5">
         <v>7</v>
       </c>
@@ -47159,66 +47467,166 @@
         <v>42</v>
       </c>
       <c r="E349" s="11"/>
-      <c r="F349" s="11"/>
-      <c r="G349" s="11"/>
-      <c r="H349" s="11"/>
-      <c r="I349" s="11"/>
-      <c r="J349" s="11"/>
+      <c r="F349" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G349" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H349" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I349" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J349" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K349" s="11"/>
-      <c r="L349" s="11"/>
-      <c r="M349" s="11"/>
+      <c r="L349" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M349" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="N349" s="11"/>
-      <c r="O349" s="11"/>
-      <c r="P349" s="11"/>
-      <c r="Q349" s="11"/>
-      <c r="R349" s="11"/>
+      <c r="O349" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P349" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q349" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R349" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="S349" s="11"/>
-      <c r="T349" s="11"/>
-      <c r="U349" s="11"/>
-      <c r="V349" s="11"/>
-      <c r="W349" s="11"/>
-      <c r="X349" s="11"/>
-      <c r="Y349" s="11"/>
-      <c r="Z349" s="11"/>
-      <c r="AA349" s="11"/>
-      <c r="AB349" s="11"/>
+      <c r="T349" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="U349" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V349" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W349" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X349" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y349" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z349" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA349" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB349" s="44" t="s">
+        <v>110</v>
+      </c>
       <c r="AC349" s="11"/>
-      <c r="AD349" s="11"/>
-      <c r="AE349" s="11"/>
-      <c r="AF349" s="11"/>
-      <c r="AG349" s="11"/>
+      <c r="AD349" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE349" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF349" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG349" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="AH349" s="11"/>
-      <c r="AI349" s="11"/>
-      <c r="AJ349" s="11"/>
-      <c r="AK349" s="11"/>
-      <c r="AL349" s="11"/>
-      <c r="AM349" s="11"/>
-      <c r="AN349" s="11"/>
-      <c r="AO349" s="11"/>
+      <c r="AI349" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ349" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK349" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL349" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM349" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN349" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO349" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="AP349" s="11"/>
-      <c r="AQ349" s="11"/>
-      <c r="AR349" s="11"/>
-      <c r="AS349" s="11"/>
+      <c r="AQ349" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR349" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS349" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="AT349" s="11"/>
-      <c r="AU349" s="11"/>
-      <c r="AV349" s="11"/>
-      <c r="AW349" s="11"/>
-      <c r="AX349" s="11"/>
-      <c r="AY349" s="11"/>
-      <c r="AZ349" s="11"/>
+      <c r="AU349" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV349" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW349" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX349" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY349" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ349" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="BA349" s="11"/>
-      <c r="BB349" s="11"/>
+      <c r="BB349" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="BC349" s="11"/>
-      <c r="BD349" s="11"/>
-      <c r="BE349" s="11"/>
+      <c r="BD349" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE349" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="BF349" s="11"/>
-      <c r="BG349" s="11"/>
-      <c r="BH349" s="11"/>
-      <c r="BI349" s="11"/>
-      <c r="BJ349" s="11"/>
-      <c r="BK349" s="11"/>
-      <c r="BL349" s="11"/>
-      <c r="BM349" s="11"/>
+      <c r="BG349" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH349" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI349" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ349" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK349" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL349" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM349" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="BN349" s="11"/>
       <c r="BO349" s="11"/>
       <c r="BP349" s="11"/>
@@ -47238,7 +47646,7 @@
       <c r="CB349" s="7"/>
       <c r="CC349" s="7"/>
     </row>
-    <row r="350" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="5">
         <v>8</v>
       </c>
@@ -47327,7 +47735,7 @@
       <c r="CB350" s="7"/>
       <c r="CC350" s="7"/>
     </row>
-    <row r="351" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="5">
         <v>9</v>
       </c>
@@ -47338,49 +47746,135 @@
       </c>
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
-      <c r="G351" s="11"/>
-      <c r="H351" s="11"/>
-      <c r="I351" s="11"/>
-      <c r="J351" s="11"/>
-      <c r="K351" s="11"/>
-      <c r="L351" s="11"/>
-      <c r="M351" s="11"/>
-      <c r="N351" s="11"/>
-      <c r="O351" s="11"/>
-      <c r="P351" s="11"/>
-      <c r="Q351" s="11"/>
-      <c r="R351" s="11"/>
-      <c r="S351" s="11"/>
-      <c r="T351" s="11"/>
-      <c r="U351" s="11"/>
-      <c r="V351" s="11"/>
-      <c r="W351" s="11"/>
-      <c r="X351" s="11"/>
-      <c r="Y351" s="11"/>
-      <c r="Z351" s="11"/>
-      <c r="AA351" s="11"/>
-      <c r="AB351" s="11"/>
-      <c r="AC351" s="11"/>
-      <c r="AD351" s="11"/>
-      <c r="AE351" s="11"/>
-      <c r="AF351" s="11"/>
-      <c r="AG351" s="11"/>
-      <c r="AH351" s="11"/>
-      <c r="AI351" s="11"/>
-      <c r="AJ351" s="11"/>
-      <c r="AK351" s="11"/>
-      <c r="AL351" s="11"/>
-      <c r="AM351" s="11"/>
-      <c r="AN351" s="11"/>
-      <c r="AO351" s="11"/>
-      <c r="AP351" s="11"/>
-      <c r="AQ351" s="11"/>
-      <c r="AR351" s="11"/>
-      <c r="AS351" s="11"/>
-      <c r="AT351" s="11"/>
-      <c r="AU351" s="11"/>
-      <c r="AV351" s="11"/>
-      <c r="AW351" s="11"/>
+      <c r="G351" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V351" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV351" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW351" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AX351" s="11"/>
       <c r="AY351" s="11"/>
       <c r="AZ351" s="11"/>
@@ -47416,7 +47910,7 @@
       <c r="CB351" s="7"/>
       <c r="CC351" s="7"/>
     </row>
-    <row r="352" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="5">
         <v>10</v>
       </c>
@@ -47427,49 +47921,119 @@
       </c>
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
-      <c r="G352" s="11"/>
-      <c r="H352" s="11"/>
+      <c r="G352" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H352" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I352" s="11"/>
-      <c r="J352" s="11"/>
-      <c r="K352" s="11"/>
-      <c r="L352" s="11"/>
-      <c r="M352" s="11"/>
-      <c r="N352" s="11"/>
-      <c r="O352" s="11"/>
-      <c r="P352" s="11"/>
-      <c r="Q352" s="11"/>
-      <c r="R352" s="11"/>
-      <c r="S352" s="11"/>
+      <c r="J352" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L352" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M352" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N352" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O352" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P352" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q352" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R352" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="S352" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="T352" s="11"/>
-      <c r="U352" s="11"/>
-      <c r="V352" s="11"/>
+      <c r="U352" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V352" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="W352" s="11"/>
-      <c r="X352" s="11"/>
-      <c r="Y352" s="11"/>
-      <c r="Z352" s="11"/>
-      <c r="AA352" s="11"/>
-      <c r="AB352" s="11"/>
-      <c r="AC352" s="11"/>
-      <c r="AD352" s="11"/>
-      <c r="AE352" s="11"/>
-      <c r="AF352" s="11"/>
-      <c r="AG352" s="11"/>
-      <c r="AH352" s="11"/>
+      <c r="X352" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y352" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z352" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA352" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB352" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC352" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD352" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE352" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF352" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG352" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH352" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="AI352" s="11"/>
       <c r="AJ352" s="11"/>
-      <c r="AK352" s="11"/>
+      <c r="AK352" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="AL352" s="11"/>
-      <c r="AM352" s="11"/>
-      <c r="AN352" s="11"/>
-      <c r="AO352" s="11"/>
-      <c r="AP352" s="11"/>
-      <c r="AQ352" s="11"/>
-      <c r="AR352" s="11"/>
-      <c r="AS352" s="11"/>
-      <c r="AT352" s="11"/>
+      <c r="AM352" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN352" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO352" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP352" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ352" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR352" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS352" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT352" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AU352" s="11"/>
       <c r="AV352" s="11"/>
-      <c r="AW352" s="11"/>
+      <c r="AW352" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="AX352" s="11"/>
       <c r="AY352" s="11"/>
       <c r="AZ352" s="11"/>
@@ -47505,7 +48069,7 @@
       <c r="CB352" s="7"/>
       <c r="CC352" s="7"/>
     </row>
-    <row r="353" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="5">
         <v>11</v>
       </c>
@@ -47514,10 +48078,18 @@
       <c r="D353" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E353" s="11"/>
-      <c r="F353" s="11"/>
-      <c r="G353" s="11"/>
-      <c r="H353" s="11"/>
+      <c r="E353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G353" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H353" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I353" s="11"/>
       <c r="J353" s="11"/>
       <c r="K353" s="11"/>
@@ -47530,63 +48102,177 @@
       <c r="R353" s="11"/>
       <c r="S353" s="11"/>
       <c r="T353" s="11"/>
-      <c r="U353" s="11"/>
-      <c r="V353" s="11"/>
-      <c r="W353" s="11"/>
-      <c r="X353" s="11"/>
-      <c r="Y353" s="11"/>
-      <c r="Z353" s="11"/>
-      <c r="AA353" s="11"/>
-      <c r="AB353" s="11"/>
-      <c r="AC353" s="11"/>
-      <c r="AD353" s="11"/>
-      <c r="AE353" s="11"/>
-      <c r="AF353" s="11"/>
-      <c r="AG353" s="11"/>
-      <c r="AH353" s="11"/>
-      <c r="AI353" s="11"/>
-      <c r="AJ353" s="11"/>
-      <c r="AK353" s="11"/>
-      <c r="AL353" s="11"/>
-      <c r="AM353" s="11"/>
-      <c r="AN353" s="11"/>
-      <c r="AO353" s="11"/>
-      <c r="AP353" s="11"/>
-      <c r="AQ353" s="11"/>
-      <c r="AR353" s="11"/>
-      <c r="AS353" s="11"/>
-      <c r="AT353" s="11"/>
-      <c r="AU353" s="11"/>
-      <c r="AV353" s="11"/>
-      <c r="AW353" s="11"/>
-      <c r="AX353" s="11"/>
-      <c r="AY353" s="11"/>
-      <c r="AZ353" s="11"/>
-      <c r="BA353" s="11"/>
-      <c r="BB353" s="11"/>
-      <c r="BC353" s="11"/>
-      <c r="BD353" s="11"/>
-      <c r="BE353" s="11"/>
-      <c r="BF353" s="11"/>
-      <c r="BG353" s="11"/>
-      <c r="BH353" s="11"/>
-      <c r="BI353" s="11"/>
-      <c r="BJ353" s="11"/>
-      <c r="BK353" s="11"/>
-      <c r="BL353" s="11"/>
-      <c r="BM353" s="11"/>
-      <c r="BN353" s="11"/>
-      <c r="BO353" s="11"/>
-      <c r="BP353" s="11"/>
-      <c r="BQ353" s="11"/>
-      <c r="BR353" s="11"/>
-      <c r="BS353" s="11"/>
-      <c r="BT353" s="11"/>
-      <c r="BU353" s="11"/>
-      <c r="BV353" s="11"/>
-      <c r="BW353" s="11"/>
-      <c r="BX353" s="11"/>
-      <c r="BY353" s="11"/>
+      <c r="U353" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V353" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK353" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW353" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX353" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY353" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ353" s="7" t="s">
         <v>42</v>
       </c>
@@ -47594,7 +48280,7 @@
       <c r="CB353" s="7"/>
       <c r="CC353" s="7"/>
     </row>
-    <row r="354" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="5">
         <v>12</v>
       </c>
@@ -47683,7 +48369,7 @@
       <c r="CB354" s="7"/>
       <c r="CC354" s="7"/>
     </row>
-    <row r="355" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="5">
         <v>13</v>
       </c>
@@ -47693,77 +48379,77 @@
         <v>42</v>
       </c>
       <c r="E355" s="11"/>
-      <c r="F355" s="11"/>
-      <c r="G355" s="11"/>
-      <c r="H355" s="11"/>
-      <c r="I355" s="11"/>
-      <c r="J355" s="11"/>
-      <c r="K355" s="11"/>
-      <c r="L355" s="11"/>
-      <c r="M355" s="11"/>
-      <c r="N355" s="11"/>
-      <c r="O355" s="11"/>
-      <c r="P355" s="11"/>
-      <c r="Q355" s="11"/>
-      <c r="R355" s="11"/>
-      <c r="S355" s="11"/>
-      <c r="T355" s="11"/>
-      <c r="U355" s="11"/>
-      <c r="V355" s="11"/>
-      <c r="W355" s="11"/>
-      <c r="X355" s="11"/>
-      <c r="Y355" s="11"/>
-      <c r="Z355" s="11"/>
-      <c r="AA355" s="11"/>
-      <c r="AB355" s="11"/>
-      <c r="AC355" s="11"/>
-      <c r="AD355" s="11"/>
-      <c r="AE355" s="11"/>
-      <c r="AF355" s="11"/>
-      <c r="AG355" s="11"/>
-      <c r="AH355" s="11"/>
-      <c r="AI355" s="11"/>
-      <c r="AJ355" s="11"/>
-      <c r="AK355" s="11"/>
-      <c r="AL355" s="11"/>
-      <c r="AM355" s="11"/>
-      <c r="AN355" s="11"/>
-      <c r="AO355" s="11"/>
-      <c r="AP355" s="11"/>
-      <c r="AQ355" s="11"/>
-      <c r="AR355" s="11"/>
-      <c r="AS355" s="11"/>
-      <c r="AT355" s="11"/>
-      <c r="AU355" s="11"/>
-      <c r="AV355" s="11"/>
-      <c r="AW355" s="11"/>
-      <c r="AX355" s="11"/>
-      <c r="AY355" s="11"/>
-      <c r="AZ355" s="11"/>
-      <c r="BA355" s="11"/>
-      <c r="BB355" s="11"/>
-      <c r="BC355" s="11"/>
-      <c r="BD355" s="11"/>
-      <c r="BE355" s="11"/>
-      <c r="BF355" s="11"/>
-      <c r="BG355" s="11"/>
-      <c r="BH355" s="11"/>
-      <c r="BI355" s="11"/>
-      <c r="BJ355" s="11"/>
-      <c r="BK355" s="11"/>
-      <c r="BL355" s="11"/>
-      <c r="BM355" s="11"/>
-      <c r="BN355" s="11"/>
-      <c r="BO355" s="11"/>
-      <c r="BP355" s="11"/>
-      <c r="BQ355" s="11"/>
-      <c r="BR355" s="11"/>
-      <c r="BS355" s="11"/>
-      <c r="BT355" s="11"/>
-      <c r="BU355" s="11"/>
-      <c r="BV355" s="11"/>
-      <c r="BW355" s="11"/>
-      <c r="BX355" s="11"/>
+      <c r="F355" s="13"/>
+      <c r="G355" s="13"/>
+      <c r="H355" s="13"/>
+      <c r="I355" s="13"/>
+      <c r="J355" s="13"/>
+      <c r="K355" s="13"/>
+      <c r="L355" s="13"/>
+      <c r="M355" s="13"/>
+      <c r="N355" s="13"/>
+      <c r="O355" s="13"/>
+      <c r="P355" s="13"/>
+      <c r="Q355" s="13"/>
+      <c r="R355" s="13"/>
+      <c r="S355" s="13"/>
+      <c r="T355" s="13"/>
+      <c r="U355" s="13"/>
+      <c r="V355" s="13"/>
+      <c r="W355" s="13"/>
+      <c r="X355" s="13"/>
+      <c r="Y355" s="13"/>
+      <c r="Z355" s="13"/>
+      <c r="AA355" s="13"/>
+      <c r="AB355" s="13"/>
+      <c r="AC355" s="13"/>
+      <c r="AD355" s="13"/>
+      <c r="AE355" s="13"/>
+      <c r="AF355" s="13"/>
+      <c r="AG355" s="13"/>
+      <c r="AH355" s="13"/>
+      <c r="AI355" s="13"/>
+      <c r="AJ355" s="13"/>
+      <c r="AK355" s="13"/>
+      <c r="AL355" s="13"/>
+      <c r="AM355" s="13"/>
+      <c r="AN355" s="13"/>
+      <c r="AO355" s="13"/>
+      <c r="AP355" s="13"/>
+      <c r="AQ355" s="13"/>
+      <c r="AR355" s="13"/>
+      <c r="AS355" s="13"/>
+      <c r="AT355" s="13"/>
+      <c r="AU355" s="13"/>
+      <c r="AV355" s="13"/>
+      <c r="AW355" s="13"/>
+      <c r="AX355" s="13"/>
+      <c r="AY355" s="13"/>
+      <c r="AZ355" s="13"/>
+      <c r="BA355" s="13"/>
+      <c r="BB355" s="13"/>
+      <c r="BC355" s="13"/>
+      <c r="BD355" s="13"/>
+      <c r="BE355" s="13"/>
+      <c r="BF355" s="13"/>
+      <c r="BG355" s="13"/>
+      <c r="BH355" s="13"/>
+      <c r="BI355" s="13"/>
+      <c r="BJ355" s="13"/>
+      <c r="BK355" s="13"/>
+      <c r="BL355" s="13"/>
+      <c r="BM355" s="13"/>
+      <c r="BN355" s="13"/>
+      <c r="BO355" s="13"/>
+      <c r="BP355" s="13"/>
+      <c r="BQ355" s="13"/>
+      <c r="BR355" s="13"/>
+      <c r="BS355" s="13"/>
+      <c r="BT355" s="13"/>
+      <c r="BU355" s="13"/>
+      <c r="BV355" s="13"/>
+      <c r="BW355" s="13"/>
+      <c r="BX355" s="13"/>
       <c r="BY355" s="11"/>
       <c r="BZ355" s="7" t="s">
         <v>42</v>
@@ -47772,7 +48458,7 @@
       <c r="CB355" s="7"/>
       <c r="CC355" s="7"/>
     </row>
-    <row r="356" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="5">
         <v>14</v>
       </c>
@@ -47782,77 +48468,153 @@
         <v>42</v>
       </c>
       <c r="E356" s="11"/>
-      <c r="F356" s="11"/>
-      <c r="G356" s="11"/>
-      <c r="H356" s="11"/>
-      <c r="I356" s="11"/>
-      <c r="J356" s="11"/>
-      <c r="K356" s="11"/>
-      <c r="L356" s="11"/>
-      <c r="M356" s="11"/>
-      <c r="N356" s="11"/>
-      <c r="O356" s="11"/>
-      <c r="P356" s="11"/>
-      <c r="Q356" s="11"/>
-      <c r="R356" s="11"/>
-      <c r="S356" s="11"/>
-      <c r="T356" s="11"/>
-      <c r="U356" s="11"/>
-      <c r="V356" s="11"/>
-      <c r="W356" s="11"/>
-      <c r="X356" s="11"/>
-      <c r="Y356" s="11"/>
-      <c r="Z356" s="11"/>
-      <c r="AA356" s="11"/>
-      <c r="AB356" s="11"/>
-      <c r="AC356" s="11"/>
-      <c r="AD356" s="11"/>
-      <c r="AE356" s="11"/>
-      <c r="AF356" s="11"/>
-      <c r="AG356" s="11"/>
-      <c r="AH356" s="11"/>
-      <c r="AI356" s="11"/>
-      <c r="AJ356" s="11"/>
-      <c r="AK356" s="11"/>
-      <c r="AL356" s="11"/>
-      <c r="AM356" s="11"/>
-      <c r="AN356" s="11"/>
-      <c r="AO356" s="11"/>
-      <c r="AP356" s="11"/>
-      <c r="AQ356" s="11"/>
-      <c r="AR356" s="11"/>
-      <c r="AS356" s="11"/>
-      <c r="AT356" s="11"/>
-      <c r="AU356" s="11"/>
-      <c r="AV356" s="11"/>
-      <c r="AW356" s="11"/>
-      <c r="AX356" s="11"/>
-      <c r="AY356" s="11"/>
-      <c r="AZ356" s="11"/>
-      <c r="BA356" s="11"/>
-      <c r="BB356" s="11"/>
-      <c r="BC356" s="11"/>
-      <c r="BD356" s="11"/>
-      <c r="BE356" s="11"/>
-      <c r="BF356" s="11"/>
-      <c r="BG356" s="11"/>
-      <c r="BH356" s="11"/>
-      <c r="BI356" s="11"/>
-      <c r="BJ356" s="11"/>
-      <c r="BK356" s="11"/>
-      <c r="BL356" s="11"/>
-      <c r="BM356" s="11"/>
-      <c r="BN356" s="11"/>
-      <c r="BO356" s="11"/>
-      <c r="BP356" s="11"/>
-      <c r="BQ356" s="11"/>
-      <c r="BR356" s="11"/>
-      <c r="BS356" s="11"/>
-      <c r="BT356" s="11"/>
-      <c r="BU356" s="11"/>
-      <c r="BV356" s="11"/>
-      <c r="BW356" s="11"/>
-      <c r="BX356" s="11"/>
+      <c r="F356" s="13"/>
+      <c r="G356" s="13"/>
+      <c r="H356" s="13"/>
+      <c r="I356" s="13"/>
+      <c r="J356" s="13"/>
+      <c r="K356" s="13"/>
+      <c r="L356" s="13"/>
+      <c r="M356" s="13"/>
+      <c r="N356" s="13"/>
+      <c r="O356" s="13"/>
+      <c r="P356" s="13"/>
+      <c r="Q356" s="13"/>
+      <c r="R356" s="13"/>
+      <c r="S356" s="13"/>
+      <c r="T356" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U356" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V356" s="13"/>
+      <c r="W356" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X356" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y356" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z356" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA356" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB356" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC356" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD356" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE356" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF356" s="13"/>
+      <c r="AG356" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH356" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI356" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ356" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK356" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL356" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM356" s="13"/>
+      <c r="AN356" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO356" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP356" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ356" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR356" s="13"/>
+      <c r="AS356" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT356" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU356" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV356" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW356" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX356" s="13"/>
+      <c r="AY356" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ356" s="13"/>
+      <c r="BA356" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB356" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC356" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD356" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE356" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF356" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG356" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH356" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI356" s="13"/>
+      <c r="BJ356" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK356" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL356" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM356" s="13"/>
+      <c r="BN356" s="13"/>
+      <c r="BO356" s="13"/>
+      <c r="BP356" s="13"/>
+      <c r="BQ356" s="13"/>
+      <c r="BR356" s="13"/>
+      <c r="BS356" s="13"/>
+      <c r="BT356" s="13"/>
+      <c r="BU356" s="13"/>
+      <c r="BV356" s="13"/>
+      <c r="BW356" s="13"/>
+      <c r="BX356" s="13"/>
       <c r="BY356" s="11"/>
       <c r="BZ356" s="7" t="s">
         <v>42</v>
@@ -47861,7 +48623,7 @@
       <c r="CB356" s="7"/>
       <c r="CC356" s="7"/>
     </row>
-    <row r="357" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="5">
         <v>15</v>
       </c>
@@ -47871,77 +48633,77 @@
         <v>42</v>
       </c>
       <c r="E357" s="11"/>
-      <c r="F357" s="11"/>
-      <c r="G357" s="11"/>
-      <c r="H357" s="11"/>
-      <c r="I357" s="11"/>
-      <c r="J357" s="11"/>
-      <c r="K357" s="11"/>
-      <c r="L357" s="11"/>
-      <c r="M357" s="11"/>
-      <c r="N357" s="11"/>
-      <c r="O357" s="11"/>
-      <c r="P357" s="11"/>
-      <c r="Q357" s="11"/>
-      <c r="R357" s="11"/>
-      <c r="S357" s="11"/>
-      <c r="T357" s="11"/>
-      <c r="U357" s="11"/>
-      <c r="V357" s="11"/>
-      <c r="W357" s="11"/>
-      <c r="X357" s="11"/>
-      <c r="Y357" s="11"/>
-      <c r="Z357" s="11"/>
-      <c r="AA357" s="11"/>
-      <c r="AB357" s="11"/>
-      <c r="AC357" s="11"/>
-      <c r="AD357" s="11"/>
-      <c r="AE357" s="11"/>
-      <c r="AF357" s="11"/>
-      <c r="AG357" s="11"/>
-      <c r="AH357" s="11"/>
-      <c r="AI357" s="11"/>
-      <c r="AJ357" s="11"/>
-      <c r="AK357" s="11"/>
-      <c r="AL357" s="11"/>
-      <c r="AM357" s="11"/>
-      <c r="AN357" s="11"/>
-      <c r="AO357" s="11"/>
-      <c r="AP357" s="11"/>
-      <c r="AQ357" s="11"/>
-      <c r="AR357" s="11"/>
-      <c r="AS357" s="11"/>
-      <c r="AT357" s="11"/>
-      <c r="AU357" s="11"/>
-      <c r="AV357" s="11"/>
-      <c r="AW357" s="11"/>
-      <c r="AX357" s="11"/>
-      <c r="AY357" s="11"/>
-      <c r="AZ357" s="11"/>
-      <c r="BA357" s="11"/>
-      <c r="BB357" s="11"/>
-      <c r="BC357" s="11"/>
-      <c r="BD357" s="11"/>
-      <c r="BE357" s="11"/>
-      <c r="BF357" s="11"/>
-      <c r="BG357" s="11"/>
-      <c r="BH357" s="11"/>
-      <c r="BI357" s="11"/>
-      <c r="BJ357" s="11"/>
-      <c r="BK357" s="11"/>
-      <c r="BL357" s="11"/>
-      <c r="BM357" s="11"/>
-      <c r="BN357" s="11"/>
-      <c r="BO357" s="11"/>
-      <c r="BP357" s="11"/>
-      <c r="BQ357" s="11"/>
-      <c r="BR357" s="11"/>
-      <c r="BS357" s="11"/>
-      <c r="BT357" s="11"/>
-      <c r="BU357" s="11"/>
-      <c r="BV357" s="11"/>
-      <c r="BW357" s="11"/>
-      <c r="BX357" s="11"/>
+      <c r="F357" s="13"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="13"/>
+      <c r="I357" s="13"/>
+      <c r="J357" s="13"/>
+      <c r="K357" s="13"/>
+      <c r="L357" s="13"/>
+      <c r="M357" s="13"/>
+      <c r="N357" s="13"/>
+      <c r="O357" s="13"/>
+      <c r="P357" s="13"/>
+      <c r="Q357" s="13"/>
+      <c r="R357" s="13"/>
+      <c r="S357" s="13"/>
+      <c r="T357" s="45"/>
+      <c r="U357" s="45"/>
+      <c r="V357" s="45"/>
+      <c r="W357" s="45"/>
+      <c r="X357" s="45"/>
+      <c r="Y357" s="45"/>
+      <c r="Z357" s="45"/>
+      <c r="AA357" s="45"/>
+      <c r="AB357" s="45"/>
+      <c r="AC357" s="45"/>
+      <c r="AD357" s="46"/>
+      <c r="AE357" s="25"/>
+      <c r="AF357" s="25"/>
+      <c r="AG357" s="13"/>
+      <c r="AH357" s="13"/>
+      <c r="AI357" s="13"/>
+      <c r="AJ357" s="13"/>
+      <c r="AK357" s="13"/>
+      <c r="AL357" s="13"/>
+      <c r="AM357" s="13"/>
+      <c r="AN357" s="13"/>
+      <c r="AO357" s="13"/>
+      <c r="AP357" s="13"/>
+      <c r="AQ357" s="13"/>
+      <c r="AR357" s="13"/>
+      <c r="AS357" s="13"/>
+      <c r="AT357" s="13"/>
+      <c r="AU357" s="13"/>
+      <c r="AV357" s="13"/>
+      <c r="AW357" s="13"/>
+      <c r="AX357" s="13"/>
+      <c r="AY357" s="13"/>
+      <c r="AZ357" s="13"/>
+      <c r="BA357" s="13"/>
+      <c r="BB357" s="13"/>
+      <c r="BC357" s="13"/>
+      <c r="BD357" s="13"/>
+      <c r="BE357" s="13"/>
+      <c r="BF357" s="13"/>
+      <c r="BG357" s="13"/>
+      <c r="BH357" s="13"/>
+      <c r="BI357" s="13"/>
+      <c r="BJ357" s="13"/>
+      <c r="BK357" s="13"/>
+      <c r="BL357" s="13"/>
+      <c r="BM357" s="13"/>
+      <c r="BN357" s="13"/>
+      <c r="BO357" s="13"/>
+      <c r="BP357" s="13"/>
+      <c r="BQ357" s="13"/>
+      <c r="BR357" s="13"/>
+      <c r="BS357" s="13"/>
+      <c r="BT357" s="13"/>
+      <c r="BU357" s="13"/>
+      <c r="BV357" s="13"/>
+      <c r="BW357" s="13"/>
+      <c r="BX357" s="13"/>
       <c r="BY357" s="11"/>
       <c r="BZ357" s="7" t="s">
         <v>42</v>
@@ -47950,7 +48712,7 @@
       <c r="CB357" s="7"/>
       <c r="CC357" s="7"/>
     </row>
-    <row r="358" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="5">
         <v>16</v>
       </c>
@@ -47960,77 +48722,131 @@
         <v>42</v>
       </c>
       <c r="E358" s="11"/>
-      <c r="F358" s="11"/>
-      <c r="G358" s="39"/>
-      <c r="H358" s="39"/>
-      <c r="I358" s="39"/>
-      <c r="J358" s="39"/>
-      <c r="K358" s="39"/>
-      <c r="L358" s="39"/>
-      <c r="M358" s="39"/>
-      <c r="N358" s="39"/>
-      <c r="O358" s="39"/>
-      <c r="P358" s="39"/>
-      <c r="Q358" s="39"/>
-      <c r="R358" s="39"/>
-      <c r="S358" s="39"/>
-      <c r="T358" s="39"/>
-      <c r="U358" s="39"/>
-      <c r="V358" s="39"/>
-      <c r="W358" s="39"/>
-      <c r="X358" s="39"/>
-      <c r="Y358" s="39"/>
-      <c r="Z358" s="39"/>
-      <c r="AA358" s="39"/>
-      <c r="AB358" s="39"/>
-      <c r="AC358" s="39"/>
-      <c r="AD358" s="39"/>
-      <c r="AE358" s="39"/>
-      <c r="AF358" s="39"/>
-      <c r="AG358" s="44"/>
-      <c r="AH358" s="20"/>
-      <c r="AI358" s="20"/>
-      <c r="AJ358" s="11"/>
-      <c r="AK358" s="11"/>
-      <c r="AL358" s="11"/>
-      <c r="AM358" s="11"/>
-      <c r="AN358" s="11"/>
-      <c r="AO358" s="11"/>
-      <c r="AP358" s="11"/>
-      <c r="AQ358" s="11"/>
-      <c r="AR358" s="11"/>
-      <c r="AS358" s="11"/>
-      <c r="AT358" s="11"/>
-      <c r="AU358" s="11"/>
-      <c r="AV358" s="11"/>
-      <c r="AW358" s="11"/>
-      <c r="AX358" s="11"/>
-      <c r="AY358" s="11"/>
-      <c r="AZ358" s="11"/>
-      <c r="BA358" s="11"/>
-      <c r="BB358" s="11"/>
-      <c r="BC358" s="11"/>
-      <c r="BD358" s="11"/>
-      <c r="BE358" s="11"/>
-      <c r="BF358" s="11"/>
-      <c r="BG358" s="11"/>
-      <c r="BH358" s="11"/>
-      <c r="BI358" s="11"/>
-      <c r="BJ358" s="11"/>
-      <c r="BK358" s="11"/>
-      <c r="BL358" s="11"/>
-      <c r="BM358" s="11"/>
-      <c r="BN358" s="11"/>
-      <c r="BO358" s="11"/>
-      <c r="BP358" s="11"/>
-      <c r="BQ358" s="11"/>
-      <c r="BR358" s="11"/>
-      <c r="BS358" s="11"/>
-      <c r="BT358" s="11"/>
-      <c r="BU358" s="11"/>
-      <c r="BV358" s="11"/>
-      <c r="BW358" s="11"/>
-      <c r="BX358" s="11"/>
+      <c r="F358" s="13"/>
+      <c r="G358" s="45"/>
+      <c r="H358" s="45"/>
+      <c r="I358" s="45"/>
+      <c r="J358" s="45"/>
+      <c r="K358" s="45"/>
+      <c r="L358" s="45"/>
+      <c r="M358" s="45"/>
+      <c r="N358" s="45"/>
+      <c r="O358" s="45"/>
+      <c r="P358" s="45"/>
+      <c r="Q358" s="45"/>
+      <c r="R358" s="45"/>
+      <c r="S358" s="45"/>
+      <c r="T358" s="13"/>
+      <c r="U358" s="13"/>
+      <c r="V358" s="13"/>
+      <c r="W358" s="13"/>
+      <c r="X358" s="13"/>
+      <c r="Y358" s="13"/>
+      <c r="Z358" s="13"/>
+      <c r="AA358" s="13"/>
+      <c r="AB358" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC358" s="45">
+        <v>2</v>
+      </c>
+      <c r="AD358" s="46">
+        <v>4</v>
+      </c>
+      <c r="AE358" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF358" s="25"/>
+      <c r="AG358" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH358" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI358" s="13"/>
+      <c r="AJ358" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK358" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL358" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM358" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN358" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO358" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP358" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ358" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR358" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS358" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT358" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU358" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV358" s="13"/>
+      <c r="AW358" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX358" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY358" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ358" s="13"/>
+      <c r="BA358" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB358" s="13">
+        <v>2</v>
+      </c>
+      <c r="BC358" s="13">
+        <v>0</v>
+      </c>
+      <c r="BD358" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE358" s="13">
+        <v>6</v>
+      </c>
+      <c r="BF358" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG358" s="13"/>
+      <c r="BH358" s="13"/>
+      <c r="BI358" s="13"/>
+      <c r="BJ358" s="13"/>
+      <c r="BK358" s="13"/>
+      <c r="BL358" s="13"/>
+      <c r="BM358" s="13"/>
+      <c r="BN358" s="13"/>
+      <c r="BO358" s="13"/>
+      <c r="BP358" s="13"/>
+      <c r="BQ358" s="13"/>
+      <c r="BR358" s="13"/>
+      <c r="BS358" s="13"/>
+      <c r="BT358" s="13"/>
+      <c r="BU358" s="13"/>
+      <c r="BV358" s="13"/>
+      <c r="BW358" s="13"/>
+      <c r="BX358" s="13"/>
       <c r="BY358" s="11"/>
       <c r="BZ358" s="7" t="s">
         <v>42</v>
@@ -48039,7 +48855,7 @@
       <c r="CB358" s="7"/>
       <c r="CC358" s="7"/>
     </row>
-    <row r="359" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="5">
         <v>17</v>
       </c>
@@ -48049,77 +48865,77 @@
         <v>42</v>
       </c>
       <c r="E359" s="11"/>
-      <c r="F359" s="40"/>
-      <c r="G359" s="40"/>
-      <c r="H359" s="11"/>
-      <c r="I359" s="11"/>
-      <c r="J359" s="11"/>
-      <c r="K359" s="11"/>
-      <c r="L359" s="11"/>
-      <c r="M359" s="11"/>
-      <c r="N359" s="11"/>
-      <c r="O359" s="11"/>
-      <c r="P359" s="11"/>
-      <c r="Q359" s="11"/>
-      <c r="R359" s="11"/>
-      <c r="S359" s="11"/>
-      <c r="T359" s="11"/>
-      <c r="U359" s="11"/>
-      <c r="V359" s="11"/>
-      <c r="W359" s="11"/>
-      <c r="X359" s="11"/>
-      <c r="Y359" s="11"/>
-      <c r="Z359" s="11"/>
-      <c r="AA359" s="11"/>
-      <c r="AB359" s="11"/>
-      <c r="AC359" s="11"/>
-      <c r="AD359" s="11"/>
-      <c r="AE359" s="11"/>
-      <c r="AF359" s="11"/>
-      <c r="AG359" s="11"/>
-      <c r="AH359" s="41"/>
-      <c r="AI359" s="11"/>
-      <c r="AJ359" s="11"/>
-      <c r="AK359" s="11"/>
-      <c r="AL359" s="11"/>
-      <c r="AM359" s="11"/>
-      <c r="AN359" s="11"/>
-      <c r="AO359" s="11"/>
-      <c r="AP359" s="11"/>
-      <c r="AQ359" s="11"/>
-      <c r="AR359" s="11"/>
-      <c r="AS359" s="11"/>
-      <c r="AT359" s="11"/>
-      <c r="AU359" s="11"/>
-      <c r="AV359" s="11"/>
-      <c r="AW359" s="11"/>
-      <c r="AX359" s="11"/>
-      <c r="AY359" s="11"/>
-      <c r="AZ359" s="11"/>
-      <c r="BA359" s="11"/>
-      <c r="BB359" s="11"/>
-      <c r="BC359" s="11"/>
-      <c r="BD359" s="11"/>
-      <c r="BE359" s="11"/>
-      <c r="BF359" s="11"/>
-      <c r="BG359" s="11"/>
-      <c r="BH359" s="11"/>
-      <c r="BI359" s="11"/>
-      <c r="BJ359" s="11"/>
-      <c r="BK359" s="11"/>
-      <c r="BL359" s="11"/>
-      <c r="BM359" s="11"/>
-      <c r="BN359" s="11"/>
-      <c r="BO359" s="11"/>
-      <c r="BP359" s="11"/>
-      <c r="BQ359" s="11"/>
-      <c r="BR359" s="11"/>
-      <c r="BS359" s="11"/>
-      <c r="BT359" s="11"/>
-      <c r="BU359" s="11"/>
-      <c r="BV359" s="11"/>
-      <c r="BW359" s="11"/>
-      <c r="BX359" s="11"/>
+      <c r="F359" s="47"/>
+      <c r="G359" s="47"/>
+      <c r="H359" s="13"/>
+      <c r="I359" s="13"/>
+      <c r="J359" s="13"/>
+      <c r="K359" s="13"/>
+      <c r="L359" s="13"/>
+      <c r="M359" s="13"/>
+      <c r="N359" s="13"/>
+      <c r="O359" s="13"/>
+      <c r="P359" s="13"/>
+      <c r="Q359" s="13"/>
+      <c r="R359" s="13"/>
+      <c r="S359" s="13"/>
+      <c r="T359" s="13"/>
+      <c r="U359" s="13"/>
+      <c r="V359" s="13"/>
+      <c r="W359" s="13"/>
+      <c r="X359" s="13"/>
+      <c r="Y359" s="13"/>
+      <c r="Z359" s="13"/>
+      <c r="AA359" s="13"/>
+      <c r="AB359" s="45"/>
+      <c r="AC359" s="45"/>
+      <c r="AD359" s="46"/>
+      <c r="AE359" s="25"/>
+      <c r="AF359" s="25"/>
+      <c r="AG359" s="13"/>
+      <c r="AH359" s="13"/>
+      <c r="AI359" s="13"/>
+      <c r="AJ359" s="13"/>
+      <c r="AK359" s="13"/>
+      <c r="AL359" s="13"/>
+      <c r="AM359" s="13"/>
+      <c r="AN359" s="13"/>
+      <c r="AO359" s="13"/>
+      <c r="AP359" s="13"/>
+      <c r="AQ359" s="13"/>
+      <c r="AR359" s="13"/>
+      <c r="AS359" s="13"/>
+      <c r="AT359" s="13"/>
+      <c r="AU359" s="13"/>
+      <c r="AV359" s="13"/>
+      <c r="AW359" s="13"/>
+      <c r="AX359" s="13"/>
+      <c r="AY359" s="13"/>
+      <c r="AZ359" s="13"/>
+      <c r="BA359" s="13"/>
+      <c r="BB359" s="13"/>
+      <c r="BC359" s="13"/>
+      <c r="BD359" s="13"/>
+      <c r="BE359" s="13"/>
+      <c r="BF359" s="13"/>
+      <c r="BG359" s="13"/>
+      <c r="BH359" s="13"/>
+      <c r="BI359" s="13"/>
+      <c r="BJ359" s="13"/>
+      <c r="BK359" s="13"/>
+      <c r="BL359" s="13"/>
+      <c r="BM359" s="13"/>
+      <c r="BN359" s="13"/>
+      <c r="BO359" s="13"/>
+      <c r="BP359" s="13"/>
+      <c r="BQ359" s="13"/>
+      <c r="BR359" s="13"/>
+      <c r="BS359" s="13"/>
+      <c r="BT359" s="13"/>
+      <c r="BU359" s="13"/>
+      <c r="BV359" s="13"/>
+      <c r="BW359" s="13"/>
+      <c r="BX359" s="13"/>
       <c r="BY359" s="11"/>
       <c r="BZ359" s="7" t="s">
         <v>42</v>
@@ -48128,7 +48944,7 @@
       <c r="CB359" s="7"/>
       <c r="CC359" s="7"/>
     </row>
-    <row r="360" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="5">
         <v>18</v>
       </c>
@@ -48138,77 +48954,107 @@
         <v>42</v>
       </c>
       <c r="E360" s="11"/>
-      <c r="F360" s="22"/>
-      <c r="G360" s="43"/>
-      <c r="H360" s="11"/>
-      <c r="I360" s="11"/>
-      <c r="J360" s="11"/>
-      <c r="K360" s="11"/>
-      <c r="L360" s="11"/>
-      <c r="M360" s="11"/>
-      <c r="N360" s="11"/>
-      <c r="O360" s="11"/>
-      <c r="P360" s="11"/>
-      <c r="Q360" s="11"/>
-      <c r="R360" s="11"/>
-      <c r="S360" s="11"/>
-      <c r="T360" s="11"/>
-      <c r="U360" s="11"/>
-      <c r="V360" s="11"/>
-      <c r="W360" s="11"/>
-      <c r="X360" s="11"/>
-      <c r="Y360" s="11"/>
-      <c r="Z360" s="11"/>
-      <c r="AA360" s="11"/>
-      <c r="AB360" s="11"/>
-      <c r="AC360" s="11"/>
-      <c r="AD360" s="11"/>
-      <c r="AE360" s="11"/>
-      <c r="AF360" s="11"/>
-      <c r="AG360" s="11"/>
-      <c r="AH360" s="41"/>
-      <c r="AI360" s="11"/>
-      <c r="AJ360" s="11"/>
-      <c r="AK360" s="11"/>
-      <c r="AL360" s="11"/>
-      <c r="AM360" s="11"/>
-      <c r="AN360" s="11"/>
-      <c r="AO360" s="11"/>
-      <c r="AP360" s="11"/>
-      <c r="AQ360" s="11"/>
-      <c r="AR360" s="11"/>
-      <c r="AS360" s="11"/>
-      <c r="AT360" s="11"/>
-      <c r="AU360" s="11"/>
-      <c r="AV360" s="11"/>
-      <c r="AW360" s="11"/>
-      <c r="AX360" s="11"/>
-      <c r="AY360" s="11"/>
-      <c r="AZ360" s="11"/>
-      <c r="BA360" s="11"/>
-      <c r="BB360" s="11"/>
-      <c r="BC360" s="11"/>
-      <c r="BD360" s="11"/>
-      <c r="BE360" s="11"/>
-      <c r="BF360" s="11"/>
-      <c r="BG360" s="11"/>
-      <c r="BH360" s="11"/>
-      <c r="BI360" s="11"/>
-      <c r="BJ360" s="11"/>
-      <c r="BK360" s="11"/>
-      <c r="BL360" s="11"/>
-      <c r="BM360" s="11"/>
-      <c r="BN360" s="11"/>
-      <c r="BO360" s="11"/>
-      <c r="BP360" s="11"/>
-      <c r="BQ360" s="11"/>
-      <c r="BR360" s="11"/>
-      <c r="BS360" s="11"/>
-      <c r="BT360" s="11"/>
-      <c r="BU360" s="11"/>
-      <c r="BV360" s="11"/>
-      <c r="BW360" s="11"/>
-      <c r="BX360" s="11"/>
+      <c r="F360" s="29"/>
+      <c r="G360" s="49"/>
+      <c r="H360" s="13"/>
+      <c r="I360" s="13"/>
+      <c r="J360" s="13"/>
+      <c r="K360" s="13"/>
+      <c r="L360" s="13"/>
+      <c r="M360" s="13"/>
+      <c r="N360" s="13"/>
+      <c r="O360" s="13"/>
+      <c r="P360" s="13"/>
+      <c r="Q360" s="13"/>
+      <c r="R360" s="13"/>
+      <c r="S360" s="13"/>
+      <c r="T360" s="13"/>
+      <c r="U360" s="13"/>
+      <c r="V360" s="13"/>
+      <c r="W360" s="13"/>
+      <c r="X360" s="13"/>
+      <c r="Y360" s="13"/>
+      <c r="Z360" s="13"/>
+      <c r="AA360" s="13"/>
+      <c r="AB360" s="13"/>
+      <c r="AC360" s="13"/>
+      <c r="AD360" s="13"/>
+      <c r="AE360" s="13"/>
+      <c r="AF360" s="13"/>
+      <c r="AG360" s="13"/>
+      <c r="AH360" s="48"/>
+      <c r="AI360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW360" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX360" s="13"/>
+      <c r="AY360" s="13"/>
+      <c r="AZ360" s="13"/>
+      <c r="BA360" s="13"/>
+      <c r="BB360" s="13"/>
+      <c r="BC360" s="13"/>
+      <c r="BD360" s="13"/>
+      <c r="BE360" s="13"/>
+      <c r="BF360" s="13"/>
+      <c r="BG360" s="13"/>
+      <c r="BH360" s="13"/>
+      <c r="BI360" s="13"/>
+      <c r="BJ360" s="13"/>
+      <c r="BK360" s="13"/>
+      <c r="BL360" s="13"/>
+      <c r="BM360" s="13"/>
+      <c r="BN360" s="13"/>
+      <c r="BO360" s="13"/>
+      <c r="BP360" s="13"/>
+      <c r="BQ360" s="13"/>
+      <c r="BR360" s="13"/>
+      <c r="BS360" s="13"/>
+      <c r="BT360" s="13"/>
+      <c r="BU360" s="13"/>
+      <c r="BV360" s="13"/>
+      <c r="BW360" s="13"/>
+      <c r="BX360" s="13"/>
       <c r="BY360" s="11"/>
       <c r="BZ360" s="7" t="s">
         <v>42</v>
@@ -48217,7 +49063,7 @@
       <c r="CB360" s="7"/>
       <c r="CC360" s="7"/>
     </row>
-    <row r="361" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="5">
         <v>19</v>
       </c>
@@ -48227,77 +49073,103 @@
         <v>42</v>
       </c>
       <c r="E361" s="11"/>
-      <c r="F361" s="40"/>
-      <c r="G361" s="40"/>
-      <c r="H361" s="11"/>
-      <c r="I361" s="11"/>
-      <c r="J361" s="11"/>
-      <c r="K361" s="11"/>
-      <c r="L361" s="11"/>
-      <c r="M361" s="11"/>
-      <c r="N361" s="11"/>
-      <c r="O361" s="11"/>
-      <c r="P361" s="11"/>
-      <c r="Q361" s="11"/>
-      <c r="R361" s="11"/>
-      <c r="S361" s="11"/>
-      <c r="T361" s="11"/>
-      <c r="U361" s="11"/>
-      <c r="V361" s="11"/>
-      <c r="W361" s="11"/>
-      <c r="X361" s="11"/>
-      <c r="Y361" s="11"/>
-      <c r="Z361" s="11"/>
-      <c r="AA361" s="11"/>
-      <c r="AB361" s="11"/>
-      <c r="AC361" s="11"/>
-      <c r="AD361" s="11"/>
-      <c r="AE361" s="11"/>
-      <c r="AF361" s="11"/>
-      <c r="AG361" s="11"/>
-      <c r="AH361" s="41"/>
-      <c r="AI361" s="11"/>
-      <c r="AJ361" s="11"/>
-      <c r="AK361" s="11"/>
-      <c r="AL361" s="11"/>
-      <c r="AM361" s="11"/>
-      <c r="AN361" s="11"/>
-      <c r="AO361" s="11"/>
-      <c r="AP361" s="11"/>
-      <c r="AQ361" s="11"/>
-      <c r="AR361" s="11"/>
-      <c r="AS361" s="11"/>
-      <c r="AT361" s="11"/>
-      <c r="AU361" s="11"/>
-      <c r="AV361" s="11"/>
-      <c r="AW361" s="11"/>
-      <c r="AX361" s="11"/>
-      <c r="AY361" s="11"/>
-      <c r="AZ361" s="11"/>
-      <c r="BA361" s="11"/>
-      <c r="BB361" s="11"/>
-      <c r="BC361" s="11"/>
-      <c r="BD361" s="11"/>
-      <c r="BE361" s="11"/>
-      <c r="BF361" s="11"/>
-      <c r="BG361" s="11"/>
-      <c r="BH361" s="11"/>
-      <c r="BI361" s="11"/>
-      <c r="BJ361" s="11"/>
-      <c r="BK361" s="11"/>
-      <c r="BL361" s="11"/>
-      <c r="BM361" s="11"/>
-      <c r="BN361" s="11"/>
-      <c r="BO361" s="11"/>
-      <c r="BP361" s="11"/>
-      <c r="BQ361" s="11"/>
-      <c r="BR361" s="11"/>
-      <c r="BS361" s="11"/>
-      <c r="BT361" s="11"/>
-      <c r="BU361" s="11"/>
-      <c r="BV361" s="11"/>
-      <c r="BW361" s="11"/>
-      <c r="BX361" s="11"/>
+      <c r="F361" s="47"/>
+      <c r="G361" s="47"/>
+      <c r="H361" s="13"/>
+      <c r="I361" s="13"/>
+      <c r="J361" s="13"/>
+      <c r="K361" s="13"/>
+      <c r="L361" s="13"/>
+      <c r="M361" s="13"/>
+      <c r="N361" s="13"/>
+      <c r="O361" s="13"/>
+      <c r="P361" s="13"/>
+      <c r="Q361" s="13"/>
+      <c r="R361" s="13"/>
+      <c r="S361" s="13"/>
+      <c r="T361" s="13"/>
+      <c r="U361" s="13"/>
+      <c r="V361" s="13"/>
+      <c r="W361" s="13"/>
+      <c r="X361" s="13"/>
+      <c r="Y361" s="13"/>
+      <c r="Z361" s="13"/>
+      <c r="AA361" s="13"/>
+      <c r="AB361" s="13"/>
+      <c r="AC361" s="13"/>
+      <c r="AD361" s="13"/>
+      <c r="AE361" s="13"/>
+      <c r="AF361" s="13"/>
+      <c r="AG361" s="13"/>
+      <c r="AH361" s="48"/>
+      <c r="AI361" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ361" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK361" s="10"/>
+      <c r="AL361" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM361" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN361" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO361" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP361" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ361" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR361" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS361" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT361" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU361" s="10"/>
+      <c r="AV361" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW361" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX361" s="13"/>
+      <c r="AY361" s="13"/>
+      <c r="AZ361" s="13"/>
+      <c r="BA361" s="13"/>
+      <c r="BB361" s="13"/>
+      <c r="BC361" s="13"/>
+      <c r="BD361" s="13"/>
+      <c r="BE361" s="13"/>
+      <c r="BF361" s="13"/>
+      <c r="BG361" s="13"/>
+      <c r="BH361" s="13"/>
+      <c r="BI361" s="13"/>
+      <c r="BJ361" s="13"/>
+      <c r="BK361" s="13"/>
+      <c r="BL361" s="13"/>
+      <c r="BM361" s="13"/>
+      <c r="BN361" s="13"/>
+      <c r="BO361" s="13"/>
+      <c r="BP361" s="13"/>
+      <c r="BQ361" s="13"/>
+      <c r="BR361" s="13"/>
+      <c r="BS361" s="13"/>
+      <c r="BT361" s="13"/>
+      <c r="BU361" s="13"/>
+      <c r="BV361" s="13"/>
+      <c r="BW361" s="13"/>
+      <c r="BX361" s="13"/>
       <c r="BY361" s="11"/>
       <c r="BZ361" s="7" t="s">
         <v>42</v>
@@ -48306,7 +49178,7 @@
       <c r="CB361" s="7"/>
       <c r="CC361" s="7"/>
     </row>
-    <row r="362" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="5">
         <v>20</v>
       </c>
@@ -48316,77 +49188,107 @@
         <v>42</v>
       </c>
       <c r="E362" s="11"/>
-      <c r="F362" s="22"/>
-      <c r="G362" s="43"/>
-      <c r="H362" s="11"/>
-      <c r="I362" s="11"/>
-      <c r="J362" s="11"/>
-      <c r="K362" s="11"/>
-      <c r="L362" s="11"/>
-      <c r="M362" s="11"/>
-      <c r="N362" s="11"/>
-      <c r="O362" s="11"/>
-      <c r="P362" s="11"/>
-      <c r="Q362" s="11"/>
-      <c r="R362" s="11"/>
-      <c r="S362" s="11"/>
-      <c r="T362" s="11"/>
-      <c r="U362" s="11"/>
-      <c r="V362" s="11"/>
-      <c r="W362" s="11"/>
-      <c r="X362" s="11"/>
-      <c r="Y362" s="11"/>
-      <c r="Z362" s="11"/>
-      <c r="AA362" s="11"/>
-      <c r="AB362" s="11"/>
-      <c r="AC362" s="11"/>
-      <c r="AD362" s="11"/>
-      <c r="AE362" s="11"/>
-      <c r="AF362" s="11"/>
-      <c r="AG362" s="11"/>
-      <c r="AH362" s="41"/>
-      <c r="AI362" s="11"/>
-      <c r="AJ362" s="11"/>
-      <c r="AK362" s="11"/>
-      <c r="AL362" s="11"/>
-      <c r="AM362" s="11"/>
-      <c r="AN362" s="11"/>
-      <c r="AO362" s="11"/>
-      <c r="AP362" s="11"/>
-      <c r="AQ362" s="11"/>
-      <c r="AR362" s="11"/>
-      <c r="AS362" s="11"/>
-      <c r="AT362" s="11"/>
-      <c r="AU362" s="11"/>
-      <c r="AV362" s="11"/>
-      <c r="AW362" s="11"/>
-      <c r="AX362" s="11"/>
-      <c r="AY362" s="11"/>
-      <c r="AZ362" s="11"/>
-      <c r="BA362" s="11"/>
-      <c r="BB362" s="11"/>
-      <c r="BC362" s="11"/>
-      <c r="BD362" s="11"/>
-      <c r="BE362" s="11"/>
-      <c r="BF362" s="11"/>
-      <c r="BG362" s="11"/>
-      <c r="BH362" s="11"/>
-      <c r="BI362" s="11"/>
-      <c r="BJ362" s="11"/>
-      <c r="BK362" s="11"/>
-      <c r="BL362" s="11"/>
-      <c r="BM362" s="11"/>
-      <c r="BN362" s="11"/>
-      <c r="BO362" s="11"/>
-      <c r="BP362" s="11"/>
-      <c r="BQ362" s="11"/>
-      <c r="BR362" s="11"/>
-      <c r="BS362" s="11"/>
-      <c r="BT362" s="11"/>
-      <c r="BU362" s="11"/>
-      <c r="BV362" s="11"/>
-      <c r="BW362" s="11"/>
-      <c r="BX362" s="11"/>
+      <c r="F362" s="29"/>
+      <c r="G362" s="49"/>
+      <c r="H362" s="13"/>
+      <c r="I362" s="13"/>
+      <c r="J362" s="13"/>
+      <c r="K362" s="13"/>
+      <c r="L362" s="13"/>
+      <c r="M362" s="13"/>
+      <c r="N362" s="13"/>
+      <c r="O362" s="13"/>
+      <c r="P362" s="13"/>
+      <c r="Q362" s="13"/>
+      <c r="R362" s="13"/>
+      <c r="S362" s="13"/>
+      <c r="T362" s="13"/>
+      <c r="U362" s="13"/>
+      <c r="V362" s="13"/>
+      <c r="W362" s="13"/>
+      <c r="X362" s="13"/>
+      <c r="Y362" s="13"/>
+      <c r="Z362" s="13"/>
+      <c r="AA362" s="13"/>
+      <c r="AB362" s="13"/>
+      <c r="AC362" s="13"/>
+      <c r="AD362" s="13"/>
+      <c r="AE362" s="13"/>
+      <c r="AF362" s="13"/>
+      <c r="AG362" s="13"/>
+      <c r="AH362" s="48"/>
+      <c r="AI362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW362" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX362" s="13"/>
+      <c r="AY362" s="13"/>
+      <c r="AZ362" s="13"/>
+      <c r="BA362" s="13"/>
+      <c r="BB362" s="13"/>
+      <c r="BC362" s="13"/>
+      <c r="BD362" s="13"/>
+      <c r="BE362" s="13"/>
+      <c r="BF362" s="13"/>
+      <c r="BG362" s="13"/>
+      <c r="BH362" s="13"/>
+      <c r="BI362" s="13"/>
+      <c r="BJ362" s="13"/>
+      <c r="BK362" s="13"/>
+      <c r="BL362" s="13"/>
+      <c r="BM362" s="13"/>
+      <c r="BN362" s="13"/>
+      <c r="BO362" s="13"/>
+      <c r="BP362" s="13"/>
+      <c r="BQ362" s="13"/>
+      <c r="BR362" s="13"/>
+      <c r="BS362" s="13"/>
+      <c r="BT362" s="13"/>
+      <c r="BU362" s="13"/>
+      <c r="BV362" s="13"/>
+      <c r="BW362" s="13"/>
+      <c r="BX362" s="13"/>
       <c r="BY362" s="11"/>
       <c r="BZ362" s="7" t="s">
         <v>42</v>
@@ -48395,7 +49297,7 @@
       <c r="CB362" s="7"/>
       <c r="CC362" s="7"/>
     </row>
-    <row r="363" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="5">
         <v>21</v>
       </c>
@@ -48405,77 +49307,77 @@
         <v>42</v>
       </c>
       <c r="E363" s="11"/>
-      <c r="F363" s="40"/>
-      <c r="G363" s="11"/>
-      <c r="H363" s="38"/>
-      <c r="I363" s="38"/>
-      <c r="J363" s="38"/>
-      <c r="K363" s="38"/>
-      <c r="L363" s="38"/>
-      <c r="M363" s="38"/>
-      <c r="N363" s="38"/>
-      <c r="O363" s="38"/>
-      <c r="P363" s="38"/>
-      <c r="Q363" s="38"/>
-      <c r="R363" s="38"/>
-      <c r="S363" s="38"/>
-      <c r="T363" s="38"/>
-      <c r="U363" s="38"/>
-      <c r="V363" s="38"/>
-      <c r="W363" s="38"/>
-      <c r="X363" s="38"/>
-      <c r="Y363" s="38"/>
-      <c r="Z363" s="38"/>
-      <c r="AA363" s="38"/>
-      <c r="AB363" s="38"/>
-      <c r="AC363" s="38"/>
-      <c r="AD363" s="38"/>
-      <c r="AE363" s="45"/>
-      <c r="AF363" s="38"/>
-      <c r="AG363" s="38"/>
-      <c r="AH363" s="11"/>
-      <c r="AI363" s="11"/>
-      <c r="AJ363" s="11"/>
-      <c r="AK363" s="11"/>
-      <c r="AL363" s="11"/>
-      <c r="AM363" s="11"/>
-      <c r="AN363" s="11"/>
-      <c r="AO363" s="11"/>
-      <c r="AP363" s="11"/>
-      <c r="AQ363" s="11"/>
-      <c r="AR363" s="11"/>
-      <c r="AS363" s="11"/>
-      <c r="AT363" s="11"/>
-      <c r="AU363" s="11"/>
-      <c r="AV363" s="11"/>
-      <c r="AW363" s="11"/>
-      <c r="AX363" s="11"/>
-      <c r="AY363" s="11"/>
-      <c r="AZ363" s="11"/>
-      <c r="BA363" s="11"/>
-      <c r="BB363" s="11"/>
-      <c r="BC363" s="11"/>
-      <c r="BD363" s="11"/>
-      <c r="BE363" s="11"/>
-      <c r="BF363" s="11"/>
-      <c r="BG363" s="11"/>
-      <c r="BH363" s="11"/>
-      <c r="BI363" s="11"/>
-      <c r="BJ363" s="11"/>
-      <c r="BK363" s="11"/>
-      <c r="BL363" s="11"/>
-      <c r="BM363" s="11"/>
-      <c r="BN363" s="11"/>
-      <c r="BO363" s="11"/>
-      <c r="BP363" s="11"/>
-      <c r="BQ363" s="11"/>
-      <c r="BR363" s="11"/>
-      <c r="BS363" s="11"/>
-      <c r="BT363" s="11"/>
-      <c r="BU363" s="11"/>
-      <c r="BV363" s="11"/>
-      <c r="BW363" s="11"/>
-      <c r="BX363" s="11"/>
+      <c r="F363" s="47"/>
+      <c r="G363" s="13"/>
+      <c r="H363" s="50"/>
+      <c r="I363" s="50"/>
+      <c r="J363" s="50"/>
+      <c r="K363" s="50"/>
+      <c r="L363" s="50"/>
+      <c r="M363" s="50"/>
+      <c r="N363" s="50"/>
+      <c r="O363" s="50"/>
+      <c r="P363" s="50"/>
+      <c r="Q363" s="50"/>
+      <c r="R363" s="50"/>
+      <c r="S363" s="50"/>
+      <c r="T363" s="50"/>
+      <c r="U363" s="50"/>
+      <c r="V363" s="50"/>
+      <c r="W363" s="50"/>
+      <c r="X363" s="50"/>
+      <c r="Y363" s="50"/>
+      <c r="Z363" s="50"/>
+      <c r="AA363" s="50"/>
+      <c r="AB363" s="50"/>
+      <c r="AC363" s="50"/>
+      <c r="AD363" s="50"/>
+      <c r="AE363" s="51"/>
+      <c r="AF363" s="50"/>
+      <c r="AG363" s="50"/>
+      <c r="AH363" s="13"/>
+      <c r="AI363" s="29"/>
+      <c r="AJ363" s="29"/>
+      <c r="AK363" s="29"/>
+      <c r="AL363" s="29"/>
+      <c r="AM363" s="29"/>
+      <c r="AN363" s="29"/>
+      <c r="AO363" s="29"/>
+      <c r="AP363" s="29"/>
+      <c r="AQ363" s="29"/>
+      <c r="AR363" s="29"/>
+      <c r="AS363" s="29"/>
+      <c r="AT363" s="29"/>
+      <c r="AU363" s="29"/>
+      <c r="AV363" s="29"/>
+      <c r="AW363" s="29"/>
+      <c r="AX363" s="13"/>
+      <c r="AY363" s="13"/>
+      <c r="AZ363" s="13"/>
+      <c r="BA363" s="13"/>
+      <c r="BB363" s="13"/>
+      <c r="BC363" s="13"/>
+      <c r="BD363" s="13"/>
+      <c r="BE363" s="13"/>
+      <c r="BF363" s="13"/>
+      <c r="BG363" s="13"/>
+      <c r="BH363" s="13"/>
+      <c r="BI363" s="13"/>
+      <c r="BJ363" s="13"/>
+      <c r="BK363" s="13"/>
+      <c r="BL363" s="13"/>
+      <c r="BM363" s="13"/>
+      <c r="BN363" s="13"/>
+      <c r="BO363" s="13"/>
+      <c r="BP363" s="13"/>
+      <c r="BQ363" s="13"/>
+      <c r="BR363" s="13"/>
+      <c r="BS363" s="13"/>
+      <c r="BT363" s="13"/>
+      <c r="BU363" s="13"/>
+      <c r="BV363" s="13"/>
+      <c r="BW363" s="13"/>
+      <c r="BX363" s="13"/>
       <c r="BY363" s="11"/>
       <c r="BZ363" s="7" t="s">
         <v>42</v>
@@ -48484,7 +49386,7 @@
       <c r="CB363" s="7"/>
       <c r="CC363" s="7"/>
     </row>
-    <row r="364" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="5">
         <v>22</v>
       </c>
@@ -48719,7 +49621,7 @@
       <c r="CB364" s="7"/>
       <c r="CC364" s="7"/>
     </row>
-    <row r="365" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="5">
         <v>23</v>
       </c>
@@ -48882,7 +49784,7 @@
       <c r="CB365" s="7"/>
       <c r="CC365" s="7"/>
     </row>
-    <row r="366" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="5">
         <v>24</v>
       </c>
@@ -48967,6 +49869,1932 @@
       <c r="CB366" s="7"/>
       <c r="CC366" s="7"/>
     </row>
+    <row r="367" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F367" s="13"/>
+      <c r="G367" s="13"/>
+      <c r="H367" s="13"/>
+      <c r="I367" s="13"/>
+      <c r="J367" s="13"/>
+      <c r="K367" s="13"/>
+      <c r="L367" s="13"/>
+      <c r="M367" s="13"/>
+      <c r="N367" s="13"/>
+      <c r="O367" s="13"/>
+      <c r="P367" s="13"/>
+      <c r="Q367" s="13"/>
+      <c r="R367" s="13"/>
+      <c r="S367" s="13"/>
+      <c r="T367" s="13"/>
+      <c r="U367" s="13"/>
+      <c r="V367" s="13"/>
+      <c r="W367" s="13"/>
+      <c r="X367" s="13"/>
+      <c r="Y367" s="13"/>
+      <c r="Z367" s="13"/>
+      <c r="AA367" s="13"/>
+      <c r="AB367" s="13"/>
+      <c r="AC367" s="13"/>
+      <c r="AD367" s="13"/>
+      <c r="AE367" s="13"/>
+      <c r="AF367" s="13"/>
+      <c r="AG367" s="13"/>
+      <c r="AH367" s="13"/>
+      <c r="AI367" s="13"/>
+      <c r="AJ367" s="13"/>
+      <c r="AK367" s="13"/>
+      <c r="AL367" s="13"/>
+      <c r="AM367" s="13"/>
+      <c r="AN367" s="13"/>
+      <c r="AO367" s="13"/>
+      <c r="AP367" s="13"/>
+      <c r="AQ367" s="13"/>
+      <c r="AR367" s="13"/>
+      <c r="AS367" s="13"/>
+      <c r="AT367" s="13"/>
+      <c r="AU367" s="13"/>
+      <c r="AV367" s="13"/>
+      <c r="AW367" s="13"/>
+      <c r="AX367" s="13"/>
+      <c r="AY367" s="13"/>
+      <c r="AZ367" s="13"/>
+      <c r="BA367" s="13"/>
+      <c r="BB367" s="13"/>
+      <c r="BC367" s="13"/>
+      <c r="BD367" s="13"/>
+      <c r="BE367" s="13"/>
+      <c r="BF367" s="13"/>
+      <c r="BG367" s="13"/>
+      <c r="BH367" s="13"/>
+      <c r="BI367" s="13"/>
+      <c r="BJ367" s="13"/>
+      <c r="BK367" s="13"/>
+      <c r="BL367" s="13"/>
+      <c r="BM367" s="13"/>
+      <c r="BN367" s="13"/>
+      <c r="BO367" s="13"/>
+      <c r="BP367" s="13"/>
+      <c r="BQ367" s="13"/>
+      <c r="BR367" s="13"/>
+      <c r="BS367" s="13"/>
+      <c r="BT367" s="13"/>
+      <c r="BU367" s="13"/>
+      <c r="BV367" s="13"/>
+      <c r="BW367" s="13"/>
+      <c r="BX367" s="13"/>
+    </row>
+    <row r="368" spans="1:81" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F368" s="13"/>
+      <c r="G368" s="13"/>
+      <c r="H368" s="13"/>
+      <c r="I368" s="13"/>
+      <c r="J368" s="13"/>
+      <c r="K368" s="13"/>
+      <c r="L368" s="13"/>
+      <c r="M368" s="13"/>
+      <c r="N368" s="13"/>
+      <c r="O368" s="13"/>
+      <c r="P368" s="13"/>
+      <c r="Q368" s="13"/>
+      <c r="R368" s="13"/>
+      <c r="S368" s="13"/>
+      <c r="T368" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U368" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="V368" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W368" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X368" s="13"/>
+      <c r="Y368" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z368" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA368" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB368" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC368" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD368" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE368" s="13"/>
+      <c r="AF368" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG368" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH368" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI368" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ368" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK368" s="13"/>
+      <c r="AL368" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM368" s="13"/>
+      <c r="AN368" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO368" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP368" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ368" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR368" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS368" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT368" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU368" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV368" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW368" s="13"/>
+      <c r="AX368" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY368" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ368" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA368" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB368" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC368" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD368" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE368" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF368" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG368" s="13"/>
+      <c r="BH368" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI368" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ368" s="13"/>
+      <c r="BK368" s="13"/>
+      <c r="BL368" s="13"/>
+      <c r="BM368" s="13"/>
+      <c r="BN368" s="13"/>
+      <c r="BO368" s="13"/>
+      <c r="BP368" s="13"/>
+      <c r="BQ368" s="13"/>
+      <c r="BR368" s="13"/>
+      <c r="BS368" s="13"/>
+      <c r="BT368" s="13"/>
+      <c r="BU368" s="13"/>
+      <c r="BV368" s="13"/>
+      <c r="BW368" s="13"/>
+      <c r="BX368" s="13"/>
+    </row>
+    <row r="369" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F369" s="13"/>
+      <c r="G369" s="13"/>
+      <c r="H369" s="13"/>
+      <c r="I369" s="13"/>
+      <c r="J369" s="13"/>
+      <c r="K369" s="13"/>
+      <c r="L369" s="13"/>
+      <c r="M369" s="13"/>
+      <c r="N369" s="13"/>
+      <c r="O369" s="13"/>
+      <c r="P369" s="13"/>
+      <c r="Q369" s="13"/>
+      <c r="R369" s="13"/>
+      <c r="S369" s="13"/>
+      <c r="T369" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="U369" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="V369" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="W369" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X369" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y369" s="45"/>
+      <c r="Z369" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA369" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB369" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC369" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD369" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE369" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF369" s="25"/>
+      <c r="AG369" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH369" s="13"/>
+      <c r="AI369" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ369" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK369" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL369" s="13"/>
+      <c r="AM369" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN369" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO369" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP369" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ369" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR369" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS369" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT369" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU369" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV369" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW369" s="13"/>
+      <c r="AX369" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY369" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ369" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA369" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB369" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC369" s="13"/>
+      <c r="BD369" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE369" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF369" s="13"/>
+      <c r="BG369" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH369" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI369" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ369" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK369" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL369" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM369" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN369" s="13"/>
+      <c r="BO369" s="13"/>
+      <c r="BP369" s="13"/>
+      <c r="BQ369" s="13"/>
+      <c r="BR369" s="13"/>
+      <c r="BS369" s="13"/>
+      <c r="BT369" s="13"/>
+      <c r="BU369" s="13"/>
+      <c r="BV369" s="13"/>
+      <c r="BW369" s="13"/>
+      <c r="BX369" s="13"/>
+    </row>
+    <row r="370" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F370" s="13"/>
+      <c r="G370" s="45"/>
+      <c r="H370" s="45"/>
+      <c r="I370" s="45"/>
+      <c r="J370" s="45"/>
+      <c r="K370" s="45"/>
+      <c r="L370" s="45"/>
+      <c r="M370" s="45"/>
+      <c r="N370" s="45"/>
+      <c r="O370" s="45"/>
+      <c r="P370" s="45"/>
+      <c r="Q370" s="45"/>
+      <c r="R370" s="45"/>
+      <c r="S370" s="45"/>
+      <c r="T370" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U370" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="V370" s="13"/>
+      <c r="W370" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X370" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y370" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z370" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA370" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB370" s="45"/>
+      <c r="AC370" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD370" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE370" s="25"/>
+      <c r="AF370" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG370" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH370" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI370" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ370" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK370" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL370" s="13"/>
+      <c r="AM370" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN370" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO370" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP370" s="13"/>
+      <c r="AQ370" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR370" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS370" s="13"/>
+      <c r="AT370" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU370" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV370" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW370" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX370" s="13"/>
+      <c r="AY370" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ370" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA370" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB370" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC370" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD370" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE370" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF370" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG370" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH370" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI370" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ370" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK370" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL370" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM370" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN370" s="13"/>
+      <c r="BO370" s="13"/>
+      <c r="BP370" s="13"/>
+      <c r="BQ370" s="13"/>
+      <c r="BR370" s="13"/>
+      <c r="BS370" s="13"/>
+      <c r="BT370" s="13"/>
+      <c r="BU370" s="13"/>
+      <c r="BV370" s="13"/>
+      <c r="BW370" s="13"/>
+      <c r="BX370" s="13"/>
+    </row>
+    <row r="371" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F371" s="47"/>
+      <c r="G371" s="47"/>
+      <c r="H371" s="13"/>
+      <c r="I371" s="13"/>
+      <c r="J371" s="13"/>
+      <c r="K371" s="13"/>
+      <c r="L371" s="13"/>
+      <c r="M371" s="13"/>
+      <c r="N371" s="13"/>
+      <c r="O371" s="13"/>
+      <c r="P371" s="13"/>
+      <c r="Q371" s="13"/>
+      <c r="R371" s="13"/>
+      <c r="S371" s="13"/>
+      <c r="T371" s="13"/>
+      <c r="U371" s="13"/>
+      <c r="V371" s="13"/>
+      <c r="W371" s="13"/>
+      <c r="X371" s="13"/>
+      <c r="Y371" s="13"/>
+      <c r="Z371" s="13"/>
+      <c r="AA371" s="13"/>
+      <c r="AB371" s="45"/>
+      <c r="AC371" s="45"/>
+      <c r="AD371" s="46"/>
+      <c r="AE371" s="25"/>
+      <c r="AF371" s="25"/>
+      <c r="AG371" s="13"/>
+      <c r="AH371" s="13"/>
+      <c r="AI371" s="13"/>
+      <c r="AJ371" s="13"/>
+      <c r="AK371" s="13"/>
+      <c r="AL371" s="13"/>
+      <c r="AM371" s="13"/>
+      <c r="AN371" s="13"/>
+      <c r="AO371" s="13"/>
+      <c r="AP371" s="13"/>
+      <c r="AQ371" s="13"/>
+      <c r="AR371" s="13"/>
+      <c r="AS371" s="13"/>
+      <c r="AT371" s="13"/>
+      <c r="AU371" s="13"/>
+      <c r="AV371" s="13"/>
+      <c r="AW371" s="13"/>
+      <c r="AX371" s="13"/>
+      <c r="AY371" s="13"/>
+      <c r="AZ371" s="13"/>
+      <c r="BA371" s="13"/>
+      <c r="BB371" s="13"/>
+      <c r="BC371" s="13"/>
+      <c r="BD371" s="13"/>
+      <c r="BE371" s="13"/>
+      <c r="BF371" s="13"/>
+      <c r="BG371" s="13"/>
+      <c r="BH371" s="13"/>
+      <c r="BI371" s="13"/>
+      <c r="BJ371" s="13"/>
+      <c r="BK371" s="13"/>
+      <c r="BL371" s="13"/>
+      <c r="BM371" s="13"/>
+      <c r="BN371" s="13"/>
+      <c r="BO371" s="13"/>
+      <c r="BP371" s="13"/>
+      <c r="BQ371" s="13"/>
+      <c r="BR371" s="13"/>
+      <c r="BS371" s="13"/>
+      <c r="BT371" s="13"/>
+      <c r="BU371" s="13"/>
+      <c r="BV371" s="13"/>
+      <c r="BW371" s="13"/>
+      <c r="BX371" s="13"/>
+    </row>
+    <row r="372" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F372" s="29"/>
+      <c r="G372" s="49"/>
+      <c r="H372" s="13"/>
+      <c r="I372" s="13"/>
+      <c r="J372" s="13"/>
+      <c r="K372" s="13"/>
+      <c r="L372" s="13"/>
+      <c r="M372" s="13"/>
+      <c r="N372" s="13"/>
+      <c r="O372" s="13"/>
+      <c r="P372" s="13"/>
+      <c r="Q372" s="13"/>
+      <c r="R372" s="13"/>
+      <c r="S372" s="13"/>
+      <c r="T372" s="13"/>
+      <c r="U372" s="13"/>
+      <c r="V372" s="13"/>
+      <c r="W372" s="13"/>
+      <c r="X372" s="13"/>
+      <c r="Y372" s="13"/>
+      <c r="Z372" s="13"/>
+      <c r="AA372" s="13"/>
+      <c r="AB372" s="13"/>
+      <c r="AC372" s="13"/>
+      <c r="AD372" s="13"/>
+      <c r="AE372" s="13"/>
+      <c r="AF372" s="13"/>
+      <c r="AG372" s="13"/>
+      <c r="AH372" s="48"/>
+      <c r="AI372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW372" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX372" s="13"/>
+      <c r="AY372" s="13"/>
+      <c r="AZ372" s="13"/>
+      <c r="BA372" s="13"/>
+      <c r="BB372" s="13"/>
+      <c r="BC372" s="13"/>
+      <c r="BD372" s="13"/>
+      <c r="BE372" s="13"/>
+      <c r="BF372" s="13"/>
+      <c r="BG372" s="13"/>
+      <c r="BH372" s="13"/>
+      <c r="BI372" s="13"/>
+      <c r="BJ372" s="13"/>
+      <c r="BK372" s="13"/>
+      <c r="BL372" s="13"/>
+      <c r="BM372" s="13"/>
+      <c r="BN372" s="13"/>
+      <c r="BO372" s="13"/>
+      <c r="BP372" s="13"/>
+      <c r="BQ372" s="13"/>
+      <c r="BR372" s="13"/>
+      <c r="BS372" s="13"/>
+      <c r="BT372" s="13"/>
+      <c r="BU372" s="13"/>
+      <c r="BV372" s="13"/>
+      <c r="BW372" s="13"/>
+      <c r="BX372" s="13"/>
+    </row>
+    <row r="373" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F373" s="47"/>
+      <c r="G373" s="47"/>
+      <c r="H373" s="13"/>
+      <c r="I373" s="13"/>
+      <c r="J373" s="13"/>
+      <c r="K373" s="13"/>
+      <c r="L373" s="13"/>
+      <c r="M373" s="13"/>
+      <c r="N373" s="13"/>
+      <c r="O373" s="13"/>
+      <c r="P373" s="13"/>
+      <c r="Q373" s="13"/>
+      <c r="R373" s="13"/>
+      <c r="S373" s="13"/>
+      <c r="T373" s="13"/>
+      <c r="U373" s="13"/>
+      <c r="V373" s="13"/>
+      <c r="W373" s="13"/>
+      <c r="X373" s="13"/>
+      <c r="Y373" s="13"/>
+      <c r="Z373" s="13"/>
+      <c r="AA373" s="13"/>
+      <c r="AB373" s="13"/>
+      <c r="AC373" s="13"/>
+      <c r="AD373" s="13"/>
+      <c r="AE373" s="13"/>
+      <c r="AF373" s="13"/>
+      <c r="AG373" s="13"/>
+      <c r="AH373" s="48"/>
+      <c r="AI373" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ373" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK373" s="10"/>
+      <c r="AL373" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM373" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN373" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO373" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP373" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ373" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR373" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS373" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT373" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU373" s="10"/>
+      <c r="AV373" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW373" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX373" s="13"/>
+      <c r="AY373" s="13"/>
+      <c r="AZ373" s="13"/>
+      <c r="BA373" s="13"/>
+      <c r="BB373" s="13"/>
+      <c r="BC373" s="13"/>
+      <c r="BD373" s="13"/>
+      <c r="BE373" s="13"/>
+      <c r="BF373" s="13"/>
+      <c r="BG373" s="13"/>
+      <c r="BH373" s="13"/>
+      <c r="BI373" s="13"/>
+      <c r="BJ373" s="13"/>
+      <c r="BK373" s="13"/>
+      <c r="BL373" s="13"/>
+      <c r="BM373" s="13"/>
+      <c r="BN373" s="13"/>
+      <c r="BO373" s="13"/>
+      <c r="BP373" s="13"/>
+      <c r="BQ373" s="13"/>
+      <c r="BR373" s="13"/>
+      <c r="BS373" s="13"/>
+      <c r="BT373" s="13"/>
+      <c r="BU373" s="13"/>
+      <c r="BV373" s="13"/>
+      <c r="BW373" s="13"/>
+      <c r="BX373" s="13"/>
+    </row>
+    <row r="374" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F374" s="29"/>
+      <c r="G374" s="49"/>
+      <c r="H374" s="13"/>
+      <c r="I374" s="13"/>
+      <c r="J374" s="13"/>
+      <c r="K374" s="13"/>
+      <c r="L374" s="13"/>
+      <c r="M374" s="13"/>
+      <c r="N374" s="13"/>
+      <c r="O374" s="13"/>
+      <c r="P374" s="13"/>
+      <c r="Q374" s="13"/>
+      <c r="R374" s="13"/>
+      <c r="S374" s="13"/>
+      <c r="T374" s="13"/>
+      <c r="U374" s="13"/>
+      <c r="V374" s="13"/>
+      <c r="W374" s="13"/>
+      <c r="X374" s="13"/>
+      <c r="Y374" s="13"/>
+      <c r="Z374" s="13"/>
+      <c r="AA374" s="13"/>
+      <c r="AB374" s="13"/>
+      <c r="AC374" s="13"/>
+      <c r="AD374" s="13"/>
+      <c r="AE374" s="13"/>
+      <c r="AF374" s="13"/>
+      <c r="AG374" s="13"/>
+      <c r="AH374" s="48"/>
+      <c r="AI374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW374" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX374" s="13"/>
+      <c r="AY374" s="13"/>
+      <c r="AZ374" s="13"/>
+      <c r="BA374" s="13"/>
+      <c r="BB374" s="13"/>
+      <c r="BC374" s="13"/>
+      <c r="BD374" s="13"/>
+      <c r="BE374" s="13"/>
+      <c r="BF374" s="13"/>
+      <c r="BG374" s="13"/>
+      <c r="BH374" s="13"/>
+      <c r="BI374" s="13"/>
+      <c r="BJ374" s="13"/>
+      <c r="BK374" s="13"/>
+      <c r="BL374" s="13"/>
+      <c r="BM374" s="13"/>
+      <c r="BN374" s="13"/>
+      <c r="BO374" s="13"/>
+      <c r="BP374" s="13"/>
+      <c r="BQ374" s="13"/>
+      <c r="BR374" s="13"/>
+      <c r="BS374" s="13"/>
+      <c r="BT374" s="13"/>
+      <c r="BU374" s="13"/>
+      <c r="BV374" s="13"/>
+      <c r="BW374" s="13"/>
+      <c r="BX374" s="13"/>
+    </row>
+    <row r="375" spans="6:76" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F375" s="52"/>
+      <c r="G375" s="53"/>
+      <c r="H375" s="54"/>
+      <c r="I375" s="54"/>
+      <c r="J375" s="54"/>
+      <c r="K375" s="54"/>
+      <c r="L375" s="54"/>
+      <c r="M375" s="54"/>
+      <c r="N375" s="54"/>
+      <c r="O375" s="54"/>
+      <c r="P375" s="54"/>
+      <c r="Q375" s="54"/>
+      <c r="R375" s="54"/>
+      <c r="S375" s="54"/>
+      <c r="T375" s="54"/>
+      <c r="U375" s="54"/>
+      <c r="V375" s="54"/>
+      <c r="W375" s="54"/>
+      <c r="X375" s="54"/>
+      <c r="Y375" s="54"/>
+      <c r="Z375" s="54"/>
+      <c r="AA375" s="54"/>
+      <c r="AB375" s="54"/>
+      <c r="AC375" s="54"/>
+      <c r="AD375" s="54"/>
+      <c r="AE375" s="55"/>
+      <c r="AF375" s="54"/>
+      <c r="AG375" s="54"/>
+      <c r="AH375" s="53"/>
+      <c r="AI375" s="56"/>
+      <c r="AJ375" s="56"/>
+      <c r="AK375" s="56"/>
+      <c r="AL375" s="56"/>
+      <c r="AM375" s="56"/>
+      <c r="AN375" s="56"/>
+      <c r="AO375" s="56"/>
+      <c r="AP375" s="56"/>
+      <c r="AQ375" s="56"/>
+      <c r="AR375" s="56"/>
+      <c r="AS375" s="56"/>
+      <c r="AT375" s="56"/>
+      <c r="AU375" s="56"/>
+      <c r="AV375" s="56"/>
+      <c r="AW375" s="56"/>
+      <c r="AX375" s="53"/>
+      <c r="AY375" s="53"/>
+      <c r="AZ375" s="53"/>
+      <c r="BA375" s="53"/>
+      <c r="BB375" s="53"/>
+      <c r="BC375" s="53"/>
+      <c r="BD375" s="53"/>
+      <c r="BE375" s="53"/>
+      <c r="BF375" s="53"/>
+      <c r="BG375" s="53"/>
+      <c r="BH375" s="53"/>
+      <c r="BI375" s="53"/>
+      <c r="BJ375" s="53"/>
+      <c r="BK375" s="53"/>
+      <c r="BL375" s="53"/>
+      <c r="BM375" s="53"/>
+      <c r="BN375" s="53"/>
+      <c r="BO375" s="53"/>
+      <c r="BP375" s="53"/>
+      <c r="BQ375" s="53"/>
+      <c r="BR375" s="53"/>
+      <c r="BS375" s="53"/>
+      <c r="BT375" s="53"/>
+      <c r="BU375" s="53"/>
+      <c r="BV375" s="53"/>
+      <c r="BW375" s="53"/>
+      <c r="BX375" s="53"/>
+    </row>
+    <row r="376" spans="6:76" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="F376" s="50"/>
+      <c r="G376" s="50"/>
+      <c r="H376" s="50"/>
+      <c r="I376" s="50"/>
+      <c r="J376" s="50"/>
+      <c r="K376" s="50"/>
+      <c r="L376" s="50"/>
+      <c r="M376" s="50"/>
+      <c r="N376" s="50"/>
+      <c r="O376" s="50"/>
+      <c r="P376" s="50"/>
+      <c r="Q376" s="50"/>
+      <c r="R376" s="50"/>
+      <c r="S376" s="50"/>
+      <c r="T376" s="50"/>
+      <c r="U376" s="50"/>
+      <c r="V376" s="50"/>
+      <c r="W376" s="50"/>
+      <c r="X376" s="50"/>
+      <c r="Y376" s="50"/>
+      <c r="Z376" s="50"/>
+      <c r="AA376" s="50"/>
+      <c r="AB376" s="50"/>
+      <c r="AC376" s="50"/>
+      <c r="AD376" s="50"/>
+      <c r="AE376" s="50"/>
+      <c r="AF376" s="50"/>
+      <c r="AG376" s="50"/>
+      <c r="AH376" s="50"/>
+      <c r="AI376" s="50"/>
+      <c r="AJ376" s="50"/>
+      <c r="AK376" s="50"/>
+      <c r="AL376" s="50"/>
+      <c r="AM376" s="50"/>
+      <c r="AN376" s="50"/>
+      <c r="AO376" s="50"/>
+      <c r="AP376" s="50"/>
+      <c r="AQ376" s="50"/>
+      <c r="AR376" s="50"/>
+      <c r="AS376" s="50"/>
+      <c r="AT376" s="50"/>
+      <c r="AU376" s="50"/>
+      <c r="AV376" s="50"/>
+      <c r="AW376" s="50"/>
+      <c r="AX376" s="50"/>
+      <c r="AY376" s="50"/>
+      <c r="AZ376" s="50"/>
+      <c r="BA376" s="50"/>
+      <c r="BB376" s="50"/>
+      <c r="BC376" s="50"/>
+      <c r="BD376" s="50"/>
+      <c r="BE376" s="50"/>
+      <c r="BF376" s="50"/>
+      <c r="BG376" s="50"/>
+      <c r="BH376" s="50"/>
+      <c r="BI376" s="50"/>
+      <c r="BJ376" s="50"/>
+      <c r="BK376" s="50"/>
+      <c r="BL376" s="50"/>
+      <c r="BM376" s="50"/>
+      <c r="BN376" s="50"/>
+      <c r="BO376" s="50"/>
+      <c r="BP376" s="50"/>
+      <c r="BQ376" s="50"/>
+      <c r="BR376" s="50"/>
+      <c r="BS376" s="50"/>
+      <c r="BT376" s="50"/>
+      <c r="BU376" s="50"/>
+      <c r="BV376" s="50"/>
+      <c r="BW376" s="50"/>
+      <c r="BX376" s="50"/>
+    </row>
+    <row r="377" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F377" s="13"/>
+      <c r="G377" s="13"/>
+      <c r="H377" s="13"/>
+      <c r="I377" s="13"/>
+      <c r="J377" s="13"/>
+      <c r="K377" s="13"/>
+      <c r="L377" s="13"/>
+      <c r="M377" s="13"/>
+      <c r="N377" s="13"/>
+      <c r="O377" s="13"/>
+      <c r="P377" s="13"/>
+      <c r="Q377" s="13"/>
+      <c r="R377" s="13"/>
+      <c r="S377" s="13"/>
+      <c r="T377" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U377" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V377" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W377" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="X377" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y377" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z377" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA377" s="13"/>
+      <c r="AB377" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC377" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD377" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE377" s="13"/>
+      <c r="AF377" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG377" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH377" s="13"/>
+      <c r="AI377" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ377" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK377" s="13"/>
+      <c r="AL377" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM377" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN377" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO377" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP377" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ377" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR377" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS377" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT377" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU377" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV377" s="13"/>
+      <c r="AW377" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX377" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY377" s="13"/>
+      <c r="AZ377" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA377" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB377" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC377" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD377" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE377" s="13"/>
+      <c r="BF377" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG377" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH377" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI377" s="13"/>
+      <c r="BJ377" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK377" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL377" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM377" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN377" s="13"/>
+      <c r="BO377" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP377" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ377" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR377" s="13"/>
+      <c r="BS377" s="13"/>
+      <c r="BT377" s="13"/>
+      <c r="BU377" s="13"/>
+      <c r="BV377" s="13"/>
+      <c r="BW377" s="13"/>
+      <c r="BX377" s="13"/>
+    </row>
+    <row r="378" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F378" s="13"/>
+      <c r="G378" s="13"/>
+      <c r="H378" s="13"/>
+      <c r="I378" s="13"/>
+      <c r="J378" s="13"/>
+      <c r="K378" s="13"/>
+      <c r="L378" s="13"/>
+      <c r="M378" s="13"/>
+      <c r="N378" s="13"/>
+      <c r="O378" s="13"/>
+      <c r="P378" s="13"/>
+      <c r="Q378" s="13"/>
+      <c r="R378" s="13"/>
+      <c r="S378" s="13"/>
+      <c r="T378" s="45"/>
+      <c r="U378" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="V378" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="W378" s="45"/>
+      <c r="X378" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y378" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z378" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA378" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB378" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC378" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD378" s="46"/>
+      <c r="AE378" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF378" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG378" s="13"/>
+      <c r="AH378" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI378" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ378" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK378" s="13"/>
+      <c r="AL378" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM378" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN378" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO378" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP378" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ378" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR378" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS378" s="13"/>
+      <c r="AT378" s="13"/>
+      <c r="AU378" s="13"/>
+      <c r="AV378" s="13"/>
+      <c r="AW378" s="13"/>
+      <c r="AX378" s="13"/>
+      <c r="AY378" s="13"/>
+      <c r="AZ378" s="13"/>
+      <c r="BA378" s="13"/>
+      <c r="BB378" s="13"/>
+      <c r="BC378" s="13"/>
+      <c r="BD378" s="13"/>
+      <c r="BE378" s="13"/>
+      <c r="BF378" s="13"/>
+      <c r="BG378" s="13"/>
+      <c r="BH378" s="13"/>
+      <c r="BI378" s="13"/>
+      <c r="BJ378" s="13"/>
+      <c r="BK378" s="13"/>
+      <c r="BL378" s="13"/>
+      <c r="BM378" s="13"/>
+      <c r="BN378" s="13"/>
+      <c r="BO378" s="13"/>
+      <c r="BP378" s="13"/>
+      <c r="BQ378" s="13"/>
+      <c r="BR378" s="13"/>
+      <c r="BS378" s="13"/>
+      <c r="BT378" s="13"/>
+      <c r="BU378" s="13"/>
+      <c r="BV378" s="13"/>
+      <c r="BW378" s="13"/>
+      <c r="BX378" s="13"/>
+    </row>
+    <row r="379" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F379" s="13"/>
+      <c r="G379" s="45"/>
+      <c r="H379" s="45"/>
+      <c r="I379" s="45"/>
+      <c r="J379" s="45"/>
+      <c r="K379" s="45"/>
+      <c r="L379" s="45"/>
+      <c r="M379" s="45"/>
+      <c r="N379" s="45"/>
+      <c r="O379" s="45"/>
+      <c r="P379" s="45"/>
+      <c r="Q379" s="45"/>
+      <c r="R379" s="45"/>
+      <c r="S379" s="45"/>
+      <c r="T379" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U379" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V379" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="W379" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X379" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y379" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z379" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA379" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB379" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC379" s="45"/>
+      <c r="AD379" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE379" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF379" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG379" s="13"/>
+      <c r="AH379" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI379" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ379" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK379" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL379" s="13"/>
+      <c r="AM379" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN379" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO379" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP379" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ379" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR379" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS379" s="13"/>
+      <c r="AT379" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU379" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV379" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW379" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX379" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY379" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ379" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA379" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB379" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC379" s="13"/>
+      <c r="BD379" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE379" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF379" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG379" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH379" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI379" s="13"/>
+      <c r="BJ379" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK379" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL379" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM379" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN379" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO379" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP379" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ379" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BR379" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BS379" s="13"/>
+      <c r="BT379" s="13"/>
+      <c r="BU379" s="13"/>
+      <c r="BV379" s="13"/>
+      <c r="BW379" s="13"/>
+      <c r="BX379" s="13"/>
+    </row>
+    <row r="380" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F380" s="47"/>
+      <c r="G380" s="47"/>
+      <c r="H380" s="13"/>
+      <c r="I380" s="13"/>
+      <c r="J380" s="13"/>
+      <c r="K380" s="13"/>
+      <c r="L380" s="13"/>
+      <c r="M380" s="13"/>
+      <c r="N380" s="13"/>
+      <c r="O380" s="13"/>
+      <c r="P380" s="13"/>
+      <c r="Q380" s="13"/>
+      <c r="R380" s="13"/>
+      <c r="S380" s="13"/>
+      <c r="T380" s="13"/>
+      <c r="U380" s="13"/>
+      <c r="V380" s="13"/>
+      <c r="W380" s="13"/>
+      <c r="X380" s="13"/>
+      <c r="Y380" s="13"/>
+      <c r="Z380" s="13"/>
+      <c r="AA380" s="13"/>
+      <c r="AB380" s="45"/>
+      <c r="AC380" s="45"/>
+      <c r="AD380" s="46"/>
+      <c r="AE380" s="25"/>
+      <c r="AF380" s="25"/>
+      <c r="AG380" s="13"/>
+      <c r="AH380" s="13"/>
+      <c r="AI380" s="13"/>
+      <c r="AJ380" s="13"/>
+      <c r="AK380" s="13"/>
+      <c r="AL380" s="13"/>
+      <c r="AM380" s="13"/>
+      <c r="AN380" s="13"/>
+      <c r="AO380" s="13"/>
+      <c r="AP380" s="13"/>
+      <c r="AQ380" s="13"/>
+      <c r="AR380" s="13"/>
+      <c r="AS380" s="13"/>
+      <c r="AT380" s="13"/>
+      <c r="AU380" s="13"/>
+      <c r="AV380" s="13"/>
+      <c r="AW380" s="13"/>
+      <c r="AX380" s="13"/>
+      <c r="AY380" s="13"/>
+      <c r="AZ380" s="13"/>
+      <c r="BA380" s="13"/>
+      <c r="BB380" s="13"/>
+      <c r="BC380" s="13"/>
+      <c r="BD380" s="13"/>
+      <c r="BE380" s="13"/>
+      <c r="BF380" s="13"/>
+      <c r="BG380" s="13"/>
+      <c r="BH380" s="13"/>
+      <c r="BI380" s="13"/>
+      <c r="BJ380" s="13"/>
+      <c r="BK380" s="13"/>
+      <c r="BL380" s="13"/>
+      <c r="BM380" s="13"/>
+      <c r="BN380" s="13"/>
+      <c r="BO380" s="13"/>
+      <c r="BP380" s="13"/>
+      <c r="BQ380" s="13"/>
+      <c r="BR380" s="13"/>
+      <c r="BS380" s="13"/>
+      <c r="BT380" s="13"/>
+      <c r="BU380" s="13"/>
+      <c r="BV380" s="13"/>
+      <c r="BW380" s="13"/>
+      <c r="BX380" s="13"/>
+    </row>
+    <row r="381" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F381" s="29"/>
+      <c r="G381" s="49"/>
+      <c r="H381" s="13"/>
+      <c r="I381" s="13"/>
+      <c r="J381" s="13"/>
+      <c r="K381" s="13"/>
+      <c r="L381" s="13"/>
+      <c r="M381" s="13"/>
+      <c r="N381" s="13"/>
+      <c r="O381" s="13"/>
+      <c r="P381" s="13"/>
+      <c r="Q381" s="13"/>
+      <c r="R381" s="13"/>
+      <c r="S381" s="13"/>
+      <c r="T381" s="13"/>
+      <c r="U381" s="13"/>
+      <c r="V381" s="13"/>
+      <c r="W381" s="13"/>
+      <c r="X381" s="13"/>
+      <c r="Y381" s="13"/>
+      <c r="Z381" s="13"/>
+      <c r="AA381" s="13"/>
+      <c r="AB381" s="13"/>
+      <c r="AC381" s="13"/>
+      <c r="AD381" s="13"/>
+      <c r="AE381" s="13"/>
+      <c r="AF381" s="13"/>
+      <c r="AG381" s="13"/>
+      <c r="AH381" s="48"/>
+      <c r="AI381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW381" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX381" s="13"/>
+      <c r="AY381" s="13"/>
+      <c r="AZ381" s="13"/>
+      <c r="BA381" s="13"/>
+      <c r="BB381" s="13"/>
+      <c r="BC381" s="13"/>
+      <c r="BD381" s="13"/>
+      <c r="BE381" s="13"/>
+      <c r="BF381" s="13"/>
+      <c r="BG381" s="13"/>
+      <c r="BH381" s="13"/>
+      <c r="BI381" s="13"/>
+      <c r="BJ381" s="13"/>
+      <c r="BK381" s="13"/>
+      <c r="BL381" s="13"/>
+      <c r="BM381" s="13"/>
+      <c r="BN381" s="13"/>
+      <c r="BO381" s="13"/>
+      <c r="BP381" s="13"/>
+      <c r="BQ381" s="13"/>
+      <c r="BR381" s="13"/>
+      <c r="BS381" s="13"/>
+      <c r="BT381" s="13"/>
+      <c r="BU381" s="13"/>
+      <c r="BV381" s="13"/>
+      <c r="BW381" s="13"/>
+      <c r="BX381" s="13"/>
+    </row>
+    <row r="382" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F382" s="47"/>
+      <c r="G382" s="47"/>
+      <c r="H382" s="13"/>
+      <c r="I382" s="13"/>
+      <c r="J382" s="13"/>
+      <c r="K382" s="13"/>
+      <c r="L382" s="13"/>
+      <c r="M382" s="13"/>
+      <c r="N382" s="13"/>
+      <c r="O382" s="13"/>
+      <c r="P382" s="13"/>
+      <c r="Q382" s="13"/>
+      <c r="R382" s="13"/>
+      <c r="S382" s="13"/>
+      <c r="T382" s="13"/>
+      <c r="U382" s="13"/>
+      <c r="V382" s="13"/>
+      <c r="W382" s="13"/>
+      <c r="X382" s="13"/>
+      <c r="Y382" s="13"/>
+      <c r="Z382" s="13"/>
+      <c r="AA382" s="13"/>
+      <c r="AB382" s="13"/>
+      <c r="AC382" s="13"/>
+      <c r="AD382" s="13"/>
+      <c r="AE382" s="13"/>
+      <c r="AF382" s="13"/>
+      <c r="AG382" s="13"/>
+      <c r="AH382" s="48"/>
+      <c r="AI382" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ382" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK382" s="10"/>
+      <c r="AL382" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM382" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN382" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO382" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP382" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ382" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR382" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS382" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT382" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU382" s="10"/>
+      <c r="AV382" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW382" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX382" s="13"/>
+      <c r="AY382" s="13"/>
+      <c r="AZ382" s="13"/>
+      <c r="BA382" s="13"/>
+      <c r="BB382" s="13"/>
+      <c r="BC382" s="13"/>
+      <c r="BD382" s="13"/>
+      <c r="BE382" s="13"/>
+      <c r="BF382" s="13"/>
+      <c r="BG382" s="13"/>
+      <c r="BH382" s="13"/>
+      <c r="BI382" s="13"/>
+      <c r="BJ382" s="13"/>
+      <c r="BK382" s="13"/>
+      <c r="BL382" s="13"/>
+      <c r="BM382" s="13"/>
+      <c r="BN382" s="13"/>
+      <c r="BO382" s="13"/>
+      <c r="BP382" s="13"/>
+      <c r="BQ382" s="13"/>
+      <c r="BR382" s="13"/>
+      <c r="BS382" s="13"/>
+      <c r="BT382" s="13"/>
+      <c r="BU382" s="13"/>
+      <c r="BV382" s="13"/>
+      <c r="BW382" s="13"/>
+      <c r="BX382" s="13"/>
+    </row>
+    <row r="383" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F383" s="29"/>
+      <c r="G383" s="49"/>
+      <c r="H383" s="13"/>
+      <c r="I383" s="13"/>
+      <c r="J383" s="13"/>
+      <c r="K383" s="13"/>
+      <c r="L383" s="13"/>
+      <c r="M383" s="13"/>
+      <c r="N383" s="13"/>
+      <c r="O383" s="13"/>
+      <c r="P383" s="13"/>
+      <c r="Q383" s="13"/>
+      <c r="R383" s="13"/>
+      <c r="S383" s="13"/>
+      <c r="T383" s="13"/>
+      <c r="U383" s="13"/>
+      <c r="V383" s="13"/>
+      <c r="W383" s="13"/>
+      <c r="X383" s="13"/>
+      <c r="Y383" s="13"/>
+      <c r="Z383" s="13"/>
+      <c r="AA383" s="13"/>
+      <c r="AB383" s="13"/>
+      <c r="AC383" s="13"/>
+      <c r="AD383" s="13"/>
+      <c r="AE383" s="13"/>
+      <c r="AF383" s="13"/>
+      <c r="AG383" s="13"/>
+      <c r="AH383" s="48"/>
+      <c r="AI383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW383" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX383" s="13"/>
+      <c r="AY383" s="13"/>
+      <c r="AZ383" s="13"/>
+      <c r="BA383" s="13"/>
+      <c r="BB383" s="13"/>
+      <c r="BC383" s="13"/>
+      <c r="BD383" s="13"/>
+      <c r="BE383" s="13"/>
+      <c r="BF383" s="13"/>
+      <c r="BG383" s="13"/>
+      <c r="BH383" s="13"/>
+      <c r="BI383" s="13"/>
+      <c r="BJ383" s="13"/>
+      <c r="BK383" s="13"/>
+      <c r="BL383" s="13"/>
+      <c r="BM383" s="13"/>
+      <c r="BN383" s="13"/>
+      <c r="BO383" s="13"/>
+      <c r="BP383" s="13"/>
+      <c r="BQ383" s="13"/>
+      <c r="BR383" s="13"/>
+      <c r="BS383" s="13"/>
+      <c r="BT383" s="13"/>
+      <c r="BU383" s="13"/>
+      <c r="BV383" s="13"/>
+      <c r="BW383" s="13"/>
+      <c r="BX383" s="13"/>
+    </row>
+    <row r="384" spans="6:76" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F384" s="47"/>
+      <c r="G384" s="13"/>
+      <c r="H384" s="50"/>
+      <c r="I384" s="50"/>
+      <c r="J384" s="50"/>
+      <c r="K384" s="50"/>
+      <c r="L384" s="50"/>
+      <c r="M384" s="50"/>
+      <c r="N384" s="50"/>
+      <c r="O384" s="50"/>
+      <c r="P384" s="50"/>
+      <c r="Q384" s="50"/>
+      <c r="R384" s="50"/>
+      <c r="S384" s="50"/>
+      <c r="T384" s="50"/>
+      <c r="U384" s="50"/>
+      <c r="V384" s="50"/>
+      <c r="W384" s="50"/>
+      <c r="X384" s="50"/>
+      <c r="Y384" s="50"/>
+      <c r="Z384" s="50"/>
+      <c r="AA384" s="50"/>
+      <c r="AB384" s="50"/>
+      <c r="AC384" s="50"/>
+      <c r="AD384" s="50"/>
+      <c r="AE384" s="51"/>
+      <c r="AF384" s="50"/>
+      <c r="AG384" s="50"/>
+      <c r="AH384" s="13"/>
+      <c r="AI384" s="29"/>
+      <c r="AJ384" s="29"/>
+      <c r="AK384" s="29"/>
+      <c r="AL384" s="29"/>
+      <c r="AM384" s="29"/>
+      <c r="AN384" s="29"/>
+      <c r="AO384" s="29"/>
+      <c r="AP384" s="29"/>
+      <c r="AQ384" s="29"/>
+      <c r="AR384" s="29"/>
+      <c r="AS384" s="29"/>
+      <c r="AT384" s="29"/>
+      <c r="AU384" s="29"/>
+      <c r="AV384" s="29"/>
+      <c r="AW384" s="29"/>
+      <c r="AX384" s="13"/>
+      <c r="AY384" s="13"/>
+      <c r="AZ384" s="13"/>
+      <c r="BA384" s="13"/>
+      <c r="BB384" s="13"/>
+      <c r="BC384" s="13"/>
+      <c r="BD384" s="13"/>
+      <c r="BE384" s="13"/>
+      <c r="BF384" s="13"/>
+      <c r="BG384" s="13"/>
+      <c r="BH384" s="13"/>
+      <c r="BI384" s="13"/>
+      <c r="BJ384" s="13"/>
+      <c r="BK384" s="13"/>
+      <c r="BL384" s="13"/>
+      <c r="BM384" s="13"/>
+      <c r="BN384" s="13"/>
+      <c r="BO384" s="13"/>
+      <c r="BP384" s="13"/>
+      <c r="BQ384" s="13"/>
+      <c r="BR384" s="13"/>
+      <c r="BS384" s="13"/>
+      <c r="BT384" s="13"/>
+      <c r="BU384" s="13"/>
+      <c r="BV384" s="13"/>
+      <c r="BW384" s="13"/>
+      <c r="BX384" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13407" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13407" uniqueCount="129">
   <si>
     <t>xy</t>
   </si>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
   <dimension ref="A1:CC440"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F115" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W128" sqref="W128"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A147" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -60852,7 +60852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{54037143-65CE-4338-B2F8-7F51CE8ECA44}">
   <dimension ref="A1:CC226"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A81" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A110" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Y129" sqref="Y129"/>
     </sheetView>
   </sheetViews>

--- a/Mapa de menus xy.xlsx
+++ b/Mapa de menus xy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="5033" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
+  <xr:revisionPtr revIDLastSave="5383" documentId="{12FBF147-BE15-437B-A0FD-C93FC81AD2F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13407" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14356" uniqueCount="134">
   <si>
     <t>xy</t>
   </si>
@@ -404,6 +404,21 @@
   <si>
     <t>2.1 -Tutorial [Frame 2]</t>
   </si>
+  <si>
+    <t>2.2 - Buscador [Concepto Tentativo]</t>
+  </si>
+  <si>
+    <t>2.2_buscador</t>
+  </si>
+  <si>
+    <t>Límite inferior y límite superior  -  Cantidad máxima: 13 películas</t>
+  </si>
+  <si>
+    <t>Sinopsis a pantalla completa</t>
+  </si>
+  <si>
+    <t>2.2_buscador_sinopsis</t>
+  </si>
 </sst>
 </file>
 
@@ -487,7 +502,7 @@
       <name val="Lucida Console"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +560,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1146,6 +1167,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{5AFA9771-E90B-4445-8C0B-1F09B2043B6C}">
-  <dimension ref="A1:CC440"/>
+  <dimension ref="A1:CC488"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A147" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A446" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E467" sqref="E467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -60843,6 +60883,5649 @@
       <c r="CB440" s="7"/>
       <c r="CC440" s="7"/>
     </row>
+    <row r="442" spans="1:81" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A442" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE442" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="443" spans="1:81" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="4"/>
+    </row>
+    <row r="444" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A444" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B444" s="6">
+        <v>1</v>
+      </c>
+      <c r="C444" s="6">
+        <v>2</v>
+      </c>
+      <c r="D444" s="6">
+        <v>3</v>
+      </c>
+      <c r="E444" s="6">
+        <v>4</v>
+      </c>
+      <c r="F444" s="6">
+        <v>5</v>
+      </c>
+      <c r="G444" s="6">
+        <v>6</v>
+      </c>
+      <c r="H444" s="6">
+        <v>7</v>
+      </c>
+      <c r="I444" s="6">
+        <v>8</v>
+      </c>
+      <c r="J444" s="6">
+        <v>9</v>
+      </c>
+      <c r="K444" s="6">
+        <v>10</v>
+      </c>
+      <c r="L444" s="6">
+        <v>11</v>
+      </c>
+      <c r="M444" s="6">
+        <v>12</v>
+      </c>
+      <c r="N444" s="6">
+        <v>13</v>
+      </c>
+      <c r="O444" s="6">
+        <v>14</v>
+      </c>
+      <c r="P444" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q444" s="6">
+        <v>16</v>
+      </c>
+      <c r="R444" s="6">
+        <v>17</v>
+      </c>
+      <c r="S444" s="6">
+        <v>18</v>
+      </c>
+      <c r="T444" s="6">
+        <v>19</v>
+      </c>
+      <c r="U444" s="6">
+        <v>20</v>
+      </c>
+      <c r="V444" s="6">
+        <v>21</v>
+      </c>
+      <c r="W444" s="6">
+        <v>22</v>
+      </c>
+      <c r="X444" s="6">
+        <v>23</v>
+      </c>
+      <c r="Y444" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z444" s="6">
+        <v>25</v>
+      </c>
+      <c r="AA444" s="6">
+        <v>26</v>
+      </c>
+      <c r="AB444" s="6">
+        <v>27</v>
+      </c>
+      <c r="AC444" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD444" s="6">
+        <v>29</v>
+      </c>
+      <c r="AE444" s="6">
+        <v>30</v>
+      </c>
+      <c r="AF444" s="6">
+        <v>31</v>
+      </c>
+      <c r="AG444" s="6">
+        <v>32</v>
+      </c>
+      <c r="AH444" s="6">
+        <v>33</v>
+      </c>
+      <c r="AI444" s="6">
+        <v>34</v>
+      </c>
+      <c r="AJ444" s="6">
+        <v>35</v>
+      </c>
+      <c r="AK444" s="6">
+        <v>36</v>
+      </c>
+      <c r="AL444" s="6">
+        <v>37</v>
+      </c>
+      <c r="AM444" s="6">
+        <v>38</v>
+      </c>
+      <c r="AN444" s="6">
+        <v>39</v>
+      </c>
+      <c r="AO444" s="6">
+        <v>40</v>
+      </c>
+      <c r="AP444" s="6">
+        <v>41</v>
+      </c>
+      <c r="AQ444" s="6">
+        <v>42</v>
+      </c>
+      <c r="AR444" s="6">
+        <v>43</v>
+      </c>
+      <c r="AS444" s="6">
+        <v>44</v>
+      </c>
+      <c r="AT444" s="6">
+        <v>45</v>
+      </c>
+      <c r="AU444" s="6">
+        <v>46</v>
+      </c>
+      <c r="AV444" s="6">
+        <v>47</v>
+      </c>
+      <c r="AW444" s="6">
+        <v>48</v>
+      </c>
+      <c r="AX444" s="6">
+        <v>49</v>
+      </c>
+      <c r="AY444" s="6">
+        <v>50</v>
+      </c>
+      <c r="AZ444" s="6">
+        <v>51</v>
+      </c>
+      <c r="BA444" s="6">
+        <v>52</v>
+      </c>
+      <c r="BB444" s="6">
+        <v>53</v>
+      </c>
+      <c r="BC444" s="6">
+        <v>54</v>
+      </c>
+      <c r="BD444" s="6">
+        <v>55</v>
+      </c>
+      <c r="BE444" s="6">
+        <v>56</v>
+      </c>
+      <c r="BF444" s="6">
+        <v>57</v>
+      </c>
+      <c r="BG444" s="6">
+        <v>58</v>
+      </c>
+      <c r="BH444" s="6">
+        <v>59</v>
+      </c>
+      <c r="BI444" s="6">
+        <v>60</v>
+      </c>
+      <c r="BJ444" s="6">
+        <v>61</v>
+      </c>
+      <c r="BK444" s="6">
+        <v>62</v>
+      </c>
+      <c r="BL444" s="6">
+        <v>63</v>
+      </c>
+      <c r="BM444" s="6">
+        <v>64</v>
+      </c>
+      <c r="BN444" s="6">
+        <v>65</v>
+      </c>
+      <c r="BO444" s="6">
+        <v>66</v>
+      </c>
+      <c r="BP444" s="6">
+        <v>67</v>
+      </c>
+      <c r="BQ444" s="6">
+        <v>68</v>
+      </c>
+      <c r="BR444" s="6">
+        <v>69</v>
+      </c>
+      <c r="BS444" s="6">
+        <v>70</v>
+      </c>
+      <c r="BT444" s="6">
+        <v>71</v>
+      </c>
+      <c r="BU444" s="6">
+        <v>72</v>
+      </c>
+      <c r="BV444" s="6">
+        <v>73</v>
+      </c>
+      <c r="BW444" s="6">
+        <v>74</v>
+      </c>
+      <c r="BX444" s="6">
+        <v>75</v>
+      </c>
+      <c r="BY444" s="6">
+        <v>76</v>
+      </c>
+      <c r="BZ444" s="6">
+        <v>77</v>
+      </c>
+      <c r="CA444" s="6">
+        <v>78</v>
+      </c>
+      <c r="CB444" s="6">
+        <v>79</v>
+      </c>
+      <c r="CC444" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="445" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A445" s="5">
+        <v>1</v>
+      </c>
+      <c r="B445" s="7"/>
+      <c r="C445" s="7"/>
+      <c r="D445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO445" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA445" s="7"/>
+      <c r="CB445" s="7"/>
+      <c r="CC445" s="7"/>
+    </row>
+    <row r="446" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A446" s="5">
+        <v>2</v>
+      </c>
+      <c r="B446" s="7"/>
+      <c r="C446" s="7"/>
+      <c r="D446" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E446" s="7"/>
+      <c r="F446" s="11"/>
+      <c r="G446" s="19"/>
+      <c r="H446" s="7"/>
+      <c r="I446" s="7"/>
+      <c r="J446" s="7"/>
+      <c r="K446" s="7"/>
+      <c r="L446" s="7"/>
+      <c r="M446" s="7"/>
+      <c r="N446" s="7"/>
+      <c r="O446" s="7"/>
+      <c r="P446" s="7"/>
+      <c r="Q446" s="7"/>
+      <c r="R446" s="7"/>
+      <c r="S446" s="7"/>
+      <c r="T446" s="7"/>
+      <c r="U446" s="7"/>
+      <c r="V446" s="7"/>
+      <c r="W446" s="7"/>
+      <c r="X446" s="7"/>
+      <c r="Y446" s="7"/>
+      <c r="Z446" s="7"/>
+      <c r="AA446" s="7"/>
+      <c r="AB446" s="7"/>
+      <c r="AC446" s="7"/>
+      <c r="AD446" s="7"/>
+      <c r="AE446" s="7"/>
+      <c r="AF446" s="7"/>
+      <c r="AG446" s="7"/>
+      <c r="AH446" s="7"/>
+      <c r="AI446" s="7"/>
+      <c r="AJ446" s="7"/>
+      <c r="AK446" s="11"/>
+      <c r="AL446" s="11"/>
+      <c r="AM446" s="11"/>
+      <c r="AN446" s="11"/>
+      <c r="AO446" s="7"/>
+      <c r="AP446" s="7"/>
+      <c r="AQ446" s="7"/>
+      <c r="AR446" s="7"/>
+      <c r="AS446" s="7"/>
+      <c r="AT446" s="7"/>
+      <c r="AU446" s="7"/>
+      <c r="AV446" s="7"/>
+      <c r="AW446" s="7"/>
+      <c r="AX446" s="7"/>
+      <c r="AY446" s="7"/>
+      <c r="AZ446" s="7"/>
+      <c r="BA446" s="7"/>
+      <c r="BB446" s="7"/>
+      <c r="BC446" s="7"/>
+      <c r="BD446" s="7"/>
+      <c r="BE446" s="7"/>
+      <c r="BF446" s="7"/>
+      <c r="BG446" s="7"/>
+      <c r="BH446" s="7"/>
+      <c r="BI446" s="7"/>
+      <c r="BJ446" s="7"/>
+      <c r="BK446" s="7"/>
+      <c r="BL446" s="7"/>
+      <c r="BM446" s="7"/>
+      <c r="BN446" s="7"/>
+      <c r="BO446" s="7"/>
+      <c r="BP446" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ446" s="10"/>
+      <c r="BR446" s="10"/>
+      <c r="BS446" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT446" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU446" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV446" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW446" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX446" s="10"/>
+      <c r="BY446" s="10"/>
+      <c r="BZ446" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA446" s="7"/>
+      <c r="CB446" s="7"/>
+      <c r="CC446" s="7"/>
+    </row>
+    <row r="447" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A447" s="5">
+        <v>3</v>
+      </c>
+      <c r="B447" s="7"/>
+      <c r="C447" s="7"/>
+      <c r="D447" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO447" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP447" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY447" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ447" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA447" s="7"/>
+      <c r="CB447" s="7"/>
+      <c r="CC447" s="7"/>
+    </row>
+    <row r="448" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A448" s="5">
+        <v>4</v>
+      </c>
+      <c r="B448" s="7"/>
+      <c r="C448" s="7"/>
+      <c r="D448" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E448" s="11"/>
+      <c r="F448" s="11"/>
+      <c r="G448" s="11"/>
+      <c r="H448" s="11"/>
+      <c r="I448" s="11"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="11"/>
+      <c r="L448" s="11"/>
+      <c r="M448" s="11"/>
+      <c r="N448" s="11"/>
+      <c r="O448" s="11"/>
+      <c r="P448" s="11"/>
+      <c r="Q448" s="11"/>
+      <c r="R448" s="11"/>
+      <c r="S448" s="11"/>
+      <c r="T448" s="11"/>
+      <c r="U448" s="11"/>
+      <c r="V448" s="11"/>
+      <c r="W448" s="11"/>
+      <c r="X448" s="11"/>
+      <c r="Y448" s="11"/>
+      <c r="Z448" s="11"/>
+      <c r="AA448" s="11"/>
+      <c r="AB448" s="11"/>
+      <c r="AC448" s="11"/>
+      <c r="AD448" s="11"/>
+      <c r="AE448" s="11"/>
+      <c r="AF448" s="11"/>
+      <c r="AG448" s="11"/>
+      <c r="AH448" s="11"/>
+      <c r="AI448" s="11"/>
+      <c r="AJ448" s="11"/>
+      <c r="AK448" s="11"/>
+      <c r="AL448" s="11"/>
+      <c r="AM448" s="11"/>
+      <c r="AN448" s="11"/>
+      <c r="AO448" s="11"/>
+      <c r="AP448" s="11"/>
+      <c r="AQ448" s="11"/>
+      <c r="AR448" s="11"/>
+      <c r="AS448" s="11"/>
+      <c r="AT448" s="11"/>
+      <c r="AU448" s="11"/>
+      <c r="AV448" s="11"/>
+      <c r="AW448" s="11"/>
+      <c r="AX448" s="73"/>
+      <c r="AY448" s="73"/>
+      <c r="AZ448" s="73"/>
+      <c r="BA448" s="73"/>
+      <c r="BB448" s="73"/>
+      <c r="BC448" s="73"/>
+      <c r="BD448" s="73"/>
+      <c r="BE448" s="73"/>
+      <c r="BF448" s="73"/>
+      <c r="BG448" s="73"/>
+      <c r="BH448" s="73"/>
+      <c r="BI448" s="73"/>
+      <c r="BJ448" s="73"/>
+      <c r="BK448" s="73"/>
+      <c r="BL448" s="73"/>
+      <c r="BM448" s="73"/>
+      <c r="BN448" s="73"/>
+      <c r="BO448" s="73"/>
+      <c r="BP448" s="73"/>
+      <c r="BQ448" s="73"/>
+      <c r="BR448" s="73"/>
+      <c r="BS448" s="73"/>
+      <c r="BT448" s="73"/>
+      <c r="BU448" s="73"/>
+      <c r="BV448" s="73"/>
+      <c r="BW448" s="73"/>
+      <c r="BX448" s="73"/>
+      <c r="BY448" s="73"/>
+      <c r="BZ448" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA448" s="7"/>
+      <c r="CB448" s="7"/>
+      <c r="CC448" s="7"/>
+    </row>
+    <row r="449" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A449" s="5">
+        <v>5</v>
+      </c>
+      <c r="B449" s="7"/>
+      <c r="C449" s="7"/>
+      <c r="D449" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E449" s="11"/>
+      <c r="F449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV449" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW449" s="11"/>
+      <c r="AX449" s="73"/>
+      <c r="AY449" s="73"/>
+      <c r="AZ449" s="73"/>
+      <c r="BA449" s="73"/>
+      <c r="BB449" s="73"/>
+      <c r="BC449" s="73"/>
+      <c r="BD449" s="73"/>
+      <c r="BE449" s="73"/>
+      <c r="BF449" s="73"/>
+      <c r="BG449" s="73"/>
+      <c r="BH449" s="73"/>
+      <c r="BI449" s="73"/>
+      <c r="BJ449" s="73"/>
+      <c r="BK449" s="73"/>
+      <c r="BL449" s="73"/>
+      <c r="BM449" s="73"/>
+      <c r="BN449" s="73"/>
+      <c r="BO449" s="73"/>
+      <c r="BP449" s="73"/>
+      <c r="BQ449" s="73"/>
+      <c r="BR449" s="73"/>
+      <c r="BS449" s="73"/>
+      <c r="BT449" s="73"/>
+      <c r="BU449" s="73"/>
+      <c r="BV449" s="73"/>
+      <c r="BW449" s="73"/>
+      <c r="BX449" s="73"/>
+      <c r="BY449" s="73"/>
+      <c r="BZ449" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA449" s="7"/>
+      <c r="CB449" s="7"/>
+      <c r="CC449" s="7"/>
+    </row>
+    <row r="450" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A450" s="5">
+        <v>6</v>
+      </c>
+      <c r="B450" s="7"/>
+      <c r="C450" s="7"/>
+      <c r="D450" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E450" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F450" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G450" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H450" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I450" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J450" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K450" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L450" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M450" s="43"/>
+      <c r="N450" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O450" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P450" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q450" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R450" s="43"/>
+      <c r="S450" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T450" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U450" s="13"/>
+      <c r="V450" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W450" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X450" s="13"/>
+      <c r="Y450" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z450" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA450" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB450" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC450" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD450" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE450" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF450" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG450" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH450" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI450" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ450" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK450" s="43"/>
+      <c r="AL450" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM450" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN450" s="43"/>
+      <c r="AO450" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP450" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ450" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR450" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS450" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT450" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU450" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV450" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW450" s="11"/>
+      <c r="AX450" s="73"/>
+      <c r="AY450" s="73"/>
+      <c r="AZ450" s="73"/>
+      <c r="BA450" s="73"/>
+      <c r="BB450" s="73"/>
+      <c r="BC450" s="73"/>
+      <c r="BD450" s="73"/>
+      <c r="BE450" s="73"/>
+      <c r="BF450" s="73"/>
+      <c r="BG450" s="73"/>
+      <c r="BH450" s="73"/>
+      <c r="BI450" s="73"/>
+      <c r="BJ450" s="73"/>
+      <c r="BK450" s="73"/>
+      <c r="BL450" s="73"/>
+      <c r="BM450" s="73"/>
+      <c r="BN450" s="73"/>
+      <c r="BO450" s="73"/>
+      <c r="BP450" s="73"/>
+      <c r="BQ450" s="73"/>
+      <c r="BR450" s="73"/>
+      <c r="BS450" s="73"/>
+      <c r="BT450" s="73"/>
+      <c r="BU450" s="73"/>
+      <c r="BV450" s="73"/>
+      <c r="BW450" s="73"/>
+      <c r="BX450" s="73"/>
+      <c r="BY450" s="73"/>
+      <c r="BZ450" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA450" s="7"/>
+      <c r="CB450" s="7"/>
+      <c r="CC450" s="7"/>
+    </row>
+    <row r="451" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A451" s="5">
+        <v>7</v>
+      </c>
+      <c r="B451" s="7"/>
+      <c r="C451" s="7"/>
+      <c r="D451" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E451" s="11"/>
+      <c r="F451" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G451" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H451" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I451" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH451" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR451" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS451" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT451" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU451" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV451" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW451" s="11"/>
+      <c r="AX451" s="73"/>
+      <c r="AY451" s="73"/>
+      <c r="AZ451" s="73"/>
+      <c r="BA451" s="73"/>
+      <c r="BB451" s="73"/>
+      <c r="BC451" s="73"/>
+      <c r="BD451" s="73"/>
+      <c r="BE451" s="73"/>
+      <c r="BF451" s="73"/>
+      <c r="BG451" s="73"/>
+      <c r="BH451" s="73"/>
+      <c r="BI451" s="73"/>
+      <c r="BJ451" s="73"/>
+      <c r="BK451" s="73"/>
+      <c r="BL451" s="73"/>
+      <c r="BM451" s="73"/>
+      <c r="BN451" s="73"/>
+      <c r="BO451" s="73"/>
+      <c r="BP451" s="73"/>
+      <c r="BQ451" s="73"/>
+      <c r="BR451" s="73"/>
+      <c r="BS451" s="73"/>
+      <c r="BT451" s="73"/>
+      <c r="BU451" s="73"/>
+      <c r="BV451" s="73"/>
+      <c r="BW451" s="73"/>
+      <c r="BX451" s="73"/>
+      <c r="BY451" s="73"/>
+      <c r="BZ451" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA451" s="7"/>
+      <c r="CB451" s="7"/>
+      <c r="CC451" s="7"/>
+    </row>
+    <row r="452" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A452" s="5">
+        <v>8</v>
+      </c>
+      <c r="B452" s="7"/>
+      <c r="C452" s="7"/>
+      <c r="D452" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E452" s="11"/>
+      <c r="F452" s="11"/>
+      <c r="G452" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H452" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I452" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J452" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K452" s="10"/>
+      <c r="L452" s="71"/>
+      <c r="M452" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="N452" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="O452" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="P452" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q452" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="R452" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="S452" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="T452" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="U452" s="71"/>
+      <c r="V452" s="71"/>
+      <c r="W452" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="X452" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y452" s="10"/>
+      <c r="Z452" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA452" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB452" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC452" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD452" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE452" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF452" s="10"/>
+      <c r="AG452" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH452" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI452" s="90"/>
+      <c r="AJ452" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK452" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL452" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM452" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN452" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO452" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP452" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ452" s="71"/>
+      <c r="AR452" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS452" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT452" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU452" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV452" s="11"/>
+      <c r="AW452" s="11"/>
+      <c r="AX452" s="73"/>
+      <c r="AY452" s="73"/>
+      <c r="AZ452" s="73"/>
+      <c r="BA452" s="73"/>
+      <c r="BB452" s="73"/>
+      <c r="BC452" s="73"/>
+      <c r="BD452" s="73"/>
+      <c r="BE452" s="73"/>
+      <c r="BF452" s="73"/>
+      <c r="BG452" s="73"/>
+      <c r="BH452" s="74"/>
+      <c r="BI452" s="74"/>
+      <c r="BJ452" s="74"/>
+      <c r="BK452" s="73"/>
+      <c r="BL452" s="73"/>
+      <c r="BM452" s="73"/>
+      <c r="BN452" s="73"/>
+      <c r="BO452" s="73"/>
+      <c r="BP452" s="73"/>
+      <c r="BQ452" s="73"/>
+      <c r="BR452" s="73"/>
+      <c r="BS452" s="73"/>
+      <c r="BT452" s="73"/>
+      <c r="BU452" s="73"/>
+      <c r="BV452" s="73"/>
+      <c r="BW452" s="73"/>
+      <c r="BX452" s="73"/>
+      <c r="BY452" s="73"/>
+      <c r="BZ452" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA452" s="7"/>
+      <c r="CB452" s="7"/>
+      <c r="CC452" s="7"/>
+    </row>
+    <row r="453" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A453" s="5">
+        <v>9</v>
+      </c>
+      <c r="B453" s="7"/>
+      <c r="C453" s="7"/>
+      <c r="D453" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E453" s="11"/>
+      <c r="F453" s="11"/>
+      <c r="G453" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H453" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I453" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J453" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH453" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ453" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR453" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS453" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT453" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU453" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV453" s="11"/>
+      <c r="AW453" s="11"/>
+      <c r="AX453" s="73"/>
+      <c r="AY453" s="73"/>
+      <c r="AZ453" s="73"/>
+      <c r="BA453" s="73"/>
+      <c r="BB453" s="73"/>
+      <c r="BC453" s="73"/>
+      <c r="BD453" s="73"/>
+      <c r="BE453" s="73"/>
+      <c r="BF453" s="73"/>
+      <c r="BG453" s="73"/>
+      <c r="BH453" s="73"/>
+      <c r="BI453" s="73"/>
+      <c r="BJ453" s="73"/>
+      <c r="BK453" s="73"/>
+      <c r="BL453" s="73"/>
+      <c r="BM453" s="73"/>
+      <c r="BN453" s="73"/>
+      <c r="BO453" s="73"/>
+      <c r="BP453" s="73"/>
+      <c r="BQ453" s="73"/>
+      <c r="BR453" s="73"/>
+      <c r="BS453" s="73"/>
+      <c r="BT453" s="73"/>
+      <c r="BU453" s="73"/>
+      <c r="BV453" s="73"/>
+      <c r="BW453" s="73"/>
+      <c r="BX453" s="73"/>
+      <c r="BY453" s="73"/>
+      <c r="BZ453" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA453" s="7"/>
+      <c r="CB453" s="7"/>
+      <c r="CC453" s="7"/>
+    </row>
+    <row r="454" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A454" s="5">
+        <v>10</v>
+      </c>
+      <c r="B454" s="7"/>
+      <c r="C454" s="7"/>
+      <c r="D454" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E454" s="11"/>
+      <c r="F454" s="11"/>
+      <c r="G454" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H454" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I454" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J454" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K454" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L454" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M454" s="43"/>
+      <c r="N454" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O454" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P454" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q454" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R454" s="43"/>
+      <c r="S454" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T454" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U454" s="13"/>
+      <c r="V454" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W454" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X454" s="13"/>
+      <c r="Y454" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z454" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA454" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB454" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC454" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD454" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE454" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF454" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG454" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH454" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI454" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ454" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK454" s="43"/>
+      <c r="AL454" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM454" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN454" s="43"/>
+      <c r="AO454" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP454" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ454" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR454" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS454" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT454" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU454" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV454" s="11"/>
+      <c r="AW454" s="11"/>
+      <c r="AX454" s="73"/>
+      <c r="AY454" s="73"/>
+      <c r="AZ454" s="73"/>
+      <c r="BA454" s="73"/>
+      <c r="BB454" s="73"/>
+      <c r="BC454" s="73"/>
+      <c r="BD454" s="73"/>
+      <c r="BE454" s="73"/>
+      <c r="BF454" s="73"/>
+      <c r="BG454" s="73"/>
+      <c r="BH454" s="73"/>
+      <c r="BI454" s="73"/>
+      <c r="BJ454" s="73"/>
+      <c r="BK454" s="73"/>
+      <c r="BL454" s="73"/>
+      <c r="BM454" s="73"/>
+      <c r="BN454" s="73"/>
+      <c r="BO454" s="73"/>
+      <c r="BP454" s="73"/>
+      <c r="BQ454" s="73"/>
+      <c r="BR454" s="73"/>
+      <c r="BS454" s="73"/>
+      <c r="BT454" s="73"/>
+      <c r="BU454" s="73"/>
+      <c r="BV454" s="73"/>
+      <c r="BW454" s="73"/>
+      <c r="BX454" s="73"/>
+      <c r="BY454" s="73"/>
+      <c r="BZ454" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA454" s="7"/>
+      <c r="CB454" s="7"/>
+      <c r="CC454" s="7"/>
+    </row>
+    <row r="455" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A455" s="5">
+        <v>11</v>
+      </c>
+      <c r="B455" s="7"/>
+      <c r="C455" s="7"/>
+      <c r="D455" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E455" s="11"/>
+      <c r="F455" s="11"/>
+      <c r="G455" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H455" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I455" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J455" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K455" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L455" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M455" s="43"/>
+      <c r="N455" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O455" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P455" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q455" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R455" s="43"/>
+      <c r="S455" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T455" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U455" s="13"/>
+      <c r="V455" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W455" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X455" s="13"/>
+      <c r="Y455" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z455" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA455" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB455" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC455" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD455" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE455" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF455" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG455" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH455" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI455" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ455" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK455" s="43"/>
+      <c r="AL455" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM455" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN455" s="43"/>
+      <c r="AO455" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP455" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ455" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR455" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS455" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT455" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU455" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV455" s="11"/>
+      <c r="AW455" s="11"/>
+      <c r="AX455" s="73"/>
+      <c r="AY455" s="73"/>
+      <c r="AZ455" s="73"/>
+      <c r="BA455" s="73"/>
+      <c r="BB455" s="73"/>
+      <c r="BC455" s="73"/>
+      <c r="BD455" s="73"/>
+      <c r="BE455" s="73"/>
+      <c r="BF455" s="73"/>
+      <c r="BG455" s="73"/>
+      <c r="BH455" s="73"/>
+      <c r="BI455" s="73"/>
+      <c r="BJ455" s="73"/>
+      <c r="BK455" s="73"/>
+      <c r="BL455" s="73"/>
+      <c r="BM455" s="73"/>
+      <c r="BN455" s="73"/>
+      <c r="BO455" s="73"/>
+      <c r="BP455" s="73"/>
+      <c r="BQ455" s="73"/>
+      <c r="BR455" s="73"/>
+      <c r="BS455" s="73"/>
+      <c r="BT455" s="73"/>
+      <c r="BU455" s="73"/>
+      <c r="BV455" s="73"/>
+      <c r="BW455" s="73"/>
+      <c r="BX455" s="73"/>
+      <c r="BY455" s="73"/>
+      <c r="BZ455" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA455" s="7"/>
+      <c r="CB455" s="7"/>
+      <c r="CC455" s="7"/>
+    </row>
+    <row r="456" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A456" s="5">
+        <v>12</v>
+      </c>
+      <c r="B456" s="7"/>
+      <c r="C456" s="7"/>
+      <c r="D456" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E456" s="11"/>
+      <c r="F456" s="11"/>
+      <c r="G456" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H456" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I456" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J456" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K456" s="37"/>
+      <c r="L456" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M456" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N456" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O456" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P456" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q456" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="R456" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S456" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="T456" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="U456" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V456" s="11"/>
+      <c r="W456" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X456" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y456" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z456" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA456" s="11"/>
+      <c r="AB456" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC456" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD456" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE456" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF456" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG456" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH456" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI456" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ456" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK456" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL456" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM456" s="37"/>
+      <c r="AN456" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO456" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP456" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ456" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR456" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS456" s="13"/>
+      <c r="AT456" s="13"/>
+      <c r="AU456" s="13"/>
+      <c r="AV456" s="11"/>
+      <c r="AW456" s="11"/>
+      <c r="AX456" s="73"/>
+      <c r="AY456" s="73"/>
+      <c r="AZ456" s="73"/>
+      <c r="BA456" s="73"/>
+      <c r="BB456" s="73"/>
+      <c r="BC456" s="73"/>
+      <c r="BD456" s="73"/>
+      <c r="BE456" s="73"/>
+      <c r="BF456" s="73"/>
+      <c r="BG456" s="73"/>
+      <c r="BH456" s="73"/>
+      <c r="BI456" s="73"/>
+      <c r="BJ456" s="73"/>
+      <c r="BK456" s="73"/>
+      <c r="BL456" s="73"/>
+      <c r="BM456" s="73"/>
+      <c r="BN456" s="73"/>
+      <c r="BO456" s="73"/>
+      <c r="BP456" s="73"/>
+      <c r="BQ456" s="73"/>
+      <c r="BR456" s="73"/>
+      <c r="BS456" s="73"/>
+      <c r="BT456" s="73"/>
+      <c r="BU456" s="73"/>
+      <c r="BV456" s="73"/>
+      <c r="BW456" s="73"/>
+      <c r="BX456" s="73"/>
+      <c r="BY456" s="73"/>
+      <c r="BZ456" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA456" s="7"/>
+      <c r="CB456" s="7"/>
+      <c r="CC456" s="7"/>
+    </row>
+    <row r="457" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A457" s="5">
+        <v>13</v>
+      </c>
+      <c r="B457" s="7"/>
+      <c r="C457" s="7"/>
+      <c r="D457" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E457" s="11"/>
+      <c r="F457" s="11"/>
+      <c r="G457" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H457" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I457" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J457" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K457" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L457" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M457" s="43"/>
+      <c r="N457" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O457" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P457" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q457" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R457" s="43"/>
+      <c r="S457" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T457" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U457" s="13"/>
+      <c r="V457" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W457" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X457" s="13"/>
+      <c r="Y457" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z457" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA457" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB457" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC457" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD457" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE457" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF457" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG457" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH457" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI457" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ457" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK457" s="43"/>
+      <c r="AL457" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM457" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN457" s="43"/>
+      <c r="AO457" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP457" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ457" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR457" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS457" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT457" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU457" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV457" s="11"/>
+      <c r="AW457" s="11"/>
+      <c r="AX457" s="73"/>
+      <c r="AY457" s="73"/>
+      <c r="AZ457" s="73"/>
+      <c r="BA457" s="73"/>
+      <c r="BB457" s="73"/>
+      <c r="BC457" s="73"/>
+      <c r="BD457" s="73"/>
+      <c r="BE457" s="73"/>
+      <c r="BF457" s="73"/>
+      <c r="BG457" s="73"/>
+      <c r="BH457" s="73"/>
+      <c r="BI457" s="73"/>
+      <c r="BJ457" s="73"/>
+      <c r="BK457" s="73"/>
+      <c r="BL457" s="73"/>
+      <c r="BM457" s="73"/>
+      <c r="BN457" s="73"/>
+      <c r="BO457" s="73"/>
+      <c r="BP457" s="73"/>
+      <c r="BQ457" s="73"/>
+      <c r="BR457" s="73"/>
+      <c r="BS457" s="73"/>
+      <c r="BT457" s="73"/>
+      <c r="BU457" s="73"/>
+      <c r="BV457" s="73"/>
+      <c r="BW457" s="73"/>
+      <c r="BX457" s="73"/>
+      <c r="BY457" s="73"/>
+      <c r="BZ457" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA457" s="7"/>
+      <c r="CB457" s="7"/>
+      <c r="CC457" s="7"/>
+    </row>
+    <row r="458" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A458" s="5">
+        <v>14</v>
+      </c>
+      <c r="B458" s="7"/>
+      <c r="C458" s="7"/>
+      <c r="D458" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E458" s="11"/>
+      <c r="F458" s="11"/>
+      <c r="G458" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H458" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I458" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J458" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K458" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L458" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M458" s="43"/>
+      <c r="N458" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O458" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P458" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q458" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R458" s="43"/>
+      <c r="S458" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T458" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U458" s="13"/>
+      <c r="V458" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W458" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X458" s="13"/>
+      <c r="Y458" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z458" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA458" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB458" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC458" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD458" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE458" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF458" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG458" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH458" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI458" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ458" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK458" s="43"/>
+      <c r="AL458" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM458" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN458" s="43"/>
+      <c r="AO458" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP458" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ458" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR458" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS458" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT458" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU458" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV458" s="11"/>
+      <c r="AW458" s="11"/>
+      <c r="AX458" s="73"/>
+      <c r="AY458" s="73"/>
+      <c r="AZ458" s="73"/>
+      <c r="BA458" s="73"/>
+      <c r="BB458" s="73"/>
+      <c r="BC458" s="73"/>
+      <c r="BD458" s="73"/>
+      <c r="BE458" s="73"/>
+      <c r="BF458" s="73"/>
+      <c r="BG458" s="73"/>
+      <c r="BH458" s="74"/>
+      <c r="BI458" s="74"/>
+      <c r="BJ458" s="74"/>
+      <c r="BK458" s="73"/>
+      <c r="BL458" s="73"/>
+      <c r="BM458" s="73"/>
+      <c r="BN458" s="73"/>
+      <c r="BO458" s="73"/>
+      <c r="BP458" s="73"/>
+      <c r="BQ458" s="73"/>
+      <c r="BR458" s="73"/>
+      <c r="BS458" s="73"/>
+      <c r="BT458" s="73"/>
+      <c r="BU458" s="73"/>
+      <c r="BV458" s="73"/>
+      <c r="BW458" s="73"/>
+      <c r="BX458" s="73"/>
+      <c r="BY458" s="73"/>
+      <c r="BZ458" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA458" s="7"/>
+      <c r="CB458" s="7"/>
+      <c r="CC458" s="7"/>
+    </row>
+    <row r="459" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A459" s="5">
+        <v>15</v>
+      </c>
+      <c r="B459" s="7"/>
+      <c r="C459" s="7"/>
+      <c r="D459" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E459" s="11"/>
+      <c r="F459" s="11"/>
+      <c r="G459" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H459" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I459" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J459" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K459" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L459" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M459" s="43"/>
+      <c r="N459" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O459" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P459" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q459" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R459" s="43"/>
+      <c r="S459" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T459" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U459" s="13"/>
+      <c r="V459" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W459" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X459" s="13"/>
+      <c r="Y459" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z459" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA459" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB459" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC459" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD459" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE459" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF459" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG459" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH459" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI459" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ459" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK459" s="43"/>
+      <c r="AL459" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM459" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN459" s="43"/>
+      <c r="AO459" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP459" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ459" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR459" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS459" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT459" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU459" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV459" s="11"/>
+      <c r="AW459" s="11"/>
+      <c r="AX459" s="73"/>
+      <c r="AY459" s="73"/>
+      <c r="AZ459" s="73"/>
+      <c r="BA459" s="73"/>
+      <c r="BB459" s="73"/>
+      <c r="BC459" s="73"/>
+      <c r="BD459" s="73"/>
+      <c r="BE459" s="73"/>
+      <c r="BF459" s="73"/>
+      <c r="BG459" s="73"/>
+      <c r="BH459" s="73"/>
+      <c r="BI459" s="73"/>
+      <c r="BJ459" s="73"/>
+      <c r="BK459" s="73"/>
+      <c r="BL459" s="73"/>
+      <c r="BM459" s="73"/>
+      <c r="BN459" s="73"/>
+      <c r="BO459" s="73"/>
+      <c r="BP459" s="73"/>
+      <c r="BQ459" s="73"/>
+      <c r="BR459" s="73"/>
+      <c r="BS459" s="73"/>
+      <c r="BT459" s="73"/>
+      <c r="BU459" s="73"/>
+      <c r="BV459" s="73"/>
+      <c r="BW459" s="73"/>
+      <c r="BX459" s="73"/>
+      <c r="BY459" s="73"/>
+      <c r="BZ459" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA459" s="7"/>
+      <c r="CB459" s="7"/>
+      <c r="CC459" s="7"/>
+    </row>
+    <row r="460" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A460" s="5">
+        <v>16</v>
+      </c>
+      <c r="B460" s="7"/>
+      <c r="C460" s="7"/>
+      <c r="D460" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E460" s="11"/>
+      <c r="F460" s="11"/>
+      <c r="G460" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H460" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I460" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J460" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K460" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L460" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M460" s="43"/>
+      <c r="N460" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O460" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P460" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q460" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R460" s="43"/>
+      <c r="S460" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T460" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U460" s="13"/>
+      <c r="V460" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W460" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X460" s="13"/>
+      <c r="Y460" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z460" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA460" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB460" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC460" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD460" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE460" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF460" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG460" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH460" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI460" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ460" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK460" s="43"/>
+      <c r="AL460" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM460" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN460" s="43"/>
+      <c r="AO460" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP460" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ460" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR460" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS460" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT460" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU460" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV460" s="11"/>
+      <c r="AW460" s="11"/>
+      <c r="AX460" s="73"/>
+      <c r="AY460" s="73"/>
+      <c r="AZ460" s="73"/>
+      <c r="BA460" s="73"/>
+      <c r="BB460" s="73"/>
+      <c r="BC460" s="73"/>
+      <c r="BD460" s="73"/>
+      <c r="BE460" s="73"/>
+      <c r="BF460" s="73"/>
+      <c r="BG460" s="73"/>
+      <c r="BH460" s="73"/>
+      <c r="BI460" s="73"/>
+      <c r="BJ460" s="73"/>
+      <c r="BK460" s="73"/>
+      <c r="BL460" s="73"/>
+      <c r="BM460" s="73"/>
+      <c r="BN460" s="73"/>
+      <c r="BO460" s="73"/>
+      <c r="BP460" s="73"/>
+      <c r="BQ460" s="73"/>
+      <c r="BR460" s="73"/>
+      <c r="BS460" s="73"/>
+      <c r="BT460" s="73"/>
+      <c r="BU460" s="73"/>
+      <c r="BV460" s="73"/>
+      <c r="BW460" s="73"/>
+      <c r="BX460" s="73"/>
+      <c r="BY460" s="73"/>
+      <c r="BZ460" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA460" s="7"/>
+      <c r="CB460" s="7"/>
+      <c r="CC460" s="7"/>
+    </row>
+    <row r="461" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A461" s="5">
+        <v>17</v>
+      </c>
+      <c r="B461" s="7"/>
+      <c r="C461" s="7"/>
+      <c r="D461" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E461" s="11"/>
+      <c r="F461" s="11"/>
+      <c r="G461" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H461" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I461" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J461" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K461" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L461" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M461" s="43"/>
+      <c r="N461" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O461" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P461" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q461" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R461" s="43"/>
+      <c r="S461" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T461" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U461" s="13"/>
+      <c r="V461" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W461" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X461" s="13"/>
+      <c r="Y461" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z461" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA461" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB461" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC461" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD461" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE461" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF461" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG461" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH461" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI461" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ461" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK461" s="43"/>
+      <c r="AL461" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM461" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN461" s="43"/>
+      <c r="AO461" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP461" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ461" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR461" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS461" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT461" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU461" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV461" s="11"/>
+      <c r="AW461" s="11"/>
+      <c r="AX461" s="73"/>
+      <c r="AY461" s="73"/>
+      <c r="AZ461" s="73"/>
+      <c r="BA461" s="73"/>
+      <c r="BB461" s="73"/>
+      <c r="BC461" s="73"/>
+      <c r="BD461" s="73"/>
+      <c r="BE461" s="73"/>
+      <c r="BF461" s="73"/>
+      <c r="BG461" s="73"/>
+      <c r="BH461" s="73"/>
+      <c r="BI461" s="73"/>
+      <c r="BJ461" s="73"/>
+      <c r="BK461" s="73"/>
+      <c r="BL461" s="73"/>
+      <c r="BM461" s="73"/>
+      <c r="BN461" s="73"/>
+      <c r="BO461" s="73"/>
+      <c r="BP461" s="73"/>
+      <c r="BQ461" s="73"/>
+      <c r="BR461" s="73"/>
+      <c r="BS461" s="73"/>
+      <c r="BT461" s="73"/>
+      <c r="BU461" s="73"/>
+      <c r="BV461" s="73"/>
+      <c r="BW461" s="73"/>
+      <c r="BX461" s="73"/>
+      <c r="BY461" s="73"/>
+      <c r="BZ461" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA461" s="7"/>
+      <c r="CB461" s="7"/>
+      <c r="CC461" s="7"/>
+    </row>
+    <row r="462" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A462" s="5">
+        <v>18</v>
+      </c>
+      <c r="B462" s="7"/>
+      <c r="C462" s="7"/>
+      <c r="D462" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E462" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F462" s="11"/>
+      <c r="G462" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H462" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I462" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J462" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K462" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L462" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M462" s="43"/>
+      <c r="N462" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O462" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P462" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q462" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R462" s="43"/>
+      <c r="S462" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T462" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U462" s="13"/>
+      <c r="V462" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W462" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X462" s="13"/>
+      <c r="Y462" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z462" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA462" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB462" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC462" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD462" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE462" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF462" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG462" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH462" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI462" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ462" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK462" s="43"/>
+      <c r="AL462" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM462" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN462" s="43"/>
+      <c r="AO462" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP462" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ462" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR462" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS462" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT462" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU462" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV462" s="11"/>
+      <c r="AW462" s="11"/>
+      <c r="AX462" s="73"/>
+      <c r="AY462" s="73"/>
+      <c r="AZ462" s="73"/>
+      <c r="BA462" s="73"/>
+      <c r="BB462" s="73"/>
+      <c r="BC462" s="73"/>
+      <c r="BD462" s="73"/>
+      <c r="BE462" s="73"/>
+      <c r="BF462" s="73"/>
+      <c r="BG462" s="73"/>
+      <c r="BH462" s="74"/>
+      <c r="BI462" s="74"/>
+      <c r="BJ462" s="74"/>
+      <c r="BK462" s="73"/>
+      <c r="BL462" s="73"/>
+      <c r="BM462" s="73"/>
+      <c r="BN462" s="73"/>
+      <c r="BO462" s="73"/>
+      <c r="BP462" s="73"/>
+      <c r="BQ462" s="73"/>
+      <c r="BR462" s="73"/>
+      <c r="BS462" s="73"/>
+      <c r="BT462" s="73"/>
+      <c r="BU462" s="73"/>
+      <c r="BV462" s="73"/>
+      <c r="BW462" s="73"/>
+      <c r="BX462" s="73"/>
+      <c r="BY462" s="73"/>
+      <c r="BZ462" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA462" s="7"/>
+      <c r="CB462" s="7"/>
+      <c r="CC462" s="7"/>
+    </row>
+    <row r="463" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A463" s="5">
+        <v>19</v>
+      </c>
+      <c r="B463" s="7"/>
+      <c r="C463" s="7"/>
+      <c r="D463" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E463" s="11"/>
+      <c r="F463" s="11"/>
+      <c r="G463" s="11"/>
+      <c r="H463" s="11"/>
+      <c r="I463" s="11"/>
+      <c r="J463" s="11"/>
+      <c r="K463" s="11"/>
+      <c r="L463" s="11"/>
+      <c r="M463" s="11"/>
+      <c r="N463" s="11"/>
+      <c r="O463" s="11"/>
+      <c r="P463" s="11"/>
+      <c r="Q463" s="11"/>
+      <c r="R463" s="11"/>
+      <c r="S463" s="11"/>
+      <c r="T463" s="11"/>
+      <c r="U463" s="11"/>
+      <c r="V463" s="11"/>
+      <c r="W463" s="11"/>
+      <c r="X463" s="11"/>
+      <c r="Y463" s="11"/>
+      <c r="Z463" s="11"/>
+      <c r="AA463" s="11"/>
+      <c r="AB463" s="11"/>
+      <c r="AC463" s="11"/>
+      <c r="AD463" s="11"/>
+      <c r="AE463" s="11"/>
+      <c r="AF463" s="11"/>
+      <c r="AG463" s="11"/>
+      <c r="AH463" s="11"/>
+      <c r="AI463" s="11"/>
+      <c r="AJ463" s="11"/>
+      <c r="AK463" s="11"/>
+      <c r="AL463" s="11"/>
+      <c r="AM463" s="11"/>
+      <c r="AN463" s="11"/>
+      <c r="AO463" s="11"/>
+      <c r="AP463" s="11"/>
+      <c r="AQ463" s="11"/>
+      <c r="AR463" s="11"/>
+      <c r="AS463" s="11"/>
+      <c r="AT463" s="11"/>
+      <c r="AU463" s="11"/>
+      <c r="AV463" s="11"/>
+      <c r="AW463" s="11"/>
+      <c r="AX463" s="73"/>
+      <c r="AY463" s="73"/>
+      <c r="AZ463" s="73"/>
+      <c r="BA463" s="73"/>
+      <c r="BB463" s="73"/>
+      <c r="BC463" s="73"/>
+      <c r="BD463" s="73"/>
+      <c r="BE463" s="73"/>
+      <c r="BF463" s="73"/>
+      <c r="BG463" s="73"/>
+      <c r="BH463" s="74"/>
+      <c r="BI463" s="74"/>
+      <c r="BJ463" s="74"/>
+      <c r="BK463" s="73"/>
+      <c r="BL463" s="73"/>
+      <c r="BM463" s="73"/>
+      <c r="BN463" s="73"/>
+      <c r="BO463" s="73"/>
+      <c r="BP463" s="73"/>
+      <c r="BQ463" s="73"/>
+      <c r="BR463" s="73"/>
+      <c r="BS463" s="73"/>
+      <c r="BT463" s="73"/>
+      <c r="BU463" s="73"/>
+      <c r="BV463" s="73"/>
+      <c r="BW463" s="73"/>
+      <c r="BX463" s="73"/>
+      <c r="BY463" s="73"/>
+      <c r="BZ463" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA463" s="7"/>
+      <c r="CB463" s="7"/>
+      <c r="CC463" s="7"/>
+    </row>
+    <row r="464" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A464" s="5">
+        <v>20</v>
+      </c>
+      <c r="B464" s="7"/>
+      <c r="C464" s="7"/>
+      <c r="D464" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E464" s="11"/>
+      <c r="F464" s="31"/>
+      <c r="G464" s="11"/>
+      <c r="H464" s="11"/>
+      <c r="I464" s="11"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="11"/>
+      <c r="L464" s="11"/>
+      <c r="M464" s="11"/>
+      <c r="N464" s="11"/>
+      <c r="O464" s="11"/>
+      <c r="P464" s="11"/>
+      <c r="Q464" s="11"/>
+      <c r="R464" s="11"/>
+      <c r="S464" s="11"/>
+      <c r="T464" s="11"/>
+      <c r="U464" s="11"/>
+      <c r="V464" s="11"/>
+      <c r="W464" s="11"/>
+      <c r="X464" s="11"/>
+      <c r="Y464" s="11"/>
+      <c r="Z464" s="11"/>
+      <c r="AA464" s="11"/>
+      <c r="AB464" s="11"/>
+      <c r="AC464" s="11"/>
+      <c r="AD464" s="11"/>
+      <c r="AE464" s="11"/>
+      <c r="AF464" s="11"/>
+      <c r="AG464" s="11"/>
+      <c r="AH464" s="20"/>
+      <c r="AI464" s="20"/>
+      <c r="AJ464" s="20"/>
+      <c r="AK464" s="11"/>
+      <c r="AL464" s="11"/>
+      <c r="AM464" s="11"/>
+      <c r="AN464" s="11"/>
+      <c r="AO464" s="11"/>
+      <c r="AP464" s="11"/>
+      <c r="AQ464" s="11"/>
+      <c r="AR464" s="11"/>
+      <c r="AS464" s="11"/>
+      <c r="AT464" s="11"/>
+      <c r="AU464" s="11"/>
+      <c r="AV464" s="11"/>
+      <c r="AW464" s="11"/>
+      <c r="AX464" s="73"/>
+      <c r="AY464" s="73"/>
+      <c r="AZ464" s="73"/>
+      <c r="BA464" s="73"/>
+      <c r="BB464" s="73"/>
+      <c r="BC464" s="73"/>
+      <c r="BD464" s="73"/>
+      <c r="BE464" s="73"/>
+      <c r="BF464" s="73"/>
+      <c r="BG464" s="73"/>
+      <c r="BH464" s="73"/>
+      <c r="BI464" s="73"/>
+      <c r="BJ464" s="73"/>
+      <c r="BK464" s="73"/>
+      <c r="BL464" s="73"/>
+      <c r="BM464" s="73"/>
+      <c r="BN464" s="73"/>
+      <c r="BO464" s="73"/>
+      <c r="BP464" s="73"/>
+      <c r="BQ464" s="73"/>
+      <c r="BR464" s="73"/>
+      <c r="BS464" s="73"/>
+      <c r="BT464" s="73"/>
+      <c r="BU464" s="73"/>
+      <c r="BV464" s="73"/>
+      <c r="BW464" s="73"/>
+      <c r="BX464" s="73"/>
+      <c r="BY464" s="73"/>
+      <c r="BZ464" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA464" s="7"/>
+      <c r="CB464" s="7"/>
+      <c r="CC464" s="7"/>
+    </row>
+    <row r="465" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A465" s="5">
+        <v>21</v>
+      </c>
+      <c r="B465" s="7"/>
+      <c r="C465" s="7"/>
+      <c r="D465" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E465" s="11"/>
+      <c r="F465" s="11"/>
+      <c r="G465" s="11"/>
+      <c r="H465" s="11"/>
+      <c r="I465" s="11"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="11"/>
+      <c r="L465" s="11"/>
+      <c r="M465" s="11"/>
+      <c r="N465" s="11"/>
+      <c r="O465" s="11"/>
+      <c r="P465" s="11"/>
+      <c r="Q465" s="11"/>
+      <c r="R465" s="11"/>
+      <c r="S465" s="11"/>
+      <c r="T465" s="11"/>
+      <c r="U465" s="11"/>
+      <c r="V465" s="11"/>
+      <c r="W465" s="11"/>
+      <c r="X465" s="11"/>
+      <c r="Y465" s="11"/>
+      <c r="Z465" s="11"/>
+      <c r="AA465" s="11"/>
+      <c r="AB465" s="11"/>
+      <c r="AC465" s="11"/>
+      <c r="AD465" s="11"/>
+      <c r="AE465" s="11"/>
+      <c r="AF465" s="11"/>
+      <c r="AG465" s="11"/>
+      <c r="AH465" s="11"/>
+      <c r="AI465" s="11"/>
+      <c r="AJ465" s="11"/>
+      <c r="AK465" s="11"/>
+      <c r="AL465" s="11"/>
+      <c r="AM465" s="11"/>
+      <c r="AN465" s="11"/>
+      <c r="AO465" s="11"/>
+      <c r="AP465" s="11"/>
+      <c r="AQ465" s="11"/>
+      <c r="AR465" s="11"/>
+      <c r="AS465" s="11"/>
+      <c r="AT465" s="11"/>
+      <c r="AU465" s="11"/>
+      <c r="AV465" s="11"/>
+      <c r="AW465" s="11"/>
+      <c r="AX465" s="73"/>
+      <c r="AY465" s="73"/>
+      <c r="AZ465" s="73"/>
+      <c r="BA465" s="73"/>
+      <c r="BB465" s="73"/>
+      <c r="BC465" s="73"/>
+      <c r="BD465" s="73"/>
+      <c r="BE465" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF465" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG465" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH465" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI465" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ465" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK465" s="73"/>
+      <c r="BL465" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM465" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN465" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO465" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP465" s="73"/>
+      <c r="BQ465" s="73">
+        <v>2</v>
+      </c>
+      <c r="BR465" s="73">
+        <v>8</v>
+      </c>
+      <c r="BS465" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT465" s="73">
+        <v>1</v>
+      </c>
+      <c r="BU465" s="73">
+        <v>8</v>
+      </c>
+      <c r="BV465" s="73"/>
+      <c r="BW465" s="73"/>
+      <c r="BX465" s="73"/>
+      <c r="BY465" s="73"/>
+      <c r="BZ465" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA465" s="7"/>
+      <c r="CB465" s="7"/>
+      <c r="CC465" s="7"/>
+    </row>
+    <row r="466" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A466" s="5">
+        <v>22</v>
+      </c>
+      <c r="B466" s="7"/>
+      <c r="C466" s="7"/>
+      <c r="D466" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY466" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ466" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA466" s="7"/>
+      <c r="CB466" s="7"/>
+      <c r="CC466" s="7"/>
+    </row>
+    <row r="467" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A467" s="5">
+        <v>23</v>
+      </c>
+      <c r="B467" s="7"/>
+      <c r="C467" s="7"/>
+      <c r="D467" s="7"/>
+      <c r="E467" s="7"/>
+      <c r="F467" s="7"/>
+      <c r="G467" s="7"/>
+      <c r="H467" s="7"/>
+      <c r="I467" s="7"/>
+      <c r="J467" s="7"/>
+      <c r="K467" s="7"/>
+      <c r="L467" s="7"/>
+      <c r="M467" s="7"/>
+      <c r="N467" s="7"/>
+      <c r="O467" s="11"/>
+      <c r="P467" s="7"/>
+      <c r="Q467" s="7"/>
+      <c r="R467" s="7"/>
+      <c r="S467" s="7"/>
+      <c r="T467" s="7"/>
+      <c r="U467" s="7"/>
+      <c r="V467" s="7"/>
+      <c r="W467" s="7"/>
+      <c r="X467" s="7"/>
+      <c r="Y467" s="7"/>
+      <c r="Z467" s="7"/>
+      <c r="AA467" s="7"/>
+      <c r="AB467" s="7"/>
+      <c r="AC467" s="7"/>
+      <c r="AD467" s="7"/>
+      <c r="AE467" s="7"/>
+      <c r="AF467" s="7"/>
+      <c r="AG467" s="7"/>
+      <c r="AH467" s="7"/>
+      <c r="AI467" s="7"/>
+      <c r="AJ467" s="7"/>
+      <c r="AK467" s="7"/>
+      <c r="AL467" s="7"/>
+      <c r="AM467" s="7"/>
+      <c r="AN467" s="7"/>
+      <c r="AO467" s="7"/>
+      <c r="AP467" s="7"/>
+      <c r="AQ467" s="7"/>
+      <c r="AR467" s="7"/>
+      <c r="AS467" s="7"/>
+      <c r="AT467" s="7"/>
+      <c r="AU467" s="7"/>
+      <c r="AV467" s="7"/>
+      <c r="AW467" s="7"/>
+      <c r="AX467" s="16"/>
+      <c r="AY467" s="16"/>
+      <c r="AZ467" s="16"/>
+      <c r="BA467" s="16"/>
+      <c r="BB467" s="16"/>
+      <c r="BC467" s="16"/>
+      <c r="BD467" s="16"/>
+      <c r="BE467" s="16"/>
+      <c r="BF467" s="16"/>
+      <c r="BG467" s="16"/>
+      <c r="BH467" s="16"/>
+      <c r="BI467" s="16"/>
+      <c r="BJ467" s="16"/>
+      <c r="BK467" s="16"/>
+      <c r="BL467" s="16"/>
+      <c r="BM467" s="16"/>
+      <c r="BN467" s="16"/>
+      <c r="BO467" s="16"/>
+      <c r="BP467" s="16"/>
+      <c r="BQ467" s="16"/>
+      <c r="BR467" s="16"/>
+      <c r="BS467" s="16"/>
+      <c r="BT467" s="16"/>
+      <c r="BU467" s="16"/>
+      <c r="BV467" s="16"/>
+      <c r="BW467" s="16"/>
+      <c r="BX467" s="16"/>
+      <c r="BY467" s="16"/>
+      <c r="BZ467" s="7"/>
+      <c r="CA467" s="7"/>
+      <c r="CB467" s="7"/>
+      <c r="CC467" s="7"/>
+    </row>
+    <row r="468" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A468" s="5">
+        <v>24</v>
+      </c>
+      <c r="B468" s="7"/>
+      <c r="C468" s="7"/>
+      <c r="D468" s="7"/>
+      <c r="E468" s="7"/>
+      <c r="F468" s="7"/>
+      <c r="G468" s="7"/>
+      <c r="H468" s="7"/>
+      <c r="I468" s="7"/>
+      <c r="J468" s="7"/>
+      <c r="K468" s="7"/>
+      <c r="L468" s="7"/>
+      <c r="M468" s="7"/>
+      <c r="N468" s="7"/>
+      <c r="O468" s="7"/>
+      <c r="P468" s="7"/>
+      <c r="Q468" s="7"/>
+      <c r="R468" s="7"/>
+      <c r="S468" s="7"/>
+      <c r="T468" s="7"/>
+      <c r="U468" s="7"/>
+      <c r="V468" s="7"/>
+      <c r="W468" s="7"/>
+      <c r="X468" s="7"/>
+      <c r="Y468" s="7"/>
+      <c r="Z468" s="7"/>
+      <c r="AA468" s="7"/>
+      <c r="AB468" s="7"/>
+      <c r="AC468" s="7"/>
+      <c r="AD468" s="7"/>
+      <c r="AE468" s="7"/>
+      <c r="AF468" s="7"/>
+      <c r="AG468" s="7"/>
+      <c r="AH468" s="7"/>
+      <c r="AI468" s="7"/>
+      <c r="AJ468" s="7"/>
+      <c r="AK468" s="7"/>
+      <c r="AL468" s="7"/>
+      <c r="AM468" s="7"/>
+      <c r="AN468" s="7"/>
+      <c r="AO468" s="7"/>
+      <c r="AP468" s="7"/>
+      <c r="AQ468" s="7"/>
+      <c r="AR468" s="7"/>
+      <c r="AS468" s="7"/>
+      <c r="AT468" s="7"/>
+      <c r="AU468" s="7"/>
+      <c r="AV468" s="7"/>
+      <c r="AW468" s="14"/>
+      <c r="AX468" s="7"/>
+      <c r="AY468" s="7"/>
+      <c r="AZ468" s="7"/>
+      <c r="BA468" s="7"/>
+      <c r="BB468" s="7"/>
+      <c r="BC468" s="7"/>
+      <c r="BD468" s="7"/>
+      <c r="BE468" s="7"/>
+      <c r="BF468" s="7"/>
+      <c r="BG468" s="7"/>
+      <c r="BH468" s="7"/>
+      <c r="BI468" s="7"/>
+      <c r="BJ468" s="7"/>
+      <c r="BK468" s="7"/>
+      <c r="BL468" s="7"/>
+      <c r="BM468" s="7"/>
+      <c r="BN468" s="7"/>
+      <c r="BO468" s="7"/>
+      <c r="BP468" s="7"/>
+      <c r="BQ468" s="7"/>
+      <c r="BR468" s="7"/>
+      <c r="BS468" s="7"/>
+      <c r="BT468" s="7"/>
+      <c r="BU468" s="7"/>
+      <c r="BV468" s="7"/>
+      <c r="BW468" s="7"/>
+      <c r="BX468" s="7"/>
+      <c r="BY468" s="7"/>
+      <c r="BZ468" s="15"/>
+      <c r="CA468" s="7"/>
+      <c r="CB468" s="7"/>
+      <c r="CC468" s="7"/>
+    </row>
+    <row r="469" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A469" s="92"/>
+      <c r="C469" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX469" s="94"/>
+      <c r="AY469" s="94"/>
+      <c r="AZ469" s="94"/>
+      <c r="BA469" s="94"/>
+      <c r="BB469" s="94"/>
+      <c r="BC469" s="94"/>
+      <c r="BD469" s="94"/>
+      <c r="BE469" s="94"/>
+      <c r="BF469" s="94"/>
+      <c r="BG469" s="94"/>
+      <c r="BH469" s="94"/>
+      <c r="BI469" s="94"/>
+      <c r="BJ469" s="94"/>
+      <c r="BK469" s="94"/>
+      <c r="BL469" s="94"/>
+      <c r="BM469" s="94"/>
+      <c r="BN469" s="94"/>
+      <c r="BO469" s="94"/>
+      <c r="BP469" s="94"/>
+      <c r="BQ469" s="94"/>
+      <c r="BR469" s="94"/>
+      <c r="BS469" s="94"/>
+      <c r="BT469" s="94"/>
+      <c r="BU469" s="94"/>
+      <c r="BV469" s="94"/>
+      <c r="BW469" s="94"/>
+      <c r="BX469" s="94"/>
+      <c r="BY469" s="94"/>
+    </row>
+    <row r="470" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="AX470" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC470" s="94"/>
+      <c r="BD470" s="94"/>
+      <c r="BE470" s="94"/>
+      <c r="BF470" s="94"/>
+      <c r="BG470" s="94"/>
+      <c r="BH470" s="94"/>
+      <c r="BI470" s="94"/>
+      <c r="BJ470" s="94"/>
+      <c r="BK470" s="94"/>
+      <c r="BL470" s="94"/>
+      <c r="BM470" s="94"/>
+      <c r="BN470" s="94"/>
+      <c r="BO470" s="94"/>
+      <c r="BP470" s="94"/>
+      <c r="BQ470" s="94"/>
+      <c r="BR470" s="94"/>
+      <c r="BS470" s="94"/>
+      <c r="BT470" s="94"/>
+      <c r="BU470" s="94"/>
+      <c r="BV470" s="94"/>
+      <c r="BW470" s="94"/>
+      <c r="BX470" s="94"/>
+      <c r="BY470" s="94"/>
+    </row>
+    <row r="471" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A471" s="97"/>
+      <c r="B471" s="93"/>
+      <c r="C471" s="98"/>
+      <c r="D471" s="93"/>
+      <c r="E471" s="93"/>
+      <c r="F471" s="93"/>
+      <c r="G471" s="93"/>
+      <c r="H471" s="93"/>
+      <c r="I471" s="93"/>
+      <c r="J471" s="93"/>
+      <c r="K471" s="93"/>
+      <c r="L471" s="93"/>
+      <c r="M471" s="93"/>
+      <c r="N471" s="93"/>
+      <c r="O471" s="93"/>
+      <c r="P471" s="93"/>
+      <c r="Q471" s="93"/>
+      <c r="R471" s="93"/>
+      <c r="S471" s="93"/>
+      <c r="T471" s="93"/>
+      <c r="U471" s="93"/>
+      <c r="V471" s="93"/>
+      <c r="W471" s="93"/>
+      <c r="X471" s="93"/>
+      <c r="Y471" s="93"/>
+      <c r="Z471" s="93"/>
+      <c r="AA471" s="93"/>
+      <c r="AB471" s="93"/>
+      <c r="AC471" s="93"/>
+      <c r="AD471" s="93"/>
+      <c r="AE471" s="93"/>
+      <c r="AF471" s="93"/>
+      <c r="AG471" s="93"/>
+      <c r="AH471" s="93"/>
+      <c r="AI471" s="93"/>
+      <c r="AJ471" s="93"/>
+      <c r="AK471" s="93"/>
+      <c r="AL471" s="93"/>
+      <c r="AM471" s="93"/>
+      <c r="AN471" s="93"/>
+      <c r="AO471" s="93"/>
+      <c r="AP471" s="93"/>
+      <c r="AQ471" s="93"/>
+      <c r="AR471" s="93"/>
+      <c r="AS471" s="93"/>
+      <c r="AT471" s="93"/>
+      <c r="AU471" s="93"/>
+      <c r="AV471" s="93"/>
+      <c r="AW471" s="93"/>
+      <c r="AX471" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY471" s="96"/>
+      <c r="AZ471" s="96"/>
+      <c r="BA471" s="96"/>
+      <c r="BB471" s="96"/>
+      <c r="BC471" s="96"/>
+      <c r="BD471" s="96"/>
+      <c r="BE471" s="96"/>
+      <c r="BF471" s="96"/>
+      <c r="BG471" s="96"/>
+      <c r="BH471" s="96"/>
+      <c r="BI471" s="96"/>
+      <c r="BJ471" s="96"/>
+      <c r="BK471" s="96"/>
+      <c r="BL471" s="96"/>
+      <c r="BM471" s="96"/>
+      <c r="BN471" s="96"/>
+      <c r="BO471" s="96"/>
+      <c r="BP471" s="96"/>
+      <c r="BQ471" s="96"/>
+      <c r="BR471" s="96"/>
+      <c r="BS471" s="96"/>
+      <c r="BT471" s="96"/>
+      <c r="BU471" s="96"/>
+      <c r="BV471" s="96"/>
+      <c r="BW471" s="96"/>
+      <c r="BX471" s="96"/>
+      <c r="BY471" s="96"/>
+    </row>
+    <row r="472" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A472" s="97"/>
+      <c r="B472" s="93"/>
+      <c r="C472" s="98"/>
+      <c r="D472" s="93"/>
+      <c r="E472" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F472" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G472" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H472" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I472" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J472" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K472" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="L472" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="M472" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="N472" s="93"/>
+      <c r="O472" s="93"/>
+      <c r="P472" s="93"/>
+      <c r="Q472" s="93"/>
+      <c r="R472" s="93"/>
+      <c r="S472" s="93"/>
+      <c r="T472" s="93"/>
+      <c r="U472" s="93"/>
+      <c r="V472" s="93"/>
+      <c r="W472" s="93"/>
+      <c r="X472" s="93"/>
+      <c r="Y472" s="93"/>
+      <c r="Z472" s="93"/>
+      <c r="AA472" s="93"/>
+      <c r="AB472" s="93"/>
+      <c r="AC472" s="93"/>
+      <c r="AD472" s="93"/>
+      <c r="AE472" s="93"/>
+      <c r="AF472" s="93"/>
+      <c r="AG472" s="93"/>
+      <c r="AH472" s="93"/>
+      <c r="AI472" s="93"/>
+      <c r="AJ472" s="93"/>
+      <c r="AK472" s="93"/>
+      <c r="AL472" s="93"/>
+      <c r="AM472" s="93"/>
+      <c r="AN472" s="93"/>
+      <c r="AO472" s="93"/>
+      <c r="AP472" s="93"/>
+      <c r="AQ472" s="93"/>
+      <c r="AR472" s="93"/>
+      <c r="AS472" s="93"/>
+      <c r="AT472" s="93"/>
+      <c r="AU472" s="93"/>
+      <c r="AV472" s="93"/>
+      <c r="AW472" s="93"/>
+      <c r="AX472" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY472" s="73"/>
+      <c r="AZ472" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA472" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB472" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC472" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD472" s="73"/>
+      <c r="BE472" s="13">
+        <v>1</v>
+      </c>
+      <c r="BF472" s="13">
+        <v>9</v>
+      </c>
+      <c r="BG472" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH472" s="13">
+        <v>8</v>
+      </c>
+      <c r="BI472" s="73"/>
+      <c r="BJ472" s="73"/>
+      <c r="BK472" s="73"/>
+      <c r="BL472" s="73"/>
+      <c r="BM472" s="73"/>
+      <c r="BN472" s="73"/>
+      <c r="BO472" s="73"/>
+      <c r="BP472" s="73"/>
+      <c r="BQ472" s="73"/>
+      <c r="BR472" s="73"/>
+      <c r="BS472" s="73"/>
+      <c r="BT472" s="73"/>
+      <c r="BU472" s="73"/>
+      <c r="BV472" s="73"/>
+      <c r="BW472" s="73"/>
+      <c r="BX472" s="73"/>
+      <c r="BY472" s="73"/>
+    </row>
+    <row r="473" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A473" s="97"/>
+      <c r="B473" s="93"/>
+      <c r="C473" s="98"/>
+      <c r="D473" s="93"/>
+      <c r="E473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="G473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="H473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="I473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="J473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="K473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="L473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="M473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="N473" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="O473" s="93"/>
+      <c r="P473" s="93"/>
+      <c r="Q473" s="93"/>
+      <c r="R473" s="93"/>
+      <c r="S473" s="93"/>
+      <c r="T473" s="93"/>
+      <c r="U473" s="93"/>
+      <c r="V473" s="93"/>
+      <c r="W473" s="93"/>
+      <c r="X473" s="93"/>
+      <c r="Y473" s="93"/>
+      <c r="Z473" s="93"/>
+      <c r="AA473" s="93"/>
+      <c r="AB473" s="93"/>
+      <c r="AC473" s="93"/>
+      <c r="AD473" s="93"/>
+      <c r="AE473" s="93"/>
+      <c r="AF473" s="93"/>
+      <c r="AG473" s="93"/>
+      <c r="AH473" s="93"/>
+      <c r="AI473" s="93"/>
+      <c r="AJ473" s="93"/>
+      <c r="AK473" s="93"/>
+      <c r="AL473" s="93"/>
+      <c r="AM473" s="93"/>
+      <c r="AN473" s="93"/>
+      <c r="AO473" s="93"/>
+      <c r="AP473" s="93"/>
+      <c r="AQ473" s="93"/>
+      <c r="AR473" s="93"/>
+      <c r="AS473" s="93"/>
+      <c r="AT473" s="93"/>
+      <c r="AU473" s="93"/>
+      <c r="AV473" s="93"/>
+      <c r="AW473" s="93"/>
+      <c r="AX473" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY473" s="73"/>
+      <c r="AZ473" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA473" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB473" s="73"/>
+      <c r="BC473" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD473" s="73"/>
+      <c r="BE473" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF473" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG473" s="13">
+        <v>1</v>
+      </c>
+      <c r="BH473" s="73"/>
+      <c r="BI473" s="73"/>
+      <c r="BJ473" s="73"/>
+      <c r="BK473" s="73"/>
+      <c r="BL473" s="73"/>
+      <c r="BM473" s="73"/>
+      <c r="BN473" s="73"/>
+      <c r="BO473" s="73"/>
+      <c r="BP473" s="73"/>
+      <c r="BQ473" s="73"/>
+      <c r="BR473" s="73"/>
+      <c r="BS473" s="73"/>
+      <c r="BT473" s="73"/>
+      <c r="BU473" s="73"/>
+      <c r="BV473" s="73"/>
+      <c r="BW473" s="73"/>
+      <c r="BX473" s="73"/>
+      <c r="BY473" s="73"/>
+    </row>
+    <row r="474" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A474" s="97"/>
+      <c r="B474" s="93"/>
+      <c r="C474" s="98"/>
+      <c r="D474" s="93"/>
+      <c r="E474" s="93"/>
+      <c r="F474" s="93"/>
+      <c r="G474" s="93"/>
+      <c r="H474" s="93"/>
+      <c r="I474" s="93"/>
+      <c r="J474" s="93"/>
+      <c r="K474" s="93"/>
+      <c r="L474" s="93"/>
+      <c r="M474" s="93"/>
+      <c r="N474" s="93"/>
+      <c r="O474" s="93"/>
+      <c r="P474" s="93"/>
+      <c r="Q474" s="93"/>
+      <c r="R474" s="93"/>
+      <c r="S474" s="93"/>
+      <c r="T474" s="93"/>
+      <c r="U474" s="93"/>
+      <c r="V474" s="93"/>
+      <c r="W474" s="93"/>
+      <c r="X474" s="93"/>
+      <c r="Y474" s="93"/>
+      <c r="Z474" s="93"/>
+      <c r="AA474" s="93"/>
+      <c r="AB474" s="93"/>
+      <c r="AC474" s="93"/>
+      <c r="AD474" s="93"/>
+      <c r="AE474" s="93"/>
+      <c r="AF474" s="93"/>
+      <c r="AG474" s="93"/>
+      <c r="AH474" s="93"/>
+      <c r="AI474" s="93"/>
+      <c r="AJ474" s="93"/>
+      <c r="AK474" s="93"/>
+      <c r="AL474" s="93"/>
+      <c r="AM474" s="93"/>
+      <c r="AN474" s="93"/>
+      <c r="AO474" s="93"/>
+      <c r="AP474" s="93"/>
+      <c r="AQ474" s="93"/>
+      <c r="AR474" s="93"/>
+      <c r="AS474" s="93"/>
+      <c r="AT474" s="93"/>
+      <c r="AU474" s="93"/>
+      <c r="AV474" s="93"/>
+      <c r="AW474" s="93"/>
+      <c r="AX474" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY474" s="73"/>
+      <c r="AZ474" s="73"/>
+      <c r="BA474" s="73"/>
+      <c r="BB474" s="73"/>
+      <c r="BC474" s="73"/>
+      <c r="BD474" s="73"/>
+      <c r="BE474" s="73"/>
+      <c r="BF474" s="73"/>
+      <c r="BG474" s="73"/>
+      <c r="BH474" s="73"/>
+      <c r="BI474" s="74"/>
+      <c r="BJ474" s="74"/>
+      <c r="BK474" s="74"/>
+      <c r="BL474" s="73"/>
+      <c r="BM474" s="73"/>
+      <c r="BN474" s="73"/>
+      <c r="BO474" s="73"/>
+      <c r="BP474" s="73"/>
+      <c r="BQ474" s="73"/>
+      <c r="BR474" s="73"/>
+      <c r="BS474" s="73"/>
+      <c r="BT474" s="73"/>
+      <c r="BU474" s="73"/>
+      <c r="BV474" s="73"/>
+      <c r="BW474" s="73"/>
+      <c r="BX474" s="73"/>
+      <c r="BY474" s="73"/>
+    </row>
+    <row r="475" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A475" s="97"/>
+      <c r="B475" s="93"/>
+      <c r="C475" s="98"/>
+      <c r="D475" s="93"/>
+      <c r="E475" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F475" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G475" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H475" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I475" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="J475" s="93"/>
+      <c r="K475" s="93">
+        <v>1</v>
+      </c>
+      <c r="L475" s="93"/>
+      <c r="M475" s="93"/>
+      <c r="N475" s="93"/>
+      <c r="O475" s="93"/>
+      <c r="P475" s="93"/>
+      <c r="Q475" s="93"/>
+      <c r="R475" s="93"/>
+      <c r="S475" s="93"/>
+      <c r="T475" s="93"/>
+      <c r="U475" s="93"/>
+      <c r="V475" s="93"/>
+      <c r="W475" s="93"/>
+      <c r="X475" s="93"/>
+      <c r="Y475" s="93"/>
+      <c r="Z475" s="93"/>
+      <c r="AA475" s="93"/>
+      <c r="AB475" s="93"/>
+      <c r="AC475" s="93"/>
+      <c r="AD475" s="93"/>
+      <c r="AE475" s="93"/>
+      <c r="AF475" s="93"/>
+      <c r="AG475" s="93"/>
+      <c r="AH475" s="93"/>
+      <c r="AI475" s="93"/>
+      <c r="AJ475" s="93"/>
+      <c r="AK475" s="93"/>
+      <c r="AL475" s="93"/>
+      <c r="AM475" s="93"/>
+      <c r="AN475" s="93"/>
+      <c r="AO475" s="93"/>
+      <c r="AP475" s="93"/>
+      <c r="AQ475" s="93"/>
+      <c r="AR475" s="93"/>
+      <c r="AS475" s="93"/>
+      <c r="AT475" s="93"/>
+      <c r="AU475" s="93"/>
+      <c r="AV475" s="93"/>
+      <c r="AW475" s="93"/>
+      <c r="AX475" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY475" s="73"/>
+      <c r="AZ475" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA475" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB475" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC475" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD475" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE475" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF475" s="73"/>
+      <c r="BG475" s="73"/>
+      <c r="BH475" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI475" s="73"/>
+      <c r="BJ475" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK475" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL475" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM475" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN475" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO475" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP475" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ475" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR475" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS475" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT475" s="73"/>
+      <c r="BU475" s="73"/>
+      <c r="BV475" s="73"/>
+      <c r="BW475" s="73"/>
+      <c r="BX475" s="73"/>
+      <c r="BY475" s="73"/>
+    </row>
+    <row r="476" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A476" s="97"/>
+      <c r="B476" s="93"/>
+      <c r="C476" s="98"/>
+      <c r="D476" s="93"/>
+      <c r="E476" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F476" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G476" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H476" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I476" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="J476" s="93"/>
+      <c r="K476" s="93">
+        <v>2</v>
+      </c>
+      <c r="L476" s="93"/>
+      <c r="M476" s="93"/>
+      <c r="N476" s="93"/>
+      <c r="O476" s="93"/>
+      <c r="P476" s="93"/>
+      <c r="Q476" s="93"/>
+      <c r="R476" s="93"/>
+      <c r="S476" s="93"/>
+      <c r="T476" s="93"/>
+      <c r="U476" s="93"/>
+      <c r="V476" s="93"/>
+      <c r="W476" s="93"/>
+      <c r="X476" s="93"/>
+      <c r="Y476" s="93"/>
+      <c r="Z476" s="93"/>
+      <c r="AA476" s="93"/>
+      <c r="AB476" s="93"/>
+      <c r="AC476" s="93"/>
+      <c r="AD476" s="93"/>
+      <c r="AE476" s="93"/>
+      <c r="AF476" s="93"/>
+      <c r="AG476" s="93"/>
+      <c r="AH476" s="93"/>
+      <c r="AI476" s="93"/>
+      <c r="AJ476" s="93"/>
+      <c r="AK476" s="93"/>
+      <c r="AL476" s="93"/>
+      <c r="AM476" s="93"/>
+      <c r="AN476" s="93"/>
+      <c r="AO476" s="93"/>
+      <c r="AP476" s="93"/>
+      <c r="AQ476" s="93"/>
+      <c r="AR476" s="93"/>
+      <c r="AS476" s="93"/>
+      <c r="AT476" s="93"/>
+      <c r="AU476" s="93"/>
+      <c r="AV476" s="93"/>
+      <c r="AW476" s="93"/>
+      <c r="AX476" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY476" s="73"/>
+      <c r="AZ476" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA476" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB476" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC476" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD476" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE476" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF476" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG476" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH476" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI476" s="73"/>
+      <c r="BJ476" s="73">
+        <v>1</v>
+      </c>
+      <c r="BK476" s="73">
+        <v>2</v>
+      </c>
+      <c r="BL476" s="73">
+        <v>0</v>
+      </c>
+      <c r="BM476" s="73"/>
+      <c r="BN476" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO476" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP476" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ476" s="73"/>
+      <c r="BR476" s="73"/>
+      <c r="BS476" s="73"/>
+      <c r="BT476" s="73"/>
+      <c r="BU476" s="73"/>
+      <c r="BV476" s="73"/>
+      <c r="BW476" s="73"/>
+      <c r="BX476" s="73"/>
+      <c r="BY476" s="73"/>
+    </row>
+    <row r="477" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A477" s="97"/>
+      <c r="B477" s="93"/>
+      <c r="C477" s="98"/>
+      <c r="D477" s="93"/>
+      <c r="E477" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F477" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G477" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H477" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I477" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="J477" s="93"/>
+      <c r="K477" s="93">
+        <v>3</v>
+      </c>
+      <c r="L477" s="93"/>
+      <c r="M477" s="93"/>
+      <c r="N477" s="93"/>
+      <c r="O477" s="93"/>
+      <c r="P477" s="93"/>
+      <c r="Q477" s="93"/>
+      <c r="R477" s="93"/>
+      <c r="S477" s="93"/>
+      <c r="T477" s="93"/>
+      <c r="U477" s="93"/>
+      <c r="V477" s="93"/>
+      <c r="W477" s="93"/>
+      <c r="X477" s="93"/>
+      <c r="Y477" s="93"/>
+      <c r="Z477" s="93"/>
+      <c r="AA477" s="93"/>
+      <c r="AB477" s="93"/>
+      <c r="AC477" s="93"/>
+      <c r="AD477" s="93"/>
+      <c r="AE477" s="93"/>
+      <c r="AF477" s="93"/>
+      <c r="AG477" s="93"/>
+      <c r="AH477" s="93"/>
+      <c r="AI477" s="93"/>
+      <c r="AJ477" s="93"/>
+      <c r="AK477" s="93"/>
+      <c r="AL477" s="93"/>
+      <c r="AM477" s="93"/>
+      <c r="AN477" s="93"/>
+      <c r="AO477" s="93"/>
+      <c r="AP477" s="93"/>
+      <c r="AQ477" s="93"/>
+      <c r="AR477" s="93"/>
+      <c r="AS477" s="93"/>
+      <c r="AT477" s="93"/>
+      <c r="AU477" s="93"/>
+      <c r="AV477" s="93"/>
+      <c r="AW477" s="93"/>
+      <c r="AX477" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY477" s="73"/>
+      <c r="AZ477" s="73"/>
+      <c r="BA477" s="73"/>
+      <c r="BB477" s="73"/>
+      <c r="BC477" s="73"/>
+      <c r="BD477" s="73"/>
+      <c r="BE477" s="73"/>
+      <c r="BF477" s="73"/>
+      <c r="BG477" s="73"/>
+      <c r="BH477" s="73"/>
+      <c r="BI477" s="73"/>
+      <c r="BJ477" s="73"/>
+      <c r="BK477" s="73"/>
+      <c r="BL477" s="73"/>
+      <c r="BM477" s="73"/>
+      <c r="BN477" s="73"/>
+      <c r="BO477" s="73"/>
+      <c r="BP477" s="73"/>
+      <c r="BQ477" s="73"/>
+      <c r="BR477" s="73"/>
+      <c r="BS477" s="73"/>
+      <c r="BT477" s="73"/>
+      <c r="BU477" s="73"/>
+      <c r="BV477" s="73"/>
+      <c r="BW477" s="73"/>
+      <c r="BX477" s="73"/>
+      <c r="BY477" s="73"/>
+    </row>
+    <row r="478" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A478" s="97"/>
+      <c r="B478" s="93"/>
+      <c r="C478" s="98"/>
+      <c r="D478" s="93"/>
+      <c r="E478" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F478" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G478" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H478" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I478" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="J478" s="93"/>
+      <c r="K478" s="93">
+        <v>4</v>
+      </c>
+      <c r="L478" s="93"/>
+      <c r="M478" s="93"/>
+      <c r="N478" s="93"/>
+      <c r="O478" s="93"/>
+      <c r="P478" s="93"/>
+      <c r="Q478" s="93"/>
+      <c r="R478" s="93"/>
+      <c r="S478" s="93"/>
+      <c r="T478" s="93"/>
+      <c r="U478" s="93"/>
+      <c r="V478" s="93"/>
+      <c r="W478" s="93"/>
+      <c r="X478" s="93"/>
+      <c r="Y478" s="93"/>
+      <c r="Z478" s="93"/>
+      <c r="AA478" s="93"/>
+      <c r="AB478" s="93"/>
+      <c r="AC478" s="93"/>
+      <c r="AD478" s="93"/>
+      <c r="AE478" s="93"/>
+      <c r="AF478" s="93"/>
+      <c r="AG478" s="93"/>
+      <c r="AH478" s="93"/>
+      <c r="AI478" s="93"/>
+      <c r="AJ478" s="93"/>
+      <c r="AK478" s="93"/>
+      <c r="AL478" s="93"/>
+      <c r="AM478" s="93"/>
+      <c r="AN478" s="93"/>
+      <c r="AO478" s="93"/>
+      <c r="AP478" s="93"/>
+      <c r="AQ478" s="93"/>
+      <c r="AR478" s="93"/>
+      <c r="AS478" s="93"/>
+      <c r="AT478" s="93"/>
+      <c r="AU478" s="93"/>
+      <c r="AV478" s="93"/>
+      <c r="AW478" s="93"/>
+      <c r="AX478" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY478" s="73"/>
+      <c r="AZ478" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA478" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB478" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC478" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD478" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE478" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF478" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG478" s="73"/>
+      <c r="BH478" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI478" s="13">
+        <v>9</v>
+      </c>
+      <c r="BJ478" s="13">
+        <v>9</v>
+      </c>
+      <c r="BK478" s="13">
+        <v>9</v>
+      </c>
+      <c r="BL478" s="13">
+        <v>9</v>
+      </c>
+      <c r="BM478" s="73"/>
+      <c r="BN478" s="73"/>
+      <c r="BO478" s="73"/>
+      <c r="BP478" s="73"/>
+      <c r="BQ478" s="73"/>
+      <c r="BR478" s="73"/>
+      <c r="BS478" s="73"/>
+      <c r="BT478" s="73"/>
+      <c r="BU478" s="73"/>
+      <c r="BV478" s="73"/>
+      <c r="BW478" s="73"/>
+      <c r="BX478" s="73"/>
+      <c r="BY478" s="73"/>
+    </row>
+    <row r="479" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A479" s="97"/>
+      <c r="B479" s="93"/>
+      <c r="C479" s="98"/>
+      <c r="D479" s="93"/>
+      <c r="E479" s="93"/>
+      <c r="F479" s="93"/>
+      <c r="G479" s="93"/>
+      <c r="H479" s="93"/>
+      <c r="I479" s="93"/>
+      <c r="J479" s="93"/>
+      <c r="K479" s="93"/>
+      <c r="L479" s="93"/>
+      <c r="M479" s="93"/>
+      <c r="N479" s="93"/>
+      <c r="O479" s="93"/>
+      <c r="P479" s="93"/>
+      <c r="Q479" s="93"/>
+      <c r="R479" s="93"/>
+      <c r="S479" s="93"/>
+      <c r="T479" s="93"/>
+      <c r="U479" s="93"/>
+      <c r="V479" s="93"/>
+      <c r="W479" s="93"/>
+      <c r="X479" s="93"/>
+      <c r="Y479" s="93"/>
+      <c r="Z479" s="93"/>
+      <c r="AA479" s="93"/>
+      <c r="AB479" s="93"/>
+      <c r="AC479" s="93"/>
+      <c r="AD479" s="93"/>
+      <c r="AE479" s="93"/>
+      <c r="AF479" s="93"/>
+      <c r="AG479" s="93"/>
+      <c r="AH479" s="93"/>
+      <c r="AI479" s="93"/>
+      <c r="AJ479" s="93"/>
+      <c r="AK479" s="93"/>
+      <c r="AL479" s="93"/>
+      <c r="AM479" s="93"/>
+      <c r="AN479" s="93"/>
+      <c r="AO479" s="93"/>
+      <c r="AP479" s="93"/>
+      <c r="AQ479" s="93"/>
+      <c r="AR479" s="93"/>
+      <c r="AS479" s="93"/>
+      <c r="AT479" s="93"/>
+      <c r="AU479" s="93"/>
+      <c r="AV479" s="93"/>
+      <c r="AW479" s="93"/>
+      <c r="AX479" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY479" s="73"/>
+      <c r="AZ479" s="73"/>
+      <c r="BA479" s="73"/>
+      <c r="BB479" s="73"/>
+      <c r="BC479" s="73"/>
+      <c r="BD479" s="73"/>
+      <c r="BE479" s="73"/>
+      <c r="BF479" s="73"/>
+      <c r="BG479" s="73"/>
+      <c r="BH479" s="73"/>
+      <c r="BI479" s="73"/>
+      <c r="BJ479" s="73"/>
+      <c r="BK479" s="73"/>
+      <c r="BL479" s="73"/>
+      <c r="BM479" s="73"/>
+      <c r="BN479" s="73"/>
+      <c r="BO479" s="73"/>
+      <c r="BP479" s="73"/>
+      <c r="BQ479" s="73"/>
+      <c r="BR479" s="73"/>
+      <c r="BS479" s="73"/>
+      <c r="BT479" s="73"/>
+      <c r="BU479" s="73"/>
+      <c r="BV479" s="73"/>
+      <c r="BW479" s="73"/>
+      <c r="BX479" s="73"/>
+      <c r="BY479" s="73"/>
+    </row>
+    <row r="480" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A480" s="97"/>
+      <c r="B480" s="93"/>
+      <c r="C480" s="98"/>
+      <c r="D480" s="93"/>
+      <c r="E480" s="93"/>
+      <c r="F480" s="93"/>
+      <c r="G480" s="93"/>
+      <c r="H480" s="93"/>
+      <c r="I480" s="93"/>
+      <c r="J480" s="93"/>
+      <c r="K480" s="93"/>
+      <c r="L480" s="93"/>
+      <c r="M480" s="93"/>
+      <c r="N480" s="93"/>
+      <c r="O480" s="93"/>
+      <c r="P480" s="93"/>
+      <c r="Q480" s="93"/>
+      <c r="R480" s="93"/>
+      <c r="S480" s="93"/>
+      <c r="T480" s="93"/>
+      <c r="U480" s="93"/>
+      <c r="V480" s="93"/>
+      <c r="W480" s="85"/>
+      <c r="X480" s="85"/>
+      <c r="Y480" s="85"/>
+      <c r="Z480" s="85"/>
+      <c r="AA480" s="85"/>
+      <c r="AB480" s="85"/>
+      <c r="AC480" s="93"/>
+      <c r="AD480" s="93"/>
+      <c r="AE480" s="93"/>
+      <c r="AF480" s="93"/>
+      <c r="AG480" s="93"/>
+      <c r="AH480" s="93"/>
+      <c r="AI480" s="93"/>
+      <c r="AJ480" s="93"/>
+      <c r="AK480" s="93"/>
+      <c r="AL480" s="93"/>
+      <c r="AM480" s="93"/>
+      <c r="AN480" s="93"/>
+      <c r="AO480" s="93"/>
+      <c r="AP480" s="93"/>
+      <c r="AQ480" s="93"/>
+      <c r="AR480" s="93"/>
+      <c r="AS480" s="93"/>
+      <c r="AT480" s="93"/>
+      <c r="AU480" s="93"/>
+      <c r="AV480" s="93"/>
+      <c r="AW480" s="93"/>
+      <c r="AX480" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY480" s="73"/>
+      <c r="AZ480" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA480" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB480" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC480" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD480" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE480" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF480" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG480" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH480" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI480" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ480" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK480" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL480" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM480" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN480" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO480" s="73"/>
+      <c r="BP480" s="13">
+        <v>2</v>
+      </c>
+      <c r="BQ480" s="13">
+        <v>0</v>
+      </c>
+      <c r="BR480" s="13">
+        <v>0</v>
+      </c>
+      <c r="BS480" s="73"/>
+      <c r="BT480" s="73"/>
+      <c r="BU480" s="73"/>
+      <c r="BV480" s="73"/>
+      <c r="BW480" s="73"/>
+      <c r="BX480" s="73"/>
+      <c r="BY480" s="73"/>
+    </row>
+    <row r="481" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="A481" s="97"/>
+      <c r="B481" s="93"/>
+      <c r="C481" s="98"/>
+      <c r="D481" s="93"/>
+      <c r="E481" s="93"/>
+      <c r="F481" s="93"/>
+      <c r="G481" s="93"/>
+      <c r="H481" s="93"/>
+      <c r="I481" s="93"/>
+      <c r="J481" s="93"/>
+      <c r="K481" s="93"/>
+      <c r="L481" s="93"/>
+      <c r="M481" s="93"/>
+      <c r="N481" s="93"/>
+      <c r="O481" s="93"/>
+      <c r="P481" s="93"/>
+      <c r="Q481" s="93"/>
+      <c r="R481" s="93"/>
+      <c r="S481" s="93"/>
+      <c r="T481" s="93"/>
+      <c r="U481" s="93"/>
+      <c r="V481" s="93"/>
+      <c r="W481" s="85"/>
+      <c r="X481" s="11"/>
+      <c r="Y481" s="11"/>
+      <c r="Z481" s="11"/>
+      <c r="AA481" s="11"/>
+      <c r="AB481" s="11"/>
+      <c r="AC481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN481" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO481" s="93"/>
+      <c r="AP481" s="93"/>
+      <c r="AQ481" s="93"/>
+      <c r="AR481" s="93"/>
+      <c r="AS481" s="93"/>
+      <c r="AT481" s="93"/>
+      <c r="AU481" s="93"/>
+      <c r="AV481" s="93"/>
+      <c r="AW481" s="93"/>
+      <c r="AX481" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY481" s="73"/>
+      <c r="AZ481" s="73"/>
+      <c r="BA481" s="73"/>
+      <c r="BB481" s="73"/>
+      <c r="BC481" s="73"/>
+      <c r="BD481" s="73"/>
+      <c r="BE481" s="73"/>
+      <c r="BF481" s="73"/>
+      <c r="BG481" s="73"/>
+      <c r="BH481" s="73"/>
+      <c r="BI481" s="73"/>
+      <c r="BJ481" s="73"/>
+      <c r="BK481" s="73"/>
+      <c r="BL481" s="73"/>
+      <c r="BM481" s="73"/>
+      <c r="BN481" s="73"/>
+      <c r="BO481" s="73"/>
+      <c r="BP481" s="73"/>
+      <c r="BQ481" s="73"/>
+      <c r="BR481" s="73"/>
+      <c r="BS481" s="73"/>
+      <c r="BT481" s="73"/>
+      <c r="BU481" s="73"/>
+      <c r="BV481" s="73"/>
+      <c r="BW481" s="73"/>
+      <c r="BX481" s="73"/>
+      <c r="BY481" s="73"/>
+    </row>
+    <row r="482" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="A482" s="97"/>
+      <c r="B482" s="93"/>
+      <c r="C482" s="98"/>
+      <c r="D482" s="93"/>
+      <c r="E482" s="93"/>
+      <c r="F482" s="93"/>
+      <c r="G482" s="93"/>
+      <c r="H482" s="93"/>
+      <c r="I482" s="93"/>
+      <c r="J482" s="93"/>
+      <c r="K482" s="93"/>
+      <c r="L482" s="93"/>
+      <c r="M482" s="93"/>
+      <c r="N482" s="93"/>
+      <c r="O482" s="93"/>
+      <c r="P482" s="93"/>
+      <c r="Q482" s="93"/>
+      <c r="R482" s="93"/>
+      <c r="S482" s="93"/>
+      <c r="T482" s="93"/>
+      <c r="U482" s="93"/>
+      <c r="V482" s="93"/>
+      <c r="W482" s="85"/>
+      <c r="X482" s="37"/>
+      <c r="Y482" s="37"/>
+      <c r="Z482" s="11"/>
+      <c r="AA482" s="11"/>
+      <c r="AB482" s="11"/>
+      <c r="AC482" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD482" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE482" s="10"/>
+      <c r="AF482" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG482" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH482" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI482" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ482" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK482" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL482" s="10"/>
+      <c r="AM482" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN482" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO482" s="93"/>
+      <c r="AP482" s="93"/>
+      <c r="AQ482" s="93"/>
+      <c r="AR482" s="93"/>
+      <c r="AS482" s="93"/>
+      <c r="AT482" s="93"/>
+      <c r="AU482" s="93"/>
+      <c r="AV482" s="93"/>
+      <c r="AW482" s="93"/>
+      <c r="AX482" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY482" s="73"/>
+      <c r="AZ482" s="73"/>
+      <c r="BA482" s="73"/>
+      <c r="BB482" s="73"/>
+      <c r="BC482" s="73"/>
+      <c r="BD482" s="73"/>
+      <c r="BE482" s="73"/>
+      <c r="BF482" s="73"/>
+      <c r="BG482" s="73"/>
+      <c r="BH482" s="73"/>
+      <c r="BI482" s="73"/>
+      <c r="BJ482" s="73"/>
+      <c r="BK482" s="73"/>
+      <c r="BL482" s="73"/>
+      <c r="BM482" s="73"/>
+      <c r="BN482" s="73"/>
+      <c r="BO482" s="73"/>
+      <c r="BP482" s="73"/>
+      <c r="BQ482" s="73"/>
+      <c r="BR482" s="73"/>
+      <c r="BS482" s="73"/>
+      <c r="BT482" s="73"/>
+      <c r="BU482" s="73"/>
+      <c r="BV482" s="73"/>
+      <c r="BW482" s="73"/>
+      <c r="BX482" s="73"/>
+      <c r="BY482" s="73"/>
+    </row>
+    <row r="483" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="A483" s="97"/>
+      <c r="B483" s="93"/>
+      <c r="C483" s="98"/>
+      <c r="D483" s="93"/>
+      <c r="E483" s="93"/>
+      <c r="F483" s="93"/>
+      <c r="G483" s="93"/>
+      <c r="H483" s="93"/>
+      <c r="I483" s="93"/>
+      <c r="J483" s="93"/>
+      <c r="K483" s="93"/>
+      <c r="L483" s="93"/>
+      <c r="M483" s="93"/>
+      <c r="N483" s="93"/>
+      <c r="O483" s="93"/>
+      <c r="P483" s="93"/>
+      <c r="Q483" s="93"/>
+      <c r="R483" s="93"/>
+      <c r="S483" s="93"/>
+      <c r="T483" s="93"/>
+      <c r="U483" s="93"/>
+      <c r="V483" s="93"/>
+      <c r="W483" s="85"/>
+      <c r="X483" s="11"/>
+      <c r="Y483" s="11"/>
+      <c r="Z483" s="11"/>
+      <c r="AA483" s="11"/>
+      <c r="AB483" s="11"/>
+      <c r="AC483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN483" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO483" s="93"/>
+      <c r="AP483" s="93"/>
+      <c r="AQ483" s="93"/>
+      <c r="AR483" s="93"/>
+      <c r="AS483" s="93"/>
+      <c r="AT483" s="93"/>
+      <c r="AU483" s="93"/>
+      <c r="AV483" s="93"/>
+      <c r="AW483" s="93"/>
+      <c r="AX483" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY483" s="73"/>
+      <c r="AZ483" s="73"/>
+      <c r="BA483" s="73"/>
+      <c r="BB483" s="73"/>
+      <c r="BC483" s="73"/>
+      <c r="BD483" s="73"/>
+      <c r="BE483" s="73"/>
+      <c r="BF483" s="73"/>
+      <c r="BG483" s="73"/>
+      <c r="BH483" s="73"/>
+      <c r="BI483" s="73"/>
+      <c r="BJ483" s="73"/>
+      <c r="BK483" s="73"/>
+      <c r="BL483" s="73"/>
+      <c r="BM483" s="73"/>
+      <c r="BN483" s="73"/>
+      <c r="BO483" s="73"/>
+      <c r="BP483" s="73"/>
+      <c r="BQ483" s="73"/>
+      <c r="BR483" s="73"/>
+      <c r="BS483" s="73"/>
+      <c r="BT483" s="73"/>
+      <c r="BU483" s="73"/>
+      <c r="BV483" s="73"/>
+      <c r="BW483" s="73"/>
+      <c r="BX483" s="73"/>
+      <c r="BY483" s="73"/>
+    </row>
+    <row r="484" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="A484" s="97"/>
+      <c r="B484" s="93"/>
+      <c r="C484" s="98"/>
+      <c r="D484" s="93"/>
+      <c r="E484" s="93"/>
+      <c r="F484" s="93"/>
+      <c r="G484" s="93"/>
+      <c r="H484" s="93"/>
+      <c r="I484" s="93"/>
+      <c r="J484" s="93"/>
+      <c r="K484" s="93"/>
+      <c r="L484" s="93"/>
+      <c r="M484" s="93"/>
+      <c r="N484" s="93"/>
+      <c r="O484" s="93"/>
+      <c r="P484" s="93"/>
+      <c r="Q484" s="93"/>
+      <c r="R484" s="93"/>
+      <c r="S484" s="93"/>
+      <c r="T484" s="93"/>
+      <c r="U484" s="93"/>
+      <c r="V484" s="93"/>
+      <c r="W484" s="85"/>
+      <c r="X484" s="85"/>
+      <c r="Y484" s="85"/>
+      <c r="Z484" s="85"/>
+      <c r="AA484" s="85"/>
+      <c r="AB484" s="85"/>
+      <c r="AC484" s="93"/>
+      <c r="AD484" s="93"/>
+      <c r="AE484" s="93"/>
+      <c r="AF484" s="93"/>
+      <c r="AG484" s="93"/>
+      <c r="AH484" s="93"/>
+      <c r="AI484" s="93"/>
+      <c r="AJ484" s="93"/>
+      <c r="AK484" s="93"/>
+      <c r="AL484" s="93"/>
+      <c r="AM484" s="93"/>
+      <c r="AN484" s="93"/>
+      <c r="AO484" s="93"/>
+      <c r="AP484" s="93"/>
+      <c r="AQ484" s="93"/>
+      <c r="AR484" s="93"/>
+      <c r="AS484" s="93"/>
+      <c r="AT484" s="93"/>
+      <c r="AU484" s="93"/>
+      <c r="AV484" s="93"/>
+      <c r="AW484" s="93"/>
+      <c r="AX484" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY484" s="73"/>
+      <c r="AZ484" s="73"/>
+      <c r="BA484" s="73"/>
+      <c r="BB484" s="73"/>
+      <c r="BC484" s="73"/>
+      <c r="BD484" s="73"/>
+      <c r="BE484" s="73"/>
+      <c r="BF484" s="73"/>
+      <c r="BG484" s="73"/>
+      <c r="BH484" s="74"/>
+      <c r="BI484" s="74"/>
+      <c r="BJ484" s="74"/>
+      <c r="BK484" s="73"/>
+      <c r="BL484" s="73"/>
+      <c r="BM484" s="73"/>
+      <c r="BN484" s="73"/>
+      <c r="BO484" s="73"/>
+      <c r="BP484" s="73"/>
+      <c r="BQ484" s="73"/>
+      <c r="BR484" s="73"/>
+      <c r="BS484" s="73"/>
+      <c r="BT484" s="73"/>
+      <c r="BU484" s="73"/>
+      <c r="BV484" s="73"/>
+      <c r="BW484" s="73"/>
+      <c r="BX484" s="73"/>
+      <c r="BY484" s="73"/>
+    </row>
+    <row r="485" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="A485" s="97"/>
+      <c r="B485" s="93"/>
+      <c r="C485" s="98"/>
+      <c r="D485" s="93"/>
+      <c r="E485" s="93"/>
+      <c r="F485" s="93"/>
+      <c r="G485" s="93"/>
+      <c r="H485" s="93"/>
+      <c r="I485" s="93"/>
+      <c r="J485" s="93"/>
+      <c r="K485" s="93"/>
+      <c r="L485" s="93"/>
+      <c r="M485" s="93"/>
+      <c r="N485" s="93"/>
+      <c r="O485" s="93"/>
+      <c r="P485" s="93"/>
+      <c r="Q485" s="93"/>
+      <c r="R485" s="93"/>
+      <c r="S485" s="93"/>
+      <c r="T485" s="93"/>
+      <c r="U485" s="93"/>
+      <c r="V485" s="93"/>
+      <c r="W485" s="85"/>
+      <c r="X485" s="85"/>
+      <c r="Y485" s="85"/>
+      <c r="Z485" s="85"/>
+      <c r="AA485" s="85"/>
+      <c r="AB485" s="85"/>
+      <c r="AC485" s="93"/>
+      <c r="AD485" s="93"/>
+      <c r="AE485" s="93"/>
+      <c r="AF485" s="93"/>
+      <c r="AG485" s="93"/>
+      <c r="AH485" s="93"/>
+      <c r="AI485" s="93"/>
+      <c r="AJ485" s="93"/>
+      <c r="AK485" s="93"/>
+      <c r="AL485" s="93"/>
+      <c r="AM485" s="93"/>
+      <c r="AN485" s="93"/>
+      <c r="AO485" s="93"/>
+      <c r="AP485" s="93"/>
+      <c r="AQ485" s="93"/>
+      <c r="AR485" s="93"/>
+      <c r="AS485" s="93"/>
+      <c r="AT485" s="93"/>
+      <c r="AU485" s="93"/>
+      <c r="AV485" s="93"/>
+      <c r="AW485" s="93"/>
+      <c r="AX485" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY485" s="73"/>
+      <c r="AZ485" s="73"/>
+      <c r="BA485" s="73"/>
+      <c r="BB485" s="73"/>
+      <c r="BC485" s="73"/>
+      <c r="BD485" s="73"/>
+      <c r="BE485" s="73"/>
+      <c r="BF485" s="73"/>
+      <c r="BG485" s="73"/>
+      <c r="BH485" s="74"/>
+      <c r="BI485" s="74"/>
+      <c r="BJ485" s="74"/>
+      <c r="BK485" s="73"/>
+      <c r="BL485" s="73"/>
+      <c r="BM485" s="73"/>
+      <c r="BN485" s="73"/>
+      <c r="BO485" s="73"/>
+      <c r="BP485" s="73"/>
+      <c r="BQ485" s="73"/>
+      <c r="BR485" s="73"/>
+      <c r="BS485" s="73"/>
+      <c r="BT485" s="73"/>
+      <c r="BU485" s="73"/>
+      <c r="BV485" s="73"/>
+      <c r="BW485" s="73"/>
+      <c r="BX485" s="73"/>
+      <c r="BY485" s="73"/>
+    </row>
+    <row r="486" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="A486" s="97"/>
+      <c r="B486" s="93"/>
+      <c r="C486" s="98"/>
+      <c r="D486" s="93"/>
+      <c r="E486" s="93"/>
+      <c r="F486" s="93"/>
+      <c r="G486" s="93"/>
+      <c r="H486" s="93"/>
+      <c r="I486" s="93"/>
+      <c r="J486" s="93"/>
+      <c r="K486" s="93"/>
+      <c r="L486" s="93"/>
+      <c r="M486" s="93"/>
+      <c r="N486" s="93"/>
+      <c r="O486" s="93"/>
+      <c r="P486" s="93"/>
+      <c r="Q486" s="93"/>
+      <c r="R486" s="93"/>
+      <c r="S486" s="93"/>
+      <c r="T486" s="93"/>
+      <c r="U486" s="93"/>
+      <c r="V486" s="93"/>
+      <c r="W486" s="93"/>
+      <c r="X486" s="93"/>
+      <c r="Y486" s="93"/>
+      <c r="Z486" s="93"/>
+      <c r="AA486" s="93"/>
+      <c r="AB486" s="93"/>
+      <c r="AC486" s="93"/>
+      <c r="AD486" s="93"/>
+      <c r="AE486" s="93"/>
+      <c r="AF486" s="93"/>
+      <c r="AG486" s="93"/>
+      <c r="AH486" s="93"/>
+      <c r="AI486" s="93"/>
+      <c r="AJ486" s="93"/>
+      <c r="AK486" s="93"/>
+      <c r="AL486" s="93"/>
+      <c r="AM486" s="93"/>
+      <c r="AN486" s="93"/>
+      <c r="AO486" s="93"/>
+      <c r="AP486" s="93"/>
+      <c r="AQ486" s="93"/>
+      <c r="AR486" s="93"/>
+      <c r="AS486" s="93"/>
+      <c r="AT486" s="93"/>
+      <c r="AU486" s="93"/>
+      <c r="AV486" s="93"/>
+      <c r="AW486" s="93"/>
+      <c r="AX486" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY486" s="73"/>
+      <c r="AZ486" s="73"/>
+      <c r="BA486" s="73"/>
+      <c r="BB486" s="73"/>
+      <c r="BC486" s="73"/>
+      <c r="BD486" s="73"/>
+      <c r="BE486" s="73"/>
+      <c r="BF486" s="73"/>
+      <c r="BG486" s="73"/>
+      <c r="BH486" s="73"/>
+      <c r="BI486" s="73"/>
+      <c r="BJ486" s="73"/>
+      <c r="BK486" s="73"/>
+      <c r="BL486" s="73"/>
+      <c r="BM486" s="73"/>
+      <c r="BN486" s="73"/>
+      <c r="BO486" s="73"/>
+      <c r="BP486" s="73"/>
+      <c r="BQ486" s="73"/>
+      <c r="BR486" s="73"/>
+      <c r="BS486" s="73"/>
+      <c r="BT486" s="73"/>
+      <c r="BU486" s="73"/>
+      <c r="BV486" s="73"/>
+      <c r="BW486" s="73"/>
+      <c r="BX486" s="73"/>
+      <c r="BY486" s="73"/>
+    </row>
+    <row r="487" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="A487" s="97"/>
+      <c r="B487" s="93"/>
+      <c r="C487" s="98"/>
+      <c r="D487" s="93"/>
+      <c r="E487" s="93"/>
+      <c r="F487" s="93"/>
+      <c r="G487" s="93"/>
+      <c r="H487" s="93"/>
+      <c r="I487" s="93"/>
+      <c r="J487" s="93"/>
+      <c r="K487" s="93"/>
+      <c r="L487" s="93"/>
+      <c r="M487" s="93"/>
+      <c r="N487" s="93"/>
+      <c r="O487" s="93"/>
+      <c r="P487" s="93"/>
+      <c r="Q487" s="93"/>
+      <c r="R487" s="93"/>
+      <c r="S487" s="93"/>
+      <c r="T487" s="93"/>
+      <c r="U487" s="93"/>
+      <c r="V487" s="93"/>
+      <c r="W487" s="93"/>
+      <c r="X487" s="93"/>
+      <c r="Y487" s="93"/>
+      <c r="Z487" s="93"/>
+      <c r="AA487" s="93"/>
+      <c r="AB487" s="93"/>
+      <c r="AC487" s="93"/>
+      <c r="AD487" s="93"/>
+      <c r="AE487" s="93"/>
+      <c r="AF487" s="93"/>
+      <c r="AG487" s="93"/>
+      <c r="AH487" s="93"/>
+      <c r="AI487" s="93"/>
+      <c r="AJ487" s="93"/>
+      <c r="AK487" s="93"/>
+      <c r="AL487" s="93"/>
+      <c r="AM487" s="93"/>
+      <c r="AN487" s="93"/>
+      <c r="AO487" s="93"/>
+      <c r="AP487" s="93"/>
+      <c r="AQ487" s="93"/>
+      <c r="AR487" s="93"/>
+      <c r="AS487" s="93"/>
+      <c r="AT487" s="93"/>
+      <c r="AU487" s="93"/>
+      <c r="AV487" s="93"/>
+      <c r="AW487" s="93"/>
+      <c r="AX487" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY487" s="73"/>
+      <c r="AZ487" s="73"/>
+      <c r="BA487" s="73"/>
+      <c r="BB487" s="73"/>
+      <c r="BC487" s="73"/>
+      <c r="BD487" s="73"/>
+      <c r="BE487" s="73"/>
+      <c r="BF487" s="73"/>
+      <c r="BG487" s="73"/>
+      <c r="BH487" s="73"/>
+      <c r="BI487" s="73"/>
+      <c r="BJ487" s="73"/>
+      <c r="BK487" s="73"/>
+      <c r="BL487" s="73"/>
+      <c r="BM487" s="73"/>
+      <c r="BN487" s="73"/>
+      <c r="BO487" s="73"/>
+      <c r="BP487" s="73"/>
+      <c r="BQ487" s="73"/>
+      <c r="BR487" s="73"/>
+      <c r="BS487" s="73"/>
+      <c r="BT487" s="73"/>
+      <c r="BU487" s="73"/>
+      <c r="BV487" s="73"/>
+      <c r="BW487" s="73"/>
+      <c r="BX487" s="73"/>
+      <c r="BY487" s="73"/>
+    </row>
+    <row r="488" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="B488" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX488" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
